--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -586,17 +586,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -902,14 +902,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="133.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -919,7 +919,7 @@
       <c r="B1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -991,7 +991,7 @@
       <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B12" t="s">
@@ -1417,7 +1417,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>49</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B17" t="s">
@@ -1449,13 +1449,13 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="8"/>
       <c r="B18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="8"/>
       <c r="B19" t="s">
         <v>57</v>
       </c>
@@ -1464,7 +1464,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="8"/>
       <c r="B20" t="s">
         <v>58</v>
       </c>
@@ -1473,13 +1473,13 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="8"/>
       <c r="B21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B22" t="s">
@@ -1487,37 +1487,37 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="8"/>
       <c r="B23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6"/>
+      <c r="A24" s="8"/>
       <c r="B24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="8"/>
       <c r="B25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="8"/>
       <c r="B26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="8"/>
       <c r="B27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="6"/>
+      <c r="A28" s="8"/>
       <c r="B28" t="s">
         <v>66</v>
       </c>
@@ -1528,7 +1528,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B30" t="s">
@@ -1539,43 +1539,43 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="6"/>
+      <c r="A31" s="8"/>
       <c r="B31" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="6"/>
+      <c r="A32" s="8"/>
       <c r="B32" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="8"/>
       <c r="B33" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="6"/>
+      <c r="A34" s="8"/>
       <c r="B34" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="6"/>
+      <c r="A35" s="8"/>
       <c r="B35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="6"/>
+      <c r="A36" s="8"/>
       <c r="B36" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B37" t="s">
@@ -1583,19 +1583,19 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="6"/>
+      <c r="A38" s="8"/>
       <c r="B38" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="6"/>
+      <c r="A39" s="8"/>
       <c r="B39" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B40" t="s">
@@ -1603,25 +1603,25 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="6"/>
+      <c r="A41" s="8"/>
       <c r="B41" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="6"/>
+      <c r="A42" s="8"/>
       <c r="B42" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="6"/>
+      <c r="A43" s="8"/>
       <c r="B43" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B44" t="s">
@@ -1629,7 +1629,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="6"/>
+      <c r="A45" s="8"/>
       <c r="B45" t="s">
         <v>86</v>
       </c>
@@ -1638,7 +1638,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="6"/>
+      <c r="A46" s="8"/>
       <c r="B46" t="s">
         <v>87</v>
       </c>
@@ -1659,7 +1659,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B50" t="s">
@@ -1667,13 +1667,13 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="6"/>
+      <c r="A51" s="8"/>
       <c r="B51" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="6"/>
+      <c r="A52" s="8"/>
       <c r="B52" t="s">
         <v>97</v>
       </c>
@@ -1689,7 +1689,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B55" t="s">
@@ -1697,13 +1697,13 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="6"/>
+      <c r="A56" s="8"/>
       <c r="B56" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B57" t="s">
@@ -1714,7 +1714,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="6"/>
+      <c r="A58" s="8"/>
       <c r="B58" t="s">
         <v>123</v>
       </c>
@@ -1723,7 +1723,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="6"/>
+      <c r="A59" s="8"/>
       <c r="B59" t="s">
         <v>124</v>
       </c>
@@ -1732,7 +1732,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B60" t="s">
@@ -1740,31 +1740,31 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="6"/>
+      <c r="A61" s="8"/>
       <c r="B61" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="6"/>
+      <c r="A62" s="8"/>
       <c r="B62" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="6"/>
+      <c r="A63" s="8"/>
       <c r="B63" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="6"/>
+      <c r="A64" s="8"/>
       <c r="B64" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="6"/>
+      <c r="A65" s="8"/>
       <c r="B65" t="s">
         <v>120</v>
       </c>
@@ -1775,7 +1775,7 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B67" t="s">
@@ -1783,55 +1783,55 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="7"/>
+      <c r="A68" s="9"/>
       <c r="B68" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="7"/>
+      <c r="A69" s="9"/>
       <c r="B69" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="7"/>
+      <c r="A70" s="9"/>
       <c r="B70" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="7"/>
+      <c r="A71" s="9"/>
       <c r="B71" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="7"/>
+      <c r="A72" s="9"/>
       <c r="B72" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="7"/>
+      <c r="A73" s="9"/>
       <c r="B73" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="7"/>
+      <c r="A74" s="9"/>
       <c r="B74" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="7"/>
+      <c r="A75" s="9"/>
       <c r="B75" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="7"/>
+      <c r="A76" s="9"/>
       <c r="B76" t="s">
         <v>104</v>
       </c>
@@ -1860,7 +1860,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="8" t="s">
         <v>128</v>
       </c>
       <c r="B81" t="s">
@@ -1868,49 +1868,49 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="6"/>
+      <c r="A82" s="8"/>
       <c r="B82" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="6"/>
+      <c r="A83" s="8"/>
       <c r="B83" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="6"/>
+      <c r="A84" s="8"/>
       <c r="B84" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="6"/>
+      <c r="A85" s="8"/>
       <c r="B85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="6"/>
+      <c r="A86" s="8"/>
       <c r="B86" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="6"/>
+      <c r="A87" s="8"/>
       <c r="B87" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="6"/>
+      <c r="A88" s="8"/>
       <c r="B88" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="6"/>
+      <c r="A89" s="8"/>
       <c r="B89" t="s">
         <v>152</v>
       </c>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="212">
   <si>
     <t>Cerebro - Need utility to create page dynamically with entries i give</t>
   </si>
@@ -23,30 +23,12 @@
     <t>What is PersistenceContext</t>
   </si>
   <si>
-    <t>Add Spring Security method calls to Cerebro</t>
-  </si>
-  <si>
-    <t>Aim - Junit implementation + Mockito + Powermock</t>
-  </si>
-  <si>
-    <t>Aim - Implement Logging using CustomizableTraceInterceptor</t>
-  </si>
-  <si>
-    <t>Aim - Implement Transaction using Spring</t>
-  </si>
-  <si>
-    <t>Aim - Implement Exception handling using Spring AOP - @AfterThrowing</t>
-  </si>
-  <si>
     <t>Update Cerebro with core java definitions</t>
   </si>
   <si>
     <t>Update Cerebro with all core java example</t>
   </si>
   <si>
-    <t>Spring security fundamentals</t>
-  </si>
-  <si>
     <t>Unit testing in java with junit</t>
   </si>
   <si>
@@ -95,24 +77,6 @@
     <t>Spring Transaction</t>
   </si>
   <si>
-    <t>Scala: Getting Started</t>
-  </si>
-  <si>
-    <t>Scala for Java Developers</t>
-  </si>
-  <si>
-    <t>Groovy Fundamentals</t>
-  </si>
-  <si>
-    <t>Apache Spark Fundamentals</t>
-  </si>
-  <si>
-    <t>Getting started with Apache Kafka</t>
-  </si>
-  <si>
-    <t>Introduction to OAuth2, OpenID Connect and JSON Web Tokens (JWT)</t>
-  </si>
-  <si>
     <t>Gradle Fundamentals [Course]</t>
   </si>
   <si>
@@ -479,9 +443,6 @@
     <t>Getting Started with Spring Data REST [Course]</t>
   </si>
   <si>
-    <t>RESTFul Services in Java using Jersey [Course]</t>
-  </si>
-  <si>
     <t>Building Asynchronous RESTful Services With Jersey [Course]</t>
   </si>
   <si>
@@ -507,13 +468,196 @@
   </si>
   <si>
     <t>Completed - Prepare Examples</t>
+  </si>
+  <si>
+    <t>Cloud Foundry for Developers [Course]</t>
+  </si>
+  <si>
+    <t>Using Google's Cloud For Developers - Google BigQuery [Course]</t>
+  </si>
+  <si>
+    <t>Docker and Containers: The Big Picture [Course]</t>
+  </si>
+  <si>
+    <t>Docker Deep Dive [Course]</t>
+  </si>
+  <si>
+    <t>XSLT 2.0 and 1.0 Foundations [Course]</t>
+  </si>
+  <si>
+    <t>What's New in XSLT 3.0: Part 1 [Course]</t>
+  </si>
+  <si>
+    <t>Learn Perl by Doing - Part 1 [Course]</t>
+  </si>
+  <si>
+    <t>Learn Perl by Doing - Part 2 [Course]</t>
+  </si>
+  <si>
+    <t>Learn Perl by Doing - Part 3 [Course]</t>
+  </si>
+  <si>
+    <t>Learn Perl by Doing - Part 4 [Course]</t>
+  </si>
+  <si>
+    <t>Cloud Foundry</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Perl</t>
+  </si>
+  <si>
+    <t>SQL Server Continuous Database Delivery with Flyway [Course]</t>
+  </si>
+  <si>
+    <t>Github clients</t>
+  </si>
+  <si>
+    <t>Github Desktop</t>
+  </si>
+  <si>
+    <t>SmartGit</t>
+  </si>
+  <si>
+    <t>Python Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>Python – Beyond the Basics [Course]</t>
+  </si>
+  <si>
+    <t>Scala: Getting Started [Course]</t>
+  </si>
+  <si>
+    <t>Scala for Java Developers [Course]</t>
+  </si>
+  <si>
+    <t>Tail Recursion</t>
+  </si>
+  <si>
+    <t>Practical CouchDB for Developers [Course]</t>
+  </si>
+  <si>
+    <t>Groovy Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>Algorithms and Data Structures</t>
+  </si>
+  <si>
+    <t>Spring Security Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>Introduction To Hibernate [Course]</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>RESTful Web Services</t>
+  </si>
+  <si>
+    <t>Half completed. Do revision till now. Reiterate video once again</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Reges</t>
+  </si>
+  <si>
+    <t>Whats new in java 8</t>
+  </si>
+  <si>
+    <t>Java 8</t>
+  </si>
+  <si>
+    <t>Analyzing Machine Data with Splunk [Course]</t>
+  </si>
+  <si>
+    <t>Apache Spark Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>Beginning Data Exploration and Analysis with Apache Spark [Course]</t>
+  </si>
+  <si>
+    <t>Getting Started with Apache Kafka [Course]</t>
+  </si>
+  <si>
+    <t>Introduction to OAuth2, OpenID Connect and JSON Web Tokens (JWT) [Course]</t>
+  </si>
+  <si>
+    <t>Getting Started With Jenkins Continuous Integration [Course]</t>
+  </si>
+  <si>
+    <t>Getting Started with Jenkins 2 [Course]</t>
+  </si>
+  <si>
+    <t>Scaling Java Applications Through Concurrency [Course]</t>
+  </si>
+  <si>
+    <t>An Introduction to Algorithmics [Course]</t>
+  </si>
+  <si>
+    <t>Introduction to Spring MVC [Course]</t>
+  </si>
+  <si>
+    <t>Introduction to Spring MVC 4 [Course]</t>
+  </si>
+  <si>
+    <t>Java Microservices with Spring Cloud: Developing Services [Course]</t>
+  </si>
+  <si>
+    <t>Spring Boot: Efficient Development, Configuration, and Deployment [Course]</t>
+  </si>
+  <si>
+    <t>AngularJS Security Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>REST Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>AWS Developer: Getting Started [Course]</t>
+  </si>
+  <si>
+    <t>AWS Developer Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>AWS Developer: The Big Picture [Course]</t>
+  </si>
+  <si>
+    <t>AWS Developer - An Introduction to AWS Lambda [Course]</t>
+  </si>
+  <si>
+    <t>File Storage Using AWS S3 and Glacier: Developer Deep Dive [Course]</t>
+  </si>
+  <si>
+    <t>XML Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>XML Syntax Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>Regular Expression Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>From Collections to Streams in Java 8 Using Lambda Expressions [Course]</t>
+  </si>
+  <si>
+    <t>Getting Started with Reactive Programming Using RxJS [Course]</t>
+  </si>
+  <si>
+    <t>Reactive Programming in Java 8 With RxJava [Course]</t>
+  </si>
+  <si>
+    <t>Streams, Collectors, and Optionals for Data Processing in Java 8 [Course]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,8 +680,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,6 +705,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3302BE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,16 +731,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -592,11 +743,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -898,446 +1066,892 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="133.7109375" customWidth="1"/>
+    <col min="1" max="1" width="114.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="A9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>8</v>
+      <c r="A10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="8" customFormat="1">
+      <c r="A15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="8" customFormat="1">
+      <c r="A27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="8" customFormat="1">
+      <c r="A29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="1:2" ht="30">
+      <c r="A76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="6"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="6"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="6"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="8" customFormat="1">
+      <c r="A86" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="9"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="30">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="B93" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B97" s="9"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="8" customFormat="1">
+      <c r="A99" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="1:3" s="8" customFormat="1">
+      <c r="A100" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="1:3" s="8" customFormat="1">
+      <c r="A101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="1:3" s="8" customFormat="1">
+      <c r="A102" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="1:3" s="8" customFormat="1">
+      <c r="A103" s="4"/>
+      <c r="C103" s="4"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" t="s">
-        <v>24</v>
+      <c r="B105" s="9"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="8" customFormat="1">
+      <c r="A108" s="1"/>
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" s="9"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B112" s="9"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="8" customFormat="1">
+      <c r="A115" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="4"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A61:B61"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
-    <hyperlink ref="A19" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
-    <hyperlink ref="A20" r:id="rId3" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
-    <hyperlink ref="A35" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
-    <hyperlink ref="A36" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
-    <hyperlink ref="A37" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
-    <hyperlink ref="A38" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
-    <hyperlink ref="A12" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
-    <hyperlink ref="A39" r:id="rId9" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
-    <hyperlink ref="A40" r:id="rId10" display="https://app.pluralsight.com/library/courses/understanding-java-vm-memory-management"/>
-    <hyperlink ref="A41" r:id="rId11" display="https://app.pluralsight.com/library/courses/ads-part1"/>
-    <hyperlink ref="A42" r:id="rId12" display="https://app.pluralsight.com/library/courses/ads2"/>
-    <hyperlink ref="A43" r:id="rId13" display="https://app.pluralsight.com/library/courses/data-mining-algorithms-ssas-excel-r"/>
-    <hyperlink ref="A44" r:id="rId14" display="https://app.pluralsight.com/library/courses/vagrant-versioning-environments"/>
-    <hyperlink ref="A45" r:id="rId15" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
-    <hyperlink ref="A46" r:id="rId16" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
-    <hyperlink ref="A47" r:id="rId17" display="https://app.pluralsight.com/library/courses/consul-getting-started"/>
-    <hyperlink ref="A48" r:id="rId18" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
-    <hyperlink ref="A49" r:id="rId19" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
-    <hyperlink ref="A50" r:id="rId20" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
-    <hyperlink ref="A51" r:id="rId21" display="https://app.pluralsight.com/library/courses/java-patterns-concurrency-multi-threading"/>
-    <hyperlink ref="A52" r:id="rId22" display="https://app.pluralsight.com/library/courses/design-patterns-java-behavioral"/>
-    <hyperlink ref="A53" r:id="rId23" display="https://app.pluralsight.com/library/courses/design-patterns-java-creational"/>
-    <hyperlink ref="A54" r:id="rId24" display="https://app.pluralsight.com/library/courses/design-patterns-java-structural"/>
-    <hyperlink ref="A55" r:id="rId25" display="https://app.pluralsight.com/library/courses/mysql-flyway-continuous-database-delivery"/>
+    <hyperlink ref="A72" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
+    <hyperlink ref="A9" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
+    <hyperlink ref="A10" r:id="rId3" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
+    <hyperlink ref="A18" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
+    <hyperlink ref="A19" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
+    <hyperlink ref="A20" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
+    <hyperlink ref="A93" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
+    <hyperlink ref="A74" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
+    <hyperlink ref="A21" r:id="rId9" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
+    <hyperlink ref="A22" r:id="rId10" display="https://app.pluralsight.com/library/courses/understanding-java-vm-memory-management"/>
+    <hyperlink ref="A65" r:id="rId11" display="https://app.pluralsight.com/library/courses/ads-part1"/>
+    <hyperlink ref="A66" r:id="rId12" display="https://app.pluralsight.com/library/courses/ads2"/>
+    <hyperlink ref="A23" r:id="rId13" display="https://app.pluralsight.com/library/courses/data-mining-algorithms-ssas-excel-r"/>
+    <hyperlink ref="A24" r:id="rId14" display="https://app.pluralsight.com/library/courses/vagrant-versioning-environments"/>
+    <hyperlink ref="A42" r:id="rId15" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
+    <hyperlink ref="A43" r:id="rId16" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
+    <hyperlink ref="A25" r:id="rId17" display="https://app.pluralsight.com/library/courses/consul-getting-started"/>
+    <hyperlink ref="A84" r:id="rId18" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
+    <hyperlink ref="A94" r:id="rId19" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
+    <hyperlink ref="A28" r:id="rId20" display="https://app.pluralsight.com/library/courses/java-patterns-concurrency-multi-threading"/>
+    <hyperlink ref="A30" r:id="rId21" display="https://app.pluralsight.com/library/courses/design-patterns-java-behavioral"/>
+    <hyperlink ref="A31" r:id="rId22" display="https://app.pluralsight.com/library/courses/design-patterns-java-creational"/>
+    <hyperlink ref="A32" r:id="rId23" display="https://app.pluralsight.com/library/courses/design-patterns-java-structural"/>
+    <hyperlink ref="A33" r:id="rId24" display="https://app.pluralsight.com/library/courses/mysql-flyway-continuous-database-delivery"/>
+    <hyperlink ref="A35" r:id="rId25" display="https://app.pluralsight.com/library/courses/cloud-foundry-developers"/>
+    <hyperlink ref="A36" r:id="rId26" display="https://app.pluralsight.com/library/courses/google-cloud-big-query"/>
+    <hyperlink ref="A41" r:id="rId27" display="https://app.pluralsight.com/library/courses/docker-containers-big-picture"/>
+    <hyperlink ref="A44" r:id="rId28" display="https://app.pluralsight.com/library/courses/docker-deep-dive"/>
+    <hyperlink ref="A37" r:id="rId29" display="https://app.pluralsight.com/library/courses/xslt-foundations-part1"/>
+    <hyperlink ref="A38" r:id="rId30" display="https://app.pluralsight.com/library/courses/xslt-3-0-whats-new-part1"/>
+    <hyperlink ref="A52" r:id="rId31" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part1"/>
+    <hyperlink ref="A53" r:id="rId32" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part2"/>
+    <hyperlink ref="A54" r:id="rId33" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part3"/>
+    <hyperlink ref="A55" r:id="rId34" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part4"/>
+    <hyperlink ref="A34" r:id="rId35" display="https://app.pluralsight.com/library/courses/sql-server-flyway-continuous-database-delivery"/>
+    <hyperlink ref="A47" r:id="rId36" display="https://app.pluralsight.com/library/courses/python-fundamentals"/>
+    <hyperlink ref="A48" r:id="rId37" display="https://app.pluralsight.com/library/courses/python-beyond-basics"/>
+    <hyperlink ref="A59" r:id="rId38" display="https://app.pluralsight.com/library/courses/scala-getting-started"/>
+    <hyperlink ref="A58" r:id="rId39" display="https://app.pluralsight.com/library/courses/scala-for-java-developers"/>
+    <hyperlink ref="A62" r:id="rId40" display="https://app.pluralsight.com/library/courses/practical-couchdb-developers"/>
+    <hyperlink ref="A13" r:id="rId41" display="https://app.pluralsight.com/library/courses/groovy-fundamentals"/>
+    <hyperlink ref="A73" r:id="rId42" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
+    <hyperlink ref="A69" r:id="rId43" display="https://app.pluralsight.com/library/courses/hibernate-introduction"/>
+    <hyperlink ref="A12" r:id="rId44" display="https://app.pluralsight.com/library/courses/splunk-analyzing-machine-data"/>
+    <hyperlink ref="A14" r:id="rId45" display="https://app.pluralsight.com/library/courses/apache-spark-fundamentals"/>
+    <hyperlink ref="A15" r:id="rId46" display="https://app.pluralsight.com/library/courses/apache-spark-beginning-data-exploration-analysis"/>
+    <hyperlink ref="A16" r:id="rId47" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
+    <hyperlink ref="A17" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
+    <hyperlink ref="A26" r:id="rId49" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
+    <hyperlink ref="A27" r:id="rId50" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
+    <hyperlink ref="A29" r:id="rId51" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
+    <hyperlink ref="A67" r:id="rId52" display="https://app.pluralsight.com/library/courses/algorithmics-introduction"/>
+    <hyperlink ref="A85" r:id="rId53" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
+    <hyperlink ref="A86" r:id="rId54" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
+    <hyperlink ref="A87" r:id="rId55" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
+    <hyperlink ref="A88" r:id="rId56" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
+    <hyperlink ref="A90" r:id="rId57" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
+    <hyperlink ref="A95" r:id="rId58" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
+    <hyperlink ref="A98" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
+    <hyperlink ref="A99" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
+    <hyperlink ref="A100" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
+    <hyperlink ref="A101" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
+    <hyperlink ref="A102" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
+    <hyperlink ref="A106" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
+    <hyperlink ref="A107" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
+    <hyperlink ref="A110" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
+    <hyperlink ref="A114" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
+    <hyperlink ref="A115" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
+    <hyperlink ref="A116" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
+    <hyperlink ref="A117" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId71"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81:A89"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1348,575 +1962,608 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>150</v>
+      <c r="A1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="8" t="s">
-        <v>132</v>
+      <c r="A12" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="11"/>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11"/>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="11"/>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="11"/>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="11"/>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="11"/>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="11"/>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="11"/>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="11"/>
+      <c r="B26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="8"/>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="8"/>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="8"/>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="8"/>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="8"/>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="8"/>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="8"/>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="8"/>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="8"/>
+      <c r="A27" s="11"/>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="8"/>
+      <c r="A28" s="11"/>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="8" t="s">
-        <v>111</v>
+      <c r="A30" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="8"/>
+      <c r="A31" s="11"/>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="8"/>
+      <c r="A32" s="11"/>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="8"/>
+      <c r="A33" s="11"/>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="8"/>
+      <c r="A34" s="11"/>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="8"/>
+      <c r="A35" s="11"/>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="8"/>
+      <c r="A36" s="11"/>
       <c r="B36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="11"/>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="11"/>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="11"/>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="11"/>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="11"/>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="8" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="11"/>
+      <c r="B45" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="8"/>
-      <c r="B38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="8"/>
-      <c r="B39" t="s">
+      <c r="C45" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="8" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="11"/>
+      <c r="B46" t="s">
         <v>75</v>
       </c>
-      <c r="B40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="8"/>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="8"/>
-      <c r="B42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="8"/>
-      <c r="B43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="8"/>
-      <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="8"/>
-      <c r="B46" t="s">
-        <v>87</v>
+      <c r="C46" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="8" t="s">
-        <v>127</v>
+      <c r="A50" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="8"/>
+      <c r="A51" s="11"/>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="8"/>
+      <c r="A52" s="11"/>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="8" t="s">
-        <v>126</v>
+      <c r="A55" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="8"/>
+      <c r="A56" s="11"/>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="8" t="s">
-        <v>122</v>
+      <c r="A57" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="8"/>
+      <c r="A58" s="11"/>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="8"/>
+      <c r="A59" s="11"/>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="8" t="s">
-        <v>102</v>
+      <c r="A60" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="8"/>
+      <c r="A61" s="11"/>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="8"/>
+      <c r="A62" s="11"/>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="8"/>
+      <c r="A63" s="11"/>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="8"/>
+      <c r="A64" s="11"/>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="8"/>
+      <c r="A65" s="11"/>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="9" t="s">
-        <v>106</v>
+      <c r="A67" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="9"/>
+      <c r="A68" s="12"/>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="9"/>
+      <c r="A69" s="12"/>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="9"/>
+      <c r="A70" s="12"/>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="9"/>
+      <c r="A71" s="12"/>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="9"/>
+      <c r="A72" s="12"/>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="9"/>
+      <c r="A73" s="12"/>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="9"/>
+      <c r="A74" s="12"/>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="9"/>
+      <c r="A75" s="12"/>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="9"/>
+      <c r="A76" s="12"/>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="8" t="s">
-        <v>128</v>
+      <c r="A81" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="8"/>
+      <c r="A82" s="11"/>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="8"/>
+      <c r="A83" s="11"/>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="8"/>
+      <c r="A84" s="11"/>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="8"/>
+      <c r="A85" s="11"/>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="8"/>
+      <c r="A86" s="11"/>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="8"/>
+      <c r="A87" s="11"/>
       <c r="B87" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="8"/>
+      <c r="A88" s="11"/>
       <c r="B88" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="8"/>
+      <c r="A89" s="11"/>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="10"/>
+      <c r="B94" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A93:A94"/>
     <mergeCell ref="A81:A89"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A22:A28"/>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="213">
   <si>
     <t>Cerebro - Need utility to create page dynamically with entries i give</t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t>Streams, Collectors, and Optionals for Data Processing in Java 8 [Course]</t>
+  </si>
+  <si>
+    <t>Hibernate Validator</t>
   </si>
 </sst>
 </file>
@@ -731,7 +734,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -747,6 +750,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -756,15 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1066,11 +1070,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1116,7 +1120,7 @@
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1139,7 +1143,7 @@
       <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1150,7 +1154,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1175,7 +1179,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>174</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1216,7 +1220,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1224,7 +1228,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1232,7 +1236,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1240,7 +1244,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1248,7 +1252,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1256,7 +1260,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1264,7 +1268,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1272,7 +1276,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="10" t="s">
         <v>137</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1295,7 +1299,7 @@
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="10" t="s">
         <v>143</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1312,7 +1316,7 @@
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="10" t="s">
         <v>144</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -1320,7 +1324,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1328,7 +1332,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="10" t="s">
         <v>146</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -1336,7 +1340,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="10" t="s">
         <v>147</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -1344,7 +1348,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="10" t="s">
         <v>164</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -1352,7 +1356,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="10" t="s">
         <v>151</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1360,7 +1364,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="10" t="s">
         <v>152</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1368,7 +1372,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="10" t="s">
         <v>155</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -1376,7 +1380,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -1389,13 +1393,13 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="13"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="10" t="s">
         <v>153</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -1403,7 +1407,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -1411,7 +1415,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -1419,7 +1423,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="10" t="s">
         <v>154</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -1427,13 +1431,13 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="13"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="10" t="s">
         <v>168</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -1441,7 +1445,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="10" t="s">
         <v>169</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -1449,13 +1453,13 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B51" s="9"/>
+      <c r="B51" s="13"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -1463,7 +1467,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="10" t="s">
         <v>158</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -1471,7 +1475,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="10" t="s">
         <v>159</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -1479,7 +1483,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="10" t="s">
         <v>160</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -1487,13 +1491,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="13"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="10" t="s">
         <v>171</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -1501,7 +1505,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="10" t="s">
         <v>170</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -1512,39 +1516,39 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="13"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="14" t="s">
+      <c r="B64" s="13"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="14" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="10" t="s">
         <v>132</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>193</v>
       </c>
@@ -1552,314 +1556,325 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="9" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="9"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="14" t="s">
+      <c r="B68" s="13"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="10" t="s">
         <v>177</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="9" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="12" customFormat="1">
+      <c r="A71" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B71" s="9"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="15" t="s">
+      <c r="B72" s="13"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="14" t="s">
+      <c r="B73" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="15" t="s">
+      <c r="B74" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="4" t="s">
+      <c r="B75" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="1:2" ht="30">
-      <c r="A76" s="4" t="s">
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="1:3" ht="30">
+      <c r="A77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="4" t="s">
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="4" t="s">
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="6"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="4" t="s">
+      <c r="B79" s="6"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B79" s="6"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="B80" s="6"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B81" s="6"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82" s="6"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="6"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="14" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="8" customFormat="1">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="8" customFormat="1">
+      <c r="A87" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="B87" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="9" t="s">
+      <c r="B89" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B89" s="9"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="13"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="9" t="s">
+      <c r="B91" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B92" s="9"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="15" t="s">
+      <c r="B93" s="13"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="14" t="s">
+      <c r="B94" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
+      <c r="B95" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="9" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B97" s="9"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="13"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" s="8" customFormat="1">
-      <c r="A99" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="1:3" s="8" customFormat="1">
       <c r="A100" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C100" s="4"/>
     </row>
     <row r="101" spans="1:3" s="8" customFormat="1">
       <c r="A101" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C101" s="4"/>
     </row>
     <row r="102" spans="1:3" s="8" customFormat="1">
       <c r="A102" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="1:3" s="8" customFormat="1">
+      <c r="A103" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C102" s="4"/>
-    </row>
-    <row r="103" spans="1:3" s="8" customFormat="1">
-      <c r="A103" s="4"/>
       <c r="C103" s="4"/>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="9" t="s">
+    <row r="104" spans="1:3" s="8" customFormat="1">
+      <c r="A104" s="4"/>
+      <c r="C104" s="4"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="9"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B106" s="13"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="8" customFormat="1">
-      <c r="A108" s="1"/>
-      <c r="C108" s="4"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="9" t="s">
+    <row r="109" spans="1:3" s="8" customFormat="1">
+      <c r="A109" s="1"/>
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B109" s="9"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="13"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="9" t="s">
+      <c r="B111" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B112" s="9"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="4" t="s">
+      <c r="B113" s="13"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" s="8" customFormat="1">
-      <c r="A115" s="1" t="s">
+      <c r="B115" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="8" customFormat="1">
+      <c r="A116" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" s="4"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="B116" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="C116" s="4"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B118" s="6" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A106:B106"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A40:B40"/>
@@ -1869,14 +1884,14 @@
     <mergeCell ref="A61:B61"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A72" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
+    <hyperlink ref="A73" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
     <hyperlink ref="A9" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
     <hyperlink ref="A10" r:id="rId3" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
     <hyperlink ref="A18" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
     <hyperlink ref="A19" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
     <hyperlink ref="A20" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
-    <hyperlink ref="A93" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
-    <hyperlink ref="A74" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
+    <hyperlink ref="A94" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
+    <hyperlink ref="A75" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
     <hyperlink ref="A21" r:id="rId9" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
     <hyperlink ref="A22" r:id="rId10" display="https://app.pluralsight.com/library/courses/understanding-java-vm-memory-management"/>
     <hyperlink ref="A65" r:id="rId11" display="https://app.pluralsight.com/library/courses/ads-part1"/>
@@ -1886,8 +1901,8 @@
     <hyperlink ref="A42" r:id="rId15" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
     <hyperlink ref="A43" r:id="rId16" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
     <hyperlink ref="A25" r:id="rId17" display="https://app.pluralsight.com/library/courses/consul-getting-started"/>
-    <hyperlink ref="A84" r:id="rId18" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
-    <hyperlink ref="A94" r:id="rId19" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
+    <hyperlink ref="A85" r:id="rId18" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
+    <hyperlink ref="A95" r:id="rId19" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
     <hyperlink ref="A28" r:id="rId20" display="https://app.pluralsight.com/library/courses/java-patterns-concurrency-multi-threading"/>
     <hyperlink ref="A30" r:id="rId21" display="https://app.pluralsight.com/library/courses/design-patterns-java-behavioral"/>
     <hyperlink ref="A31" r:id="rId22" display="https://app.pluralsight.com/library/courses/design-patterns-java-creational"/>
@@ -1910,7 +1925,7 @@
     <hyperlink ref="A58" r:id="rId39" display="https://app.pluralsight.com/library/courses/scala-for-java-developers"/>
     <hyperlink ref="A62" r:id="rId40" display="https://app.pluralsight.com/library/courses/practical-couchdb-developers"/>
     <hyperlink ref="A13" r:id="rId41" display="https://app.pluralsight.com/library/courses/groovy-fundamentals"/>
-    <hyperlink ref="A73" r:id="rId42" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
+    <hyperlink ref="A74" r:id="rId42" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
     <hyperlink ref="A69" r:id="rId43" display="https://app.pluralsight.com/library/courses/hibernate-introduction"/>
     <hyperlink ref="A12" r:id="rId44" display="https://app.pluralsight.com/library/courses/splunk-analyzing-machine-data"/>
     <hyperlink ref="A14" r:id="rId45" display="https://app.pluralsight.com/library/courses/apache-spark-fundamentals"/>
@@ -1921,24 +1936,24 @@
     <hyperlink ref="A27" r:id="rId50" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
     <hyperlink ref="A29" r:id="rId51" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
     <hyperlink ref="A67" r:id="rId52" display="https://app.pluralsight.com/library/courses/algorithmics-introduction"/>
-    <hyperlink ref="A85" r:id="rId53" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
-    <hyperlink ref="A86" r:id="rId54" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
-    <hyperlink ref="A87" r:id="rId55" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
-    <hyperlink ref="A88" r:id="rId56" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
-    <hyperlink ref="A90" r:id="rId57" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
-    <hyperlink ref="A95" r:id="rId58" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
-    <hyperlink ref="A98" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
-    <hyperlink ref="A99" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
-    <hyperlink ref="A100" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
-    <hyperlink ref="A101" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
-    <hyperlink ref="A102" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
-    <hyperlink ref="A106" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
-    <hyperlink ref="A107" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
-    <hyperlink ref="A110" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
-    <hyperlink ref="A114" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
-    <hyperlink ref="A115" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
-    <hyperlink ref="A116" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
-    <hyperlink ref="A117" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
+    <hyperlink ref="A86" r:id="rId53" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
+    <hyperlink ref="A87" r:id="rId54" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
+    <hyperlink ref="A88" r:id="rId55" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
+    <hyperlink ref="A89" r:id="rId56" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
+    <hyperlink ref="A91" r:id="rId57" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
+    <hyperlink ref="A96" r:id="rId58" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
+    <hyperlink ref="A99" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
+    <hyperlink ref="A100" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
+    <hyperlink ref="A101" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
+    <hyperlink ref="A102" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
+    <hyperlink ref="A103" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
+    <hyperlink ref="A107" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
+    <hyperlink ref="A108" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
+    <hyperlink ref="A111" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
+    <hyperlink ref="A115" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
+    <hyperlink ref="A116" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
+    <hyperlink ref="A117" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
+    <hyperlink ref="A118" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId71"/>
@@ -2023,7 +2038,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="15" t="s">
         <v>120</v>
       </c>
       <c r="B12" t="s">
@@ -2031,7 +2046,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="15"/>
       <c r="B13" t="s">
         <v>37</v>
       </c>
@@ -2052,7 +2067,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B17" t="s">
@@ -2063,13 +2078,13 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="15"/>
       <c r="B18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="15"/>
       <c r="B19" t="s">
         <v>45</v>
       </c>
@@ -2078,7 +2093,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="15"/>
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -2087,13 +2102,13 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="15"/>
       <c r="B21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="15" t="s">
         <v>121</v>
       </c>
       <c r="B22" t="s">
@@ -2101,37 +2116,37 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="11"/>
+      <c r="A23" s="15"/>
       <c r="B23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="11"/>
+      <c r="A24" s="15"/>
       <c r="B24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="11"/>
+      <c r="A25" s="15"/>
       <c r="B25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="11"/>
+      <c r="A26" s="15"/>
       <c r="B26" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="11"/>
+      <c r="A27" s="15"/>
       <c r="B27" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="11"/>
+      <c r="A28" s="15"/>
       <c r="B28" t="s">
         <v>54</v>
       </c>
@@ -2142,7 +2157,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B30" t="s">
@@ -2153,43 +2168,43 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="11"/>
+      <c r="A31" s="15"/>
       <c r="B31" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="11"/>
+      <c r="A32" s="15"/>
       <c r="B32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="11"/>
+      <c r="A33" s="15"/>
       <c r="B33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="11"/>
+      <c r="A34" s="15"/>
       <c r="B34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="11"/>
+      <c r="A35" s="15"/>
       <c r="B35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="11"/>
+      <c r="A36" s="15"/>
       <c r="B36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B37" t="s">
@@ -2197,19 +2212,19 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="11"/>
+      <c r="A38" s="15"/>
       <c r="B38" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="11"/>
+      <c r="A39" s="15"/>
       <c r="B39" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B40" t="s">
@@ -2217,25 +2232,25 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="11"/>
+      <c r="A41" s="15"/>
       <c r="B41" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="11"/>
+      <c r="A42" s="15"/>
       <c r="B42" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="11"/>
+      <c r="A43" s="15"/>
       <c r="B43" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B44" t="s">
@@ -2243,7 +2258,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="11"/>
+      <c r="A45" s="15"/>
       <c r="B45" t="s">
         <v>74</v>
       </c>
@@ -2252,7 +2267,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="11"/>
+      <c r="A46" s="15"/>
       <c r="B46" t="s">
         <v>75</v>
       </c>
@@ -2276,7 +2291,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B50" t="s">
@@ -2284,13 +2299,13 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="11"/>
+      <c r="A51" s="15"/>
       <c r="B51" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="11"/>
+      <c r="A52" s="15"/>
       <c r="B52" t="s">
         <v>85</v>
       </c>
@@ -2306,7 +2321,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B55" t="s">
@@ -2314,13 +2329,13 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="11"/>
+      <c r="A56" s="15"/>
       <c r="B56" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B57" t="s">
@@ -2331,7 +2346,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="11"/>
+      <c r="A58" s="15"/>
       <c r="B58" t="s">
         <v>111</v>
       </c>
@@ -2340,7 +2355,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="11"/>
+      <c r="A59" s="15"/>
       <c r="B59" t="s">
         <v>112</v>
       </c>
@@ -2349,7 +2364,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B60" t="s">
@@ -2357,31 +2372,31 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="11"/>
+      <c r="A61" s="15"/>
       <c r="B61" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="11"/>
+      <c r="A62" s="15"/>
       <c r="B62" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="11"/>
+      <c r="A63" s="15"/>
       <c r="B63" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="11"/>
+      <c r="A64" s="15"/>
       <c r="B64" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="11"/>
+      <c r="A65" s="15"/>
       <c r="B65" t="s">
         <v>108</v>
       </c>
@@ -2392,7 +2407,7 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B67" t="s">
@@ -2400,55 +2415,55 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="12"/>
+      <c r="A68" s="16"/>
       <c r="B68" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="12"/>
+      <c r="A69" s="16"/>
       <c r="B69" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="12"/>
+      <c r="A70" s="16"/>
       <c r="B70" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="12"/>
+      <c r="A71" s="16"/>
       <c r="B71" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="12"/>
+      <c r="A72" s="16"/>
       <c r="B72" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="12"/>
+      <c r="A73" s="16"/>
       <c r="B73" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="12"/>
+      <c r="A74" s="16"/>
       <c r="B74" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="12"/>
+      <c r="A75" s="16"/>
       <c r="B75" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="12"/>
+      <c r="A76" s="16"/>
       <c r="B76" t="s">
         <v>92</v>
       </c>
@@ -2477,7 +2492,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B81" t="s">
@@ -2485,49 +2500,49 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="11"/>
+      <c r="A82" s="15"/>
       <c r="B82" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="11"/>
+      <c r="A83" s="15"/>
       <c r="B83" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="11"/>
+      <c r="A84" s="15"/>
       <c r="B84" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="11"/>
+      <c r="A85" s="15"/>
       <c r="B85" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="11"/>
+      <c r="A86" s="15"/>
       <c r="B86" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="11"/>
+      <c r="A87" s="15"/>
       <c r="B87" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="11"/>
+      <c r="A88" s="15"/>
       <c r="B88" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="11"/>
+      <c r="A89" s="15"/>
       <c r="B89" t="s">
         <v>140</v>
       </c>
@@ -2548,7 +2563,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B93" t="s">
@@ -2556,7 +2571,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="10"/>
+      <c r="A94" s="14"/>
       <c r="B94" t="s">
         <v>167</v>
       </c>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="219">
   <si>
     <t>Cerebro - Need utility to create page dynamically with entries i give</t>
   </si>
@@ -654,6 +654,24 @@
   </si>
   <si>
     <t>Hibernate Validator</t>
+  </si>
+  <si>
+    <t>Completed. Prepare notes in Cerebro</t>
+  </si>
+  <si>
+    <t>JSON Web Tokens(JWT)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oXxbB5kv9OA&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oneCuYkWz0c&amp;t=0s</t>
+  </si>
+  <si>
+    <t>http://www.mojohaus.org/cobertura-maven-plugin/</t>
   </si>
 </sst>
 </file>
@@ -734,7 +752,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -770,6 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1070,11 +1089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72:B72"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,17 +1161,6 @@
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
         <v>20</v>
@@ -1164,12 +1172,6 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6"/>
-    </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>185</v>
@@ -1211,14 +1213,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="18" spans="1:3">
       <c r="A18" s="10" t="s">
         <v>21</v>
@@ -1679,6 +1673,9 @@
       <c r="B86" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="C86" s="4" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="87" spans="1:3" s="8" customFormat="1">
       <c r="A87" s="1" t="s">
@@ -1866,8 +1863,68 @@
         <v>18</v>
       </c>
     </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B120" s="13"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B125" s="13"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" s="6"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A113:B113"/>
     <mergeCell ref="A72:B72"/>
@@ -1885,7 +1942,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A73" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
-    <hyperlink ref="A9" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
+    <hyperlink ref="A126" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
     <hyperlink ref="A10" r:id="rId3" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
     <hyperlink ref="A18" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
     <hyperlink ref="A19" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
@@ -1931,7 +1988,7 @@
     <hyperlink ref="A14" r:id="rId45" display="https://app.pluralsight.com/library/courses/apache-spark-fundamentals"/>
     <hyperlink ref="A15" r:id="rId46" display="https://app.pluralsight.com/library/courses/apache-spark-beginning-data-exploration-analysis"/>
     <hyperlink ref="A16" r:id="rId47" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
-    <hyperlink ref="A17" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
+    <hyperlink ref="A123" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
     <hyperlink ref="A26" r:id="rId49" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
     <hyperlink ref="A27" r:id="rId50" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
     <hyperlink ref="A29" r:id="rId51" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
@@ -1954,9 +2011,12 @@
     <hyperlink ref="A116" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
     <hyperlink ref="A117" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
     <hyperlink ref="A118" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
+    <hyperlink ref="A121" r:id="rId71"/>
+    <hyperlink ref="A122" r:id="rId72"/>
+    <hyperlink ref="A128" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId71"/>
+  <pageSetup orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>
 

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="220">
   <si>
     <t>Cerebro - Need utility to create page dynamically with entries i give</t>
   </si>
@@ -672,6 +672,9 @@
   </si>
   <si>
     <t>http://www.mojohaus.org/cobertura-maven-plugin/</t>
+  </si>
+  <si>
+    <t>Completed. Prepare examples in Cerebro</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -778,6 +781,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -788,7 +792,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1092,8 +1099,8 @@
   <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A129" sqref="A129"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,7 +1152,7 @@
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="18" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1168,7 +1175,7 @@
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="18" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1387,10 +1394,10 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="10" t="s">
@@ -1425,10 +1432,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="13"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="10" t="s">
@@ -1447,10 +1454,10 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B51" s="13"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="10" t="s">
@@ -1485,10 +1492,10 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="13"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="10" t="s">
@@ -1510,21 +1517,24 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="14"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="10" t="s">
         <v>173</v>
       </c>
+      <c r="B62" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B64" s="13"/>
+      <c r="B64" s="14"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="10" t="s">
@@ -1551,10 +1561,10 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="13"/>
+      <c r="B68" s="14"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="10" t="s">
@@ -1576,10 +1586,10 @@
       <c r="C71" s="4"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B72" s="13"/>
+      <c r="B72" s="14"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="11" t="s">
@@ -1598,11 +1608,14 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>18</v>
+      <c r="B75" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1667,13 +1680,13 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="4" t="s">
+      <c r="B86" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="18" t="s">
         <v>213</v>
       </c>
     </row>
@@ -1703,10 +1716,10 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B90" s="13"/>
+      <c r="B90" s="14"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
@@ -1717,10 +1730,10 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B93" s="13"/>
+      <c r="B93" s="14"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="11" t="s">
@@ -1744,10 +1757,10 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B98" s="13"/>
+      <c r="B98" s="14"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
@@ -1783,10 +1796,10 @@
       <c r="C104" s="4"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B106" s="13"/>
+      <c r="B106" s="14"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
@@ -1806,10 +1819,10 @@
       <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B110" s="13"/>
+      <c r="B110" s="14"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
@@ -1820,10 +1833,10 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B113" s="13"/>
+      <c r="B113" s="14"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="4" t="s">
@@ -1864,16 +1877,16 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B120" s="13"/>
+      <c r="B120" s="14"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="13" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1881,7 +1894,7 @@
       <c r="A122" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B122" s="17" t="s">
+      <c r="B122" s="13" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1894,10 +1907,10 @@
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B125" s="13"/>
+      <c r="B125" s="14"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="9" t="s">
@@ -1906,7 +1919,7 @@
       <c r="B126" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="18" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1923,6 +1936,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A61:B61"/>
     <mergeCell ref="A120:B120"/>
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A110:B110"/>
@@ -1932,13 +1952,6 @@
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A61:B61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A73" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
@@ -2098,7 +2111,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>120</v>
       </c>
       <c r="B12" t="s">
@@ -2106,7 +2119,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" t="s">
         <v>37</v>
       </c>
@@ -2127,7 +2140,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B17" t="s">
@@ -2138,13 +2151,13 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" t="s">
         <v>45</v>
       </c>
@@ -2153,7 +2166,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -2162,13 +2175,13 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B22" t="s">
@@ -2176,37 +2189,37 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" t="s">
         <v>54</v>
       </c>
@@ -2217,7 +2230,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B30" t="s">
@@ -2228,43 +2241,43 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="15"/>
+      <c r="A31" s="16"/>
       <c r="B31" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16"/>
       <c r="B32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
       <c r="B33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="16"/>
       <c r="B34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="16"/>
       <c r="B35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="16"/>
       <c r="B36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B37" t="s">
@@ -2272,19 +2285,19 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="15"/>
+      <c r="A38" s="16"/>
       <c r="B38" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="15"/>
+      <c r="A39" s="16"/>
       <c r="B39" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B40" t="s">
@@ -2292,25 +2305,25 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="15"/>
+      <c r="A41" s="16"/>
       <c r="B41" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="15"/>
+      <c r="A42" s="16"/>
       <c r="B42" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="15"/>
+      <c r="A43" s="16"/>
       <c r="B43" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B44" t="s">
@@ -2318,7 +2331,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="15"/>
+      <c r="A45" s="16"/>
       <c r="B45" t="s">
         <v>74</v>
       </c>
@@ -2327,7 +2340,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="15"/>
+      <c r="A46" s="16"/>
       <c r="B46" t="s">
         <v>75</v>
       </c>
@@ -2351,7 +2364,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>115</v>
       </c>
       <c r="B50" t="s">
@@ -2359,13 +2372,13 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="15"/>
+      <c r="A51" s="16"/>
       <c r="B51" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="15"/>
+      <c r="A52" s="16"/>
       <c r="B52" t="s">
         <v>85</v>
       </c>
@@ -2381,7 +2394,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="16" t="s">
         <v>114</v>
       </c>
       <c r="B55" t="s">
@@ -2389,13 +2402,13 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="15"/>
+      <c r="A56" s="16"/>
       <c r="B56" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B57" t="s">
@@ -2406,7 +2419,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="15"/>
+      <c r="A58" s="16"/>
       <c r="B58" t="s">
         <v>111</v>
       </c>
@@ -2415,7 +2428,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="15"/>
+      <c r="A59" s="16"/>
       <c r="B59" t="s">
         <v>112</v>
       </c>
@@ -2424,7 +2437,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B60" t="s">
@@ -2432,31 +2445,31 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="15"/>
+      <c r="A61" s="16"/>
       <c r="B61" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="15"/>
+      <c r="A62" s="16"/>
       <c r="B62" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="15"/>
+      <c r="A63" s="16"/>
       <c r="B63" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="15"/>
+      <c r="A64" s="16"/>
       <c r="B64" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="15"/>
+      <c r="A65" s="16"/>
       <c r="B65" t="s">
         <v>108</v>
       </c>
@@ -2467,7 +2480,7 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="17" t="s">
         <v>94</v>
       </c>
       <c r="B67" t="s">
@@ -2475,55 +2488,55 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="16"/>
+      <c r="A68" s="17"/>
       <c r="B68" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="16"/>
+      <c r="A69" s="17"/>
       <c r="B69" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="16"/>
+      <c r="A70" s="17"/>
       <c r="B70" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="16"/>
+      <c r="A71" s="17"/>
       <c r="B71" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="16"/>
+      <c r="A72" s="17"/>
       <c r="B72" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="16"/>
+      <c r="A73" s="17"/>
       <c r="B73" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="16"/>
+      <c r="A74" s="17"/>
       <c r="B74" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="16"/>
+      <c r="A75" s="17"/>
       <c r="B75" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="16"/>
+      <c r="A76" s="17"/>
       <c r="B76" t="s">
         <v>92</v>
       </c>
@@ -2552,7 +2565,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="16" t="s">
         <v>116</v>
       </c>
       <c r="B81" t="s">
@@ -2560,49 +2573,49 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="15"/>
+      <c r="A82" s="16"/>
       <c r="B82" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="15"/>
+      <c r="A83" s="16"/>
       <c r="B83" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="15"/>
+      <c r="A84" s="16"/>
       <c r="B84" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="15"/>
+      <c r="A85" s="16"/>
       <c r="B85" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="15"/>
+      <c r="A86" s="16"/>
       <c r="B86" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="15"/>
+      <c r="A87" s="16"/>
       <c r="B87" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="15"/>
+      <c r="A88" s="16"/>
       <c r="B88" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="15"/>
+      <c r="A89" s="16"/>
       <c r="B89" t="s">
         <v>140</v>
       </c>
@@ -2623,7 +2636,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="15" t="s">
         <v>165</v>
       </c>
       <c r="B93" t="s">
@@ -2631,7 +2644,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="14"/>
+      <c r="A94" s="15"/>
       <c r="B94" t="s">
         <v>167</v>
       </c>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorials" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="221">
   <si>
     <t>Cerebro - Need utility to create page dynamically with entries i give</t>
   </si>
@@ -675,6 +675,9 @@
   </si>
   <si>
     <t>Completed. Prepare examples in Cerebro</t>
+  </si>
+  <si>
+    <t>JDK Tools</t>
   </si>
 </sst>
 </file>
@@ -755,7 +758,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -767,7 +770,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -782,6 +784,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -792,10 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1096,11 +1100,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1125,34 +1129,34 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1160,22 +1164,22 @@
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1183,15 +1187,15 @@
       <c r="A12" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1199,15 +1203,15 @@
       <c r="A14" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="8" customFormat="1">
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="7" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="4"/>
@@ -1216,817 +1220,817 @@
       <c r="A16" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="7" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="8" customFormat="1">
-      <c r="A27" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="10" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="8" customFormat="1">
-      <c r="A29" s="1" t="s">
+      <c r="B27" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="7" customFormat="1">
+      <c r="A28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>18</v>
+      <c r="A38" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="A39" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="16"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="14"/>
+      <c r="A40" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B43" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="16"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="14"/>
+      <c r="A46" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B47" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="16"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" s="14"/>
+      <c r="A51" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="A52" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B54" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="16"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="14"/>
+      <c r="A57" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="B58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>180</v>
       </c>
     </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="16"/>
+    </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="14"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="10" t="s">
+      <c r="A61" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B61" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="16"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B64" s="14"/>
+      <c r="A64" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="6" t="s">
+      <c r="A65" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="6" t="s">
+      <c r="A66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A67" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="16"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="14"/>
+      <c r="A68" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="A69" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="11" customFormat="1">
       <c r="A70" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="12" customFormat="1">
-      <c r="A71" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C71" s="4"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="16"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B72" s="14"/>
+      <c r="A72" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="6" t="s">
+      <c r="A73" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="10" t="s">
-        <v>176</v>
+      <c r="A74" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="C74" s="13" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="A75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:3" ht="30">
       <c r="A76" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" spans="1:3" ht="30">
+        <v>6</v>
+      </c>
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B77" s="5"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="B78" s="5"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B79" s="5"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B80" s="5"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B81" s="5"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B82" s="5"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" s="6"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="4" t="s">
-        <v>19</v>
+      <c r="A84" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="10" t="s">
-        <v>141</v>
+      <c r="A85" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="18" t="s">
+      <c r="C85" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="8" customFormat="1">
+    <row r="86" spans="1:3" s="7" customFormat="1">
+      <c r="A86" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B88" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A89" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" s="16"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B90" s="14"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
+      <c r="A90" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B90" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="16"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B93" s="14"/>
+      <c r="A93" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B94" s="6" t="s">
+      <c r="A94" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
+      <c r="A95" s="1" t="s">
         <v>199</v>
       </c>
     </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B97" s="16"/>
+    </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B98" s="14"/>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="7" customFormat="1">
       <c r="A99" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" s="8" customFormat="1">
+        <v>201</v>
+      </c>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="1:3" s="7" customFormat="1">
       <c r="A100" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" s="8" customFormat="1">
+    <row r="101" spans="1:3" s="7" customFormat="1">
       <c r="A101" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C101" s="4"/>
     </row>
-    <row r="102" spans="1:3" s="8" customFormat="1">
+    <row r="102" spans="1:3" s="7" customFormat="1">
       <c r="A102" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:3" s="8" customFormat="1">
-      <c r="A103" s="1" t="s">
-        <v>204</v>
-      </c>
+    <row r="103" spans="1:3" s="7" customFormat="1">
+      <c r="A103" s="4"/>
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="1:3" s="8" customFormat="1">
-      <c r="A104" s="4"/>
-      <c r="C104" s="4"/>
+    <row r="105" spans="1:3">
+      <c r="A105" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" s="16"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B106" s="14"/>
+      <c r="A106" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="8" customFormat="1">
-      <c r="A109" s="1"/>
-      <c r="C109" s="4"/>
+    <row r="108" spans="1:3" s="7" customFormat="1">
+      <c r="A108" s="1"/>
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" s="16"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B110" s="14"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1" t="s">
+      <c r="A110" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B110" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B112" s="16"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B113" s="14"/>
+      <c r="A113" s="4" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="7" customFormat="1">
       <c r="A115" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" s="8" customFormat="1">
+        <v>209</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="4"/>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B117" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B119" s="16"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B120" s="14"/>
+      <c r="A120" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B121" s="13" t="s">
+      <c r="A121" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B121" s="12" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1" t="s">
+      <c r="A122" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B122" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B124" s="16"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B125" s="14"/>
+      <c r="A125" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C126" s="18" t="s">
-        <v>139</v>
-      </c>
+      <c r="A126" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" s="5"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B127" s="6"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="10" t="s">
+      <c r="A127" s="9" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A105:B105"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A73" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
-    <hyperlink ref="A126" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
+    <hyperlink ref="A72" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
+    <hyperlink ref="A125" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
     <hyperlink ref="A10" r:id="rId3" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
-    <hyperlink ref="A18" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
-    <hyperlink ref="A19" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
-    <hyperlink ref="A20" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
-    <hyperlink ref="A94" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
-    <hyperlink ref="A75" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
-    <hyperlink ref="A21" r:id="rId9" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
-    <hyperlink ref="A22" r:id="rId10" display="https://app.pluralsight.com/library/courses/understanding-java-vm-memory-management"/>
-    <hyperlink ref="A65" r:id="rId11" display="https://app.pluralsight.com/library/courses/ads-part1"/>
-    <hyperlink ref="A66" r:id="rId12" display="https://app.pluralsight.com/library/courses/ads2"/>
-    <hyperlink ref="A23" r:id="rId13" display="https://app.pluralsight.com/library/courses/data-mining-algorithms-ssas-excel-r"/>
-    <hyperlink ref="A24" r:id="rId14" display="https://app.pluralsight.com/library/courses/vagrant-versioning-environments"/>
-    <hyperlink ref="A42" r:id="rId15" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
-    <hyperlink ref="A43" r:id="rId16" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
-    <hyperlink ref="A25" r:id="rId17" display="https://app.pluralsight.com/library/courses/consul-getting-started"/>
-    <hyperlink ref="A85" r:id="rId18" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
-    <hyperlink ref="A95" r:id="rId19" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
-    <hyperlink ref="A28" r:id="rId20" display="https://app.pluralsight.com/library/courses/java-patterns-concurrency-multi-threading"/>
-    <hyperlink ref="A30" r:id="rId21" display="https://app.pluralsight.com/library/courses/design-patterns-java-behavioral"/>
-    <hyperlink ref="A31" r:id="rId22" display="https://app.pluralsight.com/library/courses/design-patterns-java-creational"/>
-    <hyperlink ref="A32" r:id="rId23" display="https://app.pluralsight.com/library/courses/design-patterns-java-structural"/>
-    <hyperlink ref="A33" r:id="rId24" display="https://app.pluralsight.com/library/courses/mysql-flyway-continuous-database-delivery"/>
-    <hyperlink ref="A35" r:id="rId25" display="https://app.pluralsight.com/library/courses/cloud-foundry-developers"/>
-    <hyperlink ref="A36" r:id="rId26" display="https://app.pluralsight.com/library/courses/google-cloud-big-query"/>
-    <hyperlink ref="A41" r:id="rId27" display="https://app.pluralsight.com/library/courses/docker-containers-big-picture"/>
-    <hyperlink ref="A44" r:id="rId28" display="https://app.pluralsight.com/library/courses/docker-deep-dive"/>
-    <hyperlink ref="A37" r:id="rId29" display="https://app.pluralsight.com/library/courses/xslt-foundations-part1"/>
-    <hyperlink ref="A38" r:id="rId30" display="https://app.pluralsight.com/library/courses/xslt-3-0-whats-new-part1"/>
-    <hyperlink ref="A52" r:id="rId31" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part1"/>
-    <hyperlink ref="A53" r:id="rId32" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part2"/>
-    <hyperlink ref="A54" r:id="rId33" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part3"/>
-    <hyperlink ref="A55" r:id="rId34" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part4"/>
-    <hyperlink ref="A34" r:id="rId35" display="https://app.pluralsight.com/library/courses/sql-server-flyway-continuous-database-delivery"/>
-    <hyperlink ref="A47" r:id="rId36" display="https://app.pluralsight.com/library/courses/python-fundamentals"/>
-    <hyperlink ref="A48" r:id="rId37" display="https://app.pluralsight.com/library/courses/python-beyond-basics"/>
-    <hyperlink ref="A59" r:id="rId38" display="https://app.pluralsight.com/library/courses/scala-getting-started"/>
-    <hyperlink ref="A58" r:id="rId39" display="https://app.pluralsight.com/library/courses/scala-for-java-developers"/>
-    <hyperlink ref="A62" r:id="rId40" display="https://app.pluralsight.com/library/courses/practical-couchdb-developers"/>
+    <hyperlink ref="A17" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
+    <hyperlink ref="A18" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
+    <hyperlink ref="A19" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
+    <hyperlink ref="A93" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
+    <hyperlink ref="A74" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
+    <hyperlink ref="A20" r:id="rId9" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
+    <hyperlink ref="A21" r:id="rId10" display="https://app.pluralsight.com/library/courses/understanding-java-vm-memory-management"/>
+    <hyperlink ref="A64" r:id="rId11" display="https://app.pluralsight.com/library/courses/ads-part1"/>
+    <hyperlink ref="A65" r:id="rId12" display="https://app.pluralsight.com/library/courses/ads2"/>
+    <hyperlink ref="A22" r:id="rId13" display="https://app.pluralsight.com/library/courses/data-mining-algorithms-ssas-excel-r"/>
+    <hyperlink ref="A23" r:id="rId14" display="https://app.pluralsight.com/library/courses/vagrant-versioning-environments"/>
+    <hyperlink ref="A41" r:id="rId15" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
+    <hyperlink ref="A42" r:id="rId16" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
+    <hyperlink ref="A24" r:id="rId17" display="https://app.pluralsight.com/library/courses/consul-getting-started"/>
+    <hyperlink ref="A84" r:id="rId18" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
+    <hyperlink ref="A94" r:id="rId19" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
+    <hyperlink ref="A27" r:id="rId20" display="https://app.pluralsight.com/library/courses/java-patterns-concurrency-multi-threading"/>
+    <hyperlink ref="A29" r:id="rId21" display="https://app.pluralsight.com/library/courses/design-patterns-java-behavioral"/>
+    <hyperlink ref="A30" r:id="rId22" display="https://app.pluralsight.com/library/courses/design-patterns-java-creational"/>
+    <hyperlink ref="A31" r:id="rId23" display="https://app.pluralsight.com/library/courses/design-patterns-java-structural"/>
+    <hyperlink ref="A32" r:id="rId24" display="https://app.pluralsight.com/library/courses/mysql-flyway-continuous-database-delivery"/>
+    <hyperlink ref="A34" r:id="rId25" display="https://app.pluralsight.com/library/courses/cloud-foundry-developers"/>
+    <hyperlink ref="A35" r:id="rId26" display="https://app.pluralsight.com/library/courses/google-cloud-big-query"/>
+    <hyperlink ref="A40" r:id="rId27" display="https://app.pluralsight.com/library/courses/docker-containers-big-picture"/>
+    <hyperlink ref="A43" r:id="rId28" display="https://app.pluralsight.com/library/courses/docker-deep-dive"/>
+    <hyperlink ref="A36" r:id="rId29" display="https://app.pluralsight.com/library/courses/xslt-foundations-part1"/>
+    <hyperlink ref="A37" r:id="rId30" display="https://app.pluralsight.com/library/courses/xslt-3-0-whats-new-part1"/>
+    <hyperlink ref="A51" r:id="rId31" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part1"/>
+    <hyperlink ref="A52" r:id="rId32" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part2"/>
+    <hyperlink ref="A53" r:id="rId33" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part3"/>
+    <hyperlink ref="A54" r:id="rId34" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part4"/>
+    <hyperlink ref="A33" r:id="rId35" display="https://app.pluralsight.com/library/courses/sql-server-flyway-continuous-database-delivery"/>
+    <hyperlink ref="A46" r:id="rId36" display="https://app.pluralsight.com/library/courses/python-fundamentals"/>
+    <hyperlink ref="A47" r:id="rId37" display="https://app.pluralsight.com/library/courses/python-beyond-basics"/>
+    <hyperlink ref="A58" r:id="rId38" display="https://app.pluralsight.com/library/courses/scala-getting-started"/>
+    <hyperlink ref="A57" r:id="rId39" display="https://app.pluralsight.com/library/courses/scala-for-java-developers"/>
+    <hyperlink ref="A61" r:id="rId40" display="https://app.pluralsight.com/library/courses/practical-couchdb-developers"/>
     <hyperlink ref="A13" r:id="rId41" display="https://app.pluralsight.com/library/courses/groovy-fundamentals"/>
-    <hyperlink ref="A74" r:id="rId42" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
-    <hyperlink ref="A69" r:id="rId43" display="https://app.pluralsight.com/library/courses/hibernate-introduction"/>
+    <hyperlink ref="A73" r:id="rId42" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
+    <hyperlink ref="A68" r:id="rId43" display="https://app.pluralsight.com/library/courses/hibernate-introduction"/>
     <hyperlink ref="A12" r:id="rId44" display="https://app.pluralsight.com/library/courses/splunk-analyzing-machine-data"/>
     <hyperlink ref="A14" r:id="rId45" display="https://app.pluralsight.com/library/courses/apache-spark-fundamentals"/>
     <hyperlink ref="A15" r:id="rId46" display="https://app.pluralsight.com/library/courses/apache-spark-beginning-data-exploration-analysis"/>
     <hyperlink ref="A16" r:id="rId47" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
-    <hyperlink ref="A123" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
-    <hyperlink ref="A26" r:id="rId49" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
-    <hyperlink ref="A27" r:id="rId50" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
-    <hyperlink ref="A29" r:id="rId51" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
-    <hyperlink ref="A67" r:id="rId52" display="https://app.pluralsight.com/library/courses/algorithmics-introduction"/>
-    <hyperlink ref="A86" r:id="rId53" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
-    <hyperlink ref="A87" r:id="rId54" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
-    <hyperlink ref="A88" r:id="rId55" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
-    <hyperlink ref="A89" r:id="rId56" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
-    <hyperlink ref="A91" r:id="rId57" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
-    <hyperlink ref="A96" r:id="rId58" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
-    <hyperlink ref="A99" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
-    <hyperlink ref="A100" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
-    <hyperlink ref="A101" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
-    <hyperlink ref="A102" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
-    <hyperlink ref="A103" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
-    <hyperlink ref="A107" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
-    <hyperlink ref="A108" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
-    <hyperlink ref="A111" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
-    <hyperlink ref="A115" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
-    <hyperlink ref="A116" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
-    <hyperlink ref="A117" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
-    <hyperlink ref="A118" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
-    <hyperlink ref="A121" r:id="rId71"/>
-    <hyperlink ref="A122" r:id="rId72"/>
-    <hyperlink ref="A128" r:id="rId73"/>
+    <hyperlink ref="A122" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
+    <hyperlink ref="A25" r:id="rId49" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
+    <hyperlink ref="A26" r:id="rId50" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
+    <hyperlink ref="A28" r:id="rId51" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
+    <hyperlink ref="A66" r:id="rId52" display="https://app.pluralsight.com/library/courses/algorithmics-introduction"/>
+    <hyperlink ref="A85" r:id="rId53" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
+    <hyperlink ref="A86" r:id="rId54" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
+    <hyperlink ref="A87" r:id="rId55" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
+    <hyperlink ref="A88" r:id="rId56" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
+    <hyperlink ref="A90" r:id="rId57" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
+    <hyperlink ref="A95" r:id="rId58" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
+    <hyperlink ref="A98" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
+    <hyperlink ref="A99" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
+    <hyperlink ref="A100" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
+    <hyperlink ref="A101" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
+    <hyperlink ref="A102" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
+    <hyperlink ref="A106" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
+    <hyperlink ref="A107" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
+    <hyperlink ref="A110" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
+    <hyperlink ref="A114" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
+    <hyperlink ref="A115" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
+    <hyperlink ref="A116" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
+    <hyperlink ref="A117" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
+    <hyperlink ref="A120" r:id="rId71"/>
+    <hyperlink ref="A121" r:id="rId72"/>
+    <hyperlink ref="A127" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId74"/>
@@ -2035,11 +2039,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2061,7 +2065,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2090,581 +2094,586 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>32</v>
+    <row r="8" spans="1:3" s="15" customFormat="1">
+      <c r="A8" s="15" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="16" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="16"/>
-      <c r="B13" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="18"/>
+      <c r="B14" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="16" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="16"/>
-      <c r="B18" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="18"/>
+      <c r="B19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="16"/>
-      <c r="B19" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="16"/>
-      <c r="B20" t="s">
-        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="16"/>
-      <c r="B21" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="18"/>
+      <c r="B22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="16" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="16"/>
-      <c r="B23" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="16"/>
-      <c r="B24" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="18"/>
+      <c r="B25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="16"/>
-      <c r="B25" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="18"/>
+      <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="16"/>
-      <c r="B26" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="18"/>
+      <c r="B27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="16"/>
-      <c r="B27" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="18"/>
+      <c r="B28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="16"/>
-      <c r="B28" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="18"/>
+      <c r="B29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="16" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="16"/>
-      <c r="B31" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="18"/>
+      <c r="B32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="16"/>
-      <c r="B32" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="18"/>
+      <c r="B33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="16"/>
-      <c r="B33" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="18"/>
+      <c r="B34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="16"/>
-      <c r="B34" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="18"/>
+      <c r="B35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="16"/>
-      <c r="B35" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="18"/>
+      <c r="B36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="16"/>
-      <c r="B36" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="18"/>
+      <c r="B37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="16" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="16"/>
-      <c r="B38" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="18"/>
+      <c r="B39" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="16"/>
-      <c r="B39" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="18"/>
+      <c r="B40" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="16" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="16"/>
-      <c r="B41" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="18"/>
+      <c r="B42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="16"/>
-      <c r="B42" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="18"/>
+      <c r="B43" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="16"/>
-      <c r="B43" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="18"/>
+      <c r="B44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="16" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="16"/>
-      <c r="B45" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="16"/>
-      <c r="B46" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="20" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="16" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="16"/>
-      <c r="B51" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="18"/>
+      <c r="B52" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="16"/>
-      <c r="B52" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="18"/>
+      <c r="B53" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="16" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="16"/>
-      <c r="B56" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="18"/>
+      <c r="B57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="16" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>113</v>
-      </c>
-      <c r="C57" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="16"/>
-      <c r="B58" t="s">
-        <v>111</v>
       </c>
       <c r="C58" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="16"/>
+      <c r="A59" s="18"/>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="18"/>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="16"/>
-      <c r="B61" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="18"/>
+      <c r="B62" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="16"/>
-      <c r="B62" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="18"/>
+      <c r="B63" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="16"/>
-      <c r="B63" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="18"/>
+      <c r="B64" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="16"/>
-      <c r="B64" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="18"/>
+      <c r="B65" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="16"/>
-      <c r="B65" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="18"/>
+      <c r="B66" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="17" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="17"/>
-      <c r="B68" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="19"/>
+      <c r="B69" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="17"/>
-      <c r="B69" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="19"/>
+      <c r="B70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="17"/>
-      <c r="B70" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="19"/>
+      <c r="B71" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="17"/>
-      <c r="B71" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="19"/>
+      <c r="B72" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="17"/>
-      <c r="B72" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="19"/>
+      <c r="B73" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="17"/>
-      <c r="B73" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="19"/>
+      <c r="B74" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="17"/>
-      <c r="B74" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="19"/>
+      <c r="B75" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="17"/>
-      <c r="B75" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="19"/>
+      <c r="B76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="17"/>
-      <c r="B76" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="19"/>
+      <c r="B77" s="20" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>128</v>
-      </c>
-      <c r="B79" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="16" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="16"/>
-      <c r="B82" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="18"/>
+      <c r="B83" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="16"/>
-      <c r="B83" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="18"/>
+      <c r="B84" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="16"/>
-      <c r="B84" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="18"/>
+      <c r="B85" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="16"/>
-      <c r="B85" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="18"/>
+      <c r="B86" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="16"/>
-      <c r="B86" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="18"/>
+      <c r="B87" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="16"/>
-      <c r="B87" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="18"/>
+      <c r="B88" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="16"/>
-      <c r="B88" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="18"/>
+      <c r="B89" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="16"/>
-      <c r="B89" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="18"/>
+      <c r="B90" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="15" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="15"/>
-      <c r="B94" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="17"/>
+      <c r="B95" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A81:A89"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A68:A77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorials" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="221">
   <si>
     <t>Cerebro - Need utility to create page dynamically with entries i give</t>
   </si>
@@ -789,6 +789,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -799,7 +800,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1102,9 +1102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1192,11 +1192,14 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1398,10 +1401,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="17"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="9" t="s">
@@ -1436,10 +1439,10 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="16"/>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="9" t="s">
@@ -1458,10 +1461,10 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B50" s="16"/>
+      <c r="B50" s="17"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="9" t="s">
@@ -1496,10 +1499,10 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="16"/>
+      <c r="B56" s="17"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
@@ -1521,10 +1524,10 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="17"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="9" t="s">
@@ -1535,10 +1538,10 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="B63" s="16"/>
+      <c r="B63" s="17"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="9" t="s">
@@ -1565,10 +1568,10 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="16"/>
+      <c r="B67" s="17"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="9" t="s">
@@ -1590,10 +1593,10 @@
       <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B71" s="16"/>
+      <c r="B71" s="17"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="10" t="s">
@@ -1720,10 +1723,10 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B89" s="16"/>
+      <c r="B89" s="17"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
@@ -1734,10 +1737,10 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B92" s="16"/>
+      <c r="B92" s="17"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="10" t="s">
@@ -1761,10 +1764,10 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B97" s="16"/>
+      <c r="B97" s="17"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
@@ -1800,10 +1803,10 @@
       <c r="C103" s="4"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="16"/>
+      <c r="B105" s="17"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
@@ -1823,10 +1826,10 @@
       <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B109" s="16"/>
+      <c r="B109" s="17"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
@@ -1837,10 +1840,10 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B112" s="16"/>
+      <c r="B112" s="17"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="4" t="s">
@@ -1881,10 +1884,10 @@
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B119" s="16"/>
+      <c r="B119" s="17"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="9" t="s">
@@ -1911,10 +1914,10 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B124" s="16"/>
+      <c r="B124" s="17"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="8" t="s">
@@ -1940,13 +1943,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A60:B60"/>
     <mergeCell ref="A119:B119"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A109:B109"/>
@@ -1956,6 +1952,13 @@
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A60:B60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A72" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
@@ -2041,9 +2044,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2065,7 +2068,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2120,7 +2123,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>120</v>
       </c>
       <c r="B13" t="s">
@@ -2128,7 +2131,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -2139,7 +2142,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="A16" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2149,10 +2152,10 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="s">
@@ -2160,14 +2163,14 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="18"/>
+      <c r="A19" s="19"/>
       <c r="B19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C20" t="s">
@@ -2175,8 +2178,8 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C21" t="s">
@@ -2184,13 +2187,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
       <c r="B22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>121</v>
       </c>
       <c r="B23" t="s">
@@ -2198,37 +2201,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="18"/>
+      <c r="A26" s="19"/>
       <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="18"/>
+      <c r="A27" s="19"/>
       <c r="B27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="18"/>
+      <c r="A28" s="19"/>
       <c r="B28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="18"/>
+      <c r="A29" s="19"/>
       <c r="B29" t="s">
         <v>54</v>
       </c>
@@ -2239,10 +2242,10 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C31" t="s">
@@ -2250,43 +2253,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
       <c r="B32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="19"/>
       <c r="B33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="19"/>
       <c r="B34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="19"/>
       <c r="B35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="19"/>
       <c r="B36" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="18"/>
+      <c r="A37" s="19"/>
       <c r="B37" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B38" t="s">
@@ -2294,19 +2297,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="19"/>
       <c r="B39" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="18"/>
+      <c r="A40" s="19"/>
       <c r="B40" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B41" t="s">
@@ -2314,25 +2317,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="18"/>
+      <c r="A42" s="19"/>
       <c r="B42" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="18"/>
+      <c r="A43" s="19"/>
       <c r="B43" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="18"/>
+      <c r="A44" s="19"/>
       <c r="B44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B45" t="s">
@@ -2340,20 +2343,20 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="20" t="s">
+      <c r="A46" s="19"/>
+      <c r="B46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="20" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="16" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2373,7 +2376,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="19" t="s">
         <v>115</v>
       </c>
       <c r="B51" t="s">
@@ -2381,13 +2384,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="18"/>
+      <c r="A52" s="19"/>
       <c r="B52" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="18"/>
+      <c r="A53" s="19"/>
       <c r="B53" t="s">
         <v>85</v>
       </c>
@@ -2403,7 +2406,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B56" t="s">
@@ -2411,13 +2414,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="18"/>
+      <c r="A57" s="19"/>
       <c r="B57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="19" t="s">
         <v>110</v>
       </c>
       <c r="B58" t="s">
@@ -2428,7 +2431,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="18"/>
+      <c r="A59" s="19"/>
       <c r="B59" t="s">
         <v>111</v>
       </c>
@@ -2437,7 +2440,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="18"/>
+      <c r="A60" s="19"/>
       <c r="B60" t="s">
         <v>112</v>
       </c>
@@ -2446,7 +2449,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B61" t="s">
@@ -2454,31 +2457,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="18"/>
+      <c r="A62" s="19"/>
       <c r="B62" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="18"/>
+      <c r="A63" s="19"/>
       <c r="B63" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="18"/>
+      <c r="A64" s="19"/>
       <c r="B64" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="18"/>
+      <c r="A65" s="19"/>
       <c r="B65" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="18"/>
+      <c r="A66" s="19"/>
       <c r="B66" t="s">
         <v>108</v>
       </c>
@@ -2489,7 +2492,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="20" t="s">
         <v>94</v>
       </c>
       <c r="B68" t="s">
@@ -2497,56 +2500,56 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20" t="s">
+      <c r="A69" s="20"/>
+      <c r="B69" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="19"/>
+      <c r="A70" s="20"/>
       <c r="B70" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="19"/>
+      <c r="A71" s="20"/>
       <c r="B71" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="19"/>
-      <c r="B72" s="20" t="s">
+      <c r="A72" s="20"/>
+      <c r="B72" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="20" t="s">
+      <c r="A73" s="20"/>
+      <c r="B73" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="19"/>
-      <c r="B74" s="20" t="s">
+      <c r="A74" s="20"/>
+      <c r="B74" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="19"/>
+      <c r="A75" s="20"/>
       <c r="B75" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="19"/>
+      <c r="A76" s="20"/>
       <c r="B76" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="20" t="s">
+      <c r="A77" s="20"/>
+      <c r="B77" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2574,57 +2577,57 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="18" t="s">
+      <c r="A82" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="18"/>
-      <c r="B83" s="20" t="s">
+      <c r="A83" s="19"/>
+      <c r="B83" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="18"/>
+      <c r="A84" s="19"/>
       <c r="B84" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="18"/>
+      <c r="A85" s="19"/>
       <c r="B85" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="18"/>
+      <c r="A86" s="19"/>
       <c r="B86" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="18"/>
+      <c r="A87" s="19"/>
       <c r="B87" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="18"/>
+      <c r="A88" s="19"/>
       <c r="B88" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="18"/>
+      <c r="A89" s="19"/>
       <c r="B89" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="18"/>
+      <c r="A90" s="19"/>
       <c r="B90" t="s">
         <v>140</v>
       </c>
@@ -2645,15 +2648,15 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="16" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="17"/>
+      <c r="A95" s="18"/>
       <c r="B95" t="s">
         <v>167</v>
       </c>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="222">
   <si>
     <t>Cerebro - Need utility to create page dynamically with entries i give</t>
   </si>
@@ -678,6 +678,9 @@
   </si>
   <si>
     <t>JDK Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Completed</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1106,8 @@
   <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1759,8 +1762,14 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="14" t="s">
         <v>199</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1943,6 +1952,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A60:B60"/>
     <mergeCell ref="A119:B119"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A109:B109"/>
@@ -1952,13 +1968,6 @@
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A60:B60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A72" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="222">
   <si>
     <t>Cerebro - Need utility to create page dynamically with entries i give</t>
   </si>
@@ -656,9 +656,6 @@
     <t>Hibernate Validator</t>
   </si>
   <si>
-    <t>Completed. Prepare notes in Cerebro</t>
-  </si>
-  <si>
     <t>JSON Web Tokens(JWT)</t>
   </si>
   <si>
@@ -681,6 +678,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Completed</t>
+  </si>
+  <si>
+    <t>Completed.</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -793,6 +793,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1103,11 +1104,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1246,14 +1247,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="20" spans="1:3">
       <c r="A20" s="10" t="s">
         <v>26</v>
@@ -1402,12 +1395,13 @@
       <c r="A38" s="4" t="s">
         <v>172</v>
       </c>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="17"/>
+      <c r="B39" s="18"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="9" t="s">
@@ -1442,10 +1436,10 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="17"/>
+      <c r="B45" s="18"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="9" t="s">
@@ -1464,10 +1458,10 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="18"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="9" t="s">
@@ -1502,10 +1496,10 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="17"/>
+      <c r="B56" s="18"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
@@ -1527,10 +1521,10 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="17"/>
+      <c r="B60" s="18"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="9" t="s">
@@ -1541,10 +1535,10 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B63" s="17"/>
+      <c r="B63" s="18"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="9" t="s">
@@ -1571,10 +1565,10 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="17"/>
+      <c r="B67" s="18"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="9" t="s">
@@ -1588,18 +1582,20 @@
       <c r="A69" s="4" t="s">
         <v>212</v>
       </c>
+      <c r="B69" s="17"/>
     </row>
     <row r="70" spans="1:3" s="11" customFormat="1">
       <c r="A70" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="B70" s="17"/>
       <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B71" s="17"/>
+      <c r="B71" s="18"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="10" t="s">
@@ -1625,7 +1621,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1680,6 +1676,7 @@
       <c r="A83" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="B83" s="17"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="9" t="s">
@@ -1697,7 +1694,7 @@
         <v>18</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="7" customFormat="1">
@@ -1726,10 +1723,10 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B89" s="17"/>
+      <c r="B89" s="18"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
@@ -1740,17 +1737,20 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="B92" s="17"/>
+      <c r="B92" s="18"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>18</v>
+      <c r="B93" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1769,53 +1769,59 @@
         <v>18</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B97" s="17"/>
+      <c r="B97" s="18"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="B98" s="17"/>
     </row>
     <row r="99" spans="1:3" s="7" customFormat="1">
       <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="B99" s="17"/>
       <c r="C99" s="4"/>
     </row>
     <row r="100" spans="1:3" s="7" customFormat="1">
       <c r="A100" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="B100" s="17"/>
       <c r="C100" s="4"/>
     </row>
     <row r="101" spans="1:3" s="7" customFormat="1">
       <c r="A101" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="B101" s="17"/>
       <c r="C101" s="4"/>
     </row>
     <row r="102" spans="1:3" s="7" customFormat="1">
       <c r="A102" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="B102" s="17"/>
       <c r="C102" s="4"/>
     </row>
     <row r="103" spans="1:3" s="7" customFormat="1">
       <c r="A103" s="4"/>
+      <c r="B103" s="17"/>
       <c r="C103" s="4"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="17"/>
+      <c r="B105" s="18"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
@@ -1829,16 +1835,18 @@
       <c r="A107" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="B107" s="17"/>
     </row>
     <row r="108" spans="1:3" s="7" customFormat="1">
       <c r="A108" s="1"/>
+      <c r="B108" s="17"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="B109" s="17"/>
+      <c r="B109" s="18"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
@@ -1849,15 +1857,16 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B112" s="17"/>
+      <c r="B112" s="18"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="4" t="s">
         <v>183</v>
       </c>
+      <c r="B113" s="17"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
@@ -1893,25 +1902,25 @@
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B119" s="17"/>
+      <c r="A119" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B119" s="18"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B120" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1923,10 +1932,10 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="17" t="s">
+      <c r="A124" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B124" s="17"/>
+      <c r="B124" s="18"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="8" t="s">
@@ -1947,18 +1956,27 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="B127" s="17"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B130" s="18"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A60:B60"/>
+  <mergeCells count="17">
+    <mergeCell ref="A130:B130"/>
     <mergeCell ref="A119:B119"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A109:B109"/>
@@ -1968,6 +1986,13 @@
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A60:B60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A72" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
@@ -1975,7 +2000,7 @@
     <hyperlink ref="A10" r:id="rId3" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
     <hyperlink ref="A17" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
     <hyperlink ref="A18" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
-    <hyperlink ref="A19" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
+    <hyperlink ref="A131" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
     <hyperlink ref="A93" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
     <hyperlink ref="A74" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
     <hyperlink ref="A20" r:id="rId9" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
@@ -2108,7 +2133,7 @@
     </row>
     <row r="8" spans="1:3" s="15" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2132,7 +2157,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>120</v>
       </c>
       <c r="B13" t="s">
@@ -2140,7 +2165,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -2161,7 +2186,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>100</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2172,13 +2197,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="16" t="s">
         <v>45</v>
       </c>
@@ -2187,7 +2212,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="19"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="16" t="s">
         <v>46</v>
       </c>
@@ -2196,13 +2221,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="19"/>
+      <c r="A22" s="20"/>
       <c r="B22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B23" t="s">
@@ -2210,37 +2235,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="19"/>
+      <c r="A27" s="20"/>
       <c r="B27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="19"/>
+      <c r="A28" s="20"/>
       <c r="B28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="19"/>
+      <c r="A29" s="20"/>
       <c r="B29" t="s">
         <v>54</v>
       </c>
@@ -2251,7 +2276,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>99</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -2262,43 +2287,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="19"/>
+      <c r="A32" s="20"/>
       <c r="B32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="19"/>
+      <c r="A33" s="20"/>
       <c r="B33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="19"/>
+      <c r="A34" s="20"/>
       <c r="B34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="19"/>
+      <c r="A37" s="20"/>
       <c r="B37" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B38" t="s">
@@ -2306,19 +2331,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="19"/>
+      <c r="A39" s="20"/>
       <c r="B39" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="19"/>
+      <c r="A40" s="20"/>
       <c r="B40" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B41" t="s">
@@ -2326,25 +2351,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="19"/>
+      <c r="A42" s="20"/>
       <c r="B42" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="19"/>
+      <c r="A44" s="20"/>
       <c r="B44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B45" t="s">
@@ -2352,7 +2377,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="19"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="16" t="s">
         <v>74</v>
       </c>
@@ -2361,7 +2386,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="19"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="16" t="s">
         <v>75</v>
       </c>
@@ -2385,7 +2410,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="20" t="s">
         <v>115</v>
       </c>
       <c r="B51" t="s">
@@ -2393,13 +2418,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="19"/>
+      <c r="A52" s="20"/>
       <c r="B52" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="19"/>
+      <c r="A53" s="20"/>
       <c r="B53" t="s">
         <v>85</v>
       </c>
@@ -2415,7 +2440,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="20" t="s">
         <v>114</v>
       </c>
       <c r="B56" t="s">
@@ -2423,13 +2448,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="19"/>
+      <c r="A57" s="20"/>
       <c r="B57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="20" t="s">
         <v>110</v>
       </c>
       <c r="B58" t="s">
@@ -2440,7 +2465,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="19"/>
+      <c r="A59" s="20"/>
       <c r="B59" t="s">
         <v>111</v>
       </c>
@@ -2449,7 +2474,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="19"/>
+      <c r="A60" s="20"/>
       <c r="B60" t="s">
         <v>112</v>
       </c>
@@ -2458,7 +2483,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B61" t="s">
@@ -2466,31 +2491,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="19"/>
+      <c r="A62" s="20"/>
       <c r="B62" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="19"/>
+      <c r="A63" s="20"/>
       <c r="B63" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="19"/>
+      <c r="A64" s="20"/>
       <c r="B64" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="19"/>
+      <c r="A65" s="20"/>
       <c r="B65" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="19"/>
+      <c r="A66" s="20"/>
       <c r="B66" t="s">
         <v>108</v>
       </c>
@@ -2501,7 +2526,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="21" t="s">
         <v>94</v>
       </c>
       <c r="B68" t="s">
@@ -2509,55 +2534,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="20"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="20"/>
+      <c r="A70" s="21"/>
       <c r="B70" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="20"/>
+      <c r="A71" s="21"/>
       <c r="B71" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="20"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="20"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="20"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="20"/>
+      <c r="A75" s="21"/>
       <c r="B75" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="20"/>
+      <c r="A76" s="21"/>
       <c r="B76" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="20"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="16" t="s">
         <v>92</v>
       </c>
@@ -2586,7 +2611,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="20" t="s">
         <v>116</v>
       </c>
       <c r="B82" s="16" t="s">
@@ -2594,49 +2619,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="19"/>
+      <c r="A83" s="20"/>
       <c r="B83" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="19"/>
+      <c r="A84" s="20"/>
       <c r="B84" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="19"/>
+      <c r="A85" s="20"/>
       <c r="B85" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="19"/>
+      <c r="A86" s="20"/>
       <c r="B86" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="19"/>
+      <c r="A87" s="20"/>
       <c r="B87" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="19"/>
+      <c r="A88" s="20"/>
       <c r="B88" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="19"/>
+      <c r="A89" s="20"/>
       <c r="B89" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="19"/>
+      <c r="A90" s="20"/>
       <c r="B90" t="s">
         <v>140</v>
       </c>
@@ -2657,7 +2682,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="19" t="s">
         <v>165</v>
       </c>
       <c r="B94" s="16" t="s">
@@ -2665,7 +2690,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="18"/>
+      <c r="A95" s="19"/>
       <c r="B95" t="s">
         <v>167</v>
       </c>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="238">
   <si>
     <t>Cerebro - Need utility to create page dynamically with entries i give</t>
   </si>
@@ -681,6 +681,54 @@
   </si>
   <si>
     <t>Completed.</t>
+  </si>
+  <si>
+    <t>Rest Client - java.net.URL</t>
+  </si>
+  <si>
+    <t>Rest client - Apache Http Client</t>
+  </si>
+  <si>
+    <t>Rest Client - RESTEasy</t>
+  </si>
+  <si>
+    <t>Rest Client - Jersey client</t>
+  </si>
+  <si>
+    <t>RESTEasy Implementation</t>
+  </si>
+  <si>
+    <t>Jersey Implementation - File Upload</t>
+  </si>
+  <si>
+    <t>Jersey Implementation - File download</t>
+  </si>
+  <si>
+    <t>Java - MongoDB</t>
+  </si>
+  <si>
+    <t>Spring Data Mongo</t>
+  </si>
+  <si>
+    <t>JaxB</t>
+  </si>
+  <si>
+    <t>http://www.vogella.com/tutorials/JAXB/article.html</t>
+  </si>
+  <si>
+    <t>http://www.javatpoint.com/jaxb-tutorial</t>
+  </si>
+  <si>
+    <t>images\a_JAXB\4_JAXB-Tutorial.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mkyong.com/java/jaxb-hello-world-example</t>
+  </si>
+  <si>
+    <t>Internals of HashMap</t>
+  </si>
+  <si>
+    <t>Collections</t>
   </si>
 </sst>
 </file>
@@ -761,7 +809,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -793,6 +841,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1104,11 +1153,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A131" sqref="A131"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1398,10 +1447,10 @@
       <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="19"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="9" t="s">
@@ -1436,10 +1485,10 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="18"/>
+      <c r="B45" s="19"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="9" t="s">
@@ -1458,10 +1507,10 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B50" s="18"/>
+      <c r="B50" s="19"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="9" t="s">
@@ -1496,10 +1545,10 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="18"/>
+      <c r="B56" s="19"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
@@ -1521,10 +1570,10 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="18"/>
+      <c r="B60" s="19"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="9" t="s">
@@ -1535,10 +1584,10 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="B63" s="18"/>
+      <c r="B63" s="19"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="9" t="s">
@@ -1565,10 +1614,10 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="18"/>
+      <c r="B67" s="19"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="9" t="s">
@@ -1592,10 +1641,10 @@
       <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B71" s="18"/>
+      <c r="B71" s="19"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="10" t="s">
@@ -1723,10 +1772,10 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B89" s="18"/>
+      <c r="B89" s="19"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
@@ -1737,10 +1786,10 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B92" s="18"/>
+      <c r="B92" s="19"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="14" t="s">
@@ -1772,220 +1821,317 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="18" t="s">
+    <row r="96" spans="1:3" s="18" customFormat="1">
+      <c r="A96" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="1:3" s="18" customFormat="1">
+      <c r="A97" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="1:3" s="18" customFormat="1">
+      <c r="A98" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:3" s="18" customFormat="1">
+      <c r="A99" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="18" customFormat="1">
+      <c r="A100" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="1:3" s="18" customFormat="1">
+      <c r="A101" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="1:3" s="18" customFormat="1">
+      <c r="A102" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="1:3" s="18" customFormat="1">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B97" s="18"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B98" s="17"/>
-    </row>
-    <row r="99" spans="1:3" s="7" customFormat="1">
-      <c r="A99" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="4"/>
-    </row>
-    <row r="100" spans="1:3" s="7" customFormat="1">
-      <c r="A100" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="4"/>
-    </row>
-    <row r="101" spans="1:3" s="7" customFormat="1">
-      <c r="A101" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B101" s="17"/>
-      <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="1:3" s="7" customFormat="1">
-      <c r="A102" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="4"/>
-    </row>
-    <row r="103" spans="1:3" s="7" customFormat="1">
-      <c r="A103" s="4"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="4"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B105" s="18"/>
+      <c r="B105" s="19"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>200</v>
+      </c>
+      <c r="B106" s="17"/>
+    </row>
+    <row r="107" spans="1:3" s="7" customFormat="1">
       <c r="A107" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B107" s="17"/>
+      <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" s="7" customFormat="1">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B108" s="17"/>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B109" s="18"/>
-    </row>
-    <row r="110" spans="1:3">
+    <row r="109" spans="1:3" s="7" customFormat="1">
+      <c r="A109" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" s="17"/>
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" spans="1:3" s="7" customFormat="1">
       <c r="A110" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B112" s="18"/>
+        <v>204</v>
+      </c>
+      <c r="B110" s="17"/>
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="1:3" s="7" customFormat="1">
+      <c r="A111" s="4"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="4"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B113" s="17"/>
+      <c r="A113" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B113" s="19"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="7" customFormat="1">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" s="4"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B115" s="17"/>
+    </row>
+    <row r="116" spans="1:3" s="7" customFormat="1">
+      <c r="A116" s="1"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="4"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B119" s="18"/>
+      <c r="A117" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B117" s="19"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>215</v>
-      </c>
+      <c r="A120" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B120" s="19"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>215</v>
-      </c>
+      <c r="A121" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B121" s="17"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="7" customFormat="1">
+      <c r="A123" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B127" s="19"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="18" t="s">
+      <c r="B130" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B124" s="18"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="8" t="s">
+      <c r="B132" s="19"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" s="13" t="s">
+      <c r="B133" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="4" t="s">
+    <row r="134" spans="1:3">
+      <c r="A134" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B126" s="5"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="9" t="s">
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B127" s="17"/>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="18" t="s">
+      <c r="B135" s="17"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B130" s="18"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="9" t="s">
+      <c r="B138" s="19"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>18</v>
+      <c r="B139" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B143" s="19"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B150" s="19"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A105:B105"/>
+  <mergeCells count="19">
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A143:B143"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A39:B39"/>
@@ -1993,14 +2139,22 @@
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A132:B132"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A72" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
-    <hyperlink ref="A125" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
+    <hyperlink ref="A133" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
     <hyperlink ref="A10" r:id="rId3" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
     <hyperlink ref="A17" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
     <hyperlink ref="A18" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
-    <hyperlink ref="A131" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
+    <hyperlink ref="A139" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
     <hyperlink ref="A93" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
     <hyperlink ref="A74" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
     <hyperlink ref="A20" r:id="rId9" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
@@ -2042,7 +2196,7 @@
     <hyperlink ref="A14" r:id="rId45" display="https://app.pluralsight.com/library/courses/apache-spark-fundamentals"/>
     <hyperlink ref="A15" r:id="rId46" display="https://app.pluralsight.com/library/courses/apache-spark-beginning-data-exploration-analysis"/>
     <hyperlink ref="A16" r:id="rId47" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
-    <hyperlink ref="A122" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
+    <hyperlink ref="A130" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
     <hyperlink ref="A25" r:id="rId49" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
     <hyperlink ref="A26" r:id="rId50" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
     <hyperlink ref="A28" r:id="rId51" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
@@ -2053,24 +2207,30 @@
     <hyperlink ref="A88" r:id="rId56" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
     <hyperlink ref="A90" r:id="rId57" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
     <hyperlink ref="A95" r:id="rId58" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
-    <hyperlink ref="A98" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
-    <hyperlink ref="A99" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
-    <hyperlink ref="A100" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
-    <hyperlink ref="A101" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
-    <hyperlink ref="A102" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
-    <hyperlink ref="A106" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
-    <hyperlink ref="A107" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
-    <hyperlink ref="A110" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
-    <hyperlink ref="A114" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
-    <hyperlink ref="A115" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
-    <hyperlink ref="A116" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
-    <hyperlink ref="A117" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
-    <hyperlink ref="A120" r:id="rId71"/>
-    <hyperlink ref="A121" r:id="rId72"/>
-    <hyperlink ref="A127" r:id="rId73"/>
+    <hyperlink ref="A106" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
+    <hyperlink ref="A107" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
+    <hyperlink ref="A108" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
+    <hyperlink ref="A109" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
+    <hyperlink ref="A110" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
+    <hyperlink ref="A114" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
+    <hyperlink ref="A115" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
+    <hyperlink ref="A118" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
+    <hyperlink ref="A122" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
+    <hyperlink ref="A123" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
+    <hyperlink ref="A124" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
+    <hyperlink ref="A125" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
+    <hyperlink ref="A128" r:id="rId71"/>
+    <hyperlink ref="A129" r:id="rId72"/>
+    <hyperlink ref="A135" r:id="rId73"/>
+    <hyperlink ref="A96" r:id="rId74"/>
+    <hyperlink ref="A97" r:id="rId75"/>
+    <hyperlink ref="A98" r:id="rId76"/>
+    <hyperlink ref="A144" r:id="rId77"/>
+    <hyperlink ref="A145" r:id="rId78"/>
+    <hyperlink ref="A147" r:id="rId79"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId74"/>
+  <pageSetup orientation="portrait" r:id="rId80"/>
 </worksheet>
 </file>
 
@@ -2157,7 +2317,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>120</v>
       </c>
       <c r="B13" t="s">
@@ -2165,7 +2325,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -2186,7 +2346,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>100</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2197,13 +2357,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="16" t="s">
         <v>45</v>
       </c>
@@ -2212,7 +2372,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="16" t="s">
         <v>46</v>
       </c>
@@ -2221,13 +2381,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="21" t="s">
         <v>121</v>
       </c>
       <c r="B23" t="s">
@@ -2235,37 +2395,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
       <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21"/>
       <c r="B27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
       <c r="B28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="21"/>
       <c r="B29" t="s">
         <v>54</v>
       </c>
@@ -2276,7 +2436,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>99</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -2287,43 +2447,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="20"/>
+      <c r="A32" s="21"/>
       <c r="B32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="20"/>
+      <c r="A33" s="21"/>
       <c r="B33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
       <c r="B34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="20"/>
+      <c r="A35" s="21"/>
       <c r="B35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
       <c r="B36" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
       <c r="B37" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B38" t="s">
@@ -2331,19 +2491,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="20"/>
+      <c r="A39" s="21"/>
       <c r="B39" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="20"/>
+      <c r="A40" s="21"/>
       <c r="B40" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B41" t="s">
@@ -2351,25 +2511,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="20"/>
+      <c r="A42" s="21"/>
       <c r="B42" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="20"/>
+      <c r="A43" s="21"/>
       <c r="B43" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="20"/>
+      <c r="A44" s="21"/>
       <c r="B44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B45" t="s">
@@ -2377,7 +2537,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="20"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="16" t="s">
         <v>74</v>
       </c>
@@ -2386,7 +2546,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="20"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="16" t="s">
         <v>75</v>
       </c>
@@ -2410,7 +2570,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="21" t="s">
         <v>115</v>
       </c>
       <c r="B51" t="s">
@@ -2418,13 +2578,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="20"/>
+      <c r="A52" s="21"/>
       <c r="B52" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="20"/>
+      <c r="A53" s="21"/>
       <c r="B53" t="s">
         <v>85</v>
       </c>
@@ -2440,7 +2600,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="21" t="s">
         <v>114</v>
       </c>
       <c r="B56" t="s">
@@ -2448,13 +2608,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="20"/>
+      <c r="A57" s="21"/>
       <c r="B57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="21" t="s">
         <v>110</v>
       </c>
       <c r="B58" t="s">
@@ -2465,7 +2625,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="20"/>
+      <c r="A59" s="21"/>
       <c r="B59" t="s">
         <v>111</v>
       </c>
@@ -2474,7 +2634,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="20"/>
+      <c r="A60" s="21"/>
       <c r="B60" t="s">
         <v>112</v>
       </c>
@@ -2483,7 +2643,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="21" t="s">
         <v>90</v>
       </c>
       <c r="B61" t="s">
@@ -2491,31 +2651,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="20"/>
+      <c r="A62" s="21"/>
       <c r="B62" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="20"/>
+      <c r="A63" s="21"/>
       <c r="B63" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="20"/>
+      <c r="A64" s="21"/>
       <c r="B64" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="20"/>
+      <c r="A65" s="21"/>
       <c r="B65" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="20"/>
+      <c r="A66" s="21"/>
       <c r="B66" t="s">
         <v>108</v>
       </c>
@@ -2526,7 +2686,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="22" t="s">
         <v>94</v>
       </c>
       <c r="B68" t="s">
@@ -2534,55 +2694,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="21"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="21"/>
+      <c r="A70" s="22"/>
       <c r="B70" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="21"/>
+      <c r="A71" s="22"/>
       <c r="B71" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="21"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="21"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="21"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="21"/>
+      <c r="A75" s="22"/>
       <c r="B75" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="21"/>
+      <c r="A76" s="22"/>
       <c r="B76" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="21"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="16" t="s">
         <v>92</v>
       </c>
@@ -2611,7 +2771,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="21" t="s">
         <v>116</v>
       </c>
       <c r="B82" s="16" t="s">
@@ -2619,49 +2779,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="20"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="20"/>
+      <c r="A84" s="21"/>
       <c r="B84" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="20"/>
+      <c r="A85" s="21"/>
       <c r="B85" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="20"/>
+      <c r="A86" s="21"/>
       <c r="B86" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="20"/>
+      <c r="A87" s="21"/>
       <c r="B87" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="20"/>
+      <c r="A88" s="21"/>
       <c r="B88" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="20"/>
+      <c r="A89" s="21"/>
       <c r="B89" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="20"/>
+      <c r="A90" s="21"/>
       <c r="B90" t="s">
         <v>140</v>
       </c>
@@ -2682,7 +2842,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="20" t="s">
         <v>165</v>
       </c>
       <c r="B94" s="16" t="s">
@@ -2690,7 +2850,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="19"/>
+      <c r="A95" s="20"/>
       <c r="B95" t="s">
         <v>167</v>
       </c>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorials" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="239">
   <si>
     <t>Cerebro - Need utility to create page dynamically with entries i give</t>
   </si>
@@ -729,6 +729,9 @@
   </si>
   <si>
     <t>Collections</t>
+  </si>
+  <si>
+    <t>InProgress</t>
   </si>
 </sst>
 </file>
@@ -767,7 +770,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,6 +795,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -809,7 +818,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -843,6 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -853,6 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1155,9 +1166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1337,18 +1348,23 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>18</v>
+      <c r="B25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="7" customFormat="1">
       <c r="A26" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3">
@@ -1447,10 +1463,10 @@
       <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="19"/>
+      <c r="B39" s="20"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="9" t="s">
@@ -1485,10 +1501,10 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="19"/>
+      <c r="B45" s="20"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="9" t="s">
@@ -1507,10 +1523,10 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B50" s="19"/>
+      <c r="B50" s="20"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="9" t="s">
@@ -1545,10 +1561,10 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="19"/>
+      <c r="B56" s="20"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
@@ -1570,10 +1586,10 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="19"/>
+      <c r="B60" s="20"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="9" t="s">
@@ -1584,10 +1600,10 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B63" s="19"/>
+      <c r="B63" s="20"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="9" t="s">
@@ -1614,10 +1630,10 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="19"/>
+      <c r="B67" s="20"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="9" t="s">
@@ -1641,10 +1657,10 @@
       <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B71" s="19"/>
+      <c r="B71" s="20"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="10" t="s">
@@ -1772,10 +1788,10 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B89" s="19"/>
+      <c r="B89" s="20"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
@@ -1786,10 +1802,10 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B92" s="19"/>
+      <c r="B92" s="20"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="14" t="s">
@@ -1878,10 +1894,10 @@
       <c r="C103" s="4"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B105" s="19"/>
+      <c r="B105" s="20"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
@@ -1923,10 +1939,10 @@
       <c r="C111" s="4"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="19"/>
+      <c r="B113" s="20"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
@@ -1948,10 +1964,10 @@
       <c r="C116" s="4"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B117" s="19"/>
+      <c r="B117" s="20"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
@@ -1962,10 +1978,10 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="19" t="s">
+      <c r="A120" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B120" s="19"/>
+      <c r="B120" s="20"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="4" t="s">
@@ -2007,10 +2023,10 @@
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B127" s="19"/>
+      <c r="B127" s="20"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="9" t="s">
@@ -2037,10 +2053,10 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="19" t="s">
+      <c r="A132" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B132" s="19"/>
+      <c r="B132" s="20"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="8" t="s">
@@ -2066,10 +2082,10 @@
       <c r="B135" s="17"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="19" t="s">
+      <c r="A138" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B138" s="19"/>
+      <c r="B138" s="20"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="9" t="s">
@@ -2090,10 +2106,10 @@
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="19" t="s">
+      <c r="A143" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B143" s="19"/>
+      <c r="B143" s="20"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="9" t="s">
@@ -2116,10 +2132,10 @@
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="19" t="s">
+      <c r="A150" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="B150" s="19"/>
+      <c r="B150" s="20"/>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="4" t="s">
@@ -2128,17 +2144,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A60:B60"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A120:B120"/>
     <mergeCell ref="A150:B150"/>
     <mergeCell ref="A143:B143"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A60:B60"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A92:B92"/>
@@ -2238,9 +2254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2317,7 +2333,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>120</v>
       </c>
       <c r="B13" t="s">
@@ -2325,7 +2341,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -2346,7 +2362,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>100</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2357,13 +2373,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>45</v>
       </c>
@@ -2372,7 +2388,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>46</v>
       </c>
@@ -2381,51 +2397,54 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="21"/>
+      <c r="A22" s="22"/>
       <c r="B22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="24" t="s">
         <v>48</v>
       </c>
+      <c r="C23" s="19" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="21"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
       <c r="B25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="21"/>
+      <c r="A26" s="22"/>
       <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="B27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="21"/>
+      <c r="A29" s="22"/>
       <c r="B29" t="s">
         <v>54</v>
       </c>
@@ -2436,7 +2455,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="22" t="s">
         <v>99</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -2447,43 +2466,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="21"/>
-      <c r="B32" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="21"/>
+      <c r="A33" s="22"/>
       <c r="B33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="21"/>
+      <c r="A34" s="22"/>
       <c r="B34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="21"/>
+      <c r="A35" s="22"/>
       <c r="B35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="21"/>
+      <c r="A36" s="22"/>
       <c r="B36" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="21"/>
+      <c r="A37" s="22"/>
       <c r="B37" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B38" t="s">
@@ -2491,19 +2510,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="21"/>
+      <c r="A39" s="22"/>
       <c r="B39" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="21"/>
+      <c r="A40" s="22"/>
       <c r="B40" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B41" t="s">
@@ -2511,25 +2530,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="21"/>
+      <c r="A42" s="22"/>
       <c r="B42" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="21"/>
+      <c r="A43" s="22"/>
       <c r="B43" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="21"/>
+      <c r="A44" s="22"/>
       <c r="B44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B45" t="s">
@@ -2537,7 +2556,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="21"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="16" t="s">
         <v>74</v>
       </c>
@@ -2546,7 +2565,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="21"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="16" t="s">
         <v>75</v>
       </c>
@@ -2570,21 +2589,24 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="16" t="s">
         <v>83</v>
       </c>
+      <c r="C51" s="16" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="21"/>
+      <c r="A52" s="22"/>
       <c r="B52" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="21"/>
+      <c r="A53" s="22"/>
       <c r="B53" t="s">
         <v>85</v>
       </c>
@@ -2600,7 +2622,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="22" t="s">
         <v>114</v>
       </c>
       <c r="B56" t="s">
@@ -2608,42 +2630,42 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="21"/>
+      <c r="A57" s="22"/>
       <c r="B57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="21"/>
-      <c r="B59" t="s">
+      <c r="A59" s="22"/>
+      <c r="B59" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="21"/>
-      <c r="B60" t="s">
+      <c r="A60" s="22"/>
+      <c r="B60" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="22" t="s">
         <v>90</v>
       </c>
       <c r="B61" t="s">
@@ -2651,31 +2673,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="21"/>
+      <c r="A62" s="22"/>
       <c r="B62" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="21"/>
+      <c r="A63" s="22"/>
       <c r="B63" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="21"/>
+      <c r="A64" s="22"/>
       <c r="B64" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="21"/>
+      <c r="A65" s="22"/>
       <c r="B65" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="21"/>
+      <c r="A66" s="22"/>
       <c r="B66" t="s">
         <v>108</v>
       </c>
@@ -2686,7 +2708,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B68" t="s">
@@ -2694,55 +2716,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="22"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="22"/>
+      <c r="A70" s="23"/>
       <c r="B70" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="22"/>
+      <c r="A71" s="23"/>
       <c r="B71" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="22"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="22"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="22"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="22"/>
+      <c r="A75" s="23"/>
       <c r="B75" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="22"/>
+      <c r="A76" s="23"/>
       <c r="B76" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="22"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="16" t="s">
         <v>92</v>
       </c>
@@ -2771,7 +2793,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B82" s="16" t="s">
@@ -2779,49 +2801,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="21"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="21"/>
+      <c r="A84" s="22"/>
       <c r="B84" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="21"/>
+      <c r="A85" s="22"/>
       <c r="B85" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="21"/>
+      <c r="A86" s="22"/>
       <c r="B86" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="21"/>
+      <c r="A87" s="22"/>
       <c r="B87" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="21"/>
+      <c r="A88" s="22"/>
       <c r="B88" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="21"/>
+      <c r="A89" s="22"/>
       <c r="B89" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="21"/>
+      <c r="A90" s="22"/>
       <c r="B90" t="s">
         <v>140</v>
       </c>
@@ -2842,7 +2864,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="21" t="s">
         <v>165</v>
       </c>
       <c r="B94" s="16" t="s">
@@ -2850,7 +2872,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="20"/>
+      <c r="A95" s="21"/>
       <c r="B95" t="s">
         <v>167</v>
       </c>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorials" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="238">
   <si>
     <t>Cerebro - Need utility to create page dynamically with entries i give</t>
   </si>
@@ -729,9 +729,6 @@
   </si>
   <si>
     <t>Collections</t>
-  </si>
-  <si>
-    <t>InProgress</t>
   </si>
 </sst>
 </file>
@@ -770,7 +767,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,12 +792,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -818,7 +809,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -863,7 +854,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1166,9 +1156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2088,12 +2078,13 @@
       <c r="B138" s="20"/>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B139" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B139" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" s="13"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="4" t="s">
@@ -2144,11 +2135,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A60:B60"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A120:B120"/>
     <mergeCell ref="A150:B150"/>
@@ -2163,6 +2149,11 @@
     <mergeCell ref="A138:B138"/>
     <mergeCell ref="A127:B127"/>
     <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A60:B60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A72" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
@@ -2254,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2406,11 +2397,11 @@
       <c r="A23" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:3">

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -15,19 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="238">
-  <si>
-    <t>Cerebro - Need utility to create page dynamically with entries i give</t>
-  </si>
-  <si>
-    <t>What is PersistenceContext</t>
-  </si>
-  <si>
-    <t>Update Cerebro with core java definitions</t>
-  </si>
-  <si>
-    <t>Update Cerebro with all core java example</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="234">
   <si>
     <t>Unit testing in java with junit</t>
   </si>
@@ -1154,11 +1142,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96:C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1170,924 +1158,928 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>135</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5"/>
+      <c r="A8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="A10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="7" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1">
-      <c r="A15" s="1" t="s">
-        <v>187</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>188</v>
+      <c r="A16" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="9" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="9" t="s">
-        <v>130</v>
+      <c r="A20" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="7" customFormat="1">
+      <c r="A21" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="9" t="s">
-        <v>134</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="7" customFormat="1">
+      <c r="A23" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="7" customFormat="1">
-      <c r="A26" s="1" t="s">
-        <v>191</v>
+      <c r="A25" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="7" customFormat="1">
-      <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A33" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="17"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A34" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="20"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="9" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="9" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" s="17"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="20"/>
+      <c r="A38" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A40" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="20"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="9" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="9" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B45" s="20"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="9" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="9" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B50" s="20"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A51" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="20"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="9" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="9" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="20"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="20"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="9" t="s">
+      <c r="A56" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>180</v>
+      <c r="B58" s="20"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="20"/>
+      <c r="A60" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="20"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A64" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B64" s="17"/>
+    </row>
+    <row r="65" spans="1:3" s="11" customFormat="1">
+      <c r="A65" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A66" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="20"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="20"/>
+      <c r="A67" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B69" s="17"/>
-    </row>
-    <row r="70" spans="1:3" s="11" customFormat="1">
+      <c r="A69" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B71" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:3" ht="30">
+      <c r="A71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="5"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>218</v>
-      </c>
+      <c r="B74" s="5"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B75" s="5"/>
     </row>
-    <row r="76" spans="1:3" ht="30">
+    <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B77" s="5"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B78" s="17"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="5"/>
+      <c r="A79" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="5"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="5"/>
+      <c r="A80" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="7" customFormat="1">
+      <c r="A81" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" s="5"/>
+      <c r="A82" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B83" s="17"/>
+      <c r="A83" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A84" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="20"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="13" t="s">
+      <c r="B85" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="20"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="18" customFormat="1">
+      <c r="A91" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="1:3" s="18" customFormat="1">
+      <c r="A92" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="1:3" s="18" customFormat="1">
+      <c r="A93" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="1:3" s="18" customFormat="1">
+      <c r="A94" s="14" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" s="7" customFormat="1">
-      <c r="A86" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B89" s="20"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="B92" s="20"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>220</v>
-      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="18" customFormat="1">
+      <c r="A95" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" spans="1:3" s="18" customFormat="1">
-      <c r="A96" s="9" t="s">
-        <v>222</v>
+      <c r="A96" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+      <c r="C96" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="97" spans="1:3" s="18" customFormat="1">
-      <c r="A97" s="9" t="s">
-        <v>223</v>
+      <c r="A97" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+      <c r="C97" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="98" spans="1:3" s="18" customFormat="1">
-      <c r="A98" s="9" t="s">
-        <v>224</v>
-      </c>
+      <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
     </row>
-    <row r="99" spans="1:3" s="18" customFormat="1">
-      <c r="A99" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" s="18" customFormat="1">
-      <c r="A100" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-    </row>
-    <row r="101" spans="1:3" s="18" customFormat="1">
-      <c r="A101" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="1:3" s="18" customFormat="1">
-      <c r="A102" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B102" s="4"/>
+    <row r="100" spans="1:3">
+      <c r="A100" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100" s="20"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" s="17"/>
+    </row>
+    <row r="102" spans="1:3" s="7" customFormat="1">
+      <c r="A102" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" s="17"/>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:3" s="18" customFormat="1">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
+    <row r="103" spans="1:3" s="7" customFormat="1">
+      <c r="A103" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B103" s="17"/>
       <c r="C103" s="4"/>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B105" s="20"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1" t="s">
+    <row r="104" spans="1:3" s="7" customFormat="1">
+      <c r="A104" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" s="17"/>
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" spans="1:3" s="7" customFormat="1">
+      <c r="A105" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="B105" s="17"/>
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="1:3" s="7" customFormat="1">
+      <c r="A106" s="4"/>
       <c r="B106" s="17"/>
-    </row>
-    <row r="107" spans="1:3" s="7" customFormat="1">
-      <c r="A107" s="1" t="s">
+      <c r="C106" s="4"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" s="20"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B107" s="17"/>
-      <c r="C107" s="4"/>
-    </row>
-    <row r="108" spans="1:3" s="7" customFormat="1">
-      <c r="A108" s="1" t="s">
+      <c r="B109" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B108" s="17"/>
-      <c r="C108" s="4"/>
-    </row>
-    <row r="109" spans="1:3" s="7" customFormat="1">
-      <c r="A109" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B109" s="17"/>
-      <c r="C109" s="4"/>
-    </row>
-    <row r="110" spans="1:3" s="7" customFormat="1">
-      <c r="A110" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="B110" s="17"/>
-      <c r="C110" s="4"/>
     </row>
     <row r="111" spans="1:3" s="7" customFormat="1">
-      <c r="A111" s="4"/>
+      <c r="A111" s="1"/>
       <c r="B111" s="17"/>
       <c r="C111" s="4"/>
     </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B112" s="20"/>
+    </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B113" s="20"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1" t="s">
+      <c r="A113" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B115" s="20"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="7" customFormat="1">
+      <c r="A118" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1" t="s">
+      <c r="B118" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B115" s="17"/>
-    </row>
-    <row r="116" spans="1:3" s="7" customFormat="1">
-      <c r="A116" s="1"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="4"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B117" s="20"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1" t="s">
+      <c r="B119" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B120" s="20"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B121" s="17"/>
+      <c r="B120" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" s="7" customFormat="1">
-      <c r="A123" s="1" t="s">
+      <c r="A122" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C123" s="4"/>
+      <c r="B122" s="20"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>18</v>
+      <c r="A124" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" s="20"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B127" s="20"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B132" s="20"/>
+      <c r="B130" s="17"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="A133" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B133" s="20"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B134" s="5"/>
+      <c r="A134" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="13"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B135" s="17"/>
+      <c r="A135" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="20" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="B138" s="20"/>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C139" s="13"/>
+      <c r="A139" s="9" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="9" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2096,145 +2088,124 @@
         <v>230</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="20" t="s">
+    <row r="142" spans="1:3">
+      <c r="A142" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B143" s="20"/>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="9" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="20" t="s">
         <v>233</v>
       </c>
+      <c r="B145" s="20"/>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="B150" s="20"/>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A145:B145"/>
     <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A122:B122"/>
     <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A60:B60"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A72" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
-    <hyperlink ref="A133" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
-    <hyperlink ref="A10" r:id="rId3" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
-    <hyperlink ref="A17" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
-    <hyperlink ref="A18" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
-    <hyperlink ref="A139" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
-    <hyperlink ref="A93" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
-    <hyperlink ref="A74" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
-    <hyperlink ref="A20" r:id="rId9" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
-    <hyperlink ref="A21" r:id="rId10" display="https://app.pluralsight.com/library/courses/understanding-java-vm-memory-management"/>
-    <hyperlink ref="A64" r:id="rId11" display="https://app.pluralsight.com/library/courses/ads-part1"/>
-    <hyperlink ref="A65" r:id="rId12" display="https://app.pluralsight.com/library/courses/ads2"/>
-    <hyperlink ref="A22" r:id="rId13" display="https://app.pluralsight.com/library/courses/data-mining-algorithms-ssas-excel-r"/>
-    <hyperlink ref="A23" r:id="rId14" display="https://app.pluralsight.com/library/courses/vagrant-versioning-environments"/>
-    <hyperlink ref="A41" r:id="rId15" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
-    <hyperlink ref="A42" r:id="rId16" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
-    <hyperlink ref="A24" r:id="rId17" display="https://app.pluralsight.com/library/courses/consul-getting-started"/>
-    <hyperlink ref="A84" r:id="rId18" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
-    <hyperlink ref="A94" r:id="rId19" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
-    <hyperlink ref="A27" r:id="rId20" display="https://app.pluralsight.com/library/courses/java-patterns-concurrency-multi-threading"/>
-    <hyperlink ref="A29" r:id="rId21" display="https://app.pluralsight.com/library/courses/design-patterns-java-behavioral"/>
-    <hyperlink ref="A30" r:id="rId22" display="https://app.pluralsight.com/library/courses/design-patterns-java-creational"/>
-    <hyperlink ref="A31" r:id="rId23" display="https://app.pluralsight.com/library/courses/design-patterns-java-structural"/>
-    <hyperlink ref="A32" r:id="rId24" display="https://app.pluralsight.com/library/courses/mysql-flyway-continuous-database-delivery"/>
-    <hyperlink ref="A34" r:id="rId25" display="https://app.pluralsight.com/library/courses/cloud-foundry-developers"/>
-    <hyperlink ref="A35" r:id="rId26" display="https://app.pluralsight.com/library/courses/google-cloud-big-query"/>
-    <hyperlink ref="A40" r:id="rId27" display="https://app.pluralsight.com/library/courses/docker-containers-big-picture"/>
-    <hyperlink ref="A43" r:id="rId28" display="https://app.pluralsight.com/library/courses/docker-deep-dive"/>
-    <hyperlink ref="A36" r:id="rId29" display="https://app.pluralsight.com/library/courses/xslt-foundations-part1"/>
-    <hyperlink ref="A37" r:id="rId30" display="https://app.pluralsight.com/library/courses/xslt-3-0-whats-new-part1"/>
-    <hyperlink ref="A51" r:id="rId31" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part1"/>
-    <hyperlink ref="A52" r:id="rId32" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part2"/>
-    <hyperlink ref="A53" r:id="rId33" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part3"/>
-    <hyperlink ref="A54" r:id="rId34" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part4"/>
-    <hyperlink ref="A33" r:id="rId35" display="https://app.pluralsight.com/library/courses/sql-server-flyway-continuous-database-delivery"/>
-    <hyperlink ref="A46" r:id="rId36" display="https://app.pluralsight.com/library/courses/python-fundamentals"/>
-    <hyperlink ref="A47" r:id="rId37" display="https://app.pluralsight.com/library/courses/python-beyond-basics"/>
-    <hyperlink ref="A58" r:id="rId38" display="https://app.pluralsight.com/library/courses/scala-getting-started"/>
-    <hyperlink ref="A57" r:id="rId39" display="https://app.pluralsight.com/library/courses/scala-for-java-developers"/>
-    <hyperlink ref="A61" r:id="rId40" display="https://app.pluralsight.com/library/courses/practical-couchdb-developers"/>
-    <hyperlink ref="A13" r:id="rId41" display="https://app.pluralsight.com/library/courses/groovy-fundamentals"/>
-    <hyperlink ref="A73" r:id="rId42" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
-    <hyperlink ref="A68" r:id="rId43" display="https://app.pluralsight.com/library/courses/hibernate-introduction"/>
-    <hyperlink ref="A12" r:id="rId44" display="https://app.pluralsight.com/library/courses/splunk-analyzing-machine-data"/>
-    <hyperlink ref="A14" r:id="rId45" display="https://app.pluralsight.com/library/courses/apache-spark-fundamentals"/>
-    <hyperlink ref="A15" r:id="rId46" display="https://app.pluralsight.com/library/courses/apache-spark-beginning-data-exploration-analysis"/>
-    <hyperlink ref="A16" r:id="rId47" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
-    <hyperlink ref="A130" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
-    <hyperlink ref="A25" r:id="rId49" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
-    <hyperlink ref="A26" r:id="rId50" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
-    <hyperlink ref="A28" r:id="rId51" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
-    <hyperlink ref="A66" r:id="rId52" display="https://app.pluralsight.com/library/courses/algorithmics-introduction"/>
-    <hyperlink ref="A85" r:id="rId53" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
-    <hyperlink ref="A86" r:id="rId54" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
-    <hyperlink ref="A87" r:id="rId55" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
-    <hyperlink ref="A88" r:id="rId56" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
-    <hyperlink ref="A90" r:id="rId57" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
-    <hyperlink ref="A95" r:id="rId58" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
-    <hyperlink ref="A106" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
-    <hyperlink ref="A107" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
-    <hyperlink ref="A108" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
-    <hyperlink ref="A109" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
-    <hyperlink ref="A110" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
-    <hyperlink ref="A114" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
-    <hyperlink ref="A115" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
-    <hyperlink ref="A118" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
-    <hyperlink ref="A122" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
-    <hyperlink ref="A123" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
-    <hyperlink ref="A124" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
-    <hyperlink ref="A125" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
-    <hyperlink ref="A128" r:id="rId71"/>
-    <hyperlink ref="A129" r:id="rId72"/>
-    <hyperlink ref="A135" r:id="rId73"/>
-    <hyperlink ref="A96" r:id="rId74"/>
-    <hyperlink ref="A97" r:id="rId75"/>
-    <hyperlink ref="A98" r:id="rId76"/>
-    <hyperlink ref="A144" r:id="rId77"/>
-    <hyperlink ref="A145" r:id="rId78"/>
-    <hyperlink ref="A147" r:id="rId79"/>
+    <hyperlink ref="A67" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
+    <hyperlink ref="A128" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
+    <hyperlink ref="A13" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
+    <hyperlink ref="A14" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
+    <hyperlink ref="A134" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
+    <hyperlink ref="A88" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
+    <hyperlink ref="A69" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
+    <hyperlink ref="A15" r:id="rId9" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
+    <hyperlink ref="A16" r:id="rId10" display="https://app.pluralsight.com/library/courses/understanding-java-vm-memory-management"/>
+    <hyperlink ref="A59" r:id="rId11" display="https://app.pluralsight.com/library/courses/ads-part1"/>
+    <hyperlink ref="A60" r:id="rId12" display="https://app.pluralsight.com/library/courses/ads2"/>
+    <hyperlink ref="A17" r:id="rId13" display="https://app.pluralsight.com/library/courses/data-mining-algorithms-ssas-excel-r"/>
+    <hyperlink ref="A18" r:id="rId14" display="https://app.pluralsight.com/library/courses/vagrant-versioning-environments"/>
+    <hyperlink ref="A36" r:id="rId15" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
+    <hyperlink ref="A37" r:id="rId16" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
+    <hyperlink ref="A19" r:id="rId17" display="https://app.pluralsight.com/library/courses/consul-getting-started"/>
+    <hyperlink ref="A79" r:id="rId18" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
+    <hyperlink ref="A89" r:id="rId19" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://app.pluralsight.com/library/courses/java-patterns-concurrency-multi-threading"/>
+    <hyperlink ref="A24" r:id="rId21" display="https://app.pluralsight.com/library/courses/design-patterns-java-behavioral"/>
+    <hyperlink ref="A25" r:id="rId22" display="https://app.pluralsight.com/library/courses/design-patterns-java-creational"/>
+    <hyperlink ref="A26" r:id="rId23" display="https://app.pluralsight.com/library/courses/design-patterns-java-structural"/>
+    <hyperlink ref="A27" r:id="rId24" display="https://app.pluralsight.com/library/courses/mysql-flyway-continuous-database-delivery"/>
+    <hyperlink ref="A29" r:id="rId25" display="https://app.pluralsight.com/library/courses/cloud-foundry-developers"/>
+    <hyperlink ref="A30" r:id="rId26" display="https://app.pluralsight.com/library/courses/google-cloud-big-query"/>
+    <hyperlink ref="A35" r:id="rId27" display="https://app.pluralsight.com/library/courses/docker-containers-big-picture"/>
+    <hyperlink ref="A38" r:id="rId28" display="https://app.pluralsight.com/library/courses/docker-deep-dive"/>
+    <hyperlink ref="A31" r:id="rId29" display="https://app.pluralsight.com/library/courses/xslt-foundations-part1"/>
+    <hyperlink ref="A32" r:id="rId30" display="https://app.pluralsight.com/library/courses/xslt-3-0-whats-new-part1"/>
+    <hyperlink ref="A46" r:id="rId31" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part1"/>
+    <hyperlink ref="A47" r:id="rId32" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part2"/>
+    <hyperlink ref="A48" r:id="rId33" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part3"/>
+    <hyperlink ref="A49" r:id="rId34" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part4"/>
+    <hyperlink ref="A28" r:id="rId35" display="https://app.pluralsight.com/library/courses/sql-server-flyway-continuous-database-delivery"/>
+    <hyperlink ref="A41" r:id="rId36" display="https://app.pluralsight.com/library/courses/python-fundamentals"/>
+    <hyperlink ref="A42" r:id="rId37" display="https://app.pluralsight.com/library/courses/python-beyond-basics"/>
+    <hyperlink ref="A53" r:id="rId38" display="https://app.pluralsight.com/library/courses/scala-getting-started"/>
+    <hyperlink ref="A52" r:id="rId39" display="https://app.pluralsight.com/library/courses/scala-for-java-developers"/>
+    <hyperlink ref="A56" r:id="rId40" display="https://app.pluralsight.com/library/courses/practical-couchdb-developers"/>
+    <hyperlink ref="A9" r:id="rId41" display="https://app.pluralsight.com/library/courses/groovy-fundamentals"/>
+    <hyperlink ref="A68" r:id="rId42" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
+    <hyperlink ref="A63" r:id="rId43" display="https://app.pluralsight.com/library/courses/hibernate-introduction"/>
+    <hyperlink ref="A8" r:id="rId44" display="https://app.pluralsight.com/library/courses/splunk-analyzing-machine-data"/>
+    <hyperlink ref="A10" r:id="rId45" display="https://app.pluralsight.com/library/courses/apache-spark-fundamentals"/>
+    <hyperlink ref="A11" r:id="rId46" display="https://app.pluralsight.com/library/courses/apache-spark-beginning-data-exploration-analysis"/>
+    <hyperlink ref="A12" r:id="rId47" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
+    <hyperlink ref="A125" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
+    <hyperlink ref="A20" r:id="rId49" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
+    <hyperlink ref="A21" r:id="rId50" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
+    <hyperlink ref="A23" r:id="rId51" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
+    <hyperlink ref="A61" r:id="rId52" display="https://app.pluralsight.com/library/courses/algorithmics-introduction"/>
+    <hyperlink ref="A80" r:id="rId53" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
+    <hyperlink ref="A81" r:id="rId54" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
+    <hyperlink ref="A82" r:id="rId55" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
+    <hyperlink ref="A83" r:id="rId56" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
+    <hyperlink ref="A85" r:id="rId57" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
+    <hyperlink ref="A90" r:id="rId58" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
+    <hyperlink ref="A101" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
+    <hyperlink ref="A102" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
+    <hyperlink ref="A103" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
+    <hyperlink ref="A104" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
+    <hyperlink ref="A105" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
+    <hyperlink ref="A109" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
+    <hyperlink ref="A110" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
+    <hyperlink ref="A113" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
+    <hyperlink ref="A117" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
+    <hyperlink ref="A118" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
+    <hyperlink ref="A119" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
+    <hyperlink ref="A120" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
+    <hyperlink ref="A123" r:id="rId71"/>
+    <hyperlink ref="A124" r:id="rId72"/>
+    <hyperlink ref="A130" r:id="rId73"/>
+    <hyperlink ref="A91" r:id="rId74"/>
+    <hyperlink ref="A92" r:id="rId75"/>
+    <hyperlink ref="A93" r:id="rId76"/>
+    <hyperlink ref="A139" r:id="rId77"/>
+    <hyperlink ref="A140" r:id="rId78"/>
+    <hyperlink ref="A142" r:id="rId79"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId80"/>
@@ -2259,613 +2230,613 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="15" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="22"/>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="22"/>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="22"/>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="22"/>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="22"/>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="22"/>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="22"/>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="22"/>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="22"/>
       <c r="B32" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="22"/>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="22"/>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="22"/>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="22"/>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="22"/>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="22"/>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="22"/>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="22"/>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="22"/>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="22"/>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="22"/>
       <c r="B46" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="22"/>
       <c r="B47" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="22"/>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="22"/>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="22"/>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="22"/>
       <c r="B59" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="22"/>
       <c r="B60" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="22"/>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="22"/>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="22"/>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="22"/>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="22"/>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="23"/>
       <c r="B69" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="23"/>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="23"/>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="23"/>
       <c r="B72" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="23"/>
       <c r="B73" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="23"/>
       <c r="B74" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="23"/>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="23"/>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="23"/>
       <c r="B77" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="22"/>
       <c r="B83" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="22"/>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="22"/>
       <c r="B85" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="22"/>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="22"/>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="22"/>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="22"/>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="22"/>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="21"/>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="241">
   <si>
     <t>Unit testing in java with junit</t>
   </si>
@@ -717,6 +717,27 @@
   </si>
   <si>
     <t>Collections</t>
+  </si>
+  <si>
+    <t>Apache POI - Excel</t>
+  </si>
+  <si>
+    <t>http://howtodoinjava.com/apache-commons/readingwriting-excel-files-in-java-poi-tutorial/</t>
+  </si>
+  <si>
+    <t>http://howtodoinjava.com/hibernate/hibernate-criteria-queries-tutorial-and-examples/</t>
+  </si>
+  <si>
+    <t>Spring - Batch</t>
+  </si>
+  <si>
+    <t>http://www.mkyong.com/tutorials/spring-batch-tutorial/</t>
+  </si>
+  <si>
+    <t>http://www.javavillage.in/maven-setup-for-pmd-cpd.php</t>
+  </si>
+  <si>
+    <t>PMD-CPD</t>
   </si>
 </sst>
 </file>
@@ -797,7 +818,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -829,6 +850,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1142,11 +1164,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96:C97"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1417,10 +1439,10 @@
       <c r="B33" s="17"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="9" t="s">
@@ -1455,10 +1477,10 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="21"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="9" t="s">
@@ -1477,10 +1499,10 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="20"/>
+      <c r="B45" s="21"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="9" t="s">
@@ -1515,10 +1537,10 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="20"/>
+      <c r="B51" s="21"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="9" t="s">
@@ -1540,10 +1562,10 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="20"/>
+      <c r="B55" s="21"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="9" t="s">
@@ -1554,10 +1576,10 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B58" s="20"/>
+      <c r="B58" s="21"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="9" t="s">
@@ -1584,10 +1606,10 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="20"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="9" t="s">
@@ -1610,531 +1632,569 @@
       <c r="B65" s="17"/>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="20" t="s">
+    <row r="66" spans="1:3" s="20" customFormat="1">
+      <c r="A66" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B66" s="20"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="10" t="s">
+      <c r="B67" s="21"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="9" t="s">
+      <c r="B68" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="8" t="s">
+      <c r="B69" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="13" t="s">
+      <c r="B70" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="5"/>
-    </row>
-    <row r="71" spans="1:3" ht="30">
-      <c r="A71" s="4" t="s">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:3" ht="30">
+      <c r="A72" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="B71" s="5"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" s="5"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" s="5"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B75" s="5"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77" s="5"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="17"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="9" t="s">
+      <c r="B79" s="17"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="14" t="s">
+      <c r="B80" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="13" t="s">
+      <c r="B81" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="7" customFormat="1">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:3" s="7" customFormat="1">
+      <c r="A82" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="B82" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="20" t="s">
+      <c r="B84" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="20"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="21"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="20" t="s">
+      <c r="B86" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="20"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="14" t="s">
+      <c r="B88" s="21"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="13" t="s">
+      <c r="B89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="9" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="14" t="s">
+      <c r="B90" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" s="13" t="s">
+      <c r="B91" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" s="18" customFormat="1">
-      <c r="A91" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
     </row>
     <row r="92" spans="1:3" s="18" customFormat="1">
       <c r="A92" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
     </row>
     <row r="93" spans="1:3" s="18" customFormat="1">
       <c r="A93" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
     </row>
     <row r="94" spans="1:3" s="18" customFormat="1">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:3" s="18" customFormat="1">
+      <c r="A95" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="13" t="s">
+      <c r="B95" s="6"/>
+      <c r="C95" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="18" customFormat="1">
-      <c r="A95" s="4" t="s">
+    <row r="96" spans="1:3" s="18" customFormat="1">
+      <c r="A96" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="1:3" s="18" customFormat="1">
-      <c r="A96" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="B96" s="4"/>
-      <c r="C96" s="13" t="s">
-        <v>135</v>
-      </c>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" spans="1:3" s="18" customFormat="1">
       <c r="A97" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B97" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="B97" s="6"/>
       <c r="C97" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="18" customFormat="1">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="20" t="s">
+      <c r="A98" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="18" customFormat="1">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B100" s="20"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1" t="s">
+      <c r="B101" s="21"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B101" s="17"/>
-    </row>
-    <row r="102" spans="1:3" s="7" customFormat="1">
-      <c r="A102" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="B102" s="17"/>
-      <c r="C102" s="4"/>
     </row>
     <row r="103" spans="1:3" s="7" customFormat="1">
       <c r="A103" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B103" s="17"/>
       <c r="C103" s="4"/>
     </row>
     <row r="104" spans="1:3" s="7" customFormat="1">
       <c r="A104" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B104" s="17"/>
       <c r="C104" s="4"/>
     </row>
     <row r="105" spans="1:3" s="7" customFormat="1">
       <c r="A105" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B105" s="17"/>
       <c r="C105" s="4"/>
     </row>
     <row r="106" spans="1:3" s="7" customFormat="1">
-      <c r="A106" s="4"/>
+      <c r="A106" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="B106" s="17"/>
       <c r="C106" s="4"/>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="20" t="s">
+    <row r="107" spans="1:3" s="7" customFormat="1">
+      <c r="A107" s="4"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="4"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B108" s="20"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B109" s="21"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B110" s="17"/>
-    </row>
-    <row r="111" spans="1:3" s="7" customFormat="1">
-      <c r="A111" s="1"/>
       <c r="B111" s="17"/>
-      <c r="C111" s="4"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="20" t="s">
+    </row>
+    <row r="112" spans="1:3" s="7" customFormat="1">
+      <c r="A112" s="1"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="B112" s="20"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1" t="s">
+      <c r="B113" s="21"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="20" t="s">
+      <c r="B114" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B115" s="20"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="8" t="s">
+      <c r="B116" s="21"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="13" t="s">
+      <c r="B117" s="6"/>
+      <c r="C117" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1" t="s">
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" s="7" customFormat="1">
-      <c r="A118" s="1" t="s">
+      <c r="B118" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="7" customFormat="1">
+      <c r="A119" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" s="4"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="B119" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="C119" s="4"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B120" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="20" t="s">
+      <c r="B121" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="B122" s="20"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>211</v>
-      </c>
+      <c r="B123" s="21"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B125" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="20" t="s">
+      <c r="B126" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B127" s="20"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="8" t="s">
+      <c r="B128" s="21"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" s="13" t="s">
+      <c r="B129" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="4" t="s">
+    <row r="130" spans="1:3">
+      <c r="A130" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="5"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="9" t="s">
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B130" s="17"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="20" t="s">
+      <c r="B131" s="17"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B133" s="20"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="8" t="s">
+      <c r="B134" s="21"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="13"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="B135" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="13"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="20" t="s">
+    <row r="139" spans="1:3">
+      <c r="A139" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B138" s="20"/>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="9" t="s">
-        <v>228</v>
-      </c>
+      <c r="B139" s="21"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="4" t="s">
+    <row r="142" spans="1:3">
+      <c r="A142" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="9" t="s">
+    <row r="143" spans="1:3">
+      <c r="A143" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="20" t="s">
+    <row r="146" spans="1:2">
+      <c r="A146" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="B145" s="20"/>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="4" t="s">
+      <c r="B146" s="21"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="4" t="s">
         <v>232</v>
       </c>
     </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B149" s="21"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B153" s="21"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A149:B149"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A139:B139"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A101:B101"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A67" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
-    <hyperlink ref="A128" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
+    <hyperlink ref="A68" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
+    <hyperlink ref="A129" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
     <hyperlink ref="A6" r:id="rId3" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
     <hyperlink ref="A13" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
     <hyperlink ref="A14" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
-    <hyperlink ref="A134" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
-    <hyperlink ref="A88" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
-    <hyperlink ref="A69" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
+    <hyperlink ref="A135" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
+    <hyperlink ref="A89" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
+    <hyperlink ref="A70" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
     <hyperlink ref="A15" r:id="rId9" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
     <hyperlink ref="A16" r:id="rId10" display="https://app.pluralsight.com/library/courses/understanding-java-vm-memory-management"/>
     <hyperlink ref="A59" r:id="rId11" display="https://app.pluralsight.com/library/courses/ads-part1"/>
@@ -2144,8 +2204,8 @@
     <hyperlink ref="A36" r:id="rId15" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
     <hyperlink ref="A37" r:id="rId16" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
     <hyperlink ref="A19" r:id="rId17" display="https://app.pluralsight.com/library/courses/consul-getting-started"/>
-    <hyperlink ref="A79" r:id="rId18" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
-    <hyperlink ref="A89" r:id="rId19" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
+    <hyperlink ref="A80" r:id="rId18" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
+    <hyperlink ref="A90" r:id="rId19" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
     <hyperlink ref="A22" r:id="rId20" display="https://app.pluralsight.com/library/courses/java-patterns-concurrency-multi-threading"/>
     <hyperlink ref="A24" r:id="rId21" display="https://app.pluralsight.com/library/courses/design-patterns-java-behavioral"/>
     <hyperlink ref="A25" r:id="rId22" display="https://app.pluralsight.com/library/courses/design-patterns-java-creational"/>
@@ -2168,47 +2228,51 @@
     <hyperlink ref="A52" r:id="rId39" display="https://app.pluralsight.com/library/courses/scala-for-java-developers"/>
     <hyperlink ref="A56" r:id="rId40" display="https://app.pluralsight.com/library/courses/practical-couchdb-developers"/>
     <hyperlink ref="A9" r:id="rId41" display="https://app.pluralsight.com/library/courses/groovy-fundamentals"/>
-    <hyperlink ref="A68" r:id="rId42" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
+    <hyperlink ref="A69" r:id="rId42" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
     <hyperlink ref="A63" r:id="rId43" display="https://app.pluralsight.com/library/courses/hibernate-introduction"/>
     <hyperlink ref="A8" r:id="rId44" display="https://app.pluralsight.com/library/courses/splunk-analyzing-machine-data"/>
     <hyperlink ref="A10" r:id="rId45" display="https://app.pluralsight.com/library/courses/apache-spark-fundamentals"/>
     <hyperlink ref="A11" r:id="rId46" display="https://app.pluralsight.com/library/courses/apache-spark-beginning-data-exploration-analysis"/>
     <hyperlink ref="A12" r:id="rId47" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
-    <hyperlink ref="A125" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
+    <hyperlink ref="A126" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
     <hyperlink ref="A20" r:id="rId49" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
     <hyperlink ref="A21" r:id="rId50" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
     <hyperlink ref="A23" r:id="rId51" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
     <hyperlink ref="A61" r:id="rId52" display="https://app.pluralsight.com/library/courses/algorithmics-introduction"/>
-    <hyperlink ref="A80" r:id="rId53" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
-    <hyperlink ref="A81" r:id="rId54" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
-    <hyperlink ref="A82" r:id="rId55" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
-    <hyperlink ref="A83" r:id="rId56" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
-    <hyperlink ref="A85" r:id="rId57" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
-    <hyperlink ref="A90" r:id="rId58" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
-    <hyperlink ref="A101" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
-    <hyperlink ref="A102" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
-    <hyperlink ref="A103" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
-    <hyperlink ref="A104" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
-    <hyperlink ref="A105" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
-    <hyperlink ref="A109" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
-    <hyperlink ref="A110" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
-    <hyperlink ref="A113" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
-    <hyperlink ref="A117" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
-    <hyperlink ref="A118" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
-    <hyperlink ref="A119" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
-    <hyperlink ref="A120" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
-    <hyperlink ref="A123" r:id="rId71"/>
-    <hyperlink ref="A124" r:id="rId72"/>
-    <hyperlink ref="A130" r:id="rId73"/>
-    <hyperlink ref="A91" r:id="rId74"/>
-    <hyperlink ref="A92" r:id="rId75"/>
-    <hyperlink ref="A93" r:id="rId76"/>
-    <hyperlink ref="A139" r:id="rId77"/>
-    <hyperlink ref="A140" r:id="rId78"/>
-    <hyperlink ref="A142" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId53" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
+    <hyperlink ref="A82" r:id="rId54" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
+    <hyperlink ref="A83" r:id="rId55" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
+    <hyperlink ref="A84" r:id="rId56" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
+    <hyperlink ref="A86" r:id="rId57" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
+    <hyperlink ref="A91" r:id="rId58" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
+    <hyperlink ref="A102" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
+    <hyperlink ref="A103" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
+    <hyperlink ref="A104" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
+    <hyperlink ref="A105" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
+    <hyperlink ref="A106" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
+    <hyperlink ref="A110" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
+    <hyperlink ref="A111" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
+    <hyperlink ref="A114" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
+    <hyperlink ref="A118" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
+    <hyperlink ref="A119" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
+    <hyperlink ref="A120" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
+    <hyperlink ref="A121" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
+    <hyperlink ref="A124" r:id="rId71"/>
+    <hyperlink ref="A125" r:id="rId72"/>
+    <hyperlink ref="A131" r:id="rId73"/>
+    <hyperlink ref="A92" r:id="rId74"/>
+    <hyperlink ref="A93" r:id="rId75"/>
+    <hyperlink ref="A94" r:id="rId76"/>
+    <hyperlink ref="A140" r:id="rId77"/>
+    <hyperlink ref="A141" r:id="rId78"/>
+    <hyperlink ref="A143" r:id="rId79"/>
+    <hyperlink ref="A150" r:id="rId80"/>
+    <hyperlink ref="A66" r:id="rId81"/>
+    <hyperlink ref="A154" r:id="rId82"/>
+    <hyperlink ref="A132" r:id="rId83"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId80"/>
+  <pageSetup orientation="portrait" r:id="rId84"/>
 </worksheet>
 </file>
 
@@ -2295,7 +2359,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B13" t="s">
@@ -2303,7 +2367,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -2324,7 +2388,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2335,13 +2399,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="16" t="s">
         <v>41</v>
       </c>
@@ -2350,7 +2414,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="16" t="s">
         <v>42</v>
       </c>
@@ -2359,13 +2423,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>117</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -2376,37 +2440,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="B26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="22"/>
+      <c r="A27" s="23"/>
       <c r="B27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="B29" t="s">
         <v>50</v>
       </c>
@@ -2417,7 +2481,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="23" t="s">
         <v>95</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -2428,43 +2492,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="22"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="23"/>
       <c r="B33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="B34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="23"/>
       <c r="B35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="23"/>
       <c r="B36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="23"/>
       <c r="B37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B38" t="s">
@@ -2472,19 +2536,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="22"/>
+      <c r="A39" s="23"/>
       <c r="B39" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="22"/>
+      <c r="A40" s="23"/>
       <c r="B40" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B41" t="s">
@@ -2492,25 +2556,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="22"/>
+      <c r="A43" s="23"/>
       <c r="B43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
       <c r="B44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B45" t="s">
@@ -2518,7 +2582,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="22"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="16" t="s">
         <v>70</v>
       </c>
@@ -2527,7 +2591,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="22"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="16" t="s">
         <v>71</v>
       </c>
@@ -2551,7 +2615,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="23" t="s">
         <v>111</v>
       </c>
       <c r="B51" s="16" t="s">
@@ -2562,13 +2626,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="B52" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" t="s">
         <v>81</v>
       </c>
@@ -2584,7 +2648,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="23" t="s">
         <v>110</v>
       </c>
       <c r="B56" t="s">
@@ -2592,13 +2656,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
       <c r="B57" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="23" t="s">
         <v>106</v>
       </c>
       <c r="B58" s="16" t="s">
@@ -2609,7 +2673,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="16" t="s">
         <v>107</v>
       </c>
@@ -2618,7 +2682,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="22"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="16" t="s">
         <v>108</v>
       </c>
@@ -2627,7 +2691,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="23" t="s">
         <v>86</v>
       </c>
       <c r="B61" t="s">
@@ -2635,31 +2699,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="22"/>
+      <c r="A62" s="23"/>
       <c r="B62" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="22"/>
+      <c r="A63" s="23"/>
       <c r="B63" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="22"/>
+      <c r="A64" s="23"/>
       <c r="B64" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
       <c r="B65" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="22"/>
+      <c r="A66" s="23"/>
       <c r="B66" t="s">
         <v>104</v>
       </c>
@@ -2670,7 +2734,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B68" t="s">
@@ -2678,55 +2742,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="23"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="23"/>
+      <c r="A70" s="24"/>
       <c r="B70" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="23"/>
+      <c r="A71" s="24"/>
       <c r="B71" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="23"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="23"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="23"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="23"/>
+      <c r="A75" s="24"/>
       <c r="B75" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="23"/>
+      <c r="A76" s="24"/>
       <c r="B76" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="23"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="16" t="s">
         <v>88</v>
       </c>
@@ -2755,7 +2819,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="23" t="s">
         <v>112</v>
       </c>
       <c r="B82" s="16" t="s">
@@ -2763,49 +2827,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="22"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="22"/>
+      <c r="A84" s="23"/>
       <c r="B84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="22"/>
+      <c r="A85" s="23"/>
       <c r="B85" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="22"/>
+      <c r="A86" s="23"/>
       <c r="B86" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="22"/>
+      <c r="A87" s="23"/>
       <c r="B87" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="22"/>
+      <c r="A88" s="23"/>
       <c r="B88" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="22"/>
+      <c r="A89" s="23"/>
       <c r="B89" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="22"/>
+      <c r="A90" s="23"/>
       <c r="B90" t="s">
         <v>136</v>
       </c>
@@ -2826,7 +2890,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="22" t="s">
         <v>161</v>
       </c>
       <c r="B94" s="16" t="s">
@@ -2834,7 +2898,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="21"/>
+      <c r="A95" s="22"/>
       <c r="B95" t="s">
         <v>163</v>
       </c>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="242">
   <si>
     <t>Unit testing in java with junit</t>
   </si>
@@ -738,6 +738,9 @@
   </si>
   <si>
     <t>PMD-CPD</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
   </si>
 </sst>
 </file>
@@ -818,7 +821,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -854,6 +857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,6 +867,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1164,1036 +1175,1159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="114.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1">
+      <c r="B10" s="1"/>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="7" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13" s="9"/>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19" s="9"/>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="7" customFormat="1">
+    <row r="21" spans="1:4" s="7" customFormat="1">
       <c r="A21" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="7" customFormat="1">
+      <c r="B22" s="9"/>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="7" customFormat="1">
       <c r="A23" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="B28" s="9"/>
+      <c r="C28" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="B29" s="9"/>
+      <c r="C29" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="B30" s="9"/>
+      <c r="C30" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="B31" s="9"/>
+      <c r="C31" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="B32" s="9"/>
+      <c r="C32" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B33" s="17"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="21" t="s">
+      <c r="C33" s="17"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="21"/>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="B37" s="9"/>
+      <c r="C37" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="21" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="21"/>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="B41" s="9"/>
+      <c r="C41" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="21" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="21"/>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="B46" s="9"/>
+      <c r="C46" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="B47" s="9"/>
+      <c r="C47" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="B48" s="9"/>
+      <c r="C48" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="21" t="s">
+      <c r="B49" s="9"/>
+      <c r="C49" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="21"/>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="B52" s="9"/>
+      <c r="C52" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30">
       <c r="A53" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="B53" s="9"/>
+      <c r="C53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="21" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="21"/>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="21" t="s">
+      <c r="B56" s="9"/>
+      <c r="C56" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B58" s="21"/>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="B59" s="9"/>
+      <c r="C59" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="B60" s="9"/>
+      <c r="C60" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="21" t="s">
+      <c r="B61" s="1"/>
+      <c r="C61" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="21"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="B63" s="9"/>
+      <c r="C63" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B64" s="17"/>
-    </row>
-    <row r="65" spans="1:3" s="11" customFormat="1">
+      <c r="C64" s="17"/>
+    </row>
+    <row r="65" spans="1:4" s="11" customFormat="1">
       <c r="A65" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="1:3" s="20" customFormat="1">
+      <c r="B65" s="4"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" s="20" customFormat="1">
       <c r="A66" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="21" t="s">
+      <c r="B66" s="9"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B67" s="21"/>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="B68" s="10"/>
+      <c r="C68" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="B69" s="9"/>
+      <c r="C69" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30">
       <c r="A70" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="13" t="s">
+      <c r="B70" s="8"/>
+      <c r="C70" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="5"/>
-    </row>
-    <row r="72" spans="1:3" ht="30">
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" ht="30">
       <c r="A72" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="5"/>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="5"/>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="5"/>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="5"/>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="5"/>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="5"/>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="C77" s="5"/>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="5"/>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="17"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="9" t="s">
+      <c r="C79" s="17"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="B80" s="26"/>
+      <c r="C80" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="13" t="s">
+      <c r="B81" s="14"/>
+      <c r="C81" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="7" customFormat="1">
+    <row r="82" spans="1:4" s="7" customFormat="1">
       <c r="A82" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="B82" s="1"/>
+      <c r="C82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="B83" s="1"/>
+      <c r="C83" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="21" t="s">
+      <c r="B84" s="1"/>
+      <c r="C84" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="21" customFormat="1">
+      <c r="A85" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="21"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="21" t="s">
+      <c r="B87" s="1"/>
+      <c r="C87" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="21"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="14" t="s">
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="13" t="s">
+      <c r="B90" s="14"/>
+      <c r="C90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="9" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="14" t="s">
+      <c r="B91" s="9"/>
+      <c r="C91" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="13" t="s">
+      <c r="B92" s="14"/>
+      <c r="C92" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="18" customFormat="1">
-      <c r="A92" s="9" t="s">
+    <row r="93" spans="1:4" s="18" customFormat="1">
+      <c r="A93" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="1:3" s="18" customFormat="1">
-      <c r="A93" s="9" t="s">
+      <c r="B93" s="9"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" s="18" customFormat="1">
+      <c r="A94" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="1:3" s="18" customFormat="1">
-      <c r="A94" s="9" t="s">
+      <c r="B94" s="9"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" s="18" customFormat="1">
+      <c r="A95" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="1:3" s="18" customFormat="1">
-      <c r="A95" s="14" t="s">
+      <c r="B95" s="9"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" s="18" customFormat="1">
+      <c r="A96" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="13" t="s">
+      <c r="B96" s="14"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="18" customFormat="1">
-      <c r="A96" s="4" t="s">
+    <row r="97" spans="1:4" s="18" customFormat="1">
+      <c r="A97" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-    </row>
-    <row r="97" spans="1:3" s="18" customFormat="1">
-      <c r="A97" s="6" t="s">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" s="18" customFormat="1">
+      <c r="A98" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="13" t="s">
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="18" customFormat="1">
-      <c r="A98" s="6" t="s">
+    <row r="99" spans="1:4" s="18" customFormat="1">
+      <c r="A99" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="13" t="s">
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="18" customFormat="1">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="21" t="s">
+    <row r="100" spans="1:4" s="18" customFormat="1">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="B101" s="21"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B102" s="17"/>
-    </row>
-    <row r="103" spans="1:3" s="7" customFormat="1">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="1"/>
+      <c r="C103" s="17"/>
+    </row>
+    <row r="104" spans="1:4" s="7" customFormat="1">
+      <c r="A104" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B103" s="17"/>
-      <c r="C103" s="4"/>
-    </row>
-    <row r="104" spans="1:3" s="7" customFormat="1">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="1"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" s="7" customFormat="1">
+      <c r="A105" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B104" s="17"/>
-      <c r="C104" s="4"/>
-    </row>
-    <row r="105" spans="1:3" s="7" customFormat="1">
-      <c r="A105" s="1" t="s">
+      <c r="B105" s="1"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" s="7" customFormat="1">
+      <c r="A106" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B105" s="17"/>
-      <c r="C105" s="4"/>
-    </row>
-    <row r="106" spans="1:3" s="7" customFormat="1">
-      <c r="A106" s="1" t="s">
+      <c r="B106" s="1"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" s="7" customFormat="1">
+      <c r="A107" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B106" s="17"/>
-      <c r="C106" s="4"/>
-    </row>
-    <row r="107" spans="1:3" s="7" customFormat="1">
-      <c r="A107" s="4"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="4"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="21" t="s">
+      <c r="B107" s="1"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" s="7" customFormat="1">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="21"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1" t="s">
+      <c r="B111" s="1"/>
+      <c r="C111" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B111" s="17"/>
-    </row>
-    <row r="112" spans="1:3" s="7" customFormat="1">
-      <c r="A112" s="1"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="4"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="21" t="s">
+      <c r="B112" s="1"/>
+      <c r="C112" s="17"/>
+    </row>
+    <row r="113" spans="1:4" s="7" customFormat="1">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B113" s="21"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1" t="s">
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="21" t="s">
+      <c r="B115" s="1"/>
+      <c r="C115" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B116" s="21"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="8" t="s">
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="13" t="s">
+      <c r="B118" s="8"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1" t="s">
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" s="7" customFormat="1">
-      <c r="A119" s="1" t="s">
+      <c r="B119" s="1"/>
+      <c r="C119" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="7" customFormat="1">
+      <c r="A120" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119" s="4"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1" t="s">
+      <c r="B120" s="1"/>
+      <c r="C120" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B120" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1" t="s">
+      <c r="B121" s="1"/>
+      <c r="C121" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="21" t="s">
+      <c r="B122" s="1"/>
+      <c r="C122" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="B123" s="21"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="9" t="s">
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B125" s="9"/>
+      <c r="C125" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="9" t="s">
+    <row r="126" spans="1:4">
+      <c r="A126" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B126" s="9"/>
+      <c r="C126" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B126" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="21" t="s">
+      <c r="B127" s="1"/>
+      <c r="C127" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B128" s="21"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="8" t="s">
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C129" s="13" t="s">
+      <c r="B130" s="8"/>
+      <c r="C130" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="4" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="5"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="9" t="s">
+      <c r="C131" s="5"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B131" s="17"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="9" t="s">
+      <c r="B132" s="9"/>
+      <c r="C132" s="17"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B132" s="20" t="s">
+      <c r="B133" s="9"/>
+      <c r="C133" s="20" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="21" t="s">
+    <row r="135" spans="1:4">
+      <c r="A135" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B134" s="21"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="8" t="s">
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" s="13"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="4" t="s">
+      <c r="B136" s="8"/>
+      <c r="C136" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" s="13"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="4" t="s">
+    <row r="138" spans="1:4">
+      <c r="A138" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="21" t="s">
+    <row r="140" spans="1:4">
+      <c r="A140" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="B139" s="21"/>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="9" t="s">
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="9" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="9" t="s">
+      <c r="B141" s="9"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="9" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="4" t="s">
+      <c r="B142" s="9"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="9" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" s="9" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="21" t="s">
+      <c r="B144" s="9"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="B146" s="21"/>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="4" t="s">
+      <c r="B147" s="22"/>
+      <c r="C147" s="22"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="21" t="s">
+    <row r="150" spans="1:3">
+      <c r="A150" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="B149" s="21"/>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="9" t="s">
+      <c r="B150" s="22"/>
+      <c r="C150" s="22"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="9" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="21" t="s">
+      <c r="B151" s="9"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="B153" s="21"/>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="9" t="s">
-        <v>238</v>
-      </c>
+      <c r="B154" s="22"/>
+      <c r="C154" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A89:C89"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A68" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
-    <hyperlink ref="A129" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
+    <hyperlink ref="A130" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
     <hyperlink ref="A6" r:id="rId3" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
     <hyperlink ref="A13" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
     <hyperlink ref="A14" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
-    <hyperlink ref="A135" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
-    <hyperlink ref="A89" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
+    <hyperlink ref="A136" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
+    <hyperlink ref="A90" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
     <hyperlink ref="A70" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
     <hyperlink ref="A15" r:id="rId9" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
     <hyperlink ref="A16" r:id="rId10" display="https://app.pluralsight.com/library/courses/understanding-java-vm-memory-management"/>
@@ -2205,7 +2339,7 @@
     <hyperlink ref="A37" r:id="rId16" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
     <hyperlink ref="A19" r:id="rId17" display="https://app.pluralsight.com/library/courses/consul-getting-started"/>
     <hyperlink ref="A80" r:id="rId18" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
-    <hyperlink ref="A90" r:id="rId19" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
+    <hyperlink ref="A91" r:id="rId19" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
     <hyperlink ref="A22" r:id="rId20" display="https://app.pluralsight.com/library/courses/java-patterns-concurrency-multi-threading"/>
     <hyperlink ref="A24" r:id="rId21" display="https://app.pluralsight.com/library/courses/design-patterns-java-behavioral"/>
     <hyperlink ref="A25" r:id="rId22" display="https://app.pluralsight.com/library/courses/design-patterns-java-creational"/>
@@ -2234,7 +2368,7 @@
     <hyperlink ref="A10" r:id="rId45" display="https://app.pluralsight.com/library/courses/apache-spark-fundamentals"/>
     <hyperlink ref="A11" r:id="rId46" display="https://app.pluralsight.com/library/courses/apache-spark-beginning-data-exploration-analysis"/>
     <hyperlink ref="A12" r:id="rId47" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
-    <hyperlink ref="A126" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
+    <hyperlink ref="A127" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
     <hyperlink ref="A20" r:id="rId49" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
     <hyperlink ref="A21" r:id="rId50" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
     <hyperlink ref="A23" r:id="rId51" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
@@ -2243,33 +2377,33 @@
     <hyperlink ref="A82" r:id="rId54" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
     <hyperlink ref="A83" r:id="rId55" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
     <hyperlink ref="A84" r:id="rId56" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
-    <hyperlink ref="A86" r:id="rId57" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
-    <hyperlink ref="A91" r:id="rId58" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
-    <hyperlink ref="A102" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
-    <hyperlink ref="A103" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
-    <hyperlink ref="A104" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
-    <hyperlink ref="A105" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
-    <hyperlink ref="A106" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
-    <hyperlink ref="A110" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
-    <hyperlink ref="A111" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
-    <hyperlink ref="A114" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
-    <hyperlink ref="A118" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
-    <hyperlink ref="A119" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
-    <hyperlink ref="A120" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
-    <hyperlink ref="A121" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
-    <hyperlink ref="A124" r:id="rId71"/>
-    <hyperlink ref="A125" r:id="rId72"/>
-    <hyperlink ref="A131" r:id="rId73"/>
-    <hyperlink ref="A92" r:id="rId74"/>
-    <hyperlink ref="A93" r:id="rId75"/>
-    <hyperlink ref="A94" r:id="rId76"/>
-    <hyperlink ref="A140" r:id="rId77"/>
-    <hyperlink ref="A141" r:id="rId78"/>
-    <hyperlink ref="A143" r:id="rId79"/>
-    <hyperlink ref="A150" r:id="rId80"/>
+    <hyperlink ref="A87" r:id="rId57" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
+    <hyperlink ref="A92" r:id="rId58" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
+    <hyperlink ref="A103" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
+    <hyperlink ref="A104" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
+    <hyperlink ref="A105" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
+    <hyperlink ref="A106" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
+    <hyperlink ref="A107" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
+    <hyperlink ref="A111" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
+    <hyperlink ref="A112" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
+    <hyperlink ref="A115" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
+    <hyperlink ref="A119" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
+    <hyperlink ref="A120" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
+    <hyperlink ref="A121" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
+    <hyperlink ref="A122" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
+    <hyperlink ref="A125" r:id="rId71"/>
+    <hyperlink ref="A126" r:id="rId72"/>
+    <hyperlink ref="A132" r:id="rId73"/>
+    <hyperlink ref="A93" r:id="rId74"/>
+    <hyperlink ref="A94" r:id="rId75"/>
+    <hyperlink ref="A95" r:id="rId76"/>
+    <hyperlink ref="A141" r:id="rId77"/>
+    <hyperlink ref="A142" r:id="rId78"/>
+    <hyperlink ref="A144" r:id="rId79"/>
+    <hyperlink ref="A151" r:id="rId80"/>
     <hyperlink ref="A66" r:id="rId81"/>
-    <hyperlink ref="A154" r:id="rId82"/>
-    <hyperlink ref="A132" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId82"/>
+    <hyperlink ref="A133" r:id="rId83"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId84"/>
@@ -2359,7 +2493,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>116</v>
       </c>
       <c r="B13" t="s">
@@ -2367,7 +2501,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -2388,7 +2522,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2399,13 +2533,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="16" t="s">
         <v>41</v>
       </c>
@@ -2414,7 +2548,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="16" t="s">
         <v>42</v>
       </c>
@@ -2423,13 +2557,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>117</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -2440,37 +2574,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
       <c r="B25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
       <c r="B27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
       <c r="B28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
       <c r="B29" t="s">
         <v>50</v>
       </c>
@@ -2481,7 +2615,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>95</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -2492,43 +2626,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
       <c r="B36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
       <c r="B37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B38" t="s">
@@ -2536,19 +2670,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
       <c r="B39" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="24"/>
       <c r="B40" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B41" t="s">
@@ -2556,25 +2690,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="24"/>
       <c r="B42" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="24"/>
       <c r="B43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
       <c r="B44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="24" t="s">
         <v>94</v>
       </c>
       <c r="B45" t="s">
@@ -2582,7 +2716,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="16" t="s">
         <v>70</v>
       </c>
@@ -2591,7 +2725,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="16" t="s">
         <v>71</v>
       </c>
@@ -2615,7 +2749,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="24" t="s">
         <v>111</v>
       </c>
       <c r="B51" s="16" t="s">
@@ -2626,13 +2760,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
       <c r="B52" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="24"/>
       <c r="B53" t="s">
         <v>81</v>
       </c>
@@ -2648,7 +2782,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="24" t="s">
         <v>110</v>
       </c>
       <c r="B56" t="s">
@@ -2656,13 +2790,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="24"/>
       <c r="B57" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="24" t="s">
         <v>106</v>
       </c>
       <c r="B58" s="16" t="s">
@@ -2673,7 +2807,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="16" t="s">
         <v>107</v>
       </c>
@@ -2682,7 +2816,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="16" t="s">
         <v>108</v>
       </c>
@@ -2691,7 +2825,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B61" t="s">
@@ -2699,31 +2833,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
       <c r="B62" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
       <c r="B63" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="23"/>
+      <c r="A64" s="24"/>
       <c r="B64" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="23"/>
+      <c r="A65" s="24"/>
       <c r="B65" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="23"/>
+      <c r="A66" s="24"/>
       <c r="B66" t="s">
         <v>104</v>
       </c>
@@ -2734,7 +2868,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B68" t="s">
@@ -2742,55 +2876,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="24"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="24"/>
+      <c r="A70" s="25"/>
       <c r="B70" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="24"/>
+      <c r="A71" s="25"/>
       <c r="B71" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="24"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="24"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="24"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="24"/>
+      <c r="A75" s="25"/>
       <c r="B75" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="24"/>
+      <c r="A76" s="25"/>
       <c r="B76" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="24"/>
+      <c r="A77" s="25"/>
       <c r="B77" s="16" t="s">
         <v>88</v>
       </c>
@@ -2819,7 +2953,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="24" t="s">
         <v>112</v>
       </c>
       <c r="B82" s="16" t="s">
@@ -2827,49 +2961,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="23"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="23"/>
+      <c r="A84" s="24"/>
       <c r="B84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="23"/>
+      <c r="A85" s="24"/>
       <c r="B85" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="23"/>
+      <c r="A86" s="24"/>
       <c r="B86" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="23"/>
+      <c r="A87" s="24"/>
       <c r="B87" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="23"/>
+      <c r="A88" s="24"/>
       <c r="B88" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="23"/>
+      <c r="A89" s="24"/>
       <c r="B89" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="23"/>
+      <c r="A90" s="24"/>
       <c r="B90" t="s">
         <v>136</v>
       </c>
@@ -2890,7 +3024,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="23" t="s">
         <v>161</v>
       </c>
       <c r="B94" s="16" t="s">
@@ -2898,7 +3032,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="22"/>
+      <c r="A95" s="23"/>
       <c r="B95" t="s">
         <v>163</v>
       </c>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -821,7 +821,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -867,13 +867,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1179,7 +1172,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1796,14 +1789,14 @@
       <c r="C79" s="17"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="28" t="s">
+      <c r="B80" s="14"/>
+      <c r="C80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="13" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2298,6 +2291,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A55:C55"/>
     <mergeCell ref="A110:C110"/>
     <mergeCell ref="A135:C135"/>
     <mergeCell ref="A124:C124"/>
@@ -2308,17 +2312,6 @@
     <mergeCell ref="A117:C117"/>
     <mergeCell ref="A147:C147"/>
     <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A89:C89"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A68" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="244">
   <si>
     <t>Unit testing in java with junit</t>
   </si>
@@ -548,9 +548,6 @@
     <t>Half completed. Do revision till now. Reiterate video once again</t>
   </si>
   <si>
-    <t>AWS</t>
-  </si>
-  <si>
     <t>Reges</t>
   </si>
   <si>
@@ -741,6 +738,15 @@
   </si>
   <si>
     <t>Inprogress</t>
+  </si>
+  <si>
+    <t>Integrating Docker with DevOps Automated Workflows [Course]</t>
+  </si>
+  <si>
+    <t>AWS (Amazon Web Services)</t>
+  </si>
+  <si>
+    <t>AWS VPC Operations [Course]</t>
   </si>
 </sst>
 </file>
@@ -821,7 +827,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -857,6 +863,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1168,11 +1179,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1233,7 +1244,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="5" t="s">
@@ -1254,7 +1265,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5" t="s">
@@ -1263,7 +1274,7 @@
     </row>
     <row r="11" spans="1:4" s="7" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="5" t="s">
@@ -1273,7 +1284,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
@@ -1345,7 +1356,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="6" t="s">
@@ -1357,7 +1368,7 @@
     </row>
     <row r="21" spans="1:4" s="7" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
@@ -1376,7 +1387,7 @@
     </row>
     <row r="23" spans="1:4" s="7" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="5" t="s">
@@ -1465,108 +1476,113 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="9" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="9" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="24" customFormat="1">
+      <c r="A36" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" s="22" customFormat="1">
+      <c r="A37" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="22" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="9" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="22" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="9" t="s">
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="5" t="s">
@@ -1575,76 +1591,76 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="22" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="9" t="s">
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30">
-      <c r="A53" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="4" t="s">
+    </row>
+    <row r="54" spans="1:4" ht="30">
+      <c r="A54" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="22" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="9" t="s">
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="22" t="s">
+      <c r="B57" s="9"/>
+      <c r="C57" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="5" t="s">
@@ -1652,271 +1668,272 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B61" s="1"/>
+      <c r="A61" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="9"/>
       <c r="C61" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="9" t="s">
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C64" s="17"/>
-    </row>
-    <row r="65" spans="1:4" s="11" customFormat="1">
+      <c r="B64" s="9"/>
+      <c r="C64" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" s="17"/>
+    </row>
+    <row r="66" spans="1:4" s="11" customFormat="1">
+      <c r="A66" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" s="20" customFormat="1">
-      <c r="A66" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="22" t="s">
+    <row r="67" spans="1:4" s="20" customFormat="1">
+      <c r="A67" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="10" t="s">
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="9" t="s">
+      <c r="B69" s="10"/>
+      <c r="C69" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="30">
-      <c r="A70" s="8" t="s">
+      <c r="B70" s="9"/>
+      <c r="C70" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30">
+      <c r="A71" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="4" t="s">
+      <c r="B71" s="8"/>
+      <c r="C71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="1:4" ht="30">
-      <c r="A72" s="4" t="s">
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" ht="30">
+      <c r="A73" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="17"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>241</v>
-      </c>
+      <c r="C80" s="17"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="14" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="7" customFormat="1">
-      <c r="A82" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="7" customFormat="1">
       <c r="A83" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="21" customFormat="1">
-      <c r="A85" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B85" s="5" t="s">
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="21" customFormat="1">
+      <c r="A86" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="22" t="s">
+      <c r="C86" s="5"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="1" t="s">
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" s="9"/>
+      <c r="C92" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="18" customFormat="1">
-      <c r="A93" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="94" spans="1:4" s="18" customFormat="1">
       <c r="A94" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="4"/>
@@ -1924,43 +1941,41 @@
     </row>
     <row r="95" spans="1:4" s="18" customFormat="1">
       <c r="A95" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4" s="18" customFormat="1">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" s="18" customFormat="1">
+      <c r="A97" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="18" customFormat="1">
+      <c r="A98" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="18" customFormat="1">
-      <c r="A97" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" s="18" customFormat="1">
-      <c r="A98" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="13" t="s">
-        <v>135</v>
-      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:4" s="18" customFormat="1">
       <c r="A99" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -1969,36 +1984,38 @@
       </c>
     </row>
     <row r="100" spans="1:4" s="18" customFormat="1">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
+      <c r="A100" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="18" customFormat="1">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="17"/>
-    </row>
-    <row r="104" spans="1:4" s="7" customFormat="1">
+      <c r="A103" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="17"/>
-      <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:4" s="7" customFormat="1">
       <c r="A105" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="17"/>
@@ -2006,7 +2023,7 @@
     </row>
     <row r="106" spans="1:4" s="7" customFormat="1">
       <c r="A106" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="17"/>
@@ -2014,325 +2031,340 @@
     </row>
     <row r="107" spans="1:4" s="7" customFormat="1">
       <c r="A107" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="17"/>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4" s="7" customFormat="1">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
+      <c r="A108" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B108" s="1"/>
       <c r="C108" s="17"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="22" t="s">
+    <row r="109" spans="1:4" s="7" customFormat="1">
+      <c r="A109" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="17"/>
-    </row>
-    <row r="113" spans="1:4" s="7" customFormat="1">
-      <c r="A113" s="1"/>
+      <c r="C112" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="B113" s="1"/>
       <c r="C113" s="17"/>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="22" t="s">
+    </row>
+    <row r="114" spans="1:4" s="7" customFormat="1">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1" t="s">
+      <c r="B119" s="8"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" s="7" customFormat="1">
-      <c r="A120" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:4">
+    </row>
+    <row r="121" spans="1:4" s="7" customFormat="1">
       <c r="A121" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="D121" s="4"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B125" s="9"/>
-      <c r="C125" s="12" t="s">
-        <v>211</v>
-      </c>
+      <c r="A125" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B127" s="1"/>
-      <c r="C127" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="22" t="s">
+      <c r="B127" s="9"/>
+      <c r="C127" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="8" t="s">
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" s="13" t="s">
+      <c r="B131" s="8"/>
+      <c r="C131" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="4" t="s">
+    <row r="132" spans="1:4">
+      <c r="A132" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C131" s="5"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B132" s="9"/>
-      <c r="C132" s="17"/>
+      <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B133" s="9"/>
+      <c r="C133" s="17"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B134" s="9"/>
+      <c r="C134" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="B133" s="9"/>
-      <c r="C133" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="22" t="s">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="8" t="s">
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B136" s="8"/>
-      <c r="C136" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" s="13"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="4" t="s">
+      <c r="B137" s="8"/>
+      <c r="C137" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="13"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="4" t="s">
+    <row r="141" spans="1:4">
+      <c r="A141" s="25" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B141" s="9"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B142" s="9"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B143" s="9"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B142" s="9"/>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="4" t="s">
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="9" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="9" t="s">
+      <c r="B145" s="9"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B144" s="9"/>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="22" t="s">
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="B147" s="22"/>
-      <c r="C147" s="22"/>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="22" t="s">
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B150" s="22"/>
-      <c r="C150" s="22"/>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B151" s="9"/>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="B154" s="22"/>
-      <c r="C154" s="22"/>
+      <c r="B152" s="9"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B155" s="25"/>
+      <c r="C155" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A141:C141"/>
     <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A90:C90"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A68" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
-    <hyperlink ref="A130" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
+    <hyperlink ref="A69" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
+    <hyperlink ref="A131" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
     <hyperlink ref="A6" r:id="rId3" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
     <hyperlink ref="A13" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
     <hyperlink ref="A14" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
-    <hyperlink ref="A136" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
-    <hyperlink ref="A90" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
-    <hyperlink ref="A70" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
+    <hyperlink ref="A137" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
+    <hyperlink ref="A91" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
+    <hyperlink ref="A71" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
     <hyperlink ref="A15" r:id="rId9" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
     <hyperlink ref="A16" r:id="rId10" display="https://app.pluralsight.com/library/courses/understanding-java-vm-memory-management"/>
-    <hyperlink ref="A59" r:id="rId11" display="https://app.pluralsight.com/library/courses/ads-part1"/>
-    <hyperlink ref="A60" r:id="rId12" display="https://app.pluralsight.com/library/courses/ads2"/>
+    <hyperlink ref="A60" r:id="rId11" display="https://app.pluralsight.com/library/courses/ads-part1"/>
+    <hyperlink ref="A61" r:id="rId12" display="https://app.pluralsight.com/library/courses/ads2"/>
     <hyperlink ref="A17" r:id="rId13" display="https://app.pluralsight.com/library/courses/data-mining-algorithms-ssas-excel-r"/>
     <hyperlink ref="A18" r:id="rId14" display="https://app.pluralsight.com/library/courses/vagrant-versioning-environments"/>
-    <hyperlink ref="A36" r:id="rId15" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
-    <hyperlink ref="A37" r:id="rId16" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
+    <hyperlink ref="A37" r:id="rId15" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
+    <hyperlink ref="A38" r:id="rId16" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
     <hyperlink ref="A19" r:id="rId17" display="https://app.pluralsight.com/library/courses/consul-getting-started"/>
-    <hyperlink ref="A80" r:id="rId18" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
-    <hyperlink ref="A91" r:id="rId19" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
+    <hyperlink ref="A81" r:id="rId18" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
+    <hyperlink ref="A92" r:id="rId19" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
     <hyperlink ref="A22" r:id="rId20" display="https://app.pluralsight.com/library/courses/java-patterns-concurrency-multi-threading"/>
     <hyperlink ref="A24" r:id="rId21" display="https://app.pluralsight.com/library/courses/design-patterns-java-behavioral"/>
     <hyperlink ref="A25" r:id="rId22" display="https://app.pluralsight.com/library/courses/design-patterns-java-creational"/>
@@ -2341,65 +2373,67 @@
     <hyperlink ref="A29" r:id="rId25" display="https://app.pluralsight.com/library/courses/cloud-foundry-developers"/>
     <hyperlink ref="A30" r:id="rId26" display="https://app.pluralsight.com/library/courses/google-cloud-big-query"/>
     <hyperlink ref="A35" r:id="rId27" display="https://app.pluralsight.com/library/courses/docker-containers-big-picture"/>
-    <hyperlink ref="A38" r:id="rId28" display="https://app.pluralsight.com/library/courses/docker-deep-dive"/>
+    <hyperlink ref="A39" r:id="rId28" display="https://app.pluralsight.com/library/courses/docker-deep-dive"/>
     <hyperlink ref="A31" r:id="rId29" display="https://app.pluralsight.com/library/courses/xslt-foundations-part1"/>
     <hyperlink ref="A32" r:id="rId30" display="https://app.pluralsight.com/library/courses/xslt-3-0-whats-new-part1"/>
-    <hyperlink ref="A46" r:id="rId31" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part1"/>
-    <hyperlink ref="A47" r:id="rId32" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part2"/>
-    <hyperlink ref="A48" r:id="rId33" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part3"/>
-    <hyperlink ref="A49" r:id="rId34" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part4"/>
+    <hyperlink ref="A47" r:id="rId31" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part1"/>
+    <hyperlink ref="A48" r:id="rId32" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part2"/>
+    <hyperlink ref="A49" r:id="rId33" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part3"/>
+    <hyperlink ref="A50" r:id="rId34" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part4"/>
     <hyperlink ref="A28" r:id="rId35" display="https://app.pluralsight.com/library/courses/sql-server-flyway-continuous-database-delivery"/>
-    <hyperlink ref="A41" r:id="rId36" display="https://app.pluralsight.com/library/courses/python-fundamentals"/>
-    <hyperlink ref="A42" r:id="rId37" display="https://app.pluralsight.com/library/courses/python-beyond-basics"/>
-    <hyperlink ref="A53" r:id="rId38" display="https://app.pluralsight.com/library/courses/scala-getting-started"/>
-    <hyperlink ref="A52" r:id="rId39" display="https://app.pluralsight.com/library/courses/scala-for-java-developers"/>
-    <hyperlink ref="A56" r:id="rId40" display="https://app.pluralsight.com/library/courses/practical-couchdb-developers"/>
+    <hyperlink ref="A42" r:id="rId36" display="https://app.pluralsight.com/library/courses/python-fundamentals"/>
+    <hyperlink ref="A43" r:id="rId37" display="https://app.pluralsight.com/library/courses/python-beyond-basics"/>
+    <hyperlink ref="A54" r:id="rId38" display="https://app.pluralsight.com/library/courses/scala-getting-started"/>
+    <hyperlink ref="A53" r:id="rId39" display="https://app.pluralsight.com/library/courses/scala-for-java-developers"/>
+    <hyperlink ref="A57" r:id="rId40" display="https://app.pluralsight.com/library/courses/practical-couchdb-developers"/>
     <hyperlink ref="A9" r:id="rId41" display="https://app.pluralsight.com/library/courses/groovy-fundamentals"/>
-    <hyperlink ref="A69" r:id="rId42" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
-    <hyperlink ref="A63" r:id="rId43" display="https://app.pluralsight.com/library/courses/hibernate-introduction"/>
+    <hyperlink ref="A70" r:id="rId42" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
+    <hyperlink ref="A64" r:id="rId43" display="https://app.pluralsight.com/library/courses/hibernate-introduction"/>
     <hyperlink ref="A8" r:id="rId44" display="https://app.pluralsight.com/library/courses/splunk-analyzing-machine-data"/>
     <hyperlink ref="A10" r:id="rId45" display="https://app.pluralsight.com/library/courses/apache-spark-fundamentals"/>
     <hyperlink ref="A11" r:id="rId46" display="https://app.pluralsight.com/library/courses/apache-spark-beginning-data-exploration-analysis"/>
     <hyperlink ref="A12" r:id="rId47" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
-    <hyperlink ref="A127" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
+    <hyperlink ref="A128" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
     <hyperlink ref="A20" r:id="rId49" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
     <hyperlink ref="A21" r:id="rId50" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
     <hyperlink ref="A23" r:id="rId51" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
-    <hyperlink ref="A61" r:id="rId52" display="https://app.pluralsight.com/library/courses/algorithmics-introduction"/>
-    <hyperlink ref="A81" r:id="rId53" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
-    <hyperlink ref="A82" r:id="rId54" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
-    <hyperlink ref="A83" r:id="rId55" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
-    <hyperlink ref="A84" r:id="rId56" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
-    <hyperlink ref="A87" r:id="rId57" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
-    <hyperlink ref="A92" r:id="rId58" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
-    <hyperlink ref="A103" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
-    <hyperlink ref="A104" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
-    <hyperlink ref="A105" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
-    <hyperlink ref="A106" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
-    <hyperlink ref="A107" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
-    <hyperlink ref="A111" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
-    <hyperlink ref="A112" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
-    <hyperlink ref="A115" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
-    <hyperlink ref="A119" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
-    <hyperlink ref="A120" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
-    <hyperlink ref="A121" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
-    <hyperlink ref="A122" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
-    <hyperlink ref="A125" r:id="rId71"/>
-    <hyperlink ref="A126" r:id="rId72"/>
-    <hyperlink ref="A132" r:id="rId73"/>
-    <hyperlink ref="A93" r:id="rId74"/>
-    <hyperlink ref="A94" r:id="rId75"/>
-    <hyperlink ref="A95" r:id="rId76"/>
-    <hyperlink ref="A141" r:id="rId77"/>
-    <hyperlink ref="A142" r:id="rId78"/>
-    <hyperlink ref="A144" r:id="rId79"/>
-    <hyperlink ref="A151" r:id="rId80"/>
-    <hyperlink ref="A66" r:id="rId81"/>
-    <hyperlink ref="A85" r:id="rId82"/>
-    <hyperlink ref="A133" r:id="rId83"/>
+    <hyperlink ref="A62" r:id="rId52" display="https://app.pluralsight.com/library/courses/algorithmics-introduction"/>
+    <hyperlink ref="A82" r:id="rId53" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
+    <hyperlink ref="A83" r:id="rId54" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
+    <hyperlink ref="A84" r:id="rId55" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
+    <hyperlink ref="A85" r:id="rId56" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
+    <hyperlink ref="A88" r:id="rId57" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
+    <hyperlink ref="A93" r:id="rId58" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
+    <hyperlink ref="A104" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
+    <hyperlink ref="A105" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
+    <hyperlink ref="A106" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
+    <hyperlink ref="A107" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
+    <hyperlink ref="A108" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
+    <hyperlink ref="A112" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
+    <hyperlink ref="A113" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
+    <hyperlink ref="A116" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
+    <hyperlink ref="A120" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
+    <hyperlink ref="A121" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
+    <hyperlink ref="A122" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
+    <hyperlink ref="A123" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
+    <hyperlink ref="A126" r:id="rId71"/>
+    <hyperlink ref="A127" r:id="rId72"/>
+    <hyperlink ref="A133" r:id="rId73"/>
+    <hyperlink ref="A94" r:id="rId74"/>
+    <hyperlink ref="A95" r:id="rId75"/>
+    <hyperlink ref="A96" r:id="rId76"/>
+    <hyperlink ref="A142" r:id="rId77"/>
+    <hyperlink ref="A143" r:id="rId78"/>
+    <hyperlink ref="A145" r:id="rId79"/>
+    <hyperlink ref="A152" r:id="rId80"/>
+    <hyperlink ref="A67" r:id="rId81"/>
+    <hyperlink ref="A86" r:id="rId82"/>
+    <hyperlink ref="A134" r:id="rId83"/>
+    <hyperlink ref="A36" r:id="rId84" display="https://app.pluralsight.com/library/courses/integrating-docker-with-devops-automated-workflows"/>
+    <hyperlink ref="A109" r:id="rId85" display="https://app.pluralsight.com/library/courses/aws-vpc-operations"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId84"/>
+  <pageSetup orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
 
@@ -2462,7 +2496,7 @@
     </row>
     <row r="8" spans="1:3" s="15" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2486,7 +2520,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="27" t="s">
         <v>116</v>
       </c>
       <c r="B13" t="s">
@@ -2494,7 +2528,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -2515,7 +2549,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="27" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2526,13 +2560,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="27"/>
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="16" t="s">
         <v>41</v>
       </c>
@@ -2541,7 +2575,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="16" t="s">
         <v>42</v>
       </c>
@@ -2550,13 +2584,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="27"/>
       <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="27" t="s">
         <v>117</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -2567,37 +2601,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="24"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="24"/>
+      <c r="A25" s="27"/>
       <c r="B25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="24"/>
+      <c r="A26" s="27"/>
       <c r="B26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="24"/>
+      <c r="A27" s="27"/>
       <c r="B27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="27"/>
       <c r="B28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="27"/>
       <c r="B29" t="s">
         <v>50</v>
       </c>
@@ -2608,7 +2642,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="27" t="s">
         <v>95</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -2619,43 +2653,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="27"/>
       <c r="B33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="27"/>
       <c r="B34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="27"/>
       <c r="B35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="24"/>
+      <c r="A36" s="27"/>
       <c r="B36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="27"/>
       <c r="B37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="27" t="s">
         <v>58</v>
       </c>
       <c r="B38" t="s">
@@ -2663,19 +2697,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="27"/>
       <c r="B39" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="24"/>
+      <c r="A40" s="27"/>
       <c r="B40" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B41" t="s">
@@ -2683,25 +2717,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="27"/>
       <c r="B42" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="24"/>
+      <c r="A43" s="27"/>
       <c r="B43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="24"/>
+      <c r="A44" s="27"/>
       <c r="B44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="27" t="s">
         <v>94</v>
       </c>
       <c r="B45" t="s">
@@ -2709,7 +2743,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="24"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="16" t="s">
         <v>70</v>
       </c>
@@ -2718,7 +2752,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="24"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="16" t="s">
         <v>71</v>
       </c>
@@ -2742,7 +2776,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="27" t="s">
         <v>111</v>
       </c>
       <c r="B51" s="16" t="s">
@@ -2753,13 +2787,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="24"/>
+      <c r="A52" s="27"/>
       <c r="B52" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="24"/>
+      <c r="A53" s="27"/>
       <c r="B53" t="s">
         <v>81</v>
       </c>
@@ -2775,7 +2809,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="27" t="s">
         <v>110</v>
       </c>
       <c r="B56" t="s">
@@ -2783,13 +2817,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="24"/>
+      <c r="A57" s="27"/>
       <c r="B57" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="27" t="s">
         <v>106</v>
       </c>
       <c r="B58" s="16" t="s">
@@ -2800,7 +2834,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="24"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="16" t="s">
         <v>107</v>
       </c>
@@ -2809,7 +2843,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="24"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="16" t="s">
         <v>108</v>
       </c>
@@ -2818,7 +2852,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B61" t="s">
@@ -2826,31 +2860,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="24"/>
+      <c r="A62" s="27"/>
       <c r="B62" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="24"/>
+      <c r="A63" s="27"/>
       <c r="B63" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="24"/>
+      <c r="A64" s="27"/>
       <c r="B64" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="24"/>
+      <c r="A65" s="27"/>
       <c r="B65" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="24"/>
+      <c r="A66" s="27"/>
       <c r="B66" t="s">
         <v>104</v>
       </c>
@@ -2861,7 +2895,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="28" t="s">
         <v>90</v>
       </c>
       <c r="B68" t="s">
@@ -2869,55 +2903,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="25"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="25"/>
+      <c r="A70" s="28"/>
       <c r="B70" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="25"/>
+      <c r="A71" s="28"/>
       <c r="B71" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="25"/>
+      <c r="A72" s="28"/>
       <c r="B72" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="25"/>
+      <c r="A73" s="28"/>
       <c r="B73" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="25"/>
+      <c r="A74" s="28"/>
       <c r="B74" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="25"/>
+      <c r="A75" s="28"/>
       <c r="B75" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="25"/>
+      <c r="A76" s="28"/>
       <c r="B76" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="25"/>
+      <c r="A77" s="28"/>
       <c r="B77" s="16" t="s">
         <v>88</v>
       </c>
@@ -2946,7 +2980,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="27" t="s">
         <v>112</v>
       </c>
       <c r="B82" s="16" t="s">
@@ -2954,49 +2988,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="24"/>
+      <c r="A83" s="27"/>
       <c r="B83" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="24"/>
+      <c r="A84" s="27"/>
       <c r="B84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="24"/>
+      <c r="A85" s="27"/>
       <c r="B85" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="24"/>
+      <c r="A86" s="27"/>
       <c r="B86" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="24"/>
+      <c r="A87" s="27"/>
       <c r="B87" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="24"/>
+      <c r="A88" s="27"/>
       <c r="B88" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="24"/>
+      <c r="A89" s="27"/>
       <c r="B89" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="24"/>
+      <c r="A90" s="27"/>
       <c r="B90" t="s">
         <v>136</v>
       </c>
@@ -3017,7 +3051,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="26" t="s">
         <v>161</v>
       </c>
       <c r="B94" s="16" t="s">
@@ -3025,7 +3059,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="23"/>
+      <c r="A95" s="26"/>
       <c r="B95" t="s">
         <v>163</v>
       </c>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="242">
   <si>
     <t>Unit testing in java with junit</t>
   </si>
@@ -536,9 +536,6 @@
     <t>Spring Security Fundamentals [Course]</t>
   </si>
   <si>
-    <t>Introduction To Hibernate [Course]</t>
-  </si>
-  <si>
     <t>Spring</t>
   </si>
   <si>
@@ -656,18 +653,12 @@
     <t>http://www.mojohaus.org/cobertura-maven-plugin/</t>
   </si>
   <si>
-    <t>Completed. Prepare examples in Cerebro</t>
-  </si>
-  <si>
     <t>JDK Tools</t>
   </si>
   <si>
     <t xml:space="preserve"> Completed</t>
   </si>
   <si>
-    <t>Completed.</t>
-  </si>
-  <si>
     <t>Rest Client - java.net.URL</t>
   </si>
   <si>
@@ -737,9 +728,6 @@
     <t>PMD-CPD</t>
   </si>
   <si>
-    <t>Inprogress</t>
-  </si>
-  <si>
     <t>Integrating Docker with DevOps Automated Workflows [Course]</t>
   </si>
   <si>
@@ -747,6 +735,12 @@
   </si>
   <si>
     <t>AWS VPC Operations [Course]</t>
+  </si>
+  <si>
+    <t>Amazon Web Services Databases in Depth [Course]</t>
+  </si>
+  <si>
+    <t>Hibernate - Old Cerebro</t>
   </si>
 </sst>
 </file>
@@ -827,7 +821,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -868,6 +862,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1179,11 +1174,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1244,7 +1239,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="5" t="s">
@@ -1265,7 +1260,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5" t="s">
@@ -1274,7 +1269,7 @@
     </row>
     <row r="11" spans="1:4" s="7" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="5" t="s">
@@ -1284,7 +1279,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
@@ -1356,7 +1351,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="6" t="s">
@@ -1368,7 +1363,7 @@
     </row>
     <row r="21" spans="1:4" s="7" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
@@ -1387,7 +1382,7 @@
     </row>
     <row r="23" spans="1:4" s="7" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="5" t="s">
@@ -1483,11 +1478,11 @@
       <c r="C33" s="17"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="23" t="s">
@@ -1503,7 +1498,7 @@
     </row>
     <row r="36" spans="1:4" s="24" customFormat="1">
       <c r="A36" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
@@ -1540,11 +1535,11 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
@@ -1565,11 +1560,11 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
@@ -1608,11 +1603,11 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="9" t="s">
@@ -1632,15 +1627,15 @@
         <v>14</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="9" t="s">
@@ -1652,11 +1647,11 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="9" t="s">
@@ -1678,7 +1673,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="5" t="s">
@@ -1686,26 +1681,24 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="A64" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="17"/>
+    </row>
+    <row r="65" spans="1:4" s="25" customFormat="1">
       <c r="A65" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C65" s="17"/>
+        <v>241</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" s="11" customFormat="1">
       <c r="A66" s="4" t="s">
@@ -1717,17 +1710,17 @@
     </row>
     <row r="67" spans="1:4" s="20" customFormat="1">
       <c r="A67" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B67" s="9"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
+      <c r="A68" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="10" t="s">
@@ -1747,7 +1740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="30">
+    <row r="71" spans="1:4">
       <c r="A71" s="8" t="s">
         <v>21</v>
       </c>
@@ -1756,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1822,24 +1815,24 @@
         <v>14</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="7" customFormat="1">
       <c r="A83" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="5" t="s">
@@ -1849,7 +1842,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="5" t="s">
@@ -1858,7 +1851,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="5" t="s">
@@ -1867,7 +1860,7 @@
     </row>
     <row r="86" spans="1:4" s="21" customFormat="1">
       <c r="A86" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>67</v>
@@ -1876,15 +1869,15 @@
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="5" t="s">
@@ -1892,11 +1885,11 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
+      <c r="A90" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="14" t="s">
@@ -1921,19 +1914,19 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="18" customFormat="1">
       <c r="A94" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="4"/>
@@ -1941,7 +1934,7 @@
     </row>
     <row r="95" spans="1:4" s="18" customFormat="1">
       <c r="A95" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="4"/>
@@ -1949,7 +1942,7 @@
     </row>
     <row r="96" spans="1:4" s="18" customFormat="1">
       <c r="A96" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="4"/>
@@ -1957,7 +1950,7 @@
     </row>
     <row r="97" spans="1:4" s="18" customFormat="1">
       <c r="A97" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B97" s="14"/>
       <c r="C97" s="6"/>
@@ -1967,7 +1960,7 @@
     </row>
     <row r="98" spans="1:4" s="18" customFormat="1">
       <c r="A98" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -1975,7 +1968,7 @@
     </row>
     <row r="99" spans="1:4" s="18" customFormat="1">
       <c r="A99" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -1985,7 +1978,7 @@
     </row>
     <row r="100" spans="1:4" s="18" customFormat="1">
       <c r="A100" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -2000,38 +1993,40 @@
       <c r="D101" s="4"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
+      <c r="A103" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B103" s="26"/>
+      <c r="C103" s="26"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="17"/>
     </row>
     <row r="105" spans="1:4" s="7" customFormat="1">
       <c r="A105" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="17"/>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:4" s="7" customFormat="1">
-      <c r="A106" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="4"/>
+      <c r="A106" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="107" spans="1:4" s="7" customFormat="1">
       <c r="A107" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="17"/>
@@ -2039,7 +2034,7 @@
     </row>
     <row r="108" spans="1:4" s="7" customFormat="1">
       <c r="A108" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="17"/>
@@ -2047,311 +2042,325 @@
     </row>
     <row r="109" spans="1:4" s="7" customFormat="1">
       <c r="A109" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="17"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="25" t="s">
+    <row r="110" spans="1:4" s="25" customFormat="1">
+      <c r="A110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" s="25" customFormat="1">
+      <c r="A111" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="1" t="s">
+      <c r="B113" s="26"/>
+      <c r="C113" s="26"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1" t="s">
+      <c r="B115" s="1"/>
+      <c r="C115" s="17"/>
+    </row>
+    <row r="116" spans="1:4" s="7" customFormat="1">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="17"/>
-    </row>
-    <row r="114" spans="1:4" s="7" customFormat="1">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="25" t="s">
+      <c r="B118" s="1"/>
+      <c r="C118" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B116" s="1"/>
-      <c r="C116" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="13" t="s">
+      <c r="B121" s="8"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="13" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" s="7" customFormat="1">
-      <c r="A121" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="4"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" s="7" customFormat="1">
       <c r="A123" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="25" t="s">
+      <c r="A125" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="9" t="s">
+      <c r="B128" s="9"/>
+      <c r="C128" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B126" s="9"/>
-      <c r="C126" s="12" t="s">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="9" t="s">
+      <c r="B129" s="9"/>
+      <c r="C129" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B132" s="26"/>
+      <c r="C132" s="26"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="8"/>
+      <c r="C133" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="5"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B127" s="9"/>
-      <c r="C127" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" s="13" t="s">
+      <c r="B135" s="9"/>
+      <c r="C135" s="17"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B136" s="9"/>
+      <c r="C136" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B138" s="26"/>
+      <c r="C138" s="26"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" s="8"/>
+      <c r="C139" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="13"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="5"/>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B133" s="9"/>
-      <c r="C133" s="17"/>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B134" s="9"/>
-      <c r="C134" s="20" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B137" s="8"/>
-      <c r="C137" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" s="13"/>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="6" t="s">
+    <row r="141" spans="1:4">
+      <c r="A141" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B143" s="26"/>
+      <c r="C143" s="26"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B141" s="25"/>
-      <c r="C141" s="25"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B142" s="9"/>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B143" s="9"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="4" t="s">
-        <v>229</v>
-      </c>
+      <c r="B144" s="9"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B145" s="9"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B147" s="9"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B150" s="26"/>
+      <c r="C150" s="26"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="B145" s="9"/>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="B148" s="25"/>
-      <c r="C148" s="25"/>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="4" t="s">
+      <c r="B153" s="26"/>
+      <c r="C153" s="26"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="9" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="25" t="s">
+      <c r="B154" s="9"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="B151" s="25"/>
-      <c r="C151" s="25"/>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B152" s="9"/>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="B155" s="25"/>
-      <c r="C155" s="25"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A56:C56"/>
     <mergeCell ref="A103:C103"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A143:C143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A69" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
-    <hyperlink ref="A131" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
+    <hyperlink ref="A133" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
     <hyperlink ref="A6" r:id="rId3" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
     <hyperlink ref="A13" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
     <hyperlink ref="A14" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
-    <hyperlink ref="A137" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
+    <hyperlink ref="A139" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
     <hyperlink ref="A91" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
     <hyperlink ref="A71" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
     <hyperlink ref="A15" r:id="rId9" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
@@ -2388,52 +2397,53 @@
     <hyperlink ref="A57" r:id="rId40" display="https://app.pluralsight.com/library/courses/practical-couchdb-developers"/>
     <hyperlink ref="A9" r:id="rId41" display="https://app.pluralsight.com/library/courses/groovy-fundamentals"/>
     <hyperlink ref="A70" r:id="rId42" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
-    <hyperlink ref="A64" r:id="rId43" display="https://app.pluralsight.com/library/courses/hibernate-introduction"/>
-    <hyperlink ref="A8" r:id="rId44" display="https://app.pluralsight.com/library/courses/splunk-analyzing-machine-data"/>
-    <hyperlink ref="A10" r:id="rId45" display="https://app.pluralsight.com/library/courses/apache-spark-fundamentals"/>
-    <hyperlink ref="A11" r:id="rId46" display="https://app.pluralsight.com/library/courses/apache-spark-beginning-data-exploration-analysis"/>
-    <hyperlink ref="A12" r:id="rId47" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
-    <hyperlink ref="A128" r:id="rId48" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
-    <hyperlink ref="A20" r:id="rId49" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
-    <hyperlink ref="A21" r:id="rId50" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
-    <hyperlink ref="A23" r:id="rId51" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
-    <hyperlink ref="A62" r:id="rId52" display="https://app.pluralsight.com/library/courses/algorithmics-introduction"/>
-    <hyperlink ref="A82" r:id="rId53" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
-    <hyperlink ref="A83" r:id="rId54" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
-    <hyperlink ref="A84" r:id="rId55" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
-    <hyperlink ref="A85" r:id="rId56" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
-    <hyperlink ref="A88" r:id="rId57" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
-    <hyperlink ref="A93" r:id="rId58" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
-    <hyperlink ref="A104" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
-    <hyperlink ref="A105" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-course"/>
-    <hyperlink ref="A106" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
-    <hyperlink ref="A107" r:id="rId62" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
-    <hyperlink ref="A108" r:id="rId63" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
-    <hyperlink ref="A112" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-fund"/>
-    <hyperlink ref="A113" r:id="rId65" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
-    <hyperlink ref="A116" r:id="rId66" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
-    <hyperlink ref="A120" r:id="rId67" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
-    <hyperlink ref="A121" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
-    <hyperlink ref="A122" r:id="rId69" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
-    <hyperlink ref="A123" r:id="rId70" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
-    <hyperlink ref="A126" r:id="rId71"/>
-    <hyperlink ref="A127" r:id="rId72"/>
-    <hyperlink ref="A133" r:id="rId73"/>
-    <hyperlink ref="A94" r:id="rId74"/>
-    <hyperlink ref="A95" r:id="rId75"/>
-    <hyperlink ref="A96" r:id="rId76"/>
-    <hyperlink ref="A142" r:id="rId77"/>
-    <hyperlink ref="A143" r:id="rId78"/>
-    <hyperlink ref="A145" r:id="rId79"/>
-    <hyperlink ref="A152" r:id="rId80"/>
-    <hyperlink ref="A67" r:id="rId81"/>
-    <hyperlink ref="A86" r:id="rId82"/>
-    <hyperlink ref="A134" r:id="rId83"/>
-    <hyperlink ref="A36" r:id="rId84" display="https://app.pluralsight.com/library/courses/integrating-docker-with-devops-automated-workflows"/>
-    <hyperlink ref="A109" r:id="rId85" display="https://app.pluralsight.com/library/courses/aws-vpc-operations"/>
+    <hyperlink ref="A8" r:id="rId43" display="https://app.pluralsight.com/library/courses/splunk-analyzing-machine-data"/>
+    <hyperlink ref="A10" r:id="rId44" display="https://app.pluralsight.com/library/courses/apache-spark-fundamentals"/>
+    <hyperlink ref="A11" r:id="rId45" display="https://app.pluralsight.com/library/courses/apache-spark-beginning-data-exploration-analysis"/>
+    <hyperlink ref="A12" r:id="rId46" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
+    <hyperlink ref="A130" r:id="rId47" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
+    <hyperlink ref="A20" r:id="rId48" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
+    <hyperlink ref="A21" r:id="rId49" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
+    <hyperlink ref="A23" r:id="rId50" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
+    <hyperlink ref="A62" r:id="rId51" display="https://app.pluralsight.com/library/courses/algorithmics-introduction"/>
+    <hyperlink ref="A82" r:id="rId52" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
+    <hyperlink ref="A83" r:id="rId53" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
+    <hyperlink ref="A84" r:id="rId54" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
+    <hyperlink ref="A85" r:id="rId55" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
+    <hyperlink ref="A88" r:id="rId56" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
+    <hyperlink ref="A93" r:id="rId57" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
+    <hyperlink ref="A104" r:id="rId58" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
+    <hyperlink ref="A105" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-course"/>
+    <hyperlink ref="A106" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
+    <hyperlink ref="A107" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
+    <hyperlink ref="A108" r:id="rId62" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
+    <hyperlink ref="A114" r:id="rId63" display="https://app.pluralsight.com/library/courses/xml-fund"/>
+    <hyperlink ref="A115" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
+    <hyperlink ref="A118" r:id="rId65" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
+    <hyperlink ref="A122" r:id="rId66" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
+    <hyperlink ref="A123" r:id="rId67" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
+    <hyperlink ref="A124" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
+    <hyperlink ref="A125" r:id="rId69" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
+    <hyperlink ref="A128" r:id="rId70"/>
+    <hyperlink ref="A129" r:id="rId71"/>
+    <hyperlink ref="A135" r:id="rId72"/>
+    <hyperlink ref="A94" r:id="rId73"/>
+    <hyperlink ref="A95" r:id="rId74"/>
+    <hyperlink ref="A96" r:id="rId75"/>
+    <hyperlink ref="A144" r:id="rId76"/>
+    <hyperlink ref="A145" r:id="rId77"/>
+    <hyperlink ref="A147" r:id="rId78"/>
+    <hyperlink ref="A154" r:id="rId79"/>
+    <hyperlink ref="A67" r:id="rId80"/>
+    <hyperlink ref="A86" r:id="rId81"/>
+    <hyperlink ref="A136" r:id="rId82"/>
+    <hyperlink ref="A36" r:id="rId83" display="https://app.pluralsight.com/library/courses/integrating-docker-with-devops-automated-workflows"/>
+    <hyperlink ref="A109" r:id="rId84" display="https://app.pluralsight.com/library/courses/aws-vpc-operations"/>
+    <hyperlink ref="A110" r:id="rId85" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
+    <hyperlink ref="A111" r:id="rId86" display="https://app.pluralsight.com/library/courses/amazon-web-services-databases-in-depth"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId86"/>
+  <pageSetup orientation="portrait" r:id="rId87"/>
 </worksheet>
 </file>
 
@@ -2496,7 +2506,7 @@
     </row>
     <row r="8" spans="1:3" s="15" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2520,7 +2530,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>116</v>
       </c>
       <c r="B13" t="s">
@@ -2528,7 +2538,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -2549,7 +2559,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="28" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2560,13 +2570,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="16" t="s">
         <v>41</v>
       </c>
@@ -2575,7 +2585,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="16" t="s">
         <v>42</v>
       </c>
@@ -2584,13 +2594,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="28" t="s">
         <v>117</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -2601,37 +2611,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="27"/>
+      <c r="A25" s="28"/>
       <c r="B25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
       <c r="B26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
       <c r="B27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
       <c r="B28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
       <c r="B29" t="s">
         <v>50</v>
       </c>
@@ -2642,7 +2652,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="28" t="s">
         <v>95</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -2653,43 +2663,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="28"/>
       <c r="B33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="28"/>
       <c r="B34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="28"/>
       <c r="B35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="27"/>
+      <c r="A36" s="28"/>
       <c r="B36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="27"/>
+      <c r="A37" s="28"/>
       <c r="B37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="28" t="s">
         <v>58</v>
       </c>
       <c r="B38" t="s">
@@ -2697,19 +2707,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="27"/>
+      <c r="A39" s="28"/>
       <c r="B39" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="27"/>
+      <c r="A40" s="28"/>
       <c r="B40" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="28" t="s">
         <v>59</v>
       </c>
       <c r="B41" t="s">
@@ -2717,25 +2727,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="27"/>
+      <c r="A42" s="28"/>
       <c r="B42" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="27"/>
+      <c r="A43" s="28"/>
       <c r="B43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="27"/>
+      <c r="A44" s="28"/>
       <c r="B44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="28" t="s">
         <v>94</v>
       </c>
       <c r="B45" t="s">
@@ -2743,7 +2753,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="27"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="16" t="s">
         <v>70</v>
       </c>
@@ -2752,7 +2762,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="27"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="16" t="s">
         <v>71</v>
       </c>
@@ -2776,7 +2786,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="28" t="s">
         <v>111</v>
       </c>
       <c r="B51" s="16" t="s">
@@ -2787,13 +2797,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="27"/>
+      <c r="A52" s="28"/>
       <c r="B52" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="27"/>
+      <c r="A53" s="28"/>
       <c r="B53" t="s">
         <v>81</v>
       </c>
@@ -2809,7 +2819,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="28" t="s">
         <v>110</v>
       </c>
       <c r="B56" t="s">
@@ -2817,13 +2827,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="27"/>
+      <c r="A57" s="28"/>
       <c r="B57" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="28" t="s">
         <v>106</v>
       </c>
       <c r="B58" s="16" t="s">
@@ -2834,7 +2844,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="27"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="16" t="s">
         <v>107</v>
       </c>
@@ -2843,7 +2853,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="27"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="16" t="s">
         <v>108</v>
       </c>
@@ -2852,7 +2862,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="28" t="s">
         <v>86</v>
       </c>
       <c r="B61" t="s">
@@ -2860,31 +2870,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="27"/>
+      <c r="A62" s="28"/>
       <c r="B62" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="27"/>
+      <c r="A63" s="28"/>
       <c r="B63" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="27"/>
+      <c r="A64" s="28"/>
       <c r="B64" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="27"/>
+      <c r="A65" s="28"/>
       <c r="B65" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="27"/>
+      <c r="A66" s="28"/>
       <c r="B66" t="s">
         <v>104</v>
       </c>
@@ -2895,7 +2905,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="29" t="s">
         <v>90</v>
       </c>
       <c r="B68" t="s">
@@ -2903,55 +2913,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="28"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="28"/>
+      <c r="A70" s="29"/>
       <c r="B70" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="28"/>
+      <c r="A71" s="29"/>
       <c r="B71" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="28"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="28"/>
+      <c r="A73" s="29"/>
       <c r="B73" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="28"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="28"/>
+      <c r="A75" s="29"/>
       <c r="B75" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="28"/>
+      <c r="A76" s="29"/>
       <c r="B76" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="28"/>
+      <c r="A77" s="29"/>
       <c r="B77" s="16" t="s">
         <v>88</v>
       </c>
@@ -2980,7 +2990,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="28" t="s">
         <v>112</v>
       </c>
       <c r="B82" s="16" t="s">
@@ -2988,49 +2998,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="27"/>
+      <c r="A83" s="28"/>
       <c r="B83" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="27"/>
+      <c r="A84" s="28"/>
       <c r="B84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="27"/>
+      <c r="A85" s="28"/>
       <c r="B85" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="27"/>
+      <c r="A86" s="28"/>
       <c r="B86" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="27"/>
+      <c r="A87" s="28"/>
       <c r="B87" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="27"/>
+      <c r="A88" s="28"/>
       <c r="B88" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="27"/>
+      <c r="A89" s="28"/>
       <c r="B89" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="27"/>
+      <c r="A90" s="28"/>
       <c r="B90" t="s">
         <v>136</v>
       </c>
@@ -3051,7 +3061,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="26" t="s">
+      <c r="A94" s="27" t="s">
         <v>161</v>
       </c>
       <c r="B94" s="16" t="s">
@@ -3059,7 +3069,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="26"/>
+      <c r="A95" s="27"/>
       <c r="B95" t="s">
         <v>163</v>
       </c>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
@@ -2332,17 +2332,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A56:C56"/>
     <mergeCell ref="A113:C113"/>
     <mergeCell ref="A138:C138"/>
     <mergeCell ref="A127:C127"/>
@@ -2353,6 +2342,17 @@
     <mergeCell ref="A120:C120"/>
     <mergeCell ref="A150:C150"/>
     <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A90:C90"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A69" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="243">
   <si>
     <t>Unit testing in java with junit</t>
   </si>
@@ -741,6 +741,9 @@
   </si>
   <si>
     <t>Hibernate - Old Cerebro</t>
+  </si>
+  <si>
+    <t>Java Fundamentals - Concurrency with Multithreading [Course]</t>
   </si>
 </sst>
 </file>
@@ -821,7 +824,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -862,6 +865,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1174,11 +1178,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1478,11 +1482,11 @@
       <c r="C33" s="17"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="23" t="s">
@@ -1535,11 +1539,11 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
@@ -1560,11 +1564,11 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
@@ -1603,11 +1607,11 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="9" t="s">
@@ -1631,11 +1635,11 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="9" t="s">
@@ -1647,11 +1651,11 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="9" t="s">
@@ -1681,11 +1685,11 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
@@ -1716,11 +1720,11 @@
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="10" t="s">
@@ -1869,11 +1873,11 @@
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
@@ -1885,11 +1889,11 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="14" t="s">
@@ -1993,11 +1997,11 @@
       <c r="D101" s="4"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
@@ -2063,11 +2067,11 @@
       <c r="D111" s="4"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="26" t="s">
+      <c r="A113" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
@@ -2092,11 +2096,11 @@
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="26" t="s">
+      <c r="A117" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
@@ -2108,11 +2112,11 @@
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="26" t="s">
+      <c r="A120" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="8" t="s">
@@ -2161,25 +2165,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="26" t="s">
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="26" customFormat="1">
+      <c r="A127" s="1"/>
+      <c r="B127" s="4"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B128" s="9"/>
-      <c r="C128" s="12" t="s">
-        <v>209</v>
-      </c>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="12" t="s">
@@ -2187,180 +2192,189 @@
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B130" s="9"/>
+      <c r="C130" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B130" s="1"/>
-      <c r="C130" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="26" t="s">
+      <c r="B131" s="1"/>
+      <c r="C131" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="8" t="s">
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B133" s="8"/>
-      <c r="C133" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" s="13" t="s">
+      <c r="B134" s="8"/>
+      <c r="C134" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="4" t="s">
+    <row r="135" spans="1:4">
+      <c r="A135" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C134" s="5"/>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B135" s="9"/>
-      <c r="C135" s="17"/>
+      <c r="C135" s="5"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B136" s="9"/>
+      <c r="C136" s="17"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B136" s="9"/>
-      <c r="C136" s="20" t="s">
+      <c r="B137" s="9"/>
+      <c r="C137" s="20" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="26" t="s">
+    <row r="139" spans="1:4">
+      <c r="A139" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="8" t="s">
+      <c r="B139" s="27"/>
+      <c r="C139" s="27"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="13"/>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="6" t="s">
+      <c r="B140" s="8"/>
+      <c r="C140" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="13"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6" t="s">
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="4" t="s">
+    <row r="142" spans="1:4">
+      <c r="A142" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="26" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B143" s="26"/>
-      <c r="C143" s="26"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B144" s="9"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="27"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B145" s="9"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B145" s="9"/>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="4" t="s">
+      <c r="B146" s="9"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="9" t="s">
+    <row r="148" spans="1:3">
+      <c r="A148" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B147" s="9"/>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="26" t="s">
+      <c r="B148" s="9"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B150" s="26"/>
-      <c r="C150" s="26"/>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="4" t="s">
+      <c r="B151" s="27"/>
+      <c r="C151" s="27"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="26" t="s">
+    <row r="154" spans="1:3">
+      <c r="A154" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="9" t="s">
+      <c r="B154" s="27"/>
+      <c r="C154" s="27"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B154" s="9"/>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="26" t="s">
+      <c r="B155" s="9"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="B157" s="26"/>
-      <c r="C157" s="26"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A56:C56"/>
     <mergeCell ref="A103:C103"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A144:C144"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A69" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
-    <hyperlink ref="A133" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
+    <hyperlink ref="A134" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
     <hyperlink ref="A6" r:id="rId3" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
     <hyperlink ref="A13" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
     <hyperlink ref="A14" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
-    <hyperlink ref="A139" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
+    <hyperlink ref="A140" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
     <hyperlink ref="A91" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
     <hyperlink ref="A71" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
     <hyperlink ref="A15" r:id="rId9" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
@@ -2401,7 +2415,7 @@
     <hyperlink ref="A10" r:id="rId44" display="https://app.pluralsight.com/library/courses/apache-spark-fundamentals"/>
     <hyperlink ref="A11" r:id="rId45" display="https://app.pluralsight.com/library/courses/apache-spark-beginning-data-exploration-analysis"/>
     <hyperlink ref="A12" r:id="rId46" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
-    <hyperlink ref="A130" r:id="rId47" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
+    <hyperlink ref="A131" r:id="rId47" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
     <hyperlink ref="A20" r:id="rId48" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
     <hyperlink ref="A21" r:id="rId49" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
     <hyperlink ref="A23" r:id="rId50" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
@@ -2424,26 +2438,27 @@
     <hyperlink ref="A123" r:id="rId67" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
     <hyperlink ref="A124" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
     <hyperlink ref="A125" r:id="rId69" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
-    <hyperlink ref="A128" r:id="rId70"/>
-    <hyperlink ref="A129" r:id="rId71"/>
-    <hyperlink ref="A135" r:id="rId72"/>
+    <hyperlink ref="A129" r:id="rId70"/>
+    <hyperlink ref="A130" r:id="rId71"/>
+    <hyperlink ref="A136" r:id="rId72"/>
     <hyperlink ref="A94" r:id="rId73"/>
     <hyperlink ref="A95" r:id="rId74"/>
     <hyperlink ref="A96" r:id="rId75"/>
-    <hyperlink ref="A144" r:id="rId76"/>
-    <hyperlink ref="A145" r:id="rId77"/>
-    <hyperlink ref="A147" r:id="rId78"/>
-    <hyperlink ref="A154" r:id="rId79"/>
+    <hyperlink ref="A145" r:id="rId76"/>
+    <hyperlink ref="A146" r:id="rId77"/>
+    <hyperlink ref="A148" r:id="rId78"/>
+    <hyperlink ref="A155" r:id="rId79"/>
     <hyperlink ref="A67" r:id="rId80"/>
     <hyperlink ref="A86" r:id="rId81"/>
-    <hyperlink ref="A136" r:id="rId82"/>
+    <hyperlink ref="A137" r:id="rId82"/>
     <hyperlink ref="A36" r:id="rId83" display="https://app.pluralsight.com/library/courses/integrating-docker-with-devops-automated-workflows"/>
     <hyperlink ref="A109" r:id="rId84" display="https://app.pluralsight.com/library/courses/aws-vpc-operations"/>
     <hyperlink ref="A110" r:id="rId85" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
     <hyperlink ref="A111" r:id="rId86" display="https://app.pluralsight.com/library/courses/amazon-web-services-databases-in-depth"/>
+    <hyperlink ref="A126" r:id="rId87" display="https://app.pluralsight.com/library/courses/java-fundamentals-multithreading-concurrency"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId87"/>
+  <pageSetup orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
 
@@ -2530,7 +2545,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B13" t="s">
@@ -2538,7 +2553,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -2559,7 +2574,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2570,13 +2585,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="16" t="s">
         <v>41</v>
       </c>
@@ -2585,7 +2600,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="16" t="s">
         <v>42</v>
       </c>
@@ -2594,13 +2609,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>117</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -2611,37 +2626,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="29"/>
       <c r="B25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="28"/>
+      <c r="A27" s="29"/>
       <c r="B27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="29"/>
       <c r="B28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="29"/>
       <c r="B29" t="s">
         <v>50</v>
       </c>
@@ -2652,7 +2667,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="29" t="s">
         <v>95</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -2663,43 +2678,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="29"/>
       <c r="B33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="29"/>
       <c r="B34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="28"/>
+      <c r="A35" s="29"/>
       <c r="B35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="28"/>
+      <c r="A36" s="29"/>
       <c r="B36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="28"/>
+      <c r="A37" s="29"/>
       <c r="B37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="29" t="s">
         <v>58</v>
       </c>
       <c r="B38" t="s">
@@ -2707,19 +2722,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="28"/>
+      <c r="A39" s="29"/>
       <c r="B39" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="28"/>
+      <c r="A40" s="29"/>
       <c r="B40" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="29" t="s">
         <v>59</v>
       </c>
       <c r="B41" t="s">
@@ -2727,25 +2742,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="28"/>
+      <c r="A42" s="29"/>
       <c r="B42" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="28"/>
+      <c r="A43" s="29"/>
       <c r="B43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="28"/>
+      <c r="A44" s="29"/>
       <c r="B44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="29" t="s">
         <v>94</v>
       </c>
       <c r="B45" t="s">
@@ -2753,7 +2768,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="28"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="16" t="s">
         <v>70</v>
       </c>
@@ -2762,7 +2777,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="28"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="16" t="s">
         <v>71</v>
       </c>
@@ -2786,7 +2801,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="29" t="s">
         <v>111</v>
       </c>
       <c r="B51" s="16" t="s">
@@ -2797,13 +2812,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="28"/>
+      <c r="A52" s="29"/>
       <c r="B52" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="28"/>
+      <c r="A53" s="29"/>
       <c r="B53" t="s">
         <v>81</v>
       </c>
@@ -2819,7 +2834,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="29" t="s">
         <v>110</v>
       </c>
       <c r="B56" t="s">
@@ -2827,13 +2842,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="28"/>
+      <c r="A57" s="29"/>
       <c r="B57" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="29" t="s">
         <v>106</v>
       </c>
       <c r="B58" s="16" t="s">
@@ -2844,7 +2859,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="28"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="16" t="s">
         <v>107</v>
       </c>
@@ -2853,7 +2868,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="28"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="16" t="s">
         <v>108</v>
       </c>
@@ -2862,7 +2877,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B61" t="s">
@@ -2870,31 +2885,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="28"/>
+      <c r="A62" s="29"/>
       <c r="B62" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="28"/>
+      <c r="A63" s="29"/>
       <c r="B63" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="28"/>
+      <c r="A64" s="29"/>
       <c r="B64" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="28"/>
+      <c r="A65" s="29"/>
       <c r="B65" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="28"/>
+      <c r="A66" s="29"/>
       <c r="B66" t="s">
         <v>104</v>
       </c>
@@ -2905,7 +2920,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="30" t="s">
         <v>90</v>
       </c>
       <c r="B68" t="s">
@@ -2913,55 +2928,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="29"/>
+      <c r="A69" s="30"/>
       <c r="B69" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="29"/>
+      <c r="A70" s="30"/>
       <c r="B70" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="29"/>
+      <c r="A71" s="30"/>
       <c r="B71" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="29"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="29"/>
+      <c r="A73" s="30"/>
       <c r="B73" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="29"/>
+      <c r="A74" s="30"/>
       <c r="B74" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="29"/>
+      <c r="A75" s="30"/>
       <c r="B75" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="29"/>
+      <c r="A76" s="30"/>
       <c r="B76" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="29"/>
+      <c r="A77" s="30"/>
       <c r="B77" s="16" t="s">
         <v>88</v>
       </c>
@@ -2990,7 +3005,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="29" t="s">
         <v>112</v>
       </c>
       <c r="B82" s="16" t="s">
@@ -2998,49 +3013,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="28"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="28"/>
+      <c r="A84" s="29"/>
       <c r="B84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="28"/>
+      <c r="A85" s="29"/>
       <c r="B85" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="28"/>
+      <c r="A86" s="29"/>
       <c r="B86" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="28"/>
+      <c r="A87" s="29"/>
       <c r="B87" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="28"/>
+      <c r="A88" s="29"/>
       <c r="B88" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="28"/>
+      <c r="A89" s="29"/>
       <c r="B89" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="28"/>
+      <c r="A90" s="29"/>
       <c r="B90" t="s">
         <v>136</v>
       </c>
@@ -3061,7 +3076,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="28" t="s">
         <v>161</v>
       </c>
       <c r="B94" s="16" t="s">
@@ -3069,7 +3084,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="27"/>
+      <c r="A95" s="28"/>
       <c r="B95" t="s">
         <v>163</v>
       </c>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorials" sheetId="1" r:id="rId1"/>
     <sheet name="Resume Topics" sheetId="2" r:id="rId2"/>
+    <sheet name="Learning-Plan" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="252">
   <si>
     <t>Unit testing in java with junit</t>
   </si>
@@ -542,9 +543,6 @@
     <t>RESTful Web Services</t>
   </si>
   <si>
-    <t>Half completed. Do revision till now. Reiterate video once again</t>
-  </si>
-  <si>
     <t>Reges</t>
   </si>
   <si>
@@ -744,12 +742,45 @@
   </si>
   <si>
     <t>Java Fundamentals - Concurrency with Multithreading [Course]</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>To Date</t>
+  </si>
+  <si>
+    <t>Akka</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Multithreading</t>
+  </si>
+  <si>
+    <t>http://www.tutorialspoint.com/scala/</t>
+  </si>
+  <si>
+    <t>Tutorialspoint</t>
+  </si>
+  <si>
+    <t>Datastructures in Java by Narasimhan Karumanchi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -782,7 +813,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,6 +838,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CC33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -824,7 +873,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -868,6 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -878,6 +928,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -887,6 +949,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000CC"/>
+      <color rgb="FF33CC33"/>
+      <color rgb="FFFF0000"/>
       <color rgb="FF3302BE"/>
     </mruColors>
   </colors>
@@ -1178,18 +1243,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="114.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1243,7 +1308,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="5" t="s">
@@ -1264,7 +1329,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5" t="s">
@@ -1273,7 +1338,7 @@
     </row>
     <row r="11" spans="1:4" s="7" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="5" t="s">
@@ -1283,7 +1348,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
@@ -1355,7 +1420,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="6" t="s">
@@ -1367,7 +1432,7 @@
     </row>
     <row r="21" spans="1:4" s="7" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
@@ -1386,7 +1451,7 @@
     </row>
     <row r="23" spans="1:4" s="7" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="5" t="s">
@@ -1482,11 +1547,11 @@
       <c r="C33" s="17"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="23" t="s">
@@ -1502,7 +1567,7 @@
     </row>
     <row r="36" spans="1:4" s="24" customFormat="1">
       <c r="A36" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
@@ -1539,11 +1604,11 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
@@ -1564,11 +1629,11 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
@@ -1607,68 +1672,66 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+    </row>
+    <row r="53" spans="1:4" s="27" customFormat="1">
       <c r="A53" s="9" t="s">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30">
+        <v>250</v>
+      </c>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="27" t="s">
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="9" t="s">
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="27" t="s">
+      <c r="B58" s="9"/>
+      <c r="C58" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="5" t="s">
@@ -1676,155 +1739,152 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B62" s="1"/>
+      <c r="A62" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="9"/>
       <c r="C62" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C64" s="17"/>
-    </row>
-    <row r="65" spans="1:4" s="25" customFormat="1">
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B65" s="4"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" s="11" customFormat="1">
+        <v>205</v>
+      </c>
+      <c r="C65" s="17"/>
+    </row>
+    <row r="66" spans="1:4" s="25" customFormat="1">
       <c r="A66" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" s="11" customFormat="1">
+      <c r="A67" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" s="20" customFormat="1">
-      <c r="A67" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B67" s="9"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="27" t="s">
+    <row r="68" spans="1:4" s="20" customFormat="1">
+      <c r="A68" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="10" t="s">
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="9" t="s">
+      <c r="B70" s="10"/>
+      <c r="C70" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="8" t="s">
+      <c r="B71" s="9"/>
+      <c r="C71" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="13" t="s">
+      <c r="B72" s="8"/>
+      <c r="C72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="4" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:4" ht="30">
-      <c r="A73" s="4" t="s">
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" ht="30">
+      <c r="A74" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="17"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>135</v>
-      </c>
+      <c r="C81" s="17"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="14" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="6" t="s">
@@ -1834,111 +1894,115 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="7" customFormat="1">
-      <c r="A83" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4">
+    <row r="83" spans="1:4">
+      <c r="A83" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="7" customFormat="1">
       <c r="A84" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="21" customFormat="1">
-      <c r="A86" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B86" s="5" t="s">
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="21" customFormat="1">
+      <c r="A87" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="27" t="s">
+      <c r="C87" s="5"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" s="18" customFormat="1">
-      <c r="A94" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="95" spans="1:4" s="18" customFormat="1">
       <c r="A95" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="4"/>
@@ -1946,43 +2010,41 @@
     </row>
     <row r="96" spans="1:4" s="18" customFormat="1">
       <c r="A96" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="1:4" s="18" customFormat="1">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B97" s="9"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" s="18" customFormat="1">
+      <c r="A98" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="18" customFormat="1">
+      <c r="A99" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" s="18" customFormat="1">
-      <c r="A98" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" s="18" customFormat="1">
-      <c r="A99" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="13" t="s">
-        <v>135</v>
-      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:4" s="18" customFormat="1">
       <c r="A100" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -1991,54 +2053,56 @@
       </c>
     </row>
     <row r="101" spans="1:4" s="18" customFormat="1">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
+      <c r="A101" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="18" customFormat="1">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="17"/>
-    </row>
-    <row r="105" spans="1:4" s="7" customFormat="1">
+      <c r="A104" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="17"/>
-      <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:4" s="7" customFormat="1">
-      <c r="A106" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="13" t="s">
+      <c r="A106" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" s="7" customFormat="1">
+      <c r="A107" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="13" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" s="7" customFormat="1">
-      <c r="A107" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4" s="7" customFormat="1">
       <c r="A108" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="17"/>
@@ -2046,119 +2110,118 @@
     </row>
     <row r="109" spans="1:4" s="7" customFormat="1">
       <c r="A109" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B109" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="B109" s="1"/>
       <c r="C109" s="17"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" s="25" customFormat="1">
+    <row r="110" spans="1:4" s="7" customFormat="1">
       <c r="A110" s="1" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="B110" s="4"/>
+      <c r="C110" s="17"/>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="1:4" s="25" customFormat="1">
       <c r="A111" s="1" t="s">
-        <v>240</v>
+        <v>17</v>
       </c>
       <c r="B111" s="4"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="27" t="s">
+    <row r="112" spans="1:4" s="25" customFormat="1">
+      <c r="A112" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B112" s="4"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B115" s="1"/>
-      <c r="C115" s="17"/>
-    </row>
-    <row r="116" spans="1:4" s="7" customFormat="1">
-      <c r="A116" s="1"/>
+      <c r="C115" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="B116" s="1"/>
       <c r="C116" s="17"/>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="27" t="s">
+    </row>
+    <row r="117" spans="1:4" s="7" customFormat="1">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1" t="s">
+      <c r="B122" s="8"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="7" customFormat="1">
-      <c r="A123" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:4">
+    </row>
+    <row r="124" spans="1:4" s="7" customFormat="1">
       <c r="A124" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="D124" s="4"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="5" t="s">
@@ -2167,227 +2230,236 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="26" customFormat="1">
-      <c r="A127" s="1"/>
-      <c r="B127" s="4"/>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
+        <v>204</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="26" customFormat="1">
+      <c r="A128" s="1"/>
+      <c r="B128" s="4"/>
+      <c r="D128" s="4"/>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B129" s="9"/>
-      <c r="C129" s="12" t="s">
-        <v>209</v>
-      </c>
+      <c r="A129" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="9" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B131" s="1"/>
-      <c r="C131" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="27" t="s">
+      <c r="B131" s="9"/>
+      <c r="C131" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B133" s="27"/>
-      <c r="C133" s="27"/>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="8" t="s">
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="8"/>
-      <c r="C134" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" s="13" t="s">
+      <c r="B135" s="8"/>
+      <c r="C135" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="4" t="s">
+    <row r="136" spans="1:4">
+      <c r="A136" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C135" s="5"/>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B136" s="9"/>
-      <c r="C136" s="17"/>
+      <c r="C136" s="5"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B137" s="9"/>
+      <c r="C137" s="17"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B138" s="9"/>
+      <c r="C138" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B137" s="9"/>
-      <c r="C137" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="27" t="s">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B139" s="27"/>
-      <c r="C139" s="27"/>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="8" t="s">
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B140" s="8"/>
-      <c r="C140" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="13"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="6" t="s">
+      <c r="B141" s="8"/>
+      <c r="C141" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="13"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="4" t="s">
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="28" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="B144" s="27"/>
-      <c r="C144" s="27"/>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B145" s="9"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="28"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B146" s="9"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B147" s="9"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B146" s="9"/>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="4" t="s">
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="9" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="9" t="s">
+      <c r="B149" s="9"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B152" s="28"/>
+      <c r="C152" s="28"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B148" s="9"/>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="27" t="s">
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="B151" s="27"/>
-      <c r="C151" s="27"/>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="27" t="s">
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B154" s="27"/>
-      <c r="C154" s="27"/>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B155" s="9"/>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="B158" s="27"/>
-      <c r="C158" s="27"/>
+      <c r="B156" s="9"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B159" s="28"/>
+      <c r="C159" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A145:C145"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A91:C91"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A69" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
-    <hyperlink ref="A134" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
+    <hyperlink ref="A70" r:id="rId1" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
+    <hyperlink ref="A135" r:id="rId2" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
     <hyperlink ref="A6" r:id="rId3" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
     <hyperlink ref="A13" r:id="rId4" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
     <hyperlink ref="A14" r:id="rId5" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
-    <hyperlink ref="A140" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
-    <hyperlink ref="A91" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
-    <hyperlink ref="A71" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
+    <hyperlink ref="A141" r:id="rId6" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
+    <hyperlink ref="A92" r:id="rId7" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
+    <hyperlink ref="A72" r:id="rId8" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
     <hyperlink ref="A15" r:id="rId9" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
     <hyperlink ref="A16" r:id="rId10" display="https://app.pluralsight.com/library/courses/understanding-java-vm-memory-management"/>
-    <hyperlink ref="A60" r:id="rId11" display="https://app.pluralsight.com/library/courses/ads-part1"/>
-    <hyperlink ref="A61" r:id="rId12" display="https://app.pluralsight.com/library/courses/ads2"/>
+    <hyperlink ref="A61" r:id="rId11" display="https://app.pluralsight.com/library/courses/ads-part1"/>
+    <hyperlink ref="A62" r:id="rId12" display="https://app.pluralsight.com/library/courses/ads2"/>
     <hyperlink ref="A17" r:id="rId13" display="https://app.pluralsight.com/library/courses/data-mining-algorithms-ssas-excel-r"/>
     <hyperlink ref="A18" r:id="rId14" display="https://app.pluralsight.com/library/courses/vagrant-versioning-environments"/>
     <hyperlink ref="A37" r:id="rId15" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
     <hyperlink ref="A38" r:id="rId16" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
     <hyperlink ref="A19" r:id="rId17" display="https://app.pluralsight.com/library/courses/consul-getting-started"/>
-    <hyperlink ref="A81" r:id="rId18" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
-    <hyperlink ref="A92" r:id="rId19" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
+    <hyperlink ref="A82" r:id="rId18" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
+    <hyperlink ref="A93" r:id="rId19" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
     <hyperlink ref="A22" r:id="rId20" display="https://app.pluralsight.com/library/courses/java-patterns-concurrency-multi-threading"/>
     <hyperlink ref="A24" r:id="rId21" display="https://app.pluralsight.com/library/courses/design-patterns-java-behavioral"/>
     <hyperlink ref="A25" r:id="rId22" display="https://app.pluralsight.com/library/courses/design-patterns-java-creational"/>
@@ -2406,56 +2478,56 @@
     <hyperlink ref="A28" r:id="rId35" display="https://app.pluralsight.com/library/courses/sql-server-flyway-continuous-database-delivery"/>
     <hyperlink ref="A42" r:id="rId36" display="https://app.pluralsight.com/library/courses/python-fundamentals"/>
     <hyperlink ref="A43" r:id="rId37" display="https://app.pluralsight.com/library/courses/python-beyond-basics"/>
-    <hyperlink ref="A54" r:id="rId38" display="https://app.pluralsight.com/library/courses/scala-getting-started"/>
-    <hyperlink ref="A53" r:id="rId39" display="https://app.pluralsight.com/library/courses/scala-for-java-developers"/>
-    <hyperlink ref="A57" r:id="rId40" display="https://app.pluralsight.com/library/courses/practical-couchdb-developers"/>
+    <hyperlink ref="A55" r:id="rId38" display="https://app.pluralsight.com/library/courses/scala-getting-started"/>
+    <hyperlink ref="A54" r:id="rId39" display="https://app.pluralsight.com/library/courses/scala-for-java-developers"/>
+    <hyperlink ref="A58" r:id="rId40" display="https://app.pluralsight.com/library/courses/practical-couchdb-developers"/>
     <hyperlink ref="A9" r:id="rId41" display="https://app.pluralsight.com/library/courses/groovy-fundamentals"/>
-    <hyperlink ref="A70" r:id="rId42" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
+    <hyperlink ref="A71" r:id="rId42" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
     <hyperlink ref="A8" r:id="rId43" display="https://app.pluralsight.com/library/courses/splunk-analyzing-machine-data"/>
     <hyperlink ref="A10" r:id="rId44" display="https://app.pluralsight.com/library/courses/apache-spark-fundamentals"/>
     <hyperlink ref="A11" r:id="rId45" display="https://app.pluralsight.com/library/courses/apache-spark-beginning-data-exploration-analysis"/>
     <hyperlink ref="A12" r:id="rId46" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
-    <hyperlink ref="A131" r:id="rId47" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
+    <hyperlink ref="A132" r:id="rId47" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
     <hyperlink ref="A20" r:id="rId48" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
     <hyperlink ref="A21" r:id="rId49" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
     <hyperlink ref="A23" r:id="rId50" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
-    <hyperlink ref="A62" r:id="rId51" display="https://app.pluralsight.com/library/courses/algorithmics-introduction"/>
-    <hyperlink ref="A82" r:id="rId52" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
-    <hyperlink ref="A83" r:id="rId53" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
-    <hyperlink ref="A84" r:id="rId54" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
-    <hyperlink ref="A85" r:id="rId55" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
-    <hyperlink ref="A88" r:id="rId56" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
-    <hyperlink ref="A93" r:id="rId57" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
-    <hyperlink ref="A104" r:id="rId58" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
-    <hyperlink ref="A105" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-course"/>
-    <hyperlink ref="A106" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
-    <hyperlink ref="A107" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
-    <hyperlink ref="A108" r:id="rId62" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
-    <hyperlink ref="A114" r:id="rId63" display="https://app.pluralsight.com/library/courses/xml-fund"/>
-    <hyperlink ref="A115" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
-    <hyperlink ref="A118" r:id="rId65" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
-    <hyperlink ref="A122" r:id="rId66" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
-    <hyperlink ref="A123" r:id="rId67" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
-    <hyperlink ref="A124" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
-    <hyperlink ref="A125" r:id="rId69" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
-    <hyperlink ref="A129" r:id="rId70"/>
-    <hyperlink ref="A130" r:id="rId71"/>
-    <hyperlink ref="A136" r:id="rId72"/>
-    <hyperlink ref="A94" r:id="rId73"/>
-    <hyperlink ref="A95" r:id="rId74"/>
-    <hyperlink ref="A96" r:id="rId75"/>
-    <hyperlink ref="A145" r:id="rId76"/>
-    <hyperlink ref="A146" r:id="rId77"/>
-    <hyperlink ref="A148" r:id="rId78"/>
-    <hyperlink ref="A155" r:id="rId79"/>
-    <hyperlink ref="A67" r:id="rId80"/>
-    <hyperlink ref="A86" r:id="rId81"/>
-    <hyperlink ref="A137" r:id="rId82"/>
+    <hyperlink ref="A63" r:id="rId51" display="https://app.pluralsight.com/library/courses/algorithmics-introduction"/>
+    <hyperlink ref="A83" r:id="rId52" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
+    <hyperlink ref="A84" r:id="rId53" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
+    <hyperlink ref="A85" r:id="rId54" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
+    <hyperlink ref="A86" r:id="rId55" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
+    <hyperlink ref="A89" r:id="rId56" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
+    <hyperlink ref="A94" r:id="rId57" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
+    <hyperlink ref="A105" r:id="rId58" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
+    <hyperlink ref="A106" r:id="rId59" display="https://app.pluralsight.com/library/courses/aws-course"/>
+    <hyperlink ref="A107" r:id="rId60" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
+    <hyperlink ref="A108" r:id="rId61" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
+    <hyperlink ref="A109" r:id="rId62" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
+    <hyperlink ref="A115" r:id="rId63" display="https://app.pluralsight.com/library/courses/xml-fund"/>
+    <hyperlink ref="A116" r:id="rId64" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
+    <hyperlink ref="A119" r:id="rId65" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
+    <hyperlink ref="A123" r:id="rId66" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
+    <hyperlink ref="A124" r:id="rId67" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
+    <hyperlink ref="A125" r:id="rId68" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
+    <hyperlink ref="A126" r:id="rId69" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
+    <hyperlink ref="A130" r:id="rId70"/>
+    <hyperlink ref="A131" r:id="rId71"/>
+    <hyperlink ref="A137" r:id="rId72"/>
+    <hyperlink ref="A95" r:id="rId73"/>
+    <hyperlink ref="A96" r:id="rId74"/>
+    <hyperlink ref="A97" r:id="rId75"/>
+    <hyperlink ref="A146" r:id="rId76"/>
+    <hyperlink ref="A147" r:id="rId77"/>
+    <hyperlink ref="A149" r:id="rId78"/>
+    <hyperlink ref="A156" r:id="rId79"/>
+    <hyperlink ref="A68" r:id="rId80"/>
+    <hyperlink ref="A87" r:id="rId81"/>
+    <hyperlink ref="A138" r:id="rId82"/>
     <hyperlink ref="A36" r:id="rId83" display="https://app.pluralsight.com/library/courses/integrating-docker-with-devops-automated-workflows"/>
-    <hyperlink ref="A109" r:id="rId84" display="https://app.pluralsight.com/library/courses/aws-vpc-operations"/>
-    <hyperlink ref="A110" r:id="rId85" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
-    <hyperlink ref="A111" r:id="rId86" display="https://app.pluralsight.com/library/courses/amazon-web-services-databases-in-depth"/>
-    <hyperlink ref="A126" r:id="rId87" display="https://app.pluralsight.com/library/courses/java-fundamentals-multithreading-concurrency"/>
+    <hyperlink ref="A110" r:id="rId84" display="https://app.pluralsight.com/library/courses/aws-vpc-operations"/>
+    <hyperlink ref="A111" r:id="rId85" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
+    <hyperlink ref="A112" r:id="rId86" display="https://app.pluralsight.com/library/courses/amazon-web-services-databases-in-depth"/>
+    <hyperlink ref="A127" r:id="rId87" display="https://app.pluralsight.com/library/courses/java-fundamentals-multithreading-concurrency"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId88"/>
@@ -2467,7 +2539,7 @@
   <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2521,7 +2593,7 @@
     </row>
     <row r="8" spans="1:3" s="15" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2545,7 +2617,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>116</v>
       </c>
       <c r="B13" t="s">
@@ -2553,7 +2625,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -2574,7 +2646,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="30" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2585,13 +2657,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="30"/>
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="16" t="s">
         <v>41</v>
       </c>
@@ -2600,7 +2672,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="16" t="s">
         <v>42</v>
       </c>
@@ -2609,13 +2681,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="30" t="s">
         <v>117</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -2626,37 +2698,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="29"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="30"/>
       <c r="B25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="30"/>
       <c r="B26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="29"/>
+      <c r="A27" s="30"/>
       <c r="B27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="29"/>
+      <c r="A28" s="30"/>
       <c r="B28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="30"/>
       <c r="B29" t="s">
         <v>50</v>
       </c>
@@ -2667,7 +2739,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="30" t="s">
         <v>95</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -2678,43 +2750,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="29"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="29"/>
+      <c r="A33" s="30"/>
       <c r="B33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="29"/>
+      <c r="A34" s="30"/>
       <c r="B34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="29"/>
+      <c r="A35" s="30"/>
       <c r="B35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="29"/>
+      <c r="A36" s="30"/>
       <c r="B36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="29"/>
+      <c r="A37" s="30"/>
       <c r="B37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B38" t="s">
@@ -2722,19 +2794,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="29"/>
+      <c r="A40" s="30"/>
       <c r="B40" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B41" t="s">
@@ -2742,25 +2814,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="29"/>
+      <c r="A42" s="30"/>
       <c r="B42" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="29"/>
+      <c r="A43" s="30"/>
       <c r="B43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="29"/>
+      <c r="A44" s="30"/>
       <c r="B44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="30" t="s">
         <v>94</v>
       </c>
       <c r="B45" t="s">
@@ -2768,7 +2840,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="29"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="16" t="s">
         <v>70</v>
       </c>
@@ -2777,7 +2849,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="29"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="16" t="s">
         <v>71</v>
       </c>
@@ -2801,7 +2873,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B51" s="16" t="s">
@@ -2812,13 +2884,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="29"/>
+      <c r="A52" s="30"/>
       <c r="B52" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="29"/>
+      <c r="A53" s="30"/>
       <c r="B53" t="s">
         <v>81</v>
       </c>
@@ -2834,7 +2906,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="30" t="s">
         <v>110</v>
       </c>
       <c r="B56" t="s">
@@ -2842,13 +2914,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="29"/>
+      <c r="A57" s="30"/>
       <c r="B57" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="30" t="s">
         <v>106</v>
       </c>
       <c r="B58" s="16" t="s">
@@ -2859,7 +2931,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="29"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="16" t="s">
         <v>107</v>
       </c>
@@ -2868,7 +2940,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="29"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="16" t="s">
         <v>108</v>
       </c>
@@ -2877,7 +2949,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="30" t="s">
         <v>86</v>
       </c>
       <c r="B61" t="s">
@@ -2885,31 +2957,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="29"/>
+      <c r="A62" s="30"/>
       <c r="B62" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="29"/>
+      <c r="A63" s="30"/>
       <c r="B63" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="29"/>
+      <c r="A64" s="30"/>
       <c r="B64" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="29"/>
+      <c r="A65" s="30"/>
       <c r="B65" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="29"/>
+      <c r="A66" s="30"/>
       <c r="B66" t="s">
         <v>104</v>
       </c>
@@ -2920,7 +2992,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="31" t="s">
         <v>90</v>
       </c>
       <c r="B68" t="s">
@@ -2928,55 +3000,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="30"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="30"/>
+      <c r="A70" s="31"/>
       <c r="B70" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="30"/>
+      <c r="A71" s="31"/>
       <c r="B71" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="30"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="30"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="30"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="30"/>
+      <c r="A75" s="31"/>
       <c r="B75" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="30"/>
+      <c r="A76" s="31"/>
       <c r="B76" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="30"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="16" t="s">
         <v>88</v>
       </c>
@@ -3005,7 +3077,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B82" s="16" t="s">
@@ -3013,49 +3085,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="29"/>
+      <c r="A83" s="30"/>
       <c r="B83" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="29"/>
+      <c r="A84" s="30"/>
       <c r="B84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="29"/>
+      <c r="A85" s="30"/>
       <c r="B85" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="29"/>
+      <c r="A86" s="30"/>
       <c r="B86" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="29"/>
+      <c r="A87" s="30"/>
       <c r="B87" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="29"/>
+      <c r="A88" s="30"/>
       <c r="B88" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="29"/>
+      <c r="A89" s="30"/>
       <c r="B89" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="29"/>
+      <c r="A90" s="30"/>
       <c r="B90" t="s">
         <v>136</v>
       </c>
@@ -3076,7 +3148,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B94" s="16" t="s">
@@ -3084,7 +3156,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="28"/>
+      <c r="A95" s="29"/>
       <c r="B95" t="s">
         <v>163</v>
       </c>
@@ -3108,4 +3180,128 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23" style="34" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="34">
+        <v>42838</v>
+      </c>
+      <c r="C2" s="34">
+        <v>42844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="34">
+        <v>42849</v>
+      </c>
+      <c r="C3" s="34">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="34">
+        <v>42854</v>
+      </c>
+      <c r="C4" s="34">
+        <v>42861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="34">
+        <v>42862</v>
+      </c>
+      <c r="C5" s="34">
+        <v>42868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="34">
+        <v>42869</v>
+      </c>
+      <c r="C6" s="34">
+        <v>42875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="34">
+        <v>42876</v>
+      </c>
+      <c r="C7" s="34">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="34">
+        <v>42882</v>
+      </c>
+      <c r="C8" s="34">
+        <v>42883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="34">
+        <v>42838</v>
+      </c>
+      <c r="C9" s="34">
+        <v>42881</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="Tutorials!A52" display="Scala"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="316">
-  <si>
-    <t>Unit testing in java with junit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="319">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -844,9 +841,6 @@
     <t>Data Structures 3 - Graphs</t>
   </si>
   <si>
-    <t>Unite Testing in Java with Junit</t>
-  </si>
-  <si>
     <t>Algorithms and Data Structures - Part 1</t>
   </si>
   <si>
@@ -980,6 +974,21 @@
   </si>
   <si>
     <t>Advanced Node.js [Course]</t>
+  </si>
+  <si>
+    <t>Fundamentals of Cloud Computing [Course]</t>
+  </si>
+  <si>
+    <t>Creating Your First Spring Boot Application [Course]</t>
+  </si>
+  <si>
+    <t>Docker for Web Developers</t>
+  </si>
+  <si>
+    <t>Unit Testing In Java With JUnit [Course]</t>
+  </si>
+  <si>
+    <t>Test-Driven Development Practices in Java</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1035,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1069,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,7 +1132,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1159,6 +1174,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1493,97 +1513,97 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -1629,22 +1649,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1672,59 +1692,59 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -1760,20 +1780,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -1803,30 +1823,30 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -1855,10 +1875,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1868,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1883,43 +1903,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="18" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -1929,8 +1954,10 @@
     <hyperlink ref="A5" r:id="rId3" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
     <hyperlink ref="A6" r:id="rId4" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
     <hyperlink ref="A7" r:id="rId5" display="https://app.pluralsight.com/library/courses/docker-deep-dive"/>
+    <hyperlink ref="A8" r:id="rId6" tooltip="Docker for Web Developers" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1951,29 +1978,29 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2001,15 +2028,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2037,20 +2064,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2078,16 +2105,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>270</v>
+      <c r="A2" s="18" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://app.pluralsight.com/library/courses/java-unit-testing-junit"/>
+    <hyperlink ref="A2" r:id="rId2" tooltip="Test-Driven Development Practices in Java" display="https://app.pluralsight.com/library/courses/test-driven-development-java"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2109,362 +2140,362 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>264</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B61" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2550,613 +2581,613 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="9" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="27"/>
+      <c r="B14" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="24"/>
-      <c r="B14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="24" t="s">
-        <v>94</v>
+      <c r="A18" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="27"/>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="24"/>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="10" t="s">
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="10" t="s">
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="27"/>
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="24"/>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="10" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="27"/>
+      <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="24"/>
-      <c r="B25" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="27"/>
+      <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="24"/>
-      <c r="B26" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="27"/>
+      <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="24"/>
-      <c r="B27" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="27"/>
+      <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="24"/>
-      <c r="B28" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="27"/>
+      <c r="B29" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="24"/>
-      <c r="B29" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="27"/>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="27"/>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="27"/>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="27"/>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="27"/>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="24"/>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="24"/>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="24"/>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="24"/>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="24"/>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="24" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="27"/>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="27"/>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="24"/>
-      <c r="B39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="24"/>
-      <c r="B40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="24" t="s">
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="27"/>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="27"/>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="27"/>
+      <c r="B44" t="s">
         <v>57</v>
       </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="24"/>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="24"/>
-      <c r="B43" t="s">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="24"/>
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="24" t="s">
-        <v>92</v>
-      </c>
       <c r="B45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="27"/>
+      <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="27"/>
+      <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="C47" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="27"/>
+      <c r="B52" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="24"/>
-      <c r="B52" t="s">
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="27"/>
+      <c r="B53" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="24"/>
-      <c r="B53" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="27"/>
+      <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="24"/>
-      <c r="B57" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="27"/>
+      <c r="B59" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="27"/>
+      <c r="B60" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="27" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="24"/>
-      <c r="B59" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="24" t="s">
-        <v>84</v>
-      </c>
       <c r="B61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="24"/>
+      <c r="A62" s="27"/>
       <c r="B62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="27"/>
+      <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="24"/>
-      <c r="B63" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="27"/>
+      <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="24"/>
-      <c r="B64" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="27"/>
+      <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="24"/>
-      <c r="B65" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="27"/>
+      <c r="B66" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="24"/>
-      <c r="B66" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="28"/>
+      <c r="B69" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="28"/>
+      <c r="B70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="28"/>
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="28"/>
+      <c r="B72" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="28"/>
+      <c r="B73" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="28"/>
+      <c r="B74" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="28"/>
+      <c r="B75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="28"/>
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="28"/>
+      <c r="B77" s="10" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="25"/>
-      <c r="B69" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="25"/>
-      <c r="B70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="25"/>
-      <c r="B71" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="25"/>
-      <c r="B72" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="25"/>
-      <c r="B73" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="25"/>
-      <c r="B74" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="25"/>
-      <c r="B75" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="25"/>
-      <c r="B76" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="25"/>
-      <c r="B77" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" t="s">
         <v>122</v>
-      </c>
-      <c r="B80" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B82" s="10" t="s">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="27"/>
+      <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="24"/>
-      <c r="B83" s="10" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="27"/>
+      <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="24"/>
-      <c r="B84" t="s">
-        <v>113</v>
-      </c>
-    </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="24"/>
+      <c r="A85" s="27"/>
       <c r="B85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="27"/>
+      <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="24"/>
-      <c r="B86" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="27"/>
+      <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="24"/>
-      <c r="B87" t="s">
-        <v>72</v>
-      </c>
-    </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="24"/>
+      <c r="A88" s="27"/>
       <c r="B88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="27"/>
+      <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="24"/>
-      <c r="B89" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="24"/>
+      <c r="A90" s="27"/>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B94" s="10" t="s">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="26"/>
+      <c r="B95" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="23"/>
-      <c r="B95" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3182,9 +3213,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -3196,139 +3227,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="27"/>
+      <c r="A1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="30"/>
       <c r="C1" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>276</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3347,8 +3383,10 @@
     <hyperlink ref="A21" r:id="rId9" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
     <hyperlink ref="A22" r:id="rId10"/>
     <hyperlink ref="C1" location="Topics!A1" display="Topics"/>
+    <hyperlink ref="A25" r:id="rId11" display="https://app.pluralsight.com/library/courses/spring-boot-first-application"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -3370,160 +3408,160 @@
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="C1" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3570,42 +3608,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3636,68 +3674,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
+      <c r="A1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3717,10 +3755,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3731,64 +3769,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
+      <c r="A1" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>12</v>
+      <c r="A2" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>143</v>
+      <c r="A3" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>142</v>
+      <c r="A4" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>302</v>
+        <v>141</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>303</v>
+      <c r="B8" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3796,16 +3845,17 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://app.pluralsight.com/library/courses/cloud-foundry-developers"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://app.pluralsight.com/library/courses/google-cloud-big-query"/>
-    <hyperlink ref="A7" r:id="rId3" tooltip="Cloud Computing: The Big Picture" display="https://app.pluralsight.com/library/courses/cloud-computing"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://app.pluralsight.com/library/courses/cloud-foundry-developers"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://app.pluralsight.com/library/courses/cloud-foundry-developer-1dot7-pivotal"/>
-    <hyperlink ref="A2" r:id="rId6" display="https://app.pluralsight.com/library/courses/google-cloud-intro"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://app.pluralsight.com/library/courses/google-compute-engine"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://app.pluralsight.com/library/courses/cloud-foundry-developers"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://app.pluralsight.com/library/courses/google-cloud-big-query"/>
+    <hyperlink ref="A2" r:id="rId3" tooltip="Cloud Computing: The Big Picture" display="https://app.pluralsight.com/library/courses/cloud-computing"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://app.pluralsight.com/library/courses/cloud-foundry-developers"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://app.pluralsight.com/library/courses/cloud-foundry-developer-1dot7-pivotal"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://app.pluralsight.com/library/courses/google-cloud-intro"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://app.pluralsight.com/library/courses/google-compute-engine"/>
+    <hyperlink ref="A3" r:id="rId8" display="https://app.pluralsight.com/library/courses/cloud-computing-fundamentals"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -3826,90 +3876,90 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -25,14 +25,16 @@
     <sheet name="ML" sheetId="18" r:id="rId16"/>
     <sheet name="AJ" sheetId="19" r:id="rId17"/>
     <sheet name="Spark" sheetId="20" r:id="rId18"/>
-    <sheet name="Unit Testing" sheetId="21" r:id="rId19"/>
+    <sheet name="UT" sheetId="21" r:id="rId19"/>
+    <sheet name="BT" sheetId="22" r:id="rId20"/>
+    <sheet name="Camel" sheetId="23" r:id="rId21"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="332">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -925,9 +927,6 @@
     <t>Spark</t>
   </si>
   <si>
-    <t>Unit Testing</t>
-  </si>
-  <si>
     <t>Others</t>
   </si>
   <si>
@@ -989,13 +988,55 @@
   </si>
   <si>
     <t>Test-Driven Development Practices in Java</t>
+  </si>
+  <si>
+    <t>Creating Your First Big Data Hadoop Cluster Using Cloudera CDH [Course]</t>
+  </si>
+  <si>
+    <t>Spring Fundamentals</t>
+  </si>
+  <si>
+    <t>Unit Testing(UT)</t>
+  </si>
+  <si>
+    <t>Build Tools(BT)</t>
+  </si>
+  <si>
+    <t>Getting started with Spring Data JPA</t>
+  </si>
+  <si>
+    <t>Introduction to Integration With Apache Camel</t>
+  </si>
+  <si>
+    <t>Building NoSQL Apps With Redis</t>
+  </si>
+  <si>
+    <t>Building Scalable APIs with the AWS API Gateway</t>
+  </si>
+  <si>
+    <t>TensorFlow: Getting Started</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Java Microservices with Spring Cloud: Developing Services</t>
+  </si>
+  <si>
+    <t>Sprint Boot</t>
+  </si>
+  <si>
+    <t>Spring Data</t>
+  </si>
+  <si>
+    <t>Spring Cloud</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1031,6 +1072,14 @@
       <u/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1132,7 +1181,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1180,6 +1229,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1195,6 +1251,15 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1204,10 +1269,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3302BE"/>
       <color rgb="FF33CC33"/>
       <color rgb="FF0000CC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF3302BE"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1498,11 +1563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1598,12 +1663,22 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1624,8 +1699,10 @@
     <hyperlink ref="A15" location="ML!A1" display="Machine Learning (ML)"/>
     <hyperlink ref="A16" location="AJ!A1" display="Angular JS(AJ)"/>
     <hyperlink ref="A17" location="Spark!A1" display="Spark"/>
-    <hyperlink ref="A18" location="'Unit Testing'!A1" display="Unit Testing"/>
+    <hyperlink ref="A18" location="UT!A1" display="Unit Testing(UT)"/>
     <hyperlink ref="A19" location="Others!A1" display="Others"/>
+    <hyperlink ref="A20" location="BT!A1" display="Build Tools(BT)"/>
+    <hyperlink ref="A21" location="Camel!A1" display="Apache Camel"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1780,7 +1857,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>11</v>
@@ -1788,12 +1865,12 @@
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -1808,10 +1885,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1821,40 +1899,53 @@
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="28" customFormat="1">
+      <c r="A1" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="18" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
-    <hyperlink ref="A1" r:id="rId2" display="https://app.pluralsight.com/library/courses/mongoose-for-nodejs-mongodb"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://app.pluralsight.com/library/courses/mongoose-for-nodejs-mongodb"/>
+    <hyperlink ref="A7" r:id="rId3" tooltip="Building NoSQL Apps With Redis" display="https://app.pluralsight.com/library/courses/building-nosql-apps-redis"/>
+    <hyperlink ref="A1" location="Topics!A12" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1944,7 +2035,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -1963,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1978,7 +2069,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>11</v>
@@ -2003,11 +2094,18 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://app.pluralsight.com/library/courses/understanding-machine-learning"/>
+    <hyperlink ref="A4" r:id="rId2" tooltip="TensorFlow: Getting Started" display="https://app.pluralsight.com/library/courses/tensorflow-getting-started"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2093,9 +2191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2106,12 +2202,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2125,9 +2221,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
@@ -2496,6 +2592,11 @@
     <row r="69" spans="1:1">
       <c r="A69" s="18" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2557,9 +2658,86 @@
     <hyperlink ref="A67" r:id="rId55" display="https://app.pluralsight.com/library/courses/building-apps-angular-firebase-angularfire"/>
     <hyperlink ref="A68" r:id="rId56" tooltip="Oracle Compute Cloud Service Foundations" display="https://app.pluralsight.com/library/courses/oracle-compute-cloud-service-foundations"/>
     <hyperlink ref="A69" r:id="rId57" tooltip="Introduction to Google Compute Engine" display="https://app.pluralsight.com/library/courses/google-compute-engine"/>
+    <hyperlink ref="A70" r:id="rId58" display="https://app.pluralsight.com/library/courses/big-data-hadoop-cluster-cloudera-cdh"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId58"/>
+  <pageSetup orientation="portrait" r:id="rId59"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="87.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="27" customFormat="1">
+      <c r="A1" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A20" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="92.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" tooltip="Introduction to Integration With Apache Camel" display="https://app.pluralsight.com/library/courses/apache-camel-intro-integration"/>
+    <hyperlink ref="A1" location="Topics!A21" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2646,7 +2824,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="32" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -2654,7 +2832,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="32"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -2675,7 +2853,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="32" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -2686,13 +2864,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="32"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -2701,7 +2879,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -2710,13 +2888,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="32"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="32" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -2727,37 +2905,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="27"/>
+      <c r="A25" s="32"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="27"/>
+      <c r="A26" s="32"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="32"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="32"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="27"/>
+      <c r="A29" s="32"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -2768,7 +2946,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="32" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -2779,43 +2957,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="32"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="32"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="32"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="27"/>
+      <c r="A36" s="32"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="27"/>
+      <c r="A37" s="32"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -2823,19 +3001,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="27"/>
+      <c r="A39" s="32"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="27"/>
+      <c r="A40" s="32"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -2843,25 +3021,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="27"/>
+      <c r="A42" s="32"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="27"/>
+      <c r="A43" s="32"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="27"/>
+      <c r="A44" s="32"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="32" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -2869,7 +3047,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="27"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -2878,7 +3056,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="27"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -2902,7 +3080,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="32" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -2913,13 +3091,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="27"/>
+      <c r="A52" s="32"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="27"/>
+      <c r="A53" s="32"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -2935,7 +3113,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="32" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -2943,13 +3121,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="27"/>
+      <c r="A57" s="32"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="32" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -2960,7 +3138,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="27"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -2969,7 +3147,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="27"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -2978,7 +3156,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="32" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -2986,31 +3164,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="27"/>
+      <c r="A62" s="32"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="27"/>
+      <c r="A63" s="32"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="27"/>
+      <c r="A64" s="32"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="27"/>
+      <c r="A65" s="32"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="27"/>
+      <c r="A66" s="32"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -3021,7 +3199,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -3029,55 +3207,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="28"/>
+      <c r="A69" s="33"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="28"/>
+      <c r="A70" s="33"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="28"/>
+      <c r="A71" s="33"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="28"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="28"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="28"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="28"/>
+      <c r="A75" s="33"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="28"/>
+      <c r="A76" s="33"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="28"/>
+      <c r="A77" s="33"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -3106,7 +3284,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="32" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -3114,49 +3292,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="27"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="27"/>
+      <c r="A84" s="32"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="27"/>
+      <c r="A85" s="32"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="27"/>
+      <c r="A86" s="32"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="27"/>
+      <c r="A87" s="32"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="27"/>
+      <c r="A88" s="32"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="27"/>
+      <c r="A89" s="32"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="27"/>
+      <c r="A90" s="32"/>
       <c r="B90" t="s">
         <v>133</v>
       </c>
@@ -3177,7 +3355,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="26" t="s">
+      <c r="A94" s="31" t="s">
         <v>155</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -3185,7 +3363,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="26"/>
+      <c r="A95" s="31"/>
       <c r="B95" t="s">
         <v>157</v>
       </c>
@@ -3213,10 +3391,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3226,24 +3404,21 @@
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:2" s="30" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="39"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>256</v>
       </c>
@@ -3251,142 +3426,284 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" s="30" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A4" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="39"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A6" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="B6" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A7" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="39"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A9" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="39"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A13" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="39"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A16" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" s="39"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="1:2" s="30" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A21" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="39"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A24" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="39"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="30" customFormat="1">
+      <c r="A28" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="30" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A30" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="B30" s="39"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A34" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A35" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" s="39"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="3" t="s">
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="10">
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
-    <hyperlink ref="A7" r:id="rId4" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
-    <hyperlink ref="A17" r:id="rId5" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
-    <hyperlink ref="A18" r:id="rId6" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
-    <hyperlink ref="A19" r:id="rId7" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
-    <hyperlink ref="A20" r:id="rId8" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
-    <hyperlink ref="A21" r:id="rId9" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
-    <hyperlink ref="A22" r:id="rId10"/>
-    <hyperlink ref="C1" location="Topics!A1" display="Topics"/>
-    <hyperlink ref="A25" r:id="rId11" display="https://app.pluralsight.com/library/courses/spring-boot-first-application"/>
+    <hyperlink ref="A34" r:id="rId2" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
+    <hyperlink ref="A28" r:id="rId3" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
+    <hyperlink ref="A15" r:id="rId4" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
+    <hyperlink ref="A33" r:id="rId5" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
+    <hyperlink ref="A11" r:id="rId6" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
+    <hyperlink ref="A6" r:id="rId8" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
+    <hyperlink ref="A18" r:id="rId9" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
+    <hyperlink ref="A8" r:id="rId10"/>
+    <hyperlink ref="A1" location="Topics!A1" display="Topics"/>
+    <hyperlink ref="A17" r:id="rId11" display="https://app.pluralsight.com/library/courses/spring-boot-first-application"/>
+    <hyperlink ref="B1" location="Spring!A2" display="Up"/>
+    <hyperlink ref="A5" r:id="rId12" tooltip="Java Microservices with Spring Cloud: Developing Services" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -3408,7 +3725,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="C1" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3461,7 +3778,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>11</v>
@@ -3548,7 +3865,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>11</v>
@@ -3561,7 +3878,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3608,7 +3925,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>11</v>
@@ -3616,7 +3933,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -3624,7 +3941,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
@@ -3632,7 +3949,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>11</v>
@@ -3640,7 +3957,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>11</v>
@@ -3674,11 +3991,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -3769,11 +4086,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
@@ -3786,7 +4103,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>11</v>
@@ -3810,7 +4127,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
@@ -3834,7 +4151,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>11</v>
@@ -3861,10 +4178,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3874,17 +4192,14 @@
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" s="28" customFormat="1">
+      <c r="A1" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>11</v>
@@ -3892,23 +4207,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>11</v>
@@ -3916,7 +4231,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
@@ -3924,7 +4239,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>11</v>
@@ -3932,7 +4247,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>11</v>
@@ -3940,40 +4255,55 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B10" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>273</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="18" t="s">
+      <c r="B11" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>11</v>
+      <c r="B12" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="18" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://app.pluralsight.com/library/courses/aws-course"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://app.pluralsight.com/library/courses/aws-vpc-operations"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://app.pluralsight.com/library/courses/amazon-web-services-databases-in-depth"/>
-    <hyperlink ref="A11" r:id="rId10" tooltip="AWS Certified Solutions Architect - Professional" display="https://app.pluralsight.com/library/courses/aws-certified-solutions-architect-professional"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://app.pluralsight.com/library/courses/aws-course"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://app.pluralsight.com/library/courses/aws-vpc-operations"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://app.pluralsight.com/library/courses/amazon-web-services-databases-in-depth"/>
+    <hyperlink ref="A12" r:id="rId10" tooltip="AWS Certified Solutions Architect - Professional" display="https://app.pluralsight.com/library/courses/aws-certified-solutions-architect-professional"/>
+    <hyperlink ref="A13" r:id="rId11" tooltip="Building Scalable APIs with the AWS API Gateway" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
+    <hyperlink ref="A1" location="Topics!A8" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="333">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -1030,6 +1030,9 @@
   </si>
   <si>
     <t>Spring Cloud</t>
+  </si>
+  <si>
+    <t>Big Data: The Big Picture</t>
   </si>
 </sst>
 </file>
@@ -1224,14 +1227,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1242,6 +1245,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1251,14 +1260,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1269,8 +1272,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CC33"/>
       <color rgb="FF3302BE"/>
-      <color rgb="FF33CC33"/>
       <color rgb="FF0000CC"/>
       <color rgb="FFFF0000"/>
     </mruColors>
@@ -1714,7 +1717,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1756,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1899,8 +1902,8 @@
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="28" customFormat="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:2" s="26" customFormat="1">
+      <c r="A1" s="27" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2221,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2569,34 +2572,57 @@
         <v>276</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="18" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="18" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>318</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2659,9 +2685,10 @@
     <hyperlink ref="A68" r:id="rId56" tooltip="Oracle Compute Cloud Service Foundations" display="https://app.pluralsight.com/library/courses/oracle-compute-cloud-service-foundations"/>
     <hyperlink ref="A69" r:id="rId57" tooltip="Introduction to Google Compute Engine" display="https://app.pluralsight.com/library/courses/google-compute-engine"/>
     <hyperlink ref="A70" r:id="rId58" display="https://app.pluralsight.com/library/courses/big-data-hadoop-cluster-cloudera-cdh"/>
+    <hyperlink ref="A71" r:id="rId59" tooltip="Big Data: The Big Picture" display="https://app.pluralsight.com/library/courses/bigdata-bigpicture"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId59"/>
+  <pageSetup orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
 
@@ -2681,16 +2708,16 @@
     <col min="3" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="27" customFormat="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:2" s="25" customFormat="1">
+      <c r="A1" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2719,7 +2746,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2727,7 +2754,7 @@
       <c r="A2" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3393,7 +3420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3404,19 +3431,19 @@
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="30" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -3426,11 +3453,11 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="30" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:2" s="28" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A4" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
@@ -3444,15 +3471,15 @@
       <c r="A6" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="35"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
@@ -3460,16 +3487,16 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="35"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3487,16 +3514,16 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="35"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3506,10 +3533,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="35"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="22" t="s">
@@ -3523,7 +3550,7 @@
       <c r="A18" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3533,29 +3560,29 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-    </row>
-    <row r="21" spans="1:2" s="30" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A21" s="38" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+    </row>
+    <row r="21" spans="1:2" s="28" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A21" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="35"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="24" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="35"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
@@ -3566,10 +3593,10 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3581,31 +3608,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="30" customFormat="1">
+    <row r="28" spans="1:2" s="28" customFormat="1">
       <c r="A28" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="30" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="29" spans="1:2" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="35"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3623,10 +3650,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="35"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
@@ -3991,11 +4018,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -4072,10 +4099,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4086,17 +4113,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="19"/>
@@ -4119,41 +4146,33 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>299</v>
+        <v>230</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
-        <v>142</v>
+      <c r="A8" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4163,16 +4182,15 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://app.pluralsight.com/library/courses/cloud-foundry-developers"/>
-    <hyperlink ref="A8" r:id="rId2" display="https://app.pluralsight.com/library/courses/google-cloud-big-query"/>
+    <hyperlink ref="A7" r:id="rId2" display="https://app.pluralsight.com/library/courses/google-cloud-big-query"/>
     <hyperlink ref="A2" r:id="rId3" tooltip="Cloud Computing: The Big Picture" display="https://app.pluralsight.com/library/courses/cloud-computing"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://app.pluralsight.com/library/courses/cloud-foundry-developers"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://app.pluralsight.com/library/courses/cloud-foundry-developer-1dot7-pivotal"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://app.pluralsight.com/library/courses/google-cloud-intro"/>
-    <hyperlink ref="A9" r:id="rId7" display="https://app.pluralsight.com/library/courses/google-compute-engine"/>
-    <hyperlink ref="A3" r:id="rId8" display="https://app.pluralsight.com/library/courses/cloud-computing-fundamentals"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://app.pluralsight.com/library/courses/cloud-foundry-developer-1dot7-pivotal"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://app.pluralsight.com/library/courses/google-cloud-intro"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://app.pluralsight.com/library/courses/google-compute-engine"/>
+    <hyperlink ref="A3" r:id="rId7" display="https://app.pluralsight.com/library/courses/cloud-computing-fundamentals"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -4192,8 +4210,8 @@
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="28" customFormat="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:2" s="26" customFormat="1">
+      <c r="A1" s="27" t="s">
         <v>298</v>
       </c>
     </row>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -1238,6 +1238,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1259,9 +1262,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1759,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2851,7 +2851,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -2859,7 +2859,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -2880,7 +2880,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -2891,13 +2891,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -2906,7 +2906,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -2915,13 +2915,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="33" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -2932,37 +2932,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="32"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="32"/>
+      <c r="A25" s="33"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="32"/>
+      <c r="A26" s="33"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="32"/>
+      <c r="A27" s="33"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="32"/>
+      <c r="A28" s="33"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="32"/>
+      <c r="A29" s="33"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -2973,7 +2973,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -2984,43 +2984,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="32"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="32"/>
+      <c r="A33" s="33"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="32"/>
+      <c r="A34" s="33"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="32"/>
+      <c r="A35" s="33"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="32"/>
+      <c r="A36" s="33"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="32"/>
+      <c r="A37" s="33"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -3028,19 +3028,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="32"/>
+      <c r="A39" s="33"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="32"/>
+      <c r="A40" s="33"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="33" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -3048,25 +3048,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="32"/>
+      <c r="A42" s="33"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="32"/>
+      <c r="A43" s="33"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="32"/>
+      <c r="A44" s="33"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="33" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -3074,7 +3074,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="32"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -3083,7 +3083,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="32"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -3107,7 +3107,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="33" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -3118,13 +3118,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="32"/>
+      <c r="A52" s="33"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="32"/>
+      <c r="A53" s="33"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -3140,7 +3140,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="33" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -3148,13 +3148,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="32"/>
+      <c r="A57" s="33"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -3165,7 +3165,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="32"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -3174,7 +3174,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="32"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -3183,7 +3183,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -3191,31 +3191,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="32"/>
+      <c r="A62" s="33"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="32"/>
+      <c r="A63" s="33"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="32"/>
+      <c r="A64" s="33"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="32"/>
+      <c r="A65" s="33"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="32"/>
+      <c r="A66" s="33"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -3226,7 +3226,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="34" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -3234,55 +3234,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="33"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="33"/>
+      <c r="A70" s="34"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="33"/>
+      <c r="A71" s="34"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="33"/>
+      <c r="A72" s="34"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="33"/>
+      <c r="A73" s="34"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="33"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="33"/>
+      <c r="A75" s="34"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="33"/>
+      <c r="A76" s="34"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="33"/>
+      <c r="A77" s="34"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -3311,7 +3311,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="33" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -3319,49 +3319,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="32"/>
+      <c r="A83" s="33"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="32"/>
+      <c r="A84" s="33"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="32"/>
+      <c r="A85" s="33"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="32"/>
+      <c r="A86" s="33"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="32"/>
+      <c r="A87" s="33"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="32"/>
+      <c r="A88" s="33"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="32"/>
+      <c r="A89" s="33"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="32"/>
+      <c r="A90" s="33"/>
       <c r="B90" t="s">
         <v>133</v>
       </c>
@@ -3382,7 +3382,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="32" t="s">
         <v>155</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -3390,7 +3390,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="31"/>
+      <c r="A95" s="32"/>
       <c r="B95" t="s">
         <v>157</v>
       </c>
@@ -3421,7 +3421,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3440,10 +3440,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -3454,10 +3454,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
@@ -3476,10 +3476,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
@@ -3487,10 +3487,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="24" t="s">
@@ -3514,10 +3514,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="36"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="28" t="s">
@@ -3533,10 +3533,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="36"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="22" t="s">
@@ -3564,10 +3564,10 @@
       <c r="B20" s="28"/>
     </row>
     <row r="21" spans="1:2" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="36"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="24" t="s">
@@ -3579,10 +3579,10 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="24" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
@@ -3615,10 +3615,10 @@
     </row>
     <row r="29" spans="1:2" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="B30" s="35"/>
+      <c r="B30" s="36"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="24" t="s">
@@ -3650,10 +3650,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="36"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
@@ -4018,11 +4018,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -4101,7 +4101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4113,14 +4113,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="31" t="s">
         <v>280</v>
       </c>
       <c r="B2" s="17" t="s">

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="336">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -1033,6 +1033,15 @@
   </si>
   <si>
     <t>Big Data: The Big Picture</t>
+  </si>
+  <si>
+    <t>Building Applications Using Elastic Beanstalk</t>
+  </si>
+  <si>
+    <t>Using Docker with AWS Elastic Beanstalk</t>
+  </si>
+  <si>
+    <t>Architecting Highly Available Systems on AWS</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1193,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1241,6 +1250,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2851,7 +2864,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="35" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -2859,7 +2872,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="33"/>
+      <c r="A14" s="35"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -2880,7 +2893,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="35" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -2891,13 +2904,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="33"/>
+      <c r="A19" s="35"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -2906,7 +2919,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="33"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -2915,13 +2928,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="33"/>
+      <c r="A22" s="35"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="35" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -2932,37 +2945,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="33"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="33"/>
+      <c r="A25" s="35"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="33"/>
+      <c r="A26" s="35"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="33"/>
+      <c r="A27" s="35"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="33"/>
+      <c r="A28" s="35"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="33"/>
+      <c r="A29" s="35"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -2973,7 +2986,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="35" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -2984,43 +2997,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="33"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="33"/>
+      <c r="A33" s="35"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="33"/>
+      <c r="A34" s="35"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="33"/>
+      <c r="A35" s="35"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="33"/>
+      <c r="A36" s="35"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="33"/>
+      <c r="A37" s="35"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="35" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -3028,19 +3041,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="33"/>
+      <c r="A39" s="35"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="33"/>
+      <c r="A40" s="35"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="35" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -3048,25 +3061,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="33"/>
+      <c r="A42" s="35"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="33"/>
+      <c r="A43" s="35"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="33"/>
+      <c r="A44" s="35"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="35" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -3074,7 +3087,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="33"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -3083,7 +3096,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="33"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -3107,7 +3120,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="35" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -3118,13 +3131,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="33"/>
+      <c r="A52" s="35"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="33"/>
+      <c r="A53" s="35"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -3140,7 +3153,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="35" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -3148,13 +3161,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="33"/>
+      <c r="A57" s="35"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="35" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -3165,7 +3178,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="33"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -3174,7 +3187,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="33"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -3183,7 +3196,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="35" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -3191,31 +3204,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="33"/>
+      <c r="A62" s="35"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="33"/>
+      <c r="A63" s="35"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="33"/>
+      <c r="A64" s="35"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="33"/>
+      <c r="A65" s="35"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="33"/>
+      <c r="A66" s="35"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -3226,7 +3239,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="36" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -3234,55 +3247,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="34"/>
+      <c r="A69" s="36"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="34"/>
+      <c r="A70" s="36"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="34"/>
+      <c r="A71" s="36"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="34"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="34"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="34"/>
+      <c r="A74" s="36"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="34"/>
+      <c r="A75" s="36"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="34"/>
+      <c r="A76" s="36"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="34"/>
+      <c r="A77" s="36"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -3311,7 +3324,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="33" t="s">
+      <c r="A82" s="35" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -3319,49 +3332,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="33"/>
+      <c r="A83" s="35"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="33"/>
+      <c r="A84" s="35"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="33"/>
+      <c r="A85" s="35"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="33"/>
+      <c r="A86" s="35"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="33"/>
+      <c r="A87" s="35"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="33"/>
+      <c r="A88" s="35"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="33"/>
+      <c r="A89" s="35"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="33"/>
+      <c r="A90" s="35"/>
       <c r="B90" t="s">
         <v>133</v>
       </c>
@@ -3382,7 +3395,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="32" t="s">
+      <c r="A94" s="34" t="s">
         <v>155</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -3390,7 +3403,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="32"/>
+      <c r="A95" s="34"/>
       <c r="B95" t="s">
         <v>157</v>
       </c>
@@ -3440,10 +3453,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -3454,10 +3467,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
@@ -3476,10 +3489,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
@@ -3487,10 +3500,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="38"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="24" t="s">
@@ -3514,10 +3527,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="38"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="28" t="s">
@@ -3533,10 +3546,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="B16" s="36"/>
+      <c r="B16" s="38"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="22" t="s">
@@ -3564,10 +3577,10 @@
       <c r="B20" s="28"/>
     </row>
     <row r="21" spans="1:2" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="38"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="24" t="s">
@@ -3579,10 +3592,10 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="24" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="38"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
@@ -3615,10 +3628,10 @@
     </row>
     <row r="29" spans="1:2" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="B30" s="36"/>
+      <c r="B30" s="38"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="24" t="s">
@@ -3650,10 +3663,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="B35" s="36"/>
+      <c r="B35" s="38"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
@@ -4018,11 +4031,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -4101,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4113,11 +4126,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
@@ -4137,10 +4150,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="33" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4196,11 +4209,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4306,6 +4319,21 @@
     <row r="13" spans="1:2">
       <c r="A13" s="18" t="s">
         <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="18" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4322,7 +4350,11 @@
     <hyperlink ref="A12" r:id="rId10" tooltip="AWS Certified Solutions Architect - Professional" display="https://app.pluralsight.com/library/courses/aws-certified-solutions-architect-professional"/>
     <hyperlink ref="A13" r:id="rId11" tooltip="Building Scalable APIs with the AWS API Gateway" display="https://app.pluralsight.com/library/courses/scalable-aws-api-gateway"/>
     <hyperlink ref="A1" location="Topics!A8" display="Topics"/>
+    <hyperlink ref="A14" r:id="rId12" tooltip="Building Applications Using Elastic Beanstalk" display="https://app.pluralsight.com/library/courses/elastic-beanstalk-building-applications"/>
+    <hyperlink ref="A15" r:id="rId13" tooltip="Using Docker with AWS Elastic Beanstalk" display="https://app.pluralsight.com/library/courses/docker-aws-elastic-beanstalk"/>
+    <hyperlink ref="A16" r:id="rId14" tooltip="Architecting Highly Available Systems on AWS" display="https://app.pluralsight.com/library/courses/deploying-highly-available-distributed-systems-aws-part1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -28,13 +28,15 @@
     <sheet name="UT" sheetId="21" r:id="rId19"/>
     <sheet name="BT" sheetId="22" r:id="rId20"/>
     <sheet name="Camel" sheetId="23" r:id="rId21"/>
+    <sheet name="WS" sheetId="24" r:id="rId22"/>
+    <sheet name="JMS" sheetId="25" r:id="rId23"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="350">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -1042,6 +1044,48 @@
   </si>
   <si>
     <t>Architecting Highly Available Systems on AWS</t>
+  </si>
+  <si>
+    <t>Web Services(WS)</t>
+  </si>
+  <si>
+    <t>AVRO</t>
+  </si>
+  <si>
+    <t>OpenShift</t>
+  </si>
+  <si>
+    <t>Restlet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jmxVKC5qTVg&amp;list=PLNCB55-QRU0_WD6sCTK3Bwsn1NsDIcmG4</t>
+  </si>
+  <si>
+    <t>Check Youtube</t>
+  </si>
+  <si>
+    <t>Check youtube videos first</t>
+  </si>
+  <si>
+    <t>Spring Data Mongo Hello World</t>
+  </si>
+  <si>
+    <t>Spring Cloud Fundamentals</t>
+  </si>
+  <si>
+    <t>Cloud Oriented Programming</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
+  </si>
+  <si>
+    <t>RabbitMQ by Example</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1140,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1139,8 +1183,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1185,6 +1235,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1193,7 +1252,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1255,6 +1314,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1265,6 +1330,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1579,11 +1650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1672,29 +1743,55 @@
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="39" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -1719,6 +1816,7 @@
     <hyperlink ref="A19" location="Others!A1" display="Others"/>
     <hyperlink ref="A20" location="BT!A1" display="Build Tools(BT)"/>
     <hyperlink ref="A21" location="Camel!A1" display="Apache Camel"/>
+    <hyperlink ref="A22" location="WS!A1" display="Web Services(WS)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1858,10 +1956,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1871,29 +1970,35 @@
     <col min="3" max="3" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="19" customFormat="1">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="19" customFormat="1">
+      <c r="A3" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>311</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://app.pluralsight.com/library/courses/node-intro"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://app.pluralsight.com/library/courses/full-stack-nodejs"/>
-    <hyperlink ref="A2" r:id="rId3" display="https://app.pluralsight.com/library/courses/nodejs-advanced"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://app.pluralsight.com/library/courses/node-intro"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://app.pluralsight.com/library/courses/full-stack-nodejs"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://app.pluralsight.com/library/courses/nodejs-advanced"/>
+    <hyperlink ref="A1" location="Topics!A11" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1901,11 +2006,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1953,15 +2058,21 @@
         <v>324</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://app.pluralsight.com/library/courses/mongodb-introduction"/>
     <hyperlink ref="A2" r:id="rId2" display="https://app.pluralsight.com/library/courses/mongoose-for-nodejs-mongodb"/>
     <hyperlink ref="A7" r:id="rId3" tooltip="Building NoSQL Apps With Redis" display="https://app.pluralsight.com/library/courses/building-nosql-apps-redis"/>
     <hyperlink ref="A1" location="Topics!A12" display="Topics"/>
+    <hyperlink ref="A8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1969,9 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2748,7 +2857,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2778,6 +2887,91 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="97.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="44"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A1" location="Topics!A22" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="112.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="44"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A25" display="Topics"/>
+    <hyperlink ref="A3" r:id="rId1" tooltip="RabbitMQ by Example" display="https://app.pluralsight.com/library/courses/rabbitmq-by-example"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2864,7 +3058,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="41" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -2872,7 +3066,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="41"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -2893,7 +3087,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="41" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -2904,13 +3098,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="35"/>
+      <c r="A19" s="41"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="35"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -2919,7 +3113,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="35"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -2928,13 +3122,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="35"/>
+      <c r="A22" s="41"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="41" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -2945,37 +3139,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="35"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="35"/>
+      <c r="A25" s="41"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="35"/>
+      <c r="A26" s="41"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="35"/>
+      <c r="A27" s="41"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="35"/>
+      <c r="A28" s="41"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="35"/>
+      <c r="A29" s="41"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -2986,7 +3180,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="41" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -2997,43 +3191,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="35"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="35"/>
+      <c r="A33" s="41"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="35"/>
+      <c r="A34" s="41"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="35"/>
+      <c r="A35" s="41"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="35"/>
+      <c r="A36" s="41"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="35"/>
+      <c r="A37" s="41"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="41" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -3041,19 +3235,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="35"/>
+      <c r="A39" s="41"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="35"/>
+      <c r="A40" s="41"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -3061,25 +3255,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="35"/>
+      <c r="A42" s="41"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="35"/>
+      <c r="A43" s="41"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="35"/>
+      <c r="A44" s="41"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -3087,7 +3281,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="35"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -3096,7 +3290,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="35"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -3120,7 +3314,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="41" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -3131,13 +3325,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="35"/>
+      <c r="A52" s="41"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="35"/>
+      <c r="A53" s="41"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -3153,7 +3347,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="41" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -3161,13 +3355,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="35"/>
+      <c r="A57" s="41"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="41" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -3178,7 +3372,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="35"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -3187,7 +3381,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="35"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -3196,7 +3390,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="41" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -3204,31 +3398,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="35"/>
+      <c r="A62" s="41"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="35"/>
+      <c r="A63" s="41"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="35"/>
+      <c r="A64" s="41"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="35"/>
+      <c r="A65" s="41"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="35"/>
+      <c r="A66" s="41"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -3239,7 +3433,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="42" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -3247,55 +3441,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="36"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="36"/>
+      <c r="A70" s="42"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="36"/>
+      <c r="A71" s="42"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="36"/>
+      <c r="A72" s="42"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="36"/>
+      <c r="A73" s="42"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="36"/>
+      <c r="A74" s="42"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="36"/>
+      <c r="A75" s="42"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="36"/>
+      <c r="A76" s="42"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="36"/>
+      <c r="A77" s="42"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -3324,7 +3518,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="41" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -3332,49 +3526,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="35"/>
+      <c r="A83" s="41"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="35"/>
+      <c r="A84" s="41"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="35"/>
+      <c r="A85" s="41"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="35"/>
+      <c r="A86" s="41"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="35"/>
+      <c r="A87" s="41"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="35"/>
+      <c r="A88" s="41"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="35"/>
+      <c r="A89" s="41"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="35"/>
+      <c r="A90" s="41"/>
       <c r="B90" t="s">
         <v>133</v>
       </c>
@@ -3395,7 +3589,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="34" t="s">
+      <c r="A94" s="40" t="s">
         <v>155</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -3403,7 +3597,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="34"/>
+      <c r="A95" s="40"/>
       <c r="B95" t="s">
         <v>157</v>
       </c>
@@ -3431,10 +3625,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3444,7 +3638,7 @@
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="28" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>298</v>
       </c>
@@ -3452,13 +3646,13 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A2" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+      <c r="B2" s="44"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>256</v>
       </c>
@@ -3466,284 +3660,314 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A4" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="38"/>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="44"/>
+    </row>
+    <row r="5" spans="1:6" s="38" customFormat="1">
       <c r="A5" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="37" t="s">
+      <c r="B7" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="38"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="34" customFormat="1">
+      <c r="A10" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="37" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="38"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="24" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="22" t="s">
+      <c r="B12" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="37" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="38"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="28" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="5" t="s">
+      <c r="B16" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="37" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="B16" s="38"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="22" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B20" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-    </row>
-    <row r="21" spans="1:2" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A21" s="37" t="s">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A23" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="38"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="24" t="s">
+      <c r="B23" s="44"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A24" s="37" t="s">
+      <c r="B24" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A26" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="38"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="B26" s="44"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="24" t="s">
+      <c r="B27" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B28" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="28" customFormat="1">
-      <c r="A28" s="6" t="s">
+      <c r="B29" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="28" customFormat="1">
+      <c r="A30" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="28" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A30" s="37" t="s">
+    <row r="31" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A32" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="B30" s="38"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="24" t="s">
+      <c r="B32" s="44"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="24" t="s">
+      <c r="B33" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="22" t="s">
+      <c r="B34" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A34" s="7" t="s">
+      <c r="B35" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A35" s="37" t="s">
+    <row r="37" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A37" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="B35" s="38"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B37" s="44"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
       <c r="A39" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A34" r:id="rId2" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
-    <hyperlink ref="A28" r:id="rId3" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
-    <hyperlink ref="A15" r:id="rId4" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
-    <hyperlink ref="A33" r:id="rId5" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
-    <hyperlink ref="A11" r:id="rId6" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
-    <hyperlink ref="A6" r:id="rId8" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
-    <hyperlink ref="A18" r:id="rId9" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
-    <hyperlink ref="A8" r:id="rId10"/>
-    <hyperlink ref="A1" location="Topics!A1" display="Topics"/>
-    <hyperlink ref="A17" r:id="rId11" display="https://app.pluralsight.com/library/courses/spring-boot-first-application"/>
+    <hyperlink ref="A36" r:id="rId2" tooltip="Getting Started with Spring Data JPA" display="https://app.pluralsight.com/library/courses/spring-data-jpa-getting-started"/>
+    <hyperlink ref="A30" r:id="rId3" display="https://app.pluralsight.com/library/courses/spring-security-fundamentals"/>
+    <hyperlink ref="A17" r:id="rId4" tooltip="Spring with JPA and Hibernate" display="https://app.pluralsight.com/library/courses/spring-jpa-hibernate"/>
+    <hyperlink ref="A35" r:id="rId5" display="https://app.pluralsight.com/library/courses/spring-data-rest-getting-started"/>
+    <hyperlink ref="A13" r:id="rId6" display="https://app.pluralsight.com/library/courses/springmvc-intro"/>
+    <hyperlink ref="A14" r:id="rId7" display="https://app.pluralsight.com/library/courses/spring-mvc4-introduction"/>
+    <hyperlink ref="A7" r:id="rId8" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
+    <hyperlink ref="A20" r:id="rId9" display="https://app.pluralsight.com/library/courses/spring-boot-efficient-development-configuration-deployment"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
+    <hyperlink ref="A19" r:id="rId11" display="https://app.pluralsight.com/library/courses/spring-boot-first-application"/>
     <hyperlink ref="B1" location="Spring!A2" display="Up"/>
-    <hyperlink ref="A5" r:id="rId12" tooltip="Java Microservices with Spring Cloud: Developing Services" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
+    <hyperlink ref="A6" r:id="rId12" tooltip="Java Microservices with Spring Cloud: Developing Services" display="https://app.pluralsight.com/library/courses/java-microservices-spring-cloud-developing-services"/>
+    <hyperlink ref="A5" r:id="rId13" tooltip="Spring Cloud Fundamentals" display="https://app.pluralsight.com/library/courses/spring-cloud-fundamentals"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -3752,7 +3976,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -4020,7 +4244,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4031,11 +4255,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -4112,10 +4336,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:B4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4126,11 +4350,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
@@ -4187,6 +4411,11 @@
       </c>
       <c r="B8" s="23" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="18" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4201,9 +4430,10 @@
     <hyperlink ref="A6" r:id="rId5" display="https://app.pluralsight.com/library/courses/google-cloud-intro"/>
     <hyperlink ref="A8" r:id="rId6" display="https://app.pluralsight.com/library/courses/google-compute-engine"/>
     <hyperlink ref="A3" r:id="rId7" display="https://app.pluralsight.com/library/courses/cloud-computing-fundamentals"/>
+    <hyperlink ref="A9" r:id="rId8" tooltip="Cloud Oriented Programming" display="https://app.pluralsight.com/library/courses/cloud-oriented-programming"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -4211,7 +4441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -30,13 +30,15 @@
     <sheet name="Camel" sheetId="23" r:id="rId21"/>
     <sheet name="WS" sheetId="24" r:id="rId22"/>
     <sheet name="JMS" sheetId="25" r:id="rId23"/>
+    <sheet name="npm" sheetId="26" r:id="rId24"/>
+    <sheet name="git" sheetId="27" r:id="rId25"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="361">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -1086,6 +1088,39 @@
   </si>
   <si>
     <t>Inprogress</t>
+  </si>
+  <si>
+    <t>npm</t>
+  </si>
+  <si>
+    <t>Introduction to npm as a Build Tool [Course]</t>
+  </si>
+  <si>
+    <t>NPM Playbook [Course]</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>Git Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>Advanced Git [Course]</t>
+  </si>
+  <si>
+    <t>Advanced Git Tips and Tricks [Course]</t>
+  </si>
+  <si>
+    <t>Introduction to Git [Course]</t>
+  </si>
+  <si>
+    <t>Mastering Git [Course]</t>
+  </si>
+  <si>
+    <t>How Git Works [Course]</t>
+  </si>
+  <si>
+    <t>JavaScript Build Automation With Gulp.js</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1175,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1180,12 +1215,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,7 +1281,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1314,11 +1343,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1347,6 +1379,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1650,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -1790,8 +1823,18 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="37" t="s">
         <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="39" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -1817,6 +1860,8 @@
     <hyperlink ref="A20" location="BT!A1" display="Build Tools(BT)"/>
     <hyperlink ref="A21" location="Camel!A1" display="Apache Camel"/>
     <hyperlink ref="A22" location="WS!A1" display="Web Services(WS)"/>
+    <hyperlink ref="A26" location="npm!A1" display="npm"/>
+    <hyperlink ref="A27" location="git!A1" display="git"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1970,7 +2015,7 @@
     <col min="3" max="3" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="37" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" s="35" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>298</v>
       </c>
@@ -2274,9 +2319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2346,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2745,6 +2788,11 @@
       </c>
       <c r="B71" s="30" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="18" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2808,9 +2856,10 @@
     <hyperlink ref="A69" r:id="rId57" tooltip="Introduction to Google Compute Engine" display="https://app.pluralsight.com/library/courses/google-compute-engine"/>
     <hyperlink ref="A70" r:id="rId58" display="https://app.pluralsight.com/library/courses/big-data-hadoop-cluster-cloudera-cdh"/>
     <hyperlink ref="A71" r:id="rId59" tooltip="Big Data: The Big Picture" display="https://app.pluralsight.com/library/courses/bigdata-bigpicture"/>
+    <hyperlink ref="A72" r:id="rId60" tooltip="JavaScript Build Automation With Gulp.js" display="https://app.pluralsight.com/library/courses/javascript-build-automation-gulpjs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId60"/>
+  <pageSetup orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>
 
@@ -2911,10 +2960,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -2939,7 +2988,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2948,15 +2997,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
@@ -2970,6 +3019,114 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A25" display="Topics"/>
     <hyperlink ref="A3" r:id="rId1" tooltip="RabbitMQ by Example" display="https://app.pluralsight.com/library/courses/rabbitmq-by-example"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="95.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A26" display="Topics"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://app.pluralsight.com/library/courses/npm-build-tool-introduction"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://app.pluralsight.com/library/courses/npm-playbook"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="98.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="40" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A27" display="Topics"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://app.pluralsight.com/library/courses/git-fundamentals"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://app.pluralsight.com/library/courses/advanced-git"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://app.pluralsight.com/library/courses/git-advanced-tips-tricks"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://app.pluralsight.com/library/courses/introduction-to-git"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://app.pluralsight.com/library/courses/mastering-git"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://app.pluralsight.com/library/courses/how-git-works"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3058,7 +3215,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -3066,7 +3223,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -3087,7 +3244,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="42" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -3098,13 +3255,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -3113,7 +3270,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -3122,13 +3279,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="41"/>
+      <c r="A22" s="42"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="42" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -3139,37 +3296,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="41"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="41"/>
+      <c r="A25" s="42"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="41"/>
+      <c r="A26" s="42"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="41"/>
+      <c r="A27" s="42"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="41"/>
+      <c r="A28" s="42"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="41"/>
+      <c r="A29" s="42"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -3180,7 +3337,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="42" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -3191,43 +3348,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="41"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="41"/>
+      <c r="A33" s="42"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="41"/>
+      <c r="A34" s="42"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="41"/>
+      <c r="A35" s="42"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="41"/>
+      <c r="A36" s="42"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="41"/>
+      <c r="A37" s="42"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="42" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -3235,19 +3392,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="41"/>
+      <c r="A39" s="42"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="41"/>
+      <c r="A40" s="42"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -3255,25 +3412,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="41"/>
+      <c r="A42" s="42"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="41"/>
+      <c r="A43" s="42"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="41"/>
+      <c r="A44" s="42"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="42" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -3281,7 +3438,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="41"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -3290,7 +3447,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="41"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -3314,7 +3471,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="42" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -3325,13 +3482,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="41"/>
+      <c r="A52" s="42"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="41"/>
+      <c r="A53" s="42"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -3347,7 +3504,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="42" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -3355,13 +3512,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="41"/>
+      <c r="A57" s="42"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="42" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -3372,7 +3529,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="41"/>
+      <c r="A59" s="42"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -3381,7 +3538,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="41"/>
+      <c r="A60" s="42"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -3390,7 +3547,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="42" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -3398,31 +3555,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="41"/>
+      <c r="A62" s="42"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="41"/>
+      <c r="A63" s="42"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="41"/>
+      <c r="A64" s="42"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="41"/>
+      <c r="A65" s="42"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="41"/>
+      <c r="A66" s="42"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -3433,7 +3590,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="43" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -3441,55 +3598,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="42"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="42"/>
+      <c r="A70" s="43"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="42"/>
+      <c r="A71" s="43"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="42"/>
+      <c r="A72" s="43"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="42"/>
+      <c r="A73" s="43"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="42"/>
+      <c r="A74" s="43"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="42"/>
+      <c r="A75" s="43"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="42"/>
+      <c r="A76" s="43"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="42"/>
+      <c r="A77" s="43"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -3518,7 +3675,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="42" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -3526,49 +3683,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="41"/>
+      <c r="A83" s="42"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="41"/>
+      <c r="A84" s="42"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="41"/>
+      <c r="A85" s="42"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="41"/>
+      <c r="A86" s="42"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="41"/>
+      <c r="A87" s="42"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="41"/>
+      <c r="A88" s="42"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="41"/>
+      <c r="A89" s="42"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="41"/>
+      <c r="A90" s="42"/>
       <c r="B90" t="s">
         <v>133</v>
       </c>
@@ -3589,7 +3746,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="40" t="s">
+      <c r="A94" s="41" t="s">
         <v>155</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -3597,7 +3754,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="40"/>
+      <c r="A95" s="41"/>
       <c r="B95" t="s">
         <v>157</v>
       </c>
@@ -3627,9 +3784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3647,10 +3802,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -3661,16 +3816,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="44"/>
-    </row>
-    <row r="5" spans="1:6" s="38" customFormat="1">
+      <c r="B4" s="45"/>
+    </row>
+    <row r="5" spans="1:6" s="36" customFormat="1">
       <c r="A5" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="37" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3691,14 +3846,14 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="34" t="s">
@@ -3711,14 +3866,14 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
@@ -3742,14 +3897,14 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
@@ -3765,14 +3920,14 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22" t="s">
@@ -3783,10 +3938,10 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3800,10 +3955,10 @@
       <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="45"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
@@ -3815,10 +3970,10 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -3851,10 +4006,10 @@
     </row>
     <row r="31" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="44" t="s">
         <v>330</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="45"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="24" t="s">
@@ -3886,10 +4041,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="B37" s="44"/>
+      <c r="B37" s="45"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
@@ -4255,11 +4410,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -4350,11 +4505,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="363">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -1121,6 +1121,12 @@
   </si>
   <si>
     <t>JavaScript Build Automation With Gulp.js</t>
+  </si>
+  <si>
+    <t>javascript, node js, coffeescript, typescript knowledge is needed</t>
+  </si>
+  <si>
+    <t>search javascript in pluralsight and follow the course</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1287,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1346,11 +1352,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1379,7 +1395,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1683,17 +1698,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="63.42578125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1833,8 +1848,16 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="38" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -2960,10 +2983,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -3002,10 +3025,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
@@ -3026,36 +3049,40 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="95.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="95.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A1" s="42" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3104,12 +3131,12 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>358</v>
       </c>
     </row>
@@ -3215,7 +3242,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="46" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -3223,7 +3250,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="42"/>
+      <c r="A14" s="46"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -3244,7 +3271,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="46" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -3255,13 +3282,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="42"/>
+      <c r="A19" s="46"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="42"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -3270,7 +3297,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="42"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -3279,13 +3306,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="42"/>
+      <c r="A22" s="46"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="46" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -3296,37 +3323,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="42"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="42"/>
+      <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="42"/>
+      <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="42"/>
+      <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="42"/>
+      <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="42"/>
+      <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -3337,7 +3364,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="46" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -3348,43 +3375,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="42"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="42"/>
+      <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="42"/>
+      <c r="A34" s="46"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="42"/>
+      <c r="A35" s="46"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="42"/>
+      <c r="A36" s="46"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="42"/>
+      <c r="A37" s="46"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="46" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -3392,19 +3419,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="42"/>
+      <c r="A39" s="46"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="42"/>
+      <c r="A40" s="46"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="46" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -3412,25 +3439,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="42"/>
+      <c r="A42" s="46"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="42"/>
+      <c r="A43" s="46"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="42"/>
+      <c r="A44" s="46"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="46" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -3438,7 +3465,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="42"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -3447,7 +3474,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="42"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -3471,7 +3498,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="46" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -3482,13 +3509,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="42"/>
+      <c r="A52" s="46"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="42"/>
+      <c r="A53" s="46"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -3504,7 +3531,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="46" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -3512,13 +3539,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="42"/>
+      <c r="A57" s="46"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="46" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -3529,7 +3556,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="42"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -3538,7 +3565,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="42"/>
+      <c r="A60" s="46"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -3547,7 +3574,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="46" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -3555,31 +3582,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="42"/>
+      <c r="A62" s="46"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="42"/>
+      <c r="A63" s="46"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="42"/>
+      <c r="A64" s="46"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="42"/>
+      <c r="A65" s="46"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="42"/>
+      <c r="A66" s="46"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -3590,7 +3617,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="47" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -3598,55 +3625,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="43"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="43"/>
+      <c r="A70" s="47"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="43"/>
+      <c r="A71" s="47"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="43"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="43"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="43"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="43"/>
+      <c r="A75" s="47"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="43"/>
+      <c r="A76" s="47"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="43"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -3675,7 +3702,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="46" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -3683,49 +3710,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="42"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="42"/>
+      <c r="A84" s="46"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="42"/>
+      <c r="A85" s="46"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="42"/>
+      <c r="A86" s="46"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="42"/>
+      <c r="A87" s="46"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="42"/>
+      <c r="A88" s="46"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="42"/>
+      <c r="A89" s="46"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="42"/>
+      <c r="A90" s="46"/>
       <c r="B90" t="s">
         <v>133</v>
       </c>
@@ -3746,7 +3773,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="41" t="s">
+      <c r="A94" s="45" t="s">
         <v>155</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -3754,7 +3781,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="41"/>
+      <c r="A95" s="45"/>
       <c r="B95" t="s">
         <v>157</v>
       </c>
@@ -3802,10 +3829,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -3816,10 +3843,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="49"/>
     </row>
     <row r="5" spans="1:6" s="36" customFormat="1">
       <c r="A5" s="18" t="s">
@@ -3846,14 +3873,14 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="34" t="s">
@@ -3866,14 +3893,14 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
@@ -3897,14 +3924,14 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
@@ -3920,14 +3947,14 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22" t="s">
@@ -3955,10 +3982,10 @@
       <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="45"/>
+      <c r="B23" s="49"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
@@ -3970,10 +3997,10 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="45"/>
+      <c r="B26" s="49"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -4006,10 +4033,10 @@
     </row>
     <row r="31" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="B32" s="45"/>
+      <c r="B32" s="49"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="24" t="s">
@@ -4041,10 +4068,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="B37" s="45"/>
+      <c r="B37" s="49"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
@@ -4130,9 +4157,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4164,10 +4191,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="33" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4410,11 +4437,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -4505,11 +4532,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="367">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -1127,6 +1127,18 @@
   </si>
   <si>
     <t>search javascript in pluralsight and follow the course</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/certification/?sc_channel=em&amp;sc_campaign=global_F90D_DF_training_cert_2017.global_F90D_DF_training_cert_2017&amp;sc_publisher=aws&amp;sc_medium=em_28133&amp;sc_content=f90d_f90d_ot&amp;sc_country=IN&amp;sc_geo=&amp;sc_category=mult&amp;sc_outcome=f90d&amp;trk=em_28133&amp;mkt_tok=eyJpIjoiTldVM1pHTmxZV00yWXpRMyIsInQiOiJ1MFEyWWw4VXhzRURDWUlEeFF4Yk5MZEc5QUU0NDVhQmdScWxIUGJaZys1YlFmQ2t2VVhVQjM2QmFOYjlDRUswZm9MVDI5dGlKMHRkUkpieGU0bFJmSTlJSERVaUpvWWNrK0xrR1wvdE5CdEJuMm9UY09JNUhla0dnS3VuT2tiSk8ifQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/training/self-paced-labs/?sc_channel=em&amp;sc_campaign=global_F90D_DF_training_cert_2017.global_F90D_DF_training_cert_2017&amp;sc_publisher=aws&amp;sc_medium=em_28133&amp;sc_content=f90d_f90d_ot&amp;sc_country=IN&amp;sc_geo=&amp;sc_category=mult&amp;sc_outcome=f90d&amp;trk=em_28133&amp;mkt_tok=eyJpIjoiTldVM1pHTmxZV00yWXpRMyIsInQiOiJ1MFEyWWw4VXhzRURDWUlEeFF4Yk5MZEc5QUU0NDVhQmdScWxIUGJaZys1YlFmQ2t2VVhVQjM2QmFOYjlDRUswZm9MVDI5dGlKMHRkUkpieGU0bFJmSTlJSERVaUpvWWNrK0xrR1wvdE5CdEJuMm9UY09JNUhla0dnS3VuT2tiSk8ifQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/training/course-descriptions/?sc_channel=em&amp;sc_campaign=global_F90D_DF_training_cert_2017.global_F90D_DF_training_cert_2017&amp;sc_publisher=aws&amp;sc_medium=em_28133&amp;sc_content=f90d_f90d_ot&amp;sc_country=IN&amp;sc_geo=&amp;sc_category=mult&amp;sc_outcome=f90d&amp;trk=em_28133&amp;mkt_tok=eyJpIjoiTldVM1pHTmxZV00yWXpRMyIsInQiOiJ1MFEyWWw4VXhzRURDWUlEeFF4Yk5MZEc5QUU0NDVhQmdScWxIUGJaZys1YlFmQ2t2VVhVQjM2QmFOYjlDRUswZm9MVDI5dGlKMHRkUkpieGU0bFJmSTlJSERVaUpvWWNrK0xrR1wvdE5CdEJuMm9UY09JNUhla0dnS3VuT2tiSk8ifQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/training/intro_series/?sc_channel=em&amp;sc_campaign=global_F90D_DF_training_cert_2017.global_F90D_DF_training_cert_2017&amp;sc_publisher=aws&amp;sc_medium=em_28133&amp;sc_content=f90d_f90d_ot&amp;sc_country=IN&amp;sc_geo=&amp;sc_category=mult&amp;sc_outcome=f90d&amp;trk=em_28133&amp;mkt_tok=eyJpIjoiTldVM1pHTmxZV00yWXpRMyIsInQiOiJ1MFEyWWw4VXhzRURDWUlEeFF4Yk5MZEc5QUU0NDVhQmdScWxIUGJaZys1YlFmQ2t2VVhVQjM2QmFOYjlDRUswZm9MVDI5dGlKMHRkUkpieGU0bFJmSTlJSERVaUpvWWNrK0xrR1wvdE5CdEJuMm9UY09JNUhla0dnS3VuT2tiSk8ifQ%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1299,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1394,6 +1406,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4157,7 +4175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
     </sheetView>
@@ -4621,22 +4639,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="1" max="1" width="84" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="26" customFormat="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="56" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4649,7 +4667,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -4657,7 +4675,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -4665,7 +4683,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>183</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -4673,7 +4691,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>184</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -4681,7 +4699,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>185</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -4689,7 +4707,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>217</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -4697,7 +4715,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -4705,7 +4723,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>218</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -4713,7 +4731,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -4721,7 +4739,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="7" t="s">
         <v>282</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -4729,23 +4747,43 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="7" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="7" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="7" t="s">
         <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="105">
+      <c r="A17" s="55" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="120">
+      <c r="A18" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="120">
+      <c r="A19" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="105">
+      <c r="A20" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4765,6 +4803,10 @@
     <hyperlink ref="A14" r:id="rId12" tooltip="Building Applications Using Elastic Beanstalk" display="https://app.pluralsight.com/library/courses/elastic-beanstalk-building-applications"/>
     <hyperlink ref="A15" r:id="rId13" tooltip="Using Docker with AWS Elastic Beanstalk" display="https://app.pluralsight.com/library/courses/docker-aws-elastic-beanstalk"/>
     <hyperlink ref="A16" r:id="rId14" tooltip="Architecting Highly Available Systems on AWS" display="https://app.pluralsight.com/library/courses/deploying-highly-available-distributed-systems-aws-part1"/>
+    <hyperlink ref="A17"/>
+    <hyperlink ref="A18"/>
+    <hyperlink ref="A19"/>
+    <hyperlink ref="A20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" firstSheet="1" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="378">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -754,9 +754,6 @@
     <t>Machine Learning: http://www.andrewng.org/</t>
   </si>
   <si>
-    <t>Pluralsight Angular JS videos</t>
-  </si>
-  <si>
     <t>How to Think About Machine Learning Algorithms</t>
   </si>
   <si>
@@ -1139,6 +1136,42 @@
   </si>
   <si>
     <t>https://aws.amazon.com/training/intro_series/?sc_channel=em&amp;sc_campaign=global_F90D_DF_training_cert_2017.global_F90D_DF_training_cert_2017&amp;sc_publisher=aws&amp;sc_medium=em_28133&amp;sc_content=f90d_f90d_ot&amp;sc_country=IN&amp;sc_geo=&amp;sc_category=mult&amp;sc_outcome=f90d&amp;trk=em_28133&amp;mkt_tok=eyJpIjoiTldVM1pHTmxZV00yWXpRMyIsInQiOiJ1MFEyWWw4VXhzRURDWUlEeFF4Yk5MZEc5QUU0NDVhQmdScWxIUGJaZys1YlFmQ2t2VVhVQjM2QmFOYjlDRUswZm9MVDI5dGlKMHRkUkpieGU0bFJmSTlJSERVaUpvWWNrK0xrR1wvdE5CdEJuMm9UY09JNUhla0dnS3VuT2tiSk8ifQ%3D%3D</t>
+  </si>
+  <si>
+    <t>AngularJS: The Big Picture [Course]</t>
+  </si>
+  <si>
+    <t>AngularJS: Get Started [Course]</t>
+  </si>
+  <si>
+    <t>AngularJS Unit Testing in-depth, Using ngMock [Course]</t>
+  </si>
+  <si>
+    <t>AngularJS Services In-depth [Course]</t>
+  </si>
+  <si>
+    <t>AngularJS Routing In-depth [Course]</t>
+  </si>
+  <si>
+    <t>AngularJS Patterns: Clean Code [Course]</t>
+  </si>
+  <si>
+    <t>AngularJS In-Depth [Course]</t>
+  </si>
+  <si>
+    <t>AngularJS Front to Back with Web API [Course]</t>
+  </si>
+  <si>
+    <t>AngularJS Forms Using Bootstrap and MVC 5 [Course]</t>
+  </si>
+  <si>
+    <t>AngularJS Directives Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>AngularJS Best Practices [Course]</t>
+  </si>
+  <si>
+    <t>AngularJS Application Development [Course]</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1332,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1380,6 +1413,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1406,12 +1446,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1720,7 +1754,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1731,12 +1765,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1751,7 +1785,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1761,12 +1795,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1776,22 +1810,22 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1801,32 +1835,32 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1836,38 +1870,38 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1875,7 +1909,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -1994,34 +2028,34 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2058,12 +2092,12 @@
   <sheetData>
     <row r="1" spans="1:2" s="35" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -2071,12 +2105,12 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2096,7 +2130,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2108,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="26" customFormat="1">
       <c r="A1" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2136,17 +2170,17 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2213,7 +2247,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -2246,7 +2280,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2280,7 +2314,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>11</v>
@@ -2299,7 +2333,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
@@ -2307,7 +2341,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2322,10 +2356,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2335,24 +2370,134 @@
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>11</v>
+    <row r="1" spans="1:2" s="45" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>179</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://app.pluralsight.com/library/courses/angular-big-picture"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://app.pluralsight.com/library/courses/angularjs-get-started"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://app.pluralsight.com/library/courses/angularjs-ngmock-unit-testing"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://app.pluralsight.com/library/courses/angularjs-services-in-depth"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://app.pluralsight.com/library/courses/angular-routing-in-depth"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://app.pluralsight.com/library/courses/angularjs-patterns-clean-code"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://app.pluralsight.com/library/courses/angularjs-in-depth"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://app.pluralsight.com/library/courses/angular-web-api-front-back"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://app.pluralsight.com/library/courses/angularjs-forms-bootstrap-mvc5"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://app.pluralsight.com/library/courses/angularjs-directive-fundamentals"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://app.pluralsight.com/library/courses/angular-best-practices"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://app.pluralsight.com/library/courses/angular-application-development"/>
+    <hyperlink ref="A1" location="Topics!A16" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -2371,7 +2516,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>11</v>
@@ -2411,12 +2556,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +2577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
@@ -2715,41 +2860,41 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>11</v>
@@ -2757,10 +2902,10 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" t="s">
         <v>270</v>
-      </c>
-      <c r="B61" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2770,22 +2915,22 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>11</v>
@@ -2793,7 +2938,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>11</v>
@@ -2801,7 +2946,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>11</v>
@@ -2809,7 +2954,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>11</v>
@@ -2817,7 +2962,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>11</v>
@@ -2825,7 +2970,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>11</v>
@@ -2833,7 +2978,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2922,7 +3067,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2959,12 +3104,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>11</v>
@@ -2997,18 +3142,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="B2" s="49"/>
+      <c r="A2" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3039,18 +3184,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="48" t="s">
-        <v>347</v>
-      </c>
-      <c r="B2" s="49"/>
+      <c r="A2" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3082,23 +3227,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -3119,9 +3264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3130,37 +3273,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3403,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="49" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -3268,7 +3411,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="46"/>
+      <c r="A14" s="49"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -3289,7 +3432,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="49" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -3300,13 +3443,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="46"/>
+      <c r="A19" s="49"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="46"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -3315,7 +3458,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="46"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -3324,13 +3467,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="46"/>
+      <c r="A22" s="49"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="49" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -3341,37 +3484,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="46"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="46"/>
+      <c r="A25" s="49"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="46"/>
+      <c r="A26" s="49"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="49"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="46"/>
+      <c r="A28" s="49"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="46"/>
+      <c r="A29" s="49"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -3382,7 +3525,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="49" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -3393,43 +3536,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="46"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="46"/>
+      <c r="A33" s="49"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="46"/>
+      <c r="A34" s="49"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="46"/>
+      <c r="A35" s="49"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="46"/>
+      <c r="A36" s="49"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="46"/>
+      <c r="A37" s="49"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -3437,19 +3580,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="46"/>
+      <c r="A39" s="49"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="46"/>
+      <c r="A40" s="49"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -3457,25 +3600,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="46"/>
+      <c r="A42" s="49"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="46"/>
+      <c r="A43" s="49"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="46"/>
+      <c r="A44" s="49"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="49" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -3483,7 +3626,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="46"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -3492,7 +3635,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="46"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -3516,7 +3659,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="49" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -3527,13 +3670,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="46"/>
+      <c r="A52" s="49"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="46"/>
+      <c r="A53" s="49"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -3549,7 +3692,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="49" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -3557,13 +3700,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="46"/>
+      <c r="A57" s="49"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="49" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -3574,7 +3717,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="46"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -3583,7 +3726,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="46"/>
+      <c r="A60" s="49"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -3592,7 +3735,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="49" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -3600,31 +3743,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="46"/>
+      <c r="A62" s="49"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="46"/>
+      <c r="A63" s="49"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="46"/>
+      <c r="A64" s="49"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="46"/>
+      <c r="A65" s="49"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="46"/>
+      <c r="A66" s="49"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -3635,7 +3778,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="50" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -3643,55 +3786,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="47"/>
+      <c r="A69" s="50"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="47"/>
+      <c r="A70" s="50"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="47"/>
+      <c r="A71" s="50"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="47"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="47"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="47"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="47"/>
+      <c r="A75" s="50"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="47"/>
+      <c r="A76" s="50"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="47"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -3720,7 +3863,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="49" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -3728,49 +3871,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="46"/>
+      <c r="A83" s="49"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="46"/>
+      <c r="A84" s="49"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="46"/>
+      <c r="A85" s="49"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="46"/>
+      <c r="A86" s="49"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="46"/>
+      <c r="A87" s="49"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="46"/>
+      <c r="A88" s="49"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="46"/>
+      <c r="A89" s="49"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="46"/>
+      <c r="A90" s="49"/>
       <c r="B90" t="s">
         <v>133</v>
       </c>
@@ -3791,7 +3934,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="45" t="s">
+      <c r="A94" s="48" t="s">
         <v>155</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -3799,7 +3942,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="45"/>
+      <c r="A95" s="48"/>
       <c r="B95" t="s">
         <v>157</v>
       </c>
@@ -3840,43 +3983,43 @@
   <sheetData>
     <row r="1" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="B4" s="49"/>
+      <c r="A4" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="52"/>
     </row>
     <row r="5" spans="1:6" s="36" customFormat="1">
       <c r="A5" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>11</v>
@@ -3891,18 +4034,18 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="34" customFormat="1">
@@ -3911,14 +4054,14 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
@@ -3942,14 +4085,14 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
@@ -3965,18 +4108,18 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="50" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="A18" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>11</v>
@@ -3992,7 +4135,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1">
@@ -4000,14 +4143,14 @@
       <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="52"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>11</v>
@@ -4015,10 +4158,10 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="49"/>
+      <c r="B26" s="52"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -4051,14 +4194,14 @@
     </row>
     <row r="31" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="B32" s="49"/>
+      <c r="A32" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" s="52"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>11</v>
@@ -4086,10 +4229,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A37" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="B37" s="49"/>
+      <c r="A37" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" s="52"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
@@ -4177,7 +4320,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4189,7 +4332,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="C1" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4197,22 +4340,22 @@
         <v>222</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="45" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4242,7 +4385,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>11</v>
@@ -4295,7 +4438,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4329,7 +4472,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>11</v>
@@ -4342,7 +4485,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -4389,7 +4532,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>11</v>
@@ -4397,7 +4540,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -4405,7 +4548,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
@@ -4413,7 +4556,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>11</v>
@@ -4421,7 +4564,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>11</v>
@@ -4455,11 +4598,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -4497,26 +4640,26 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4550,15 +4693,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="A1" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>11</v>
@@ -4567,7 +4710,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>11</v>
@@ -4583,7 +4726,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>11</v>
@@ -4607,7 +4750,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>11</v>
@@ -4615,7 +4758,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -4641,7 +4784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
@@ -4654,8 +4797,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="26" customFormat="1">
-      <c r="A1" s="56" t="s">
-        <v>298</v>
+      <c r="A1" s="47" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4732,7 +4875,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>11</v>
@@ -4740,7 +4883,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>11</v>
@@ -4748,42 +4891,42 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="105">
-      <c r="A17" s="55" t="s">
-        <v>363</v>
+      <c r="A17" s="46" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="120">
       <c r="A18" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="120">
       <c r="A19" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="105">
       <c r="A20" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4803,10 +4946,10 @@
     <hyperlink ref="A14" r:id="rId12" tooltip="Building Applications Using Elastic Beanstalk" display="https://app.pluralsight.com/library/courses/elastic-beanstalk-building-applications"/>
     <hyperlink ref="A15" r:id="rId13" tooltip="Using Docker with AWS Elastic Beanstalk" display="https://app.pluralsight.com/library/courses/docker-aws-elastic-beanstalk"/>
     <hyperlink ref="A16" r:id="rId14" tooltip="Architecting Highly Available Systems on AWS" display="https://app.pluralsight.com/library/courses/deploying-highly-available-distributed-systems-aws-part1"/>
-    <hyperlink ref="A17"/>
-    <hyperlink ref="A18"/>
-    <hyperlink ref="A19"/>
-    <hyperlink ref="A20"/>
+    <hyperlink ref="A17" display="https://aws.amazon.com/certification/?sc_channel=em&amp;sc_campaign=global_F90D_DF_training_cert_2017.global_F90D_DF_training_cert_2017&amp;sc_publisher=aws&amp;sc_medium=em_28133&amp;sc_content=f90d_f90d_ot&amp;sc_country=IN&amp;sc_geo=&amp;sc_category=mult&amp;sc_outcome=f90d&amp;trk=em_2"/>
+    <hyperlink ref="A18" display="https://aws.amazon.com/training/self-paced-labs/?sc_channel=em&amp;sc_campaign=global_F90D_DF_training_cert_2017.global_F90D_DF_training_cert_2017&amp;sc_publisher=aws&amp;sc_medium=em_28133&amp;sc_content=f90d_f90d_ot&amp;sc_country=IN&amp;sc_geo=&amp;sc_category=mult&amp;sc_outcome=f9"/>
+    <hyperlink ref="A19" display="https://aws.amazon.com/training/course-descriptions/?sc_channel=em&amp;sc_campaign=global_F90D_DF_training_cert_2017.global_F90D_DF_training_cert_2017&amp;sc_publisher=aws&amp;sc_medium=em_28133&amp;sc_content=f90d_f90d_ot&amp;sc_country=IN&amp;sc_geo=&amp;sc_category=mult&amp;sc_outcom"/>
+    <hyperlink ref="A20" display="https://aws.amazon.com/training/intro_series/?sc_channel=em&amp;sc_campaign=global_F90D_DF_training_cert_2017.global_F90D_DF_training_cert_2017&amp;sc_publisher=aws&amp;sc_medium=em_28133&amp;sc_content=f90d_f90d_ot&amp;sc_country=IN&amp;sc_geo=&amp;sc_category=mult&amp;sc_outcome=f90d&amp;"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="384">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -1172,6 +1172,24 @@
   </si>
   <si>
     <t>AngularJS Application Development [Course]</t>
+  </si>
+  <si>
+    <t>Angular Fundamentals</t>
+  </si>
+  <si>
+    <t>Angular: First Look</t>
+  </si>
+  <si>
+    <t>Building Components with Angular 1.5</t>
+  </si>
+  <si>
+    <t>Angular 1.x</t>
+  </si>
+  <si>
+    <t>Angular 2</t>
+  </si>
+  <si>
+    <t>Angular: Getting Started [Course]</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1244,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1266,6 +1284,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,7 +1356,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1420,6 +1444,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1447,6 +1472,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1457,8 +1485,8 @@
   <colors>
     <mruColors>
       <color rgb="FF33CC33"/>
+      <color rgb="FF0000CC"/>
       <color rgb="FF3302BE"/>
-      <color rgb="FF0000CC"/>
       <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
@@ -2356,11 +2384,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2376,48 +2404,46 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" spans="1:2" s="48" customFormat="1">
+      <c r="A3" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B4" s="45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B6" s="45" t="s">
+    <row r="5" spans="1:2" s="48" customFormat="1">
+      <c r="A5" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="48" customFormat="1">
+      <c r="A6" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>11</v>
@@ -2425,7 +2451,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>11</v>
@@ -2433,7 +2459,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>11</v>
@@ -2441,7 +2467,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>11</v>
@@ -2449,7 +2475,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>11</v>
@@ -2457,7 +2483,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>11</v>
@@ -2465,7 +2491,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>11</v>
@@ -2473,31 +2499,85 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B17" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="59" t="s">
+        <v>382</v>
+      </c>
+      <c r="B21" s="59"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B22" s="48" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A21:B21"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://app.pluralsight.com/library/courses/angular-big-picture"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://app.pluralsight.com/library/courses/angularjs-get-started"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://app.pluralsight.com/library/courses/angularjs-ngmock-unit-testing"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://app.pluralsight.com/library/courses/angularjs-services-in-depth"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://app.pluralsight.com/library/courses/angular-routing-in-depth"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://app.pluralsight.com/library/courses/angularjs-patterns-clean-code"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://app.pluralsight.com/library/courses/angularjs-in-depth"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://app.pluralsight.com/library/courses/angular-web-api-front-back"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://app.pluralsight.com/library/courses/angularjs-forms-bootstrap-mvc5"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://app.pluralsight.com/library/courses/angularjs-directive-fundamentals"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://app.pluralsight.com/library/courses/angular-best-practices"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://app.pluralsight.com/library/courses/angular-application-development"/>
+    <hyperlink ref="A17" r:id="rId1" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://app.pluralsight.com/library/courses/angularjs-get-started"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://app.pluralsight.com/library/courses/angularjs-ngmock-unit-testing"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://app.pluralsight.com/library/courses/angularjs-services-in-depth"/>
+    <hyperlink ref="A9" r:id="rId5" display="https://app.pluralsight.com/library/courses/angular-routing-in-depth"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://app.pluralsight.com/library/courses/angularjs-patterns-clean-code"/>
+    <hyperlink ref="A11" r:id="rId7" display="https://app.pluralsight.com/library/courses/angularjs-in-depth"/>
+    <hyperlink ref="A12" r:id="rId8" display="https://app.pluralsight.com/library/courses/angular-web-api-front-back"/>
+    <hyperlink ref="A13" r:id="rId9" display="https://app.pluralsight.com/library/courses/angularjs-forms-bootstrap-mvc5"/>
+    <hyperlink ref="A14" r:id="rId10" display="https://app.pluralsight.com/library/courses/angularjs-directive-fundamentals"/>
+    <hyperlink ref="A15" r:id="rId11" display="https://app.pluralsight.com/library/courses/angular-best-practices"/>
+    <hyperlink ref="A16" r:id="rId12" display="https://app.pluralsight.com/library/courses/angular-application-development"/>
     <hyperlink ref="A1" location="Topics!A16" display="Topics"/>
+    <hyperlink ref="A5" r:id="rId13" tooltip="Angular Fundamentals" display="https://app.pluralsight.com/library/courses/angularjs-fundamentals"/>
+    <hyperlink ref="A6" r:id="rId14" tooltip="Angular: First Look" display="https://app.pluralsight.com/library/courses/angular-2-first-look"/>
+    <hyperlink ref="A18" r:id="rId15" tooltip="Building Components with Angular 1.5" display="https://app.pluralsight.com/library/courses/building-components-angular-1-5"/>
+    <hyperlink ref="A3" r:id="rId16" display="https://app.pluralsight.com/library/courses/angular-big-picture"/>
+    <hyperlink ref="A22" r:id="rId17" display="https://app.pluralsight.com/library/courses/angular-2-getting-started-update"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -3146,10 +3226,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -3188,10 +3268,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
@@ -3403,7 +3483,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="50" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -3411,7 +3491,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="49"/>
+      <c r="A14" s="50"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -3432,7 +3512,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="50" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -3443,13 +3523,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="49"/>
+      <c r="A19" s="50"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="49"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -3458,7 +3538,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="49"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -3467,13 +3547,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="49"/>
+      <c r="A22" s="50"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="50" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -3484,37 +3564,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="49"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="49"/>
+      <c r="A25" s="50"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="49"/>
+      <c r="A26" s="50"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="49"/>
+      <c r="A27" s="50"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="49"/>
+      <c r="A28" s="50"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="49"/>
+      <c r="A29" s="50"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -3525,7 +3605,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="50" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -3536,43 +3616,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="49"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="49"/>
+      <c r="A33" s="50"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="49"/>
+      <c r="A34" s="50"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="49"/>
+      <c r="A35" s="50"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="49"/>
+      <c r="A36" s="50"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="49"/>
+      <c r="A37" s="50"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="50" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -3580,19 +3660,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="49"/>
+      <c r="A39" s="50"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="49"/>
+      <c r="A40" s="50"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="50" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -3600,25 +3680,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="49"/>
+      <c r="A42" s="50"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="49"/>
+      <c r="A43" s="50"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="49"/>
+      <c r="A44" s="50"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="50" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -3626,7 +3706,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="49"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -3635,7 +3715,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="49"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -3659,7 +3739,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="50" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -3670,13 +3750,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="49"/>
+      <c r="A52" s="50"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="49"/>
+      <c r="A53" s="50"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -3692,7 +3772,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="50" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -3700,13 +3780,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="49"/>
+      <c r="A57" s="50"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="49" t="s">
+      <c r="A58" s="50" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -3717,7 +3797,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="49"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -3726,7 +3806,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="49"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -3735,7 +3815,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="50" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -3743,31 +3823,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="49"/>
+      <c r="A62" s="50"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="49"/>
+      <c r="A63" s="50"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="49"/>
+      <c r="A64" s="50"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="49"/>
+      <c r="A65" s="50"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="49"/>
+      <c r="A66" s="50"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -3778,7 +3858,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="51" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -3786,55 +3866,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="50"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="50"/>
+      <c r="A70" s="51"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="50"/>
+      <c r="A71" s="51"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="50"/>
+      <c r="A72" s="51"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="50"/>
+      <c r="A73" s="51"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="50"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="50"/>
+      <c r="A75" s="51"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="50"/>
+      <c r="A76" s="51"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="50"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -3863,7 +3943,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="49" t="s">
+      <c r="A82" s="50" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -3871,49 +3951,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="49"/>
+      <c r="A83" s="50"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="49"/>
+      <c r="A84" s="50"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="49"/>
+      <c r="A85" s="50"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="49"/>
+      <c r="A86" s="50"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="49"/>
+      <c r="A87" s="50"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="49"/>
+      <c r="A88" s="50"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="49"/>
+      <c r="A89" s="50"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="49"/>
+      <c r="A90" s="50"/>
       <c r="B90" t="s">
         <v>133</v>
       </c>
@@ -3934,7 +4014,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="48" t="s">
+      <c r="A94" s="49" t="s">
         <v>155</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -3942,7 +4022,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="48"/>
+      <c r="A95" s="49"/>
       <c r="B95" t="s">
         <v>157</v>
       </c>
@@ -3990,10 +4070,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -4004,10 +4084,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="5" spans="1:6" s="36" customFormat="1">
       <c r="A5" s="18" t="s">
@@ -4034,14 +4114,14 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="34" t="s">
@@ -4054,14 +4134,14 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
@@ -4085,14 +4165,14 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
@@ -4108,14 +4188,14 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22" t="s">
@@ -4143,10 +4223,10 @@
       <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="52"/>
+      <c r="B23" s="53"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
@@ -4158,10 +4238,10 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="52"/>
+      <c r="B26" s="53"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -4194,10 +4274,10 @@
     </row>
     <row r="31" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="52" t="s">
         <v>329</v>
       </c>
-      <c r="B32" s="52"/>
+      <c r="B32" s="53"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="24" t="s">
@@ -4229,10 +4309,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="52" t="s">
         <v>296</v>
       </c>
-      <c r="B37" s="52"/>
+      <c r="B37" s="53"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
@@ -4598,11 +4678,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -4693,11 +4773,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" firstSheet="1" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="JMS" sheetId="25" r:id="rId23"/>
     <sheet name="npm" sheetId="26" r:id="rId24"/>
     <sheet name="git" sheetId="27" r:id="rId25"/>
+    <sheet name="JS" sheetId="28" r:id="rId26"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="400">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -1190,6 +1191,54 @@
   </si>
   <si>
     <t>Angular: Getting Started [Course]</t>
+  </si>
+  <si>
+    <t>Basics of Programming with JavaScript</t>
+  </si>
+  <si>
+    <t>Building a JavaScript Development Environment</t>
+  </si>
+  <si>
+    <t>Front-End Web Development Quick Start With HTML5, CSS, and JavaScript</t>
+  </si>
+  <si>
+    <t>Advanced JavaScript</t>
+  </si>
+  <si>
+    <t>Practical Design Patterns in JavaScript</t>
+  </si>
+  <si>
+    <t>Quick Start to JavaScript: Volume 1</t>
+  </si>
+  <si>
+    <t>Rapid JavaScript Training</t>
+  </si>
+  <si>
+    <t>JavaScript: From Fundamentals to Functional JS</t>
+  </si>
+  <si>
+    <t>JavaScript Objects and Prototypes</t>
+  </si>
+  <si>
+    <t>D3.js Data Visualization Fundamentals</t>
+  </si>
+  <si>
+    <t>JavaScript Best Practices</t>
+  </si>
+  <si>
+    <t>JavaScript From Scratch</t>
+  </si>
+  <si>
+    <t>JavaScript: Advanced Fundamentals to jQuery &amp; Pure DOM Scripting</t>
+  </si>
+  <si>
+    <t>JavaScript Fundamentals</t>
+  </si>
+  <si>
+    <t>Quick Start to JavaScript: Volume 2</t>
+  </si>
+  <si>
+    <t>JavaScript: The Good Parts</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1831,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1933,7 +1982,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="40" t="s">
@@ -1965,6 +2014,7 @@
     <hyperlink ref="A22" location="WS!A1" display="Web Services(WS)"/>
     <hyperlink ref="A26" location="npm!A1" display="npm"/>
     <hyperlink ref="A27" location="git!A1" display="git"/>
+    <hyperlink ref="A28" location="JS!A1" display="Javascript"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2106,7 +2156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2386,9 +2436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3400,6 +3450,131 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="115.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="18" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="18" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="18" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="18" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="18" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="18" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="18" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="18" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="18" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="18" t="s">
+        <v>399</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A28" display="Topics"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="Basics of Programming with JavaScript" display="https://app.pluralsight.com/library/courses/javascript-programming-basics"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="Building a JavaScript Development Environment" display="https://app.pluralsight.com/library/courses/javascript-development-environment"/>
+    <hyperlink ref="A4" r:id="rId3" tooltip="Front-End Web Development Quick Start With HTML5, CSS, and JavaScript" display="https://app.pluralsight.com/library/courses/front-end-web-app-html5-javascript-css"/>
+    <hyperlink ref="A5" r:id="rId4" tooltip="Advanced JavaScript" display="https://app.pluralsight.com/library/courses/advanced-javascript"/>
+    <hyperlink ref="A6" r:id="rId5" tooltip="Practical Design Patterns in JavaScript" display="https://app.pluralsight.com/library/courses/javascript-practical-design-patterns"/>
+    <hyperlink ref="A7" r:id="rId6" tooltip="Quick Start to JavaScript: Volume 1" display="https://app.pluralsight.com/library/courses/quick-start-javascript-1-1870"/>
+    <hyperlink ref="A8" r:id="rId7" tooltip="Rapid JavaScript Training" display="https://app.pluralsight.com/library/courses/rapid-javascript-training"/>
+    <hyperlink ref="A9" r:id="rId8" tooltip="JavaScript: From Fundamentals to Functional JS" display="https://app.pluralsight.com/library/courses/javascript-from-fundamentals-to-functional-js"/>
+    <hyperlink ref="A10" r:id="rId9" tooltip="JavaScript Objects and Prototypes" display="https://app.pluralsight.com/library/courses/javascript-objects-prototypes"/>
+    <hyperlink ref="A11" r:id="rId10" tooltip="D3.js Data Visualization Fundamentals" display="https://app.pluralsight.com/library/courses/d3js-data-visualization-fundamentals"/>
+    <hyperlink ref="A12" r:id="rId11" tooltip="JavaScript Best Practices" display="https://app.pluralsight.com/library/courses/javascript-best-practices"/>
+    <hyperlink ref="A13" r:id="rId12" tooltip="JavaScript From Scratch" display="https://app.pluralsight.com/library/courses/javascript-from-scratch"/>
+    <hyperlink ref="A14" r:id="rId13" tooltip="JavaScript: Advanced Fundamentals to jQuery &amp; Pure DOM Scripting" display="https://app.pluralsight.com/library/courses/advanced-js-jquery-pure-dom-scripting-fundamentals"/>
+    <hyperlink ref="A15" r:id="rId14" tooltip="JavaScript Fundamentals" display="https://app.pluralsight.com/library/courses/jscript-fundamentals"/>
+    <hyperlink ref="A16" r:id="rId15" tooltip="Quick Start to JavaScript: Volume 2" display="https://app.pluralsight.com/library/courses/quick-start-javascript-2-1917"/>
+    <hyperlink ref="A17" r:id="rId16" tooltip="JavaScript: The Good Parts" display="https://app.pluralsight.com/library/courses/javascript-good-parts"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C95"/>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" firstSheet="2" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="npm" sheetId="26" r:id="rId24"/>
     <sheet name="git" sheetId="27" r:id="rId25"/>
     <sheet name="JS" sheetId="28" r:id="rId26"/>
+    <sheet name="BC" sheetId="29" r:id="rId27"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="405">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -1239,6 +1240,21 @@
   </si>
   <si>
     <t>JavaScript: The Good Parts</t>
+  </si>
+  <si>
+    <t>RESTful Web Services with Node.js and Express [Course]</t>
+  </si>
+  <si>
+    <t>Node.js and the Internet of Things Using Intel Edison [Course]</t>
+  </si>
+  <si>
+    <t>Block Chain(BC)</t>
+  </si>
+  <si>
+    <t>Blockchain Fundamentals</t>
+  </si>
+  <si>
+    <t>An AngularJS Playbook</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1421,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1494,6 +1510,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1522,6 +1539,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1827,11 +1853,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1987,6 +2013,11 @@
       </c>
       <c r="B28" s="40" t="s">
         <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -2015,6 +2046,7 @@
     <hyperlink ref="A26" location="npm!A1" display="npm"/>
     <hyperlink ref="A27" location="git!A1" display="git"/>
     <hyperlink ref="A28" location="JS!A1" display="Javascript"/>
+    <hyperlink ref="A29" location="BC!A1" display="Block Chain(BC)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2154,9 +2186,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2191,14 +2223,27 @@
         <v>310</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://app.pluralsight.com/library/courses/node-intro"/>
     <hyperlink ref="A4" r:id="rId2" display="https://app.pluralsight.com/library/courses/full-stack-nodejs"/>
     <hyperlink ref="A3" r:id="rId3" display="https://app.pluralsight.com/library/courses/nodejs-advanced"/>
     <hyperlink ref="A1" location="Topics!A11" display="Topics"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://app.pluralsight.com/library/courses/node-js-express-rest-web-services"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://app.pluralsight.com/library/courses/nodejs-internet-of-things-intel-edison"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2436,9 +2481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2448,16 +2493,17 @@
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="45" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:2" s="45" customFormat="1">
+      <c r="A1" s="63" t="s">
         <v>297</v>
       </c>
+      <c r="B1" s="63"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>381</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:2" s="48" customFormat="1">
       <c r="A3" s="22" t="s">
@@ -2468,10 +2514,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2587,11 +2633,16 @@
         <v>11</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="18" t="s">
+        <v>404</v>
+      </c>
+    </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="60"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
@@ -2602,9 +2653,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A17" r:id="rId1" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
@@ -2625,9 +2677,10 @@
     <hyperlink ref="A18" r:id="rId15" tooltip="Building Components with Angular 1.5" display="https://app.pluralsight.com/library/courses/building-components-angular-1-5"/>
     <hyperlink ref="A3" r:id="rId16" display="https://app.pluralsight.com/library/courses/angular-big-picture"/>
     <hyperlink ref="A22" r:id="rId17" display="https://app.pluralsight.com/library/courses/angular-2-getting-started-update"/>
+    <hyperlink ref="A19" r:id="rId18" tooltip="An AngularJS Playbook" display="https://app.pluralsight.com/library/courses/angularjs-playbook"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -3276,10 +3329,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -3318,10 +3371,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
@@ -3452,11 +3505,11 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3465,89 +3518,137 @@
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="18" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="18" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="18" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="18" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="18" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="18" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="18" t="s">
         <v>399</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3575,6 +3676,46 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="109.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="62"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1:B1" location="Topics!A29" display="Topics"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="Blockchain Fundamentals" display="https://app.pluralsight.com/library/courses/blockchain-fundamentals"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C95"/>
@@ -3658,7 +3799,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="51" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -3666,7 +3807,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="50"/>
+      <c r="A14" s="51"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -3687,7 +3828,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="51" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -3698,13 +3839,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="50"/>
+      <c r="A19" s="51"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="50"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -3713,7 +3854,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="50"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -3722,13 +3863,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="51" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -3739,37 +3880,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="50"/>
+      <c r="A26" s="51"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="50"/>
+      <c r="A27" s="51"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="50"/>
+      <c r="A28" s="51"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="50"/>
+      <c r="A29" s="51"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -3780,7 +3921,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="51" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -3791,43 +3932,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="50"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="50"/>
+      <c r="A33" s="51"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="50"/>
+      <c r="A34" s="51"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="50"/>
+      <c r="A35" s="51"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="50"/>
+      <c r="A36" s="51"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="50"/>
+      <c r="A37" s="51"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="51" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -3835,19 +3976,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="50"/>
+      <c r="A39" s="51"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="50"/>
+      <c r="A40" s="51"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="51" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -3855,25 +3996,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="50"/>
+      <c r="A42" s="51"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="50"/>
+      <c r="A43" s="51"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="50"/>
+      <c r="A44" s="51"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="51" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -3881,7 +4022,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="50"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -3890,7 +4031,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="50"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -3914,7 +4055,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="51" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -3925,13 +4066,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="50"/>
+      <c r="A52" s="51"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="50"/>
+      <c r="A53" s="51"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -3947,7 +4088,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="51" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -3955,13 +4096,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="50"/>
+      <c r="A57" s="51"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="50" t="s">
+      <c r="A58" s="51" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -3972,7 +4113,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="50"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -3981,7 +4122,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="50"/>
+      <c r="A60" s="51"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -3990,7 +4131,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="51" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -3998,31 +4139,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="50"/>
+      <c r="A62" s="51"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="50"/>
+      <c r="A63" s="51"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="50"/>
+      <c r="A64" s="51"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="50"/>
+      <c r="A65" s="51"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="50"/>
+      <c r="A66" s="51"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -4033,7 +4174,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="51" t="s">
+      <c r="A68" s="52" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -4041,55 +4182,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="51"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="51"/>
+      <c r="A70" s="52"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="51"/>
+      <c r="A71" s="52"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="51"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="51"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="51"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="51"/>
+      <c r="A75" s="52"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="51"/>
+      <c r="A76" s="52"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="51"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -4118,7 +4259,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="50" t="s">
+      <c r="A82" s="51" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -4126,49 +4267,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="50"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="50"/>
+      <c r="A84" s="51"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="50"/>
+      <c r="A85" s="51"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="50"/>
+      <c r="A86" s="51"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="50"/>
+      <c r="A87" s="51"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="50"/>
+      <c r="A88" s="51"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="50"/>
+      <c r="A89" s="51"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="50"/>
+      <c r="A90" s="51"/>
       <c r="B90" t="s">
         <v>133</v>
       </c>
@@ -4189,7 +4330,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="49" t="s">
+      <c r="A94" s="50" t="s">
         <v>155</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -4197,7 +4338,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="49"/>
+      <c r="A95" s="50"/>
       <c r="B95" t="s">
         <v>157</v>
       </c>
@@ -4245,10 +4386,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -4259,10 +4400,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>330</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="54"/>
     </row>
     <row r="5" spans="1:6" s="36" customFormat="1">
       <c r="A5" s="18" t="s">
@@ -4289,14 +4430,14 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="34" t="s">
@@ -4309,14 +4450,14 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
@@ -4340,14 +4481,14 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
@@ -4363,14 +4504,14 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22" t="s">
@@ -4398,10 +4539,10 @@
       <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="54"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
@@ -4413,10 +4554,10 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="54"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -4449,10 +4590,10 @@
     </row>
     <row r="31" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="53" t="s">
         <v>329</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="54"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="24" t="s">
@@ -4484,10 +4625,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="54"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
@@ -4853,11 +4994,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -4948,11 +5089,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" firstSheet="2" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -34,13 +34,14 @@
     <sheet name="git" sheetId="27" r:id="rId25"/>
     <sheet name="JS" sheetId="28" r:id="rId26"/>
     <sheet name="BC" sheetId="29" r:id="rId27"/>
+    <sheet name="Redis" sheetId="30" r:id="rId28"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="407">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -741,15 +742,9 @@
     <t>Introduction to Bitcoin and Decentralized Technology [Course]</t>
   </si>
   <si>
-    <t>docker videos</t>
-  </si>
-  <si>
     <t>Understanding and Solving Java Memory Problems</t>
   </si>
   <si>
-    <t>Understanding the Java Virtual Machine: Memory Management</t>
-  </si>
-  <si>
     <t>Scala: Getting Started</t>
   </si>
   <si>
@@ -759,9 +754,6 @@
     <t>How to Think About Machine Learning Algorithms</t>
   </si>
   <si>
-    <t>Docker and Containers: The Big Picture</t>
-  </si>
-  <si>
     <t>Apache Spark Fundamentals</t>
   </si>
   <si>
@@ -1086,9 +1078,6 @@
     <t>RabbitMQ by Example</t>
   </si>
   <si>
-    <t>Inprogress</t>
-  </si>
-  <si>
     <t>npm</t>
   </si>
   <si>
@@ -1255,6 +1244,24 @@
   </si>
   <si>
     <t>An AngularJS Playbook</t>
+  </si>
+  <si>
+    <t>Java Fundamentals: Object-oriented Design [Course]</t>
+  </si>
+  <si>
+    <t>Java Fundamentals: The Core Platform [Course]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-zW1zHqsdyc</t>
+  </si>
+  <si>
+    <t>Youtube - Angular 2 in 60 minutes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HNDtcXVo5ow&amp;list=PLhW3qG5bs-L8n1fsiT8z_VnDhnUk4vaVq</t>
+  </si>
+  <si>
+    <t>Youtube - Redis Beginneer Tutorial</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1404,15 +1411,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1421,7 +1419,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1511,6 +1509,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1523,10 +1528,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1538,16 +1540,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1853,11 +1852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1868,12 +1867,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1888,7 +1887,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1898,12 +1897,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1913,22 +1912,22 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1938,32 +1937,32 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1973,38 +1972,38 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="34" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>337</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="37" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="38" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2012,12 +2011,17 @@
         <v>25</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2047,6 +2051,7 @@
     <hyperlink ref="A27" location="git!A1" display="git"/>
     <hyperlink ref="A28" location="JS!A1" display="Javascript"/>
     <hyperlink ref="A29" location="BC!A1" display="Block Chain(BC)"/>
+    <hyperlink ref="A30" location="Redis!A1" display="Redis"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2138,34 +2143,34 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2190,7 +2195,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2202,35 +2207,47 @@
   <sheetData>
     <row r="1" spans="1:2" s="35" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +2270,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2265,7 +2282,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="26" customFormat="1">
       <c r="A1" s="27" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2293,17 +2310,17 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2347,10 +2364,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2360,60 +2378,72 @@
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>11</v>
-      </c>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
-        <v>143</v>
+      <c r="A3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>216</v>
+      <c r="A4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>129</v>
+        <v>144</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="18" t="s">
-        <v>314</v>
+      <c r="A7" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://app.pluralsight.com/library/courses/docker-containers-big-picture"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://app.pluralsight.com/library/courses/integrating-docker-with-devops-automated-workflows"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://app.pluralsight.com/library/courses/docker-deep-dive"/>
-    <hyperlink ref="A8" r:id="rId6" tooltip="Docker for Web Developers" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://app.pluralsight.com/library/courses/docker-containers-big-picture"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://app.pluralsight.com/library/courses/integrating-docker-with-devops-automated-workflows"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://app.pluralsight.com/library/courses/docker-deep-dive"/>
+    <hyperlink ref="A7" r:id="rId6" tooltip="Docker for Web Developers" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
+    <hyperlink ref="A1:B1" location="Topics!A14" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -2437,7 +2467,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="22" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>11</v>
@@ -2448,7 +2478,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -2456,7 +2486,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
@@ -2464,7 +2494,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2479,35 +2509,35 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="89.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="98.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="45" customFormat="1">
-      <c r="A1" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1" s="63"/>
+      <c r="A1" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="60"/>
+      <c r="A2" s="66" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:2" s="48" customFormat="1">
       <c r="A3" s="22" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>11</v>
@@ -2515,7 +2545,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="22" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>11</v>
@@ -2523,7 +2553,7 @@
     </row>
     <row r="5" spans="1:2" s="48" customFormat="1">
       <c r="A5" s="18" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>11</v>
@@ -2531,7 +2561,7 @@
     </row>
     <row r="6" spans="1:2" s="48" customFormat="1">
       <c r="A6" s="18" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>11</v>
@@ -2539,7 +2569,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>11</v>
@@ -2547,7 +2577,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>11</v>
@@ -2555,7 +2585,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>11</v>
@@ -2563,7 +2593,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>11</v>
@@ -2571,7 +2601,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>11</v>
@@ -2579,7 +2609,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>11</v>
@@ -2587,7 +2617,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>11</v>
@@ -2595,7 +2625,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B14" s="45" t="s">
         <v>11</v>
@@ -2603,7 +2633,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>11</v>
@@ -2611,7 +2641,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>11</v>
@@ -2627,7 +2657,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="18" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>11</v>
@@ -2635,21 +2665,29 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="18" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="60" t="s">
-        <v>382</v>
-      </c>
-      <c r="B21" s="60"/>
+      <c r="A21" s="66" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" s="66"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B22" s="48" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -2678,9 +2716,10 @@
     <hyperlink ref="A3" r:id="rId16" display="https://app.pluralsight.com/library/courses/angular-big-picture"/>
     <hyperlink ref="A22" r:id="rId17" display="https://app.pluralsight.com/library/courses/angular-2-getting-started-update"/>
     <hyperlink ref="A19" r:id="rId18" tooltip="An AngularJS Playbook" display="https://app.pluralsight.com/library/courses/angularjs-playbook"/>
+    <hyperlink ref="A23" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -2699,7 +2738,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>11</v>
@@ -2739,12 +2778,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2758,10 +2797,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2771,365 +2811,477 @@
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" s="50" customFormat="1">
+      <c r="A1" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="54"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="B15" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
+      <c r="B16" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="6" t="s">
+      <c r="B25" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="6" t="s">
+      <c r="B27" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="8" t="s">
+      <c r="B29" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="6" t="s">
+      <c r="B30" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="8" t="s">
+      <c r="B31" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="8" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="6" t="s">
+      <c r="B32" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="6" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="6" t="s">
+      <c r="B33" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="6" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="6" t="s">
+      <c r="B34" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="6" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="8" t="s">
+      <c r="B35" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="6" t="s">
+      <c r="B43" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="6" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="5" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="3" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="6" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>268</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>11</v>
+      <c r="A60" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>269</v>
-      </c>
-      <c r="B61" t="s">
-        <v>270</v>
+        <v>265</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>266</v>
+      </c>
+      <c r="B62" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>274</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>276</v>
+      <c r="A65" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="18" t="s">
-        <v>280</v>
+      <c r="A68" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>11</v>
@@ -3137,23 +3289,23 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>317</v>
+      <c r="A70" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="18" t="s">
-        <v>331</v>
+      <c r="A71" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>11</v>
@@ -3161,71 +3313,83 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="18" t="s">
-        <v>359</v>
+        <v>328</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="18" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
-    <hyperlink ref="A5" r:id="rId2" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://app.pluralsight.com/library/courses/data-mining-algorithms-ssas-excel-r"/>
-    <hyperlink ref="A7" r:id="rId4" display="https://app.pluralsight.com/library/courses/vagrant-versioning-environments"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://app.pluralsight.com/library/courses/consul-getting-started"/>
-    <hyperlink ref="A11" r:id="rId6" display="https://app.pluralsight.com/library/courses/design-patterns-java-behavioral"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://app.pluralsight.com/library/courses/design-patterns-java-creational"/>
-    <hyperlink ref="A13" r:id="rId8" display="https://app.pluralsight.com/library/courses/design-patterns-java-structural"/>
-    <hyperlink ref="A14" r:id="rId9" display="https://app.pluralsight.com/library/courses/mysql-flyway-continuous-database-delivery"/>
-    <hyperlink ref="A16" r:id="rId10" display="https://app.pluralsight.com/library/courses/xslt-foundations-part1"/>
-    <hyperlink ref="A17" r:id="rId11" display="https://app.pluralsight.com/library/courses/xslt-3-0-whats-new-part1"/>
-    <hyperlink ref="A15" r:id="rId12" display="https://app.pluralsight.com/library/courses/sql-server-flyway-continuous-database-delivery"/>
-    <hyperlink ref="A3" r:id="rId13" display="https://app.pluralsight.com/library/courses/groovy-fundamentals"/>
-    <hyperlink ref="A2" r:id="rId14" display="https://app.pluralsight.com/library/courses/splunk-analyzing-machine-data"/>
-    <hyperlink ref="A4" r:id="rId15" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
-    <hyperlink ref="A9" r:id="rId16" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
-    <hyperlink ref="A10" r:id="rId17" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://app.pluralsight.com/library/courses/python-fundamentals"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://app.pluralsight.com/library/courses/python-beyond-basics"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part1"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part2"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part3"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part4"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://app.pluralsight.com/library/courses/practical-couchdb-developers"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://app.pluralsight.com/library/courses/ads-part1"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://app.pluralsight.com/library/courses/ads2"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://app.pluralsight.com/library/courses/algorithmics-introduction"/>
-    <hyperlink ref="A29" r:id="rId28" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
-    <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="A33" r:id="rId32"/>
-    <hyperlink ref="A34" r:id="rId33"/>
-    <hyperlink ref="A39" r:id="rId34" display="https://app.pluralsight.com/library/courses/xml-fund"/>
-    <hyperlink ref="A40" r:id="rId35" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
-    <hyperlink ref="A41" r:id="rId36" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
-    <hyperlink ref="A42" r:id="rId37" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
-    <hyperlink ref="A45" r:id="rId38" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
-    <hyperlink ref="A43" r:id="rId39"/>
-    <hyperlink ref="A44" r:id="rId40"/>
-    <hyperlink ref="A46" r:id="rId41" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
-    <hyperlink ref="A48" r:id="rId42"/>
-    <hyperlink ref="A49" r:id="rId43"/>
-    <hyperlink ref="A50" r:id="rId44"/>
-    <hyperlink ref="A51" r:id="rId45"/>
-    <hyperlink ref="A53" r:id="rId46"/>
-    <hyperlink ref="A54" r:id="rId47"/>
-    <hyperlink ref="A55" r:id="rId48"/>
-    <hyperlink ref="A56" r:id="rId49"/>
-    <hyperlink ref="A57" r:id="rId50"/>
-    <hyperlink ref="A58" r:id="rId51"/>
-    <hyperlink ref="A59" r:id="rId52"/>
-    <hyperlink ref="A65" r:id="rId53"/>
-    <hyperlink ref="A66" r:id="rId54" display="https://app.pluralsight.com/library/courses/firebase-fundamentals"/>
-    <hyperlink ref="A67" r:id="rId55" display="https://app.pluralsight.com/library/courses/building-apps-angular-firebase-angularfire"/>
-    <hyperlink ref="A68" r:id="rId56" tooltip="Oracle Compute Cloud Service Foundations" display="https://app.pluralsight.com/library/courses/oracle-compute-cloud-service-foundations"/>
-    <hyperlink ref="A69" r:id="rId57" tooltip="Introduction to Google Compute Engine" display="https://app.pluralsight.com/library/courses/google-compute-engine"/>
-    <hyperlink ref="A70" r:id="rId58" display="https://app.pluralsight.com/library/courses/big-data-hadoop-cluster-cloudera-cdh"/>
-    <hyperlink ref="A71" r:id="rId59" tooltip="Big Data: The Big Picture" display="https://app.pluralsight.com/library/courses/bigdata-bigpicture"/>
-    <hyperlink ref="A72" r:id="rId60" tooltip="JavaScript Build Automation With Gulp.js" display="https://app.pluralsight.com/library/courses/javascript-build-automation-gulpjs"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://app.pluralsight.com/library/courses/gradle-fundamentals"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://app.pluralsight.com/library/courses/protocol-buffers-beyond-json-xml"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://app.pluralsight.com/library/courses/data-mining-algorithms-ssas-excel-r"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://app.pluralsight.com/library/courses/vagrant-versioning-environments"/>
+    <hyperlink ref="A9" r:id="rId5" display="https://app.pluralsight.com/library/courses/consul-getting-started"/>
+    <hyperlink ref="A12" r:id="rId6" display="https://app.pluralsight.com/library/courses/design-patterns-java-behavioral"/>
+    <hyperlink ref="A13" r:id="rId7" display="https://app.pluralsight.com/library/courses/design-patterns-java-creational"/>
+    <hyperlink ref="A14" r:id="rId8" display="https://app.pluralsight.com/library/courses/design-patterns-java-structural"/>
+    <hyperlink ref="A15" r:id="rId9" display="https://app.pluralsight.com/library/courses/mysql-flyway-continuous-database-delivery"/>
+    <hyperlink ref="A17" r:id="rId10" display="https://app.pluralsight.com/library/courses/xslt-foundations-part1"/>
+    <hyperlink ref="A18" r:id="rId11" display="https://app.pluralsight.com/library/courses/xslt-3-0-whats-new-part1"/>
+    <hyperlink ref="A16" r:id="rId12" display="https://app.pluralsight.com/library/courses/sql-server-flyway-continuous-database-delivery"/>
+    <hyperlink ref="A4" r:id="rId13" display="https://app.pluralsight.com/library/courses/groovy-fundamentals"/>
+    <hyperlink ref="A3" r:id="rId14" display="https://app.pluralsight.com/library/courses/splunk-analyzing-machine-data"/>
+    <hyperlink ref="A5" r:id="rId15" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
+    <hyperlink ref="A10" r:id="rId16" display="https://app.pluralsight.com/library/courses/jenkins-introduction"/>
+    <hyperlink ref="A11" r:id="rId17" display="https://app.pluralsight.com/library/courses/jenkins-2-getting-started"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://app.pluralsight.com/library/courses/python-fundamentals"/>
+    <hyperlink ref="A21" r:id="rId19" display="https://app.pluralsight.com/library/courses/python-beyond-basics"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part1"/>
+    <hyperlink ref="A23" r:id="rId21" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part2"/>
+    <hyperlink ref="A24" r:id="rId22" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part3"/>
+    <hyperlink ref="A25" r:id="rId23" display="https://app.pluralsight.com/library/courses/learn-perl-by-doing-part4"/>
+    <hyperlink ref="A26" r:id="rId24" display="https://app.pluralsight.com/library/courses/practical-couchdb-developers"/>
+    <hyperlink ref="A27" r:id="rId25" display="https://app.pluralsight.com/library/courses/ads-part1"/>
+    <hyperlink ref="A28" r:id="rId26" display="https://app.pluralsight.com/library/courses/ads2"/>
+    <hyperlink ref="A29" r:id="rId27" display="https://app.pluralsight.com/library/courses/algorithmics-introduction"/>
+    <hyperlink ref="A30" r:id="rId28" tooltip="RESTFul Services in Java using Jersey" display="https://app.pluralsight.com/library/courses/restful-services-java-using-jersey"/>
+    <hyperlink ref="A31" r:id="rId29" display="https://app.pluralsight.com/library/courses/build-asynchronous-restful-services-jersey"/>
+    <hyperlink ref="A32" r:id="rId30" display="https://app.pluralsight.com/library/courses/rest-fundamentals"/>
+    <hyperlink ref="A33" r:id="rId31"/>
+    <hyperlink ref="A34" r:id="rId32"/>
+    <hyperlink ref="A35" r:id="rId33"/>
+    <hyperlink ref="A40" r:id="rId34" display="https://app.pluralsight.com/library/courses/xml-fund"/>
+    <hyperlink ref="A41" r:id="rId35" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
+    <hyperlink ref="A42" r:id="rId36" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
+    <hyperlink ref="A43" r:id="rId37" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
+    <hyperlink ref="A46" r:id="rId38" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
+    <hyperlink ref="A44" r:id="rId39"/>
+    <hyperlink ref="A45" r:id="rId40"/>
+    <hyperlink ref="A47" r:id="rId41" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
+    <hyperlink ref="A49" r:id="rId42"/>
+    <hyperlink ref="A50" r:id="rId43"/>
+    <hyperlink ref="A51" r:id="rId44"/>
+    <hyperlink ref="A52" r:id="rId45"/>
+    <hyperlink ref="A54" r:id="rId46"/>
+    <hyperlink ref="A55" r:id="rId47"/>
+    <hyperlink ref="A56" r:id="rId48"/>
+    <hyperlink ref="A57" r:id="rId49"/>
+    <hyperlink ref="A58" r:id="rId50"/>
+    <hyperlink ref="A59" r:id="rId51"/>
+    <hyperlink ref="A60" r:id="rId52"/>
+    <hyperlink ref="A66" r:id="rId53"/>
+    <hyperlink ref="A67" r:id="rId54" display="https://app.pluralsight.com/library/courses/firebase-fundamentals"/>
+    <hyperlink ref="A68" r:id="rId55" display="https://app.pluralsight.com/library/courses/building-apps-angular-firebase-angularfire"/>
+    <hyperlink ref="A69" r:id="rId56" tooltip="Oracle Compute Cloud Service Foundations" display="https://app.pluralsight.com/library/courses/oracle-compute-cloud-service-foundations"/>
+    <hyperlink ref="A70" r:id="rId57" tooltip="Introduction to Google Compute Engine" display="https://app.pluralsight.com/library/courses/google-compute-engine"/>
+    <hyperlink ref="A71" r:id="rId58" display="https://app.pluralsight.com/library/courses/big-data-hadoop-cluster-cloudera-cdh"/>
+    <hyperlink ref="A72" r:id="rId59" tooltip="Big Data: The Big Picture" display="https://app.pluralsight.com/library/courses/bigdata-bigpicture"/>
+    <hyperlink ref="A73" r:id="rId60" tooltip="JavaScript Build Automation With Gulp.js" display="https://app.pluralsight.com/library/courses/javascript-build-automation-gulpjs"/>
+    <hyperlink ref="A1" location="Topics!A19" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId61"/>
@@ -3250,7 +3414,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3287,12 +3451,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="27" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>11</v>
@@ -3325,18 +3489,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="B2" s="54"/>
+      <c r="A2" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3367,18 +3531,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="B2" s="54"/>
+      <c r="A2" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3410,23 +3574,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="42" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="43" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -3456,37 +3620,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="39" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="39" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3509,7 +3673,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3518,14 +3682,15 @@
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="21" t="s">
-        <v>297</v>
-      </c>
+    <row r="1" spans="1:2">
+      <c r="A1" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>11</v>
@@ -3533,7 +3698,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>11</v>
@@ -3541,7 +3706,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="18" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>11</v>
@@ -3549,7 +3714,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>11</v>
@@ -3557,7 +3722,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>11</v>
@@ -3565,7 +3730,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>11</v>
@@ -3573,7 +3738,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>11</v>
@@ -3581,7 +3746,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B9" s="49" t="s">
         <v>11</v>
@@ -3589,7 +3754,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B10" s="49" t="s">
         <v>11</v>
@@ -3597,7 +3762,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="18" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B11" s="49" t="s">
         <v>11</v>
@@ -3605,7 +3770,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="18" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B12" s="49" t="s">
         <v>11</v>
@@ -3613,7 +3778,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="18" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B13" s="49" t="s">
         <v>11</v>
@@ -3621,7 +3786,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="18" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B14" s="49" t="s">
         <v>11</v>
@@ -3629,7 +3794,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>11</v>
@@ -3637,7 +3802,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="18" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B16" s="49" t="s">
         <v>11</v>
@@ -3645,13 +3810,16 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="18" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B17" s="49" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A28" display="Topics"/>
     <hyperlink ref="A2" r:id="rId1" tooltip="Basics of Programming with JavaScript" display="https://app.pluralsight.com/library/courses/javascript-programming-basics"/>
@@ -3681,7 +3849,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3691,14 +3859,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1" s="62"/>
+      <c r="A1" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>11</v>
@@ -3711,6 +3879,47 @@
   <hyperlinks>
     <hyperlink ref="A1:B1" location="Topics!A29" display="Topics"/>
     <hyperlink ref="A2" r:id="rId1" tooltip="Blockchain Fundamentals" display="https://app.pluralsight.com/library/courses/blockchain-fundamentals"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="93.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="65"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A30" display="Topics"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3799,7 +4008,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="56" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -3807,7 +4016,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="51"/>
+      <c r="A14" s="56"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -3828,7 +4037,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="56" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -3839,13 +4048,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="51"/>
+      <c r="A19" s="56"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="51"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -3854,7 +4063,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="51"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -3863,13 +4072,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="51"/>
+      <c r="A22" s="56"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="56" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -3880,37 +4089,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="51"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="51"/>
+      <c r="A25" s="56"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="51"/>
+      <c r="A26" s="56"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="51"/>
+      <c r="A27" s="56"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="51"/>
+      <c r="A28" s="56"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="51"/>
+      <c r="A29" s="56"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -3921,7 +4130,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="56" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -3932,43 +4141,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="51"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="51"/>
+      <c r="A33" s="56"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="51"/>
+      <c r="A34" s="56"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="51"/>
+      <c r="A35" s="56"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="51"/>
+      <c r="A36" s="56"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="51"/>
+      <c r="A37" s="56"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -3976,19 +4185,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="51"/>
+      <c r="A39" s="56"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="51"/>
+      <c r="A40" s="56"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="56" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -3996,25 +4205,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="51"/>
+      <c r="A42" s="56"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="51"/>
+      <c r="A43" s="56"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="51"/>
+      <c r="A44" s="56"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="56" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -4022,7 +4231,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="51"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -4031,7 +4240,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="51"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -4055,7 +4264,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="56" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -4066,13 +4275,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="51"/>
+      <c r="A52" s="56"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="51"/>
+      <c r="A53" s="56"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -4088,7 +4297,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="56" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -4096,13 +4305,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="51"/>
+      <c r="A57" s="56"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="51" t="s">
+      <c r="A58" s="56" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -4113,7 +4322,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="51"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -4122,7 +4331,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="51"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -4131,7 +4340,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="51" t="s">
+      <c r="A61" s="56" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -4139,31 +4348,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="51"/>
+      <c r="A62" s="56"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="51"/>
+      <c r="A63" s="56"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="51"/>
+      <c r="A64" s="56"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="51"/>
+      <c r="A65" s="56"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="51"/>
+      <c r="A66" s="56"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -4174,7 +4383,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="52" t="s">
+      <c r="A68" s="57" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -4182,55 +4391,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="52"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="52"/>
+      <c r="A70" s="57"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="52"/>
+      <c r="A71" s="57"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="52"/>
+      <c r="A72" s="57"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="52"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="52"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="52"/>
+      <c r="A75" s="57"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="52"/>
+      <c r="A76" s="57"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="52"/>
+      <c r="A77" s="57"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -4259,7 +4468,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="51" t="s">
+      <c r="A82" s="56" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -4267,49 +4476,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="51"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="51"/>
+      <c r="A84" s="56"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="51"/>
+      <c r="A85" s="56"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="51"/>
+      <c r="A86" s="56"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="51"/>
+      <c r="A87" s="56"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="51"/>
+      <c r="A88" s="56"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="51"/>
+      <c r="A89" s="56"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="51"/>
+      <c r="A90" s="56"/>
       <c r="B90" t="s">
         <v>133</v>
       </c>
@@ -4330,7 +4539,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="50" t="s">
+      <c r="A94" s="55" t="s">
         <v>155</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -4338,7 +4547,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="50"/>
+      <c r="A95" s="55"/>
       <c r="B95" t="s">
         <v>157</v>
       </c>
@@ -4368,7 +4577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4379,49 +4590,58 @@
   <sheetData>
     <row r="1" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="B4" s="54"/>
+      <c r="A4" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
     </row>
     <row r="5" spans="1:6" s="36" customFormat="1">
       <c r="A5" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>348</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="37"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>177</v>
       </c>
@@ -4429,35 +4649,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A8" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="34" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="34" customFormat="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="34" customFormat="1" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
@@ -4475,20 +4695,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="55" t="s">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A15" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
@@ -4498,24 +4718,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A18" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>11</v>
@@ -4531,7 +4751,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1">
@@ -4539,14 +4759,18 @@
       <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>11</v>
@@ -4554,10 +4778,14 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="54"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -4590,20 +4818,24 @@
     </row>
     <row r="31" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="B32" s="54"/>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="A32" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="24" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:6">
       <c r="A34" s="24" t="s">
         <v>134</v>
       </c>
@@ -4611,7 +4843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:6">
       <c r="A35" s="22" t="s">
         <v>134</v>
       </c>
@@ -4619,74 +4851,78 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
       <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A37" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="B37" s="54"/>
-    </row>
-    <row r="38" spans="1:2">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A37" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="60"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30">
+    <row r="39" spans="1:6" ht="30">
       <c r="A39" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A37:F37"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -4712,11 +4948,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4728,7 +4964,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="C1" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4736,178 +4972,212 @@
         <v>222</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>235</v>
+      <c r="A5" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="50" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="50" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
+      <c r="A9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
-        <v>123</v>
+      <c r="A10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
-        <v>136</v>
+      <c r="A11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>191</v>
+      <c r="A14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>192</v>
+        <v>258</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>211</v>
+      <c r="A17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>261</v>
+        <v>192</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>228</v>
+        <v>191</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" s="50" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B23" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="B23" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>308</v>
+        <v>402</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A19" r:id="rId3"/>
-    <hyperlink ref="A9" r:id="rId4" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://app.pluralsight.com/library/courses/understanding-java-vm-memory-management"/>
-    <hyperlink ref="A11" r:id="rId6" display="https://app.pluralsight.com/library/courses/java-patterns-concurrency-multi-threading"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
-    <hyperlink ref="A13" r:id="rId8" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
-    <hyperlink ref="A14" r:id="rId9" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
-    <hyperlink ref="A15" r:id="rId10" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
-    <hyperlink ref="A16" r:id="rId11" display="https://app.pluralsight.com/library/courses/java-fundamentals-multithreading-concurrency"/>
-    <hyperlink ref="A18" r:id="rId12"/>
+    <hyperlink ref="A16" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4" tooltip="Understanding the Java Virtual Machine: Class Loading and Reflection" display="https://app.pluralsight.com/library/courses/understanding-java-vm-class-loading-reflection"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://app.pluralsight.com/library/courses/understanding-java-vm-memory-management"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://app.pluralsight.com/library/courses/java-patterns-concurrency-multi-threading"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://app.pluralsight.com/library/courses/scaling-java-applications-through-concurrency"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://app.pluralsight.com/library/courses/java-fundamentals-multithreading-concurrency"/>
+    <hyperlink ref="A15" r:id="rId12"/>
     <hyperlink ref="C1" location="Topics!A1" display="Topics"/>
-    <hyperlink ref="A23" r:id="rId13" display="https://app.pluralsight.com/library/courses/java-8-whats-new"/>
-    <hyperlink ref="A20" r:id="rId14" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
-    <hyperlink ref="A21" r:id="rId15" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
-    <hyperlink ref="A22" r:id="rId16" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
-    <hyperlink ref="A8" r:id="rId17" display="https://app.pluralsight.com/library/courses/java-generics"/>
-    <hyperlink ref="A24" r:id="rId18" display="https://app.pluralsight.com/library/courses/java-fundamentals-multithreading-concurrency"/>
-    <hyperlink ref="A25" r:id="rId19" display="https://app.pluralsight.com/library/courses/java-fundamentals-collections"/>
+    <hyperlink ref="A20" r:id="rId13" display="https://app.pluralsight.com/library/courses/java-8-whats-new"/>
+    <hyperlink ref="A17" r:id="rId14" display="https://app.pluralsight.com/library/courses/java-8-lambda-expressions-collections-streams"/>
+    <hyperlink ref="A18" r:id="rId15" display="https://app.pluralsight.com/library/courses/java-8-data-processing-streams-collectors-optionals"/>
+    <hyperlink ref="A19" r:id="rId16" display="https://app.pluralsight.com/library/courses/reactive-programming-java-8-rxjava"/>
+    <hyperlink ref="A5" r:id="rId17" display="https://app.pluralsight.com/library/courses/java-generics"/>
+    <hyperlink ref="A21" r:id="rId18" display="https://app.pluralsight.com/library/courses/java-fundamentals-multithreading-concurrency"/>
+    <hyperlink ref="A22" r:id="rId19" display="https://app.pluralsight.com/library/courses/java-fundamentals-collections"/>
+    <hyperlink ref="A23" r:id="rId20" display="https://app.pluralsight.com/library/courses/java-fundamentals-object-oriented-design"/>
+    <hyperlink ref="A24" r:id="rId21" display="https://app.pluralsight.com/library/courses/java-fundamentals-core-platform"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -4928,7 +5198,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>11</v>
@@ -4936,7 +5206,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -4944,7 +5214,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
@@ -4952,7 +5222,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>11</v>
@@ -4960,7 +5230,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>11</v>
@@ -4983,7 +5253,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4994,11 +5264,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -5013,7 +5283,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
@@ -5036,26 +5306,26 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5089,15 +5359,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="A1" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>11</v>
@@ -5106,7 +5376,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>11</v>
@@ -5122,7 +5392,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>11</v>
@@ -5146,7 +5416,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>11</v>
@@ -5154,7 +5424,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -5181,7 +5451,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -5194,7 +5464,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="26" customFormat="1">
       <c r="A1" s="47" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5271,7 +5541,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>11</v>
@@ -5279,7 +5549,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>11</v>
@@ -5287,42 +5557,42 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="105">
       <c r="A17" s="46" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="120">
       <c r="A18" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="120">
       <c r="A19" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="105">
       <c r="A20" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" firstSheet="3" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -23,25 +23,24 @@
     <sheet name="Bitcoin" sheetId="16" r:id="rId14"/>
     <sheet name="Docker" sheetId="17" r:id="rId15"/>
     <sheet name="ML" sheetId="18" r:id="rId16"/>
-    <sheet name="AJ" sheetId="19" r:id="rId17"/>
-    <sheet name="Spark" sheetId="20" r:id="rId18"/>
-    <sheet name="UT" sheetId="21" r:id="rId19"/>
-    <sheet name="BT" sheetId="22" r:id="rId20"/>
-    <sheet name="Camel" sheetId="23" r:id="rId21"/>
-    <sheet name="WS" sheetId="24" r:id="rId22"/>
-    <sheet name="JMS" sheetId="25" r:id="rId23"/>
-    <sheet name="npm" sheetId="26" r:id="rId24"/>
-    <sheet name="git" sheetId="27" r:id="rId25"/>
-    <sheet name="JS" sheetId="28" r:id="rId26"/>
-    <sheet name="BC" sheetId="29" r:id="rId27"/>
-    <sheet name="Redis" sheetId="30" r:id="rId28"/>
+    <sheet name="Spark" sheetId="20" r:id="rId17"/>
+    <sheet name="UT" sheetId="21" r:id="rId18"/>
+    <sheet name="BT" sheetId="22" r:id="rId19"/>
+    <sheet name="Camel" sheetId="23" r:id="rId20"/>
+    <sheet name="WS" sheetId="24" r:id="rId21"/>
+    <sheet name="JMS" sheetId="25" r:id="rId22"/>
+    <sheet name="npm" sheetId="26" r:id="rId23"/>
+    <sheet name="git" sheetId="27" r:id="rId24"/>
+    <sheet name="JS" sheetId="28" r:id="rId25"/>
+    <sheet name="BC" sheetId="29" r:id="rId26"/>
+    <sheet name="Redis" sheetId="30" r:id="rId27"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="383">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -553,9 +552,6 @@
     <t>Getting Started with Apache Kafka [Course]</t>
   </si>
   <si>
-    <t>Introduction to OAuth2, OpenID Connect and JSON Web Tokens (JWT) [Course]</t>
-  </si>
-  <si>
     <t>Getting Started With Jenkins Continuous Integration [Course]</t>
   </si>
   <si>
@@ -580,9 +576,6 @@
     <t>Spring Boot: Efficient Development, Configuration, and Deployment [Course]</t>
   </si>
   <si>
-    <t>AngularJS Security Fundamentals [Course]</t>
-  </si>
-  <si>
     <t>REST Fundamentals [Course]</t>
   </si>
   <si>
@@ -916,9 +909,6 @@
     <t>Cloud Computing (CC)</t>
   </si>
   <si>
-    <t>Angular JS(AJ)</t>
-  </si>
-  <si>
     <t>Spark</t>
   </si>
   <si>
@@ -1129,60 +1119,6 @@
     <t>https://aws.amazon.com/training/intro_series/?sc_channel=em&amp;sc_campaign=global_F90D_DF_training_cert_2017.global_F90D_DF_training_cert_2017&amp;sc_publisher=aws&amp;sc_medium=em_28133&amp;sc_content=f90d_f90d_ot&amp;sc_country=IN&amp;sc_geo=&amp;sc_category=mult&amp;sc_outcome=f90d&amp;trk=em_28133&amp;mkt_tok=eyJpIjoiTldVM1pHTmxZV00yWXpRMyIsInQiOiJ1MFEyWWw4VXhzRURDWUlEeFF4Yk5MZEc5QUU0NDVhQmdScWxIUGJaZys1YlFmQ2t2VVhVQjM2QmFOYjlDRUswZm9MVDI5dGlKMHRkUkpieGU0bFJmSTlJSERVaUpvWWNrK0xrR1wvdE5CdEJuMm9UY09JNUhla0dnS3VuT2tiSk8ifQ%3D%3D</t>
   </si>
   <si>
-    <t>AngularJS: The Big Picture [Course]</t>
-  </si>
-  <si>
-    <t>AngularJS: Get Started [Course]</t>
-  </si>
-  <si>
-    <t>AngularJS Unit Testing in-depth, Using ngMock [Course]</t>
-  </si>
-  <si>
-    <t>AngularJS Services In-depth [Course]</t>
-  </si>
-  <si>
-    <t>AngularJS Routing In-depth [Course]</t>
-  </si>
-  <si>
-    <t>AngularJS Patterns: Clean Code [Course]</t>
-  </si>
-  <si>
-    <t>AngularJS In-Depth [Course]</t>
-  </si>
-  <si>
-    <t>AngularJS Front to Back with Web API [Course]</t>
-  </si>
-  <si>
-    <t>AngularJS Forms Using Bootstrap and MVC 5 [Course]</t>
-  </si>
-  <si>
-    <t>AngularJS Directives Fundamentals [Course]</t>
-  </si>
-  <si>
-    <t>AngularJS Best Practices [Course]</t>
-  </si>
-  <si>
-    <t>AngularJS Application Development [Course]</t>
-  </si>
-  <si>
-    <t>Angular Fundamentals</t>
-  </si>
-  <si>
-    <t>Angular: First Look</t>
-  </si>
-  <si>
-    <t>Building Components with Angular 1.5</t>
-  </si>
-  <si>
-    <t>Angular 1.x</t>
-  </si>
-  <si>
-    <t>Angular 2</t>
-  </si>
-  <si>
-    <t>Angular: Getting Started [Course]</t>
-  </si>
-  <si>
     <t>Basics of Programming with JavaScript</t>
   </si>
   <si>
@@ -1243,19 +1179,10 @@
     <t>Blockchain Fundamentals</t>
   </si>
   <si>
-    <t>An AngularJS Playbook</t>
-  </si>
-  <si>
     <t>Java Fundamentals: Object-oriented Design [Course]</t>
   </si>
   <si>
     <t>Java Fundamentals: The Core Platform [Course]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-zW1zHqsdyc</t>
-  </si>
-  <si>
-    <t>Youtube - Angular 2 in 60 minutes</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=HNDtcXVo5ow&amp;list=PLhW3qG5bs-L8n1fsiT8z_VnDhnUk4vaVq</t>
@@ -1316,7 +1243,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1356,12 +1283,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,7 +1340,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1498,7 +1419,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1506,8 +1426,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1544,9 +1462,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1852,11 +1767,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1867,12 +1782,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1887,7 +1802,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1897,12 +1812,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1912,22 +1827,22 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1937,90 +1852,85 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>317</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>332</v>
+      <c r="A22" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="34" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>337</v>
+      <c r="A24" s="37" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="1" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="38" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="38" t="s">
-        <v>348</v>
+        <v>25</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>357</v>
+      <c r="A28" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2040,18 +1950,17 @@
     <hyperlink ref="A13" location="Bitcoin!A1" display="Bitcoin"/>
     <hyperlink ref="A14" location="Docker!A1" display="Docker"/>
     <hyperlink ref="A15" location="ML!A1" display="Machine Learning (ML)"/>
-    <hyperlink ref="A16" location="AJ!A1" display="Angular JS(AJ)"/>
-    <hyperlink ref="A17" location="Spark!A1" display="Spark"/>
-    <hyperlink ref="A18" location="UT!A1" display="Unit Testing(UT)"/>
-    <hyperlink ref="A19" location="Others!A1" display="Others"/>
-    <hyperlink ref="A20" location="BT!A1" display="Build Tools(BT)"/>
-    <hyperlink ref="A21" location="Camel!A1" display="Apache Camel"/>
-    <hyperlink ref="A22" location="WS!A1" display="Web Services(WS)"/>
-    <hyperlink ref="A26" location="npm!A1" display="npm"/>
-    <hyperlink ref="A27" location="git!A1" display="git"/>
-    <hyperlink ref="A28" location="JS!A1" display="Javascript"/>
-    <hyperlink ref="A29" location="BC!A1" display="Block Chain(BC)"/>
-    <hyperlink ref="A30" location="Redis!A1" display="Redis"/>
+    <hyperlink ref="A16" location="Spark!A1" display="Spark"/>
+    <hyperlink ref="A17" location="UT!A1" display="Unit Testing(UT)"/>
+    <hyperlink ref="A18" location="Others!A1" display="Others"/>
+    <hyperlink ref="A19" location="BT!A1" display="Build Tools(BT)"/>
+    <hyperlink ref="A20" location="Camel!A1" display="Apache Camel"/>
+    <hyperlink ref="A21" location="WS!A1" display="Web Services(WS)"/>
+    <hyperlink ref="A25" location="npm!A1" display="npm"/>
+    <hyperlink ref="A26" location="git!A1" display="git"/>
+    <hyperlink ref="A27" location="JS!A1" display="Javascript"/>
+    <hyperlink ref="A28" location="BC!A1" display="Block Chain(BC)"/>
+    <hyperlink ref="A29" location="Redis!A1" display="Redis"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2075,12 +1984,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2090,7 +1999,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2118,59 +2027,59 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2207,46 +2116,46 @@
   <sheetData>
     <row r="1" spans="1:2" s="35" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B4" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B5" s="50" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B6" s="50" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2282,12 +2191,12 @@
   <sheetData>
     <row r="1" spans="1:2" s="26" customFormat="1">
       <c r="A1" s="27" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -2300,27 +2209,27 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2351,7 +2260,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>11</v>
@@ -2379,24 +2288,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="65"/>
+      <c r="A1" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="62"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2404,7 +2313,7 @@
       <c r="A4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2412,7 +2321,7 @@
       <c r="A5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2420,15 +2329,15 @@
       <c r="A6" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2467,7 +2376,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="22" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>11</v>
@@ -2478,7 +2387,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -2486,7 +2395,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
@@ -2494,7 +2403,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2508,222 +2417,6 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="98.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="45" customFormat="1">
-      <c r="A1" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="54"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="B2" s="66"/>
-    </row>
-    <row r="3" spans="1:2" s="48" customFormat="1">
-      <c r="A3" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="48" customFormat="1">
-      <c r="A5" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="48" customFormat="1">
-      <c r="A6" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="18" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="66" t="s">
-        <v>378</v>
-      </c>
-      <c r="B21" s="66"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>404</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1" display="https://app.pluralsight.com/library/courses/angularjs-security-fundamentals"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://app.pluralsight.com/library/courses/angularjs-get-started"/>
-    <hyperlink ref="A7" r:id="rId3" display="https://app.pluralsight.com/library/courses/angularjs-ngmock-unit-testing"/>
-    <hyperlink ref="A8" r:id="rId4" display="https://app.pluralsight.com/library/courses/angularjs-services-in-depth"/>
-    <hyperlink ref="A9" r:id="rId5" display="https://app.pluralsight.com/library/courses/angular-routing-in-depth"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://app.pluralsight.com/library/courses/angularjs-patterns-clean-code"/>
-    <hyperlink ref="A11" r:id="rId7" display="https://app.pluralsight.com/library/courses/angularjs-in-depth"/>
-    <hyperlink ref="A12" r:id="rId8" display="https://app.pluralsight.com/library/courses/angular-web-api-front-back"/>
-    <hyperlink ref="A13" r:id="rId9" display="https://app.pluralsight.com/library/courses/angularjs-forms-bootstrap-mvc5"/>
-    <hyperlink ref="A14" r:id="rId10" display="https://app.pluralsight.com/library/courses/angularjs-directive-fundamentals"/>
-    <hyperlink ref="A15" r:id="rId11" display="https://app.pluralsight.com/library/courses/angular-best-practices"/>
-    <hyperlink ref="A16" r:id="rId12" display="https://app.pluralsight.com/library/courses/angular-application-development"/>
-    <hyperlink ref="A1" location="Topics!A16" display="Topics"/>
-    <hyperlink ref="A5" r:id="rId13" tooltip="Angular Fundamentals" display="https://app.pluralsight.com/library/courses/angularjs-fundamentals"/>
-    <hyperlink ref="A6" r:id="rId14" tooltip="Angular: First Look" display="https://app.pluralsight.com/library/courses/angular-2-first-look"/>
-    <hyperlink ref="A18" r:id="rId15" tooltip="Building Components with Angular 1.5" display="https://app.pluralsight.com/library/courses/building-components-angular-1-5"/>
-    <hyperlink ref="A3" r:id="rId16" display="https://app.pluralsight.com/library/courses/angular-big-picture"/>
-    <hyperlink ref="A22" r:id="rId17" display="https://app.pluralsight.com/library/courses/angular-2-getting-started-update"/>
-    <hyperlink ref="A19" r:id="rId18" tooltip="An AngularJS Playbook" display="https://app.pluralsight.com/library/courses/angularjs-playbook"/>
-    <hyperlink ref="A23" r:id="rId19"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2738,7 +2431,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>11</v>
@@ -2763,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2778,18 +2471,55 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://app.pluralsight.com/library/courses/java-unit-testing-junit"/>
     <hyperlink ref="A2" r:id="rId2" tooltip="Test-Driven Development Practices in Java" display="https://app.pluralsight.com/library/courses/test-driven-development-java"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="87.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="25" customFormat="1">
+      <c r="A1" s="27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A20" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2800,8 +2530,8 @@
   <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2811,17 +2541,17 @@
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="50" customFormat="1">
-      <c r="A1" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="54"/>
+    <row r="1" spans="1:2" s="48" customFormat="1">
+      <c r="A1" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2829,7 +2559,7 @@
       <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2837,7 +2567,7 @@
       <c r="A4" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2845,7 +2575,7 @@
       <c r="A5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2853,7 +2583,7 @@
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2861,7 +2591,7 @@
       <c r="A7" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2869,7 +2599,7 @@
       <c r="A8" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2877,23 +2607,23 @@
       <c r="A9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2901,7 +2631,7 @@
       <c r="A12" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2909,7 +2639,7 @@
       <c r="A13" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2917,7 +2647,7 @@
       <c r="A14" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2925,7 +2655,7 @@
       <c r="A15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2933,7 +2663,7 @@
       <c r="A16" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2941,7 +2671,7 @@
       <c r="A17" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2949,7 +2679,7 @@
       <c r="A18" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2962,7 +2692,7 @@
       <c r="A20" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2970,7 +2700,7 @@
       <c r="A21" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2978,7 +2708,7 @@
       <c r="A22" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2986,7 +2716,7 @@
       <c r="A23" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2994,7 +2724,7 @@
       <c r="A24" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3002,7 +2732,7 @@
       <c r="A25" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3010,7 +2740,7 @@
       <c r="A26" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3018,7 +2748,7 @@
       <c r="A27" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3026,15 +2756,15 @@
       <c r="A28" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3042,7 +2772,7 @@
       <c r="A30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3050,110 +2780,105 @@
       <c r="A31" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B33" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B34" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B35" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B36" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B40" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3168,76 +2893,76 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>261</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>262</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>11</v>
@@ -3245,10 +2970,10 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B62" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3258,22 +2983,22 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>11</v>
@@ -3281,7 +3006,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>11</v>
@@ -3289,7 +3014,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>11</v>
@@ -3297,7 +3022,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>11</v>
@@ -3305,7 +3030,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>11</v>
@@ -3313,7 +3038,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>11</v>
@@ -3321,7 +3046,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3366,74 +3091,36 @@
     <hyperlink ref="A41" r:id="rId35" display="https://app.pluralsight.com/library/courses/xml-syntax-fundamentals"/>
     <hyperlink ref="A42" r:id="rId36" display="https://app.pluralsight.com/library/courses/regular-expressions-fundamentals"/>
     <hyperlink ref="A43" r:id="rId37" display="https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started"/>
-    <hyperlink ref="A46" r:id="rId38" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
-    <hyperlink ref="A44" r:id="rId39"/>
-    <hyperlink ref="A45" r:id="rId40"/>
-    <hyperlink ref="A47" r:id="rId41" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
-    <hyperlink ref="A49" r:id="rId42"/>
-    <hyperlink ref="A50" r:id="rId43"/>
-    <hyperlink ref="A51" r:id="rId44"/>
-    <hyperlink ref="A52" r:id="rId45"/>
-    <hyperlink ref="A54" r:id="rId46"/>
-    <hyperlink ref="A55" r:id="rId47"/>
-    <hyperlink ref="A56" r:id="rId48"/>
-    <hyperlink ref="A57" r:id="rId49"/>
-    <hyperlink ref="A58" r:id="rId50"/>
-    <hyperlink ref="A59" r:id="rId51"/>
-    <hyperlink ref="A60" r:id="rId52"/>
-    <hyperlink ref="A66" r:id="rId53"/>
-    <hyperlink ref="A67" r:id="rId54" display="https://app.pluralsight.com/library/courses/firebase-fundamentals"/>
-    <hyperlink ref="A68" r:id="rId55" display="https://app.pluralsight.com/library/courses/building-apps-angular-firebase-angularfire"/>
-    <hyperlink ref="A69" r:id="rId56" tooltip="Oracle Compute Cloud Service Foundations" display="https://app.pluralsight.com/library/courses/oracle-compute-cloud-service-foundations"/>
-    <hyperlink ref="A70" r:id="rId57" tooltip="Introduction to Google Compute Engine" display="https://app.pluralsight.com/library/courses/google-compute-engine"/>
-    <hyperlink ref="A71" r:id="rId58" display="https://app.pluralsight.com/library/courses/big-data-hadoop-cluster-cloudera-cdh"/>
-    <hyperlink ref="A72" r:id="rId59" tooltip="Big Data: The Big Picture" display="https://app.pluralsight.com/library/courses/bigdata-bigpicture"/>
-    <hyperlink ref="A73" r:id="rId60" tooltip="JavaScript Build Automation With Gulp.js" display="https://app.pluralsight.com/library/courses/javascript-build-automation-gulpjs"/>
+    <hyperlink ref="A44" r:id="rId38"/>
+    <hyperlink ref="A45" r:id="rId39"/>
+    <hyperlink ref="A47" r:id="rId40" tooltip="Maven Fundamentals" display="https://app.pluralsight.com/library/courses/maven-fundamentals"/>
+    <hyperlink ref="A49" r:id="rId41"/>
+    <hyperlink ref="A50" r:id="rId42"/>
+    <hyperlink ref="A51" r:id="rId43"/>
+    <hyperlink ref="A52" r:id="rId44"/>
+    <hyperlink ref="A54" r:id="rId45"/>
+    <hyperlink ref="A55" r:id="rId46"/>
+    <hyperlink ref="A56" r:id="rId47"/>
+    <hyperlink ref="A57" r:id="rId48"/>
+    <hyperlink ref="A58" r:id="rId49"/>
+    <hyperlink ref="A59" r:id="rId50"/>
+    <hyperlink ref="A60" r:id="rId51"/>
+    <hyperlink ref="A66" r:id="rId52"/>
+    <hyperlink ref="A67" r:id="rId53" display="https://app.pluralsight.com/library/courses/firebase-fundamentals"/>
+    <hyperlink ref="A68" r:id="rId54" display="https://app.pluralsight.com/library/courses/building-apps-angular-firebase-angularfire"/>
+    <hyperlink ref="A69" r:id="rId55" tooltip="Oracle Compute Cloud Service Foundations" display="https://app.pluralsight.com/library/courses/oracle-compute-cloud-service-foundations"/>
+    <hyperlink ref="A70" r:id="rId56" tooltip="Introduction to Google Compute Engine" display="https://app.pluralsight.com/library/courses/google-compute-engine"/>
+    <hyperlink ref="A71" r:id="rId57" display="https://app.pluralsight.com/library/courses/big-data-hadoop-cluster-cloudera-cdh"/>
+    <hyperlink ref="A72" r:id="rId58" tooltip="Big Data: The Big Picture" display="https://app.pluralsight.com/library/courses/bigdata-bigpicture"/>
+    <hyperlink ref="A73" r:id="rId59" tooltip="JavaScript Build Automation With Gulp.js" display="https://app.pluralsight.com/library/courses/javascript-build-automation-gulpjs"/>
     <hyperlink ref="A1" location="Topics!A19" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId61"/>
+  <pageSetup orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="87.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="25" customFormat="1">
-      <c r="A1" s="27" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A20" display="Topics"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -3451,12 +3138,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="27" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>11</v>
@@ -3472,7 +3159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3489,18 +3176,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="B2" s="59"/>
+      <c r="A2" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3515,7 +3202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3531,18 +3218,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="B2" s="59"/>
+      <c r="A2" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3557,7 +3244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3574,23 +3261,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="42" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="43" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -3607,7 +3294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -3620,37 +3307,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +3354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -3683,136 +3370,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="54"/>
+      <c r="A1" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="B2" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="B3" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="B4" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="B5" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="B6" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="B7" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="B8" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="B9" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="B10" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="B11" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="B12" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="B13" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="B14" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="B15" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="B16" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="B17" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3844,7 +3531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -3859,16 +3546,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="65"/>
+      <c r="A1" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="62"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="B2" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3884,7 +3571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -3900,17 +3587,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="65"/>
+      <c r="A1" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="62"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>406</v>
+        <v>381</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3984,7 +3671,7 @@
     </row>
     <row r="8" spans="1:3" s="9" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4008,7 +3695,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="53" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -4016,7 +3703,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -4037,7 +3724,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="53" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -4048,13 +3735,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="56"/>
+      <c r="A19" s="53"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -4063,7 +3750,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="56"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -4072,13 +3759,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="53" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -4089,37 +3776,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="56"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="56"/>
+      <c r="A25" s="53"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="56"/>
+      <c r="A27" s="53"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="56"/>
+      <c r="A29" s="53"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -4130,7 +3817,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="53" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -4141,43 +3828,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="56"/>
+      <c r="A33" s="53"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="56"/>
+      <c r="A34" s="53"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="56"/>
+      <c r="A35" s="53"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="56"/>
+      <c r="A36" s="53"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="56"/>
+      <c r="A37" s="53"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="53" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -4185,19 +3872,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="56"/>
+      <c r="A39" s="53"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="56"/>
+      <c r="A40" s="53"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="53" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -4205,25 +3892,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="56"/>
+      <c r="A42" s="53"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="56"/>
+      <c r="A43" s="53"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="56"/>
+      <c r="A44" s="53"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="53" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -4231,7 +3918,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="56"/>
+      <c r="A46" s="53"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -4240,7 +3927,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="56"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -4264,7 +3951,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="53" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -4275,13 +3962,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="56"/>
+      <c r="A52" s="53"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="56"/>
+      <c r="A53" s="53"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -4297,7 +3984,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="56" t="s">
+      <c r="A56" s="53" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -4305,13 +3992,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="56"/>
+      <c r="A57" s="53"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="53" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -4322,7 +4009,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="56"/>
+      <c r="A59" s="53"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -4331,7 +4018,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="56"/>
+      <c r="A60" s="53"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -4340,7 +4027,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="53" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -4348,31 +4035,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="56"/>
+      <c r="A62" s="53"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="56"/>
+      <c r="A63" s="53"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="56"/>
+      <c r="A64" s="53"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="56"/>
+      <c r="A65" s="53"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="56"/>
+      <c r="A66" s="53"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -4383,7 +4070,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="54" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -4391,55 +4078,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="57"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="57"/>
+      <c r="A70" s="54"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="57"/>
+      <c r="A71" s="54"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="57"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="57"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="57"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="57"/>
+      <c r="A75" s="54"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="57"/>
+      <c r="A76" s="54"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="57"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -4468,7 +4155,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="56" t="s">
+      <c r="A82" s="53" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -4476,49 +4163,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="56"/>
+      <c r="A83" s="53"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="56"/>
+      <c r="A84" s="53"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="56"/>
+      <c r="A85" s="53"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="56"/>
+      <c r="A86" s="53"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="56"/>
+      <c r="A87" s="53"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="56"/>
+      <c r="A88" s="53"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="56"/>
+      <c r="A89" s="53"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="56"/>
+      <c r="A90" s="53"/>
       <c r="B90" t="s">
         <v>133</v>
       </c>
@@ -4539,7 +4226,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="55" t="s">
+      <c r="A94" s="52" t="s">
         <v>155</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -4547,7 +4234,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="55"/>
+      <c r="A95" s="52"/>
       <c r="B95" t="s">
         <v>157</v>
       </c>
@@ -4577,9 +4264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4590,52 +4275,52 @@
   <sheetData>
     <row r="1" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
+      <c r="A4" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" s="36" customFormat="1">
       <c r="A5" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="B5" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="37"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>11</v>
@@ -4643,45 +4328,45 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="34" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="34" customFormat="1" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>11</v>
@@ -4689,7 +4374,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>11</v>
@@ -4697,18 +4382,18 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
@@ -4724,18 +4409,18 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
+      <c r="A18" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>11</v>
@@ -4743,7 +4428,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>11</v>
@@ -4751,7 +4436,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1">
@@ -4759,18 +4444,18 @@
       <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>11</v>
@@ -4778,14 +4463,14 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -4818,18 +4503,18 @@
     </row>
     <row r="31" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="58" t="s">
-        <v>326</v>
-      </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
+      <c r="A32" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="24" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>11</v>
@@ -4857,14 +4542,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A37" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="60"/>
+      <c r="A37" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
@@ -4964,36 +4649,36 @@
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="C1" s="21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>11</v>
@@ -5003,7 +4688,7 @@
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5011,7 +4696,7 @@
       <c r="A7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5019,77 +4704,77 @@
       <c r="A8" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B13" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B15" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>11</v>
@@ -5097,7 +4782,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>11</v>
@@ -5105,7 +4790,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>11</v>
@@ -5113,7 +4798,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>11</v>
@@ -5121,33 +4806,33 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B22" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="B22" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B23" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="B23" s="49" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B24" s="51" t="s">
+        <v>380</v>
+      </c>
+      <c r="B24" s="49" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5198,7 +4883,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>11</v>
@@ -5206,7 +4891,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -5214,7 +4899,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
@@ -5222,7 +4907,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>11</v>
@@ -5230,7 +4915,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>11</v>
@@ -5264,15 +4949,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>11</v>
@@ -5283,7 +4968,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
@@ -5291,7 +4976,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5306,26 +4991,26 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5359,15 +5044,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="A1" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>11</v>
@@ -5376,7 +5061,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>11</v>
@@ -5392,7 +5077,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>11</v>
@@ -5400,7 +5085,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
@@ -5416,7 +5101,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>11</v>
@@ -5424,7 +5109,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="18" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -5463,8 +5148,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="26" customFormat="1">
-      <c r="A1" s="47" t="s">
-        <v>294</v>
+      <c r="A1" s="46" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5477,7 +5162,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>11</v>
@@ -5485,7 +5170,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>11</v>
@@ -5493,7 +5178,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>11</v>
@@ -5501,7 +5186,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
@@ -5509,7 +5194,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>11</v>
@@ -5517,7 +5202,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>11</v>
@@ -5533,7 +5218,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>11</v>
@@ -5541,7 +5226,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>11</v>
@@ -5549,7 +5234,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>11</v>
@@ -5557,42 +5242,42 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="105">
-      <c r="A17" s="46" t="s">
-        <v>358</v>
+      <c r="A17" s="45" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="120">
       <c r="A18" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="120">
       <c r="A19" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="105">
       <c r="A20" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -21,26 +21,25 @@
     <sheet name="Node JS" sheetId="14" r:id="rId12"/>
     <sheet name="MongoDB" sheetId="15" r:id="rId13"/>
     <sheet name="Bitcoin" sheetId="16" r:id="rId14"/>
-    <sheet name="Docker" sheetId="17" r:id="rId15"/>
-    <sheet name="ML" sheetId="18" r:id="rId16"/>
-    <sheet name="Spark" sheetId="20" r:id="rId17"/>
-    <sheet name="UT" sheetId="21" r:id="rId18"/>
-    <sheet name="BT" sheetId="22" r:id="rId19"/>
-    <sheet name="Camel" sheetId="23" r:id="rId20"/>
-    <sheet name="WS" sheetId="24" r:id="rId21"/>
-    <sheet name="JMS" sheetId="25" r:id="rId22"/>
-    <sheet name="npm" sheetId="26" r:id="rId23"/>
-    <sheet name="git" sheetId="27" r:id="rId24"/>
-    <sheet name="JS" sheetId="28" r:id="rId25"/>
-    <sheet name="BC" sheetId="29" r:id="rId26"/>
-    <sheet name="Redis" sheetId="30" r:id="rId27"/>
+    <sheet name="ML" sheetId="18" r:id="rId15"/>
+    <sheet name="Spark" sheetId="20" r:id="rId16"/>
+    <sheet name="UT" sheetId="21" r:id="rId17"/>
+    <sheet name="BT" sheetId="22" r:id="rId18"/>
+    <sheet name="Camel" sheetId="23" r:id="rId19"/>
+    <sheet name="WS" sheetId="24" r:id="rId20"/>
+    <sheet name="JMS" sheetId="25" r:id="rId21"/>
+    <sheet name="npm" sheetId="26" r:id="rId22"/>
+    <sheet name="git" sheetId="27" r:id="rId23"/>
+    <sheet name="JS" sheetId="28" r:id="rId24"/>
+    <sheet name="BC" sheetId="29" r:id="rId25"/>
+    <sheet name="Redis" sheetId="30" r:id="rId26"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="377">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -426,12 +425,6 @@
     <t>Introduction to Versioning Environments With Vagrant [Course]</t>
   </si>
   <si>
-    <t>Getting Started with Docker [Course]</t>
-  </si>
-  <si>
-    <t>Docker for Web Developers [Course]</t>
-  </si>
-  <si>
     <t>Getting Started with Consul [Course]</t>
   </si>
   <si>
@@ -471,12 +464,6 @@
     <t>Using Google's Cloud For Developers - Google BigQuery [Course]</t>
   </si>
   <si>
-    <t>Docker and Containers: The Big Picture [Course]</t>
-  </si>
-  <si>
-    <t>Docker Deep Dive [Course]</t>
-  </si>
-  <si>
     <t>XSLT 2.0 and 1.0 Foundations [Course]</t>
   </si>
   <si>
@@ -684,9 +671,6 @@
     <t>http://www.javavillage.in/maven-setup-for-pmd-cpd.php</t>
   </si>
   <si>
-    <t>Integrating Docker with DevOps Automated Workflows [Course]</t>
-  </si>
-  <si>
     <t>AWS VPC Operations [Course]</t>
   </si>
   <si>
@@ -964,9 +948,6 @@
   </si>
   <si>
     <t>Creating Your First Spring Boot Application [Course]</t>
-  </si>
-  <si>
-    <t>Docker for Web Developers</t>
   </si>
   <si>
     <t>Unit Testing In Java With JUnit [Course]</t>
@@ -1340,7 +1321,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1426,6 +1407,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1770,8 +1752,8 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1782,12 +1764,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="20" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1802,7 +1784,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1812,12 +1794,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1827,52 +1809,50 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A14" s="51"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1882,38 +1862,38 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="34" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="34" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="37" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="38" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1921,12 +1901,12 @@
         <v>25</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1948,7 +1928,6 @@
     <hyperlink ref="A11" location="'Node JS'!A1" display="Node JS"/>
     <hyperlink ref="A12" location="MongoDB!A1" display="Mongo DB"/>
     <hyperlink ref="A13" location="Bitcoin!A1" display="Bitcoin"/>
-    <hyperlink ref="A14" location="Docker!A1" display="Docker"/>
     <hyperlink ref="A15" location="ML!A1" display="Machine Learning (ML)"/>
     <hyperlink ref="A16" location="Spark!A1" display="Spark"/>
     <hyperlink ref="A17" location="UT!A1" display="Unit Testing(UT)"/>
@@ -1984,12 +1963,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1999,7 +1978,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2027,59 +2006,59 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2116,12 +2095,12 @@
   <sheetData>
     <row r="1" spans="1:2" s="35" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>11</v>
@@ -2129,7 +2108,7 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B3" s="48" t="s">
         <v>11</v>
@@ -2137,7 +2116,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>11</v>
@@ -2145,7 +2124,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>11</v>
@@ -2153,7 +2132,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>11</v>
@@ -2191,12 +2170,12 @@
   <sheetData>
     <row r="1" spans="1:2" s="26" customFormat="1">
       <c r="A1" s="27" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -2209,27 +2188,27 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +2239,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>11</v>
@@ -2272,94 +2251,6 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="92.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="62"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://app.pluralsight.com/library/courses/docker-containers-big-picture"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://app.pluralsight.com/library/courses/integrating-docker-with-devops-automated-workflows"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://app.pluralsight.com/library/courses/docker-deep-dive"/>
-    <hyperlink ref="A7" r:id="rId6" tooltip="Docker for Web Developers" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
-    <hyperlink ref="A1:B1" location="Topics!A14" display="Topics"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2376,18 +2267,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="22" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -2395,7 +2286,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
@@ -2403,7 +2294,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +2307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2431,7 +2322,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>11</v>
@@ -2439,12 +2330,12 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2456,7 +2347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2471,12 +2362,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="18" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2488,7 +2379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2506,7 +2397,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2522,6 +2413,45 @@
     <hyperlink ref="A1" location="Topics!A20" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="92.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" tooltip="Introduction to Integration With Apache Camel" display="https://app.pluralsight.com/library/courses/apache-camel-intro-integration"/>
+    <hyperlink ref="A1" location="Topics!A21" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2542,10 +2472,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="48" customFormat="1">
-      <c r="A1" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="51"/>
+      <c r="A1" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
@@ -2557,7 +2487,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B3" s="48" t="s">
         <v>11</v>
@@ -2565,7 +2495,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>11</v>
@@ -2573,7 +2503,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>11</v>
@@ -2605,7 +2535,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>11</v>
@@ -2613,7 +2543,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>11</v>
@@ -2621,7 +2551,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>11</v>
@@ -2629,7 +2559,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>11</v>
@@ -2637,7 +2567,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>11</v>
@@ -2645,7 +2575,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>11</v>
@@ -2653,7 +2583,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>11</v>
@@ -2661,7 +2591,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>11</v>
@@ -2669,7 +2599,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>11</v>
@@ -2677,7 +2607,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>11</v>
@@ -2685,12 +2615,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>11</v>
@@ -2698,7 +2628,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>11</v>
@@ -2706,7 +2636,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B22" s="48" t="s">
         <v>11</v>
@@ -2714,7 +2644,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>11</v>
@@ -2722,7 +2652,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>11</v>
@@ -2730,7 +2660,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>11</v>
@@ -2738,7 +2668,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>11</v>
@@ -2762,7 +2692,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>11</v>
@@ -2778,7 +2708,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>11</v>
@@ -2786,7 +2716,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>11</v>
@@ -2794,7 +2724,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>11</v>
@@ -2802,7 +2732,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>11</v>
@@ -2810,7 +2740,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>11</v>
@@ -2818,7 +2748,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B36" s="48" t="s">
         <v>11</v>
@@ -2826,22 +2756,22 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B40" s="48" t="s">
         <v>11</v>
@@ -2849,7 +2779,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B41" s="48" t="s">
         <v>11</v>
@@ -2857,7 +2787,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B42" s="48" t="s">
         <v>11</v>
@@ -2865,7 +2795,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B43" s="48" t="s">
         <v>11</v>
@@ -2873,12 +2803,12 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2893,76 +2823,76 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>11</v>
@@ -2970,10 +2900,10 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B62" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2983,22 +2913,22 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>11</v>
@@ -3006,7 +2936,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>11</v>
@@ -3014,7 +2944,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>11</v>
@@ -3022,7 +2952,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="18" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>11</v>
@@ -3030,7 +2960,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>11</v>
@@ -3038,7 +2968,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="18" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>11</v>
@@ -3046,7 +2976,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="18" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3122,45 +3052,6 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="92.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="Introduction to Integration With Apache Camel" display="https://app.pluralsight.com/library/courses/apache-camel-intro-integration"/>
-    <hyperlink ref="A1" location="Topics!A21" display="Topics"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3176,18 +3067,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="55" t="s">
-        <v>332</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3202,7 +3093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3218,18 +3109,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="55" t="s">
-        <v>340</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3244,7 +3135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3261,23 +3152,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="42" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="43" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -3294,7 +3185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -3307,37 +3198,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="39" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="39" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3354,7 +3245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -3370,14 +3261,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="51"/>
+      <c r="A1" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>11</v>
@@ -3385,7 +3276,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>11</v>
@@ -3393,7 +3284,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="18" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B4" s="47" t="s">
         <v>11</v>
@@ -3401,7 +3292,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>11</v>
@@ -3409,7 +3300,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>11</v>
@@ -3417,7 +3308,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B7" s="47" t="s">
         <v>11</v>
@@ -3425,7 +3316,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B8" s="47" t="s">
         <v>11</v>
@@ -3433,7 +3324,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>11</v>
@@ -3441,7 +3332,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B10" s="47" t="s">
         <v>11</v>
@@ -3449,7 +3340,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="18" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B11" s="47" t="s">
         <v>11</v>
@@ -3457,7 +3348,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="18" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>11</v>
@@ -3465,7 +3356,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="18" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B13" s="47" t="s">
         <v>11</v>
@@ -3473,7 +3364,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="18" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B14" s="47" t="s">
         <v>11</v>
@@ -3481,7 +3372,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="18" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B15" s="47" t="s">
         <v>11</v>
@@ -3489,7 +3380,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="18" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B16" s="47" t="s">
         <v>11</v>
@@ -3497,7 +3388,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="18" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B17" s="47" t="s">
         <v>11</v>
@@ -3531,7 +3422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -3546,14 +3437,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="62"/>
+      <c r="A1" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="63"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>11</v>
@@ -3571,7 +3462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -3587,17 +3478,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="62"/>
+      <c r="A1" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="63"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3636,7 +3527,7 @@
         <v>116</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3671,7 +3562,7 @@
     </row>
     <row r="8" spans="1:3" s="9" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3695,7 +3586,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="54" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -3703,7 +3594,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="53"/>
+      <c r="A14" s="54"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -3724,89 +3615,89 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="54" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="53"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="53"/>
+      <c r="A22" s="54"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="54" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="53"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="53"/>
+      <c r="A25" s="54"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="53"/>
+      <c r="A26" s="54"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="53"/>
+      <c r="A27" s="54"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="53"/>
+      <c r="A28" s="54"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="53"/>
+      <c r="A29" s="54"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -3817,54 +3708,54 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="54" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="53"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="53"/>
+      <c r="A33" s="54"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="53"/>
+      <c r="A34" s="54"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="53"/>
+      <c r="A35" s="54"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="53"/>
+      <c r="A36" s="54"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="53"/>
+      <c r="A37" s="54"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="54" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -3872,19 +3763,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="53"/>
+      <c r="A39" s="54"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="53"/>
+      <c r="A40" s="54"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="54" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -3892,25 +3783,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="53"/>
+      <c r="A42" s="54"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="53"/>
+      <c r="A43" s="54"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="53"/>
+      <c r="A44" s="54"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="54" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -3918,21 +3809,21 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="53"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="53"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3951,24 +3842,24 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="54" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="53"/>
+      <c r="A52" s="54"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="53"/>
+      <c r="A53" s="54"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -3984,7 +3875,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="54" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -3992,42 +3883,42 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="53"/>
+      <c r="A57" s="54"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="53" t="s">
+      <c r="A58" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>106</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="53"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="53"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="54" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -4035,31 +3926,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="53"/>
+      <c r="A62" s="54"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="53"/>
+      <c r="A63" s="54"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="53"/>
+      <c r="A64" s="54"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="53"/>
+      <c r="A65" s="54"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="53"/>
+      <c r="A66" s="54"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -4070,7 +3961,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="55" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -4078,55 +3969,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="54"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="54"/>
+      <c r="A70" s="55"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="54"/>
+      <c r="A71" s="55"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="54"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="54"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="54"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="54"/>
+      <c r="A75" s="55"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="54"/>
+      <c r="A76" s="55"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="54"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -4155,7 +4046,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="53" t="s">
+      <c r="A82" s="54" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -4163,80 +4054,80 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="53"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="53"/>
+      <c r="A84" s="54"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="53"/>
+      <c r="A85" s="54"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="53"/>
+      <c r="A86" s="54"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="53"/>
+      <c r="A87" s="54"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="53"/>
+      <c r="A88" s="54"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="53"/>
+      <c r="A89" s="54"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="53"/>
+      <c r="A90" s="54"/>
       <c r="B90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="53"/>
+      <c r="B95" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="52"/>
-      <c r="B95" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4275,43 +4166,43 @@
   <sheetData>
     <row r="1" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="55" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
+      <c r="A4" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6" s="36" customFormat="1">
       <c r="A5" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>11</v>
@@ -4320,7 +4211,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="18" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>11</v>
@@ -4328,45 +4219,45 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="34" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="34" customFormat="1" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>11</v>
@@ -4374,7 +4265,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>11</v>
@@ -4382,18 +4273,18 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
@@ -4409,18 +4300,18 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="55" t="s">
-        <v>322</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
+      <c r="A18" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>11</v>
@@ -4428,7 +4319,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>11</v>
@@ -4436,7 +4327,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1">
@@ -4444,18 +4335,18 @@
       <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>11</v>
@@ -4463,14 +4354,14 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -4482,7 +4373,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>11</v>
@@ -4490,7 +4381,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>11</v>
@@ -4498,23 +4389,23 @@
     </row>
     <row r="30" spans="1:6" s="28" customFormat="1">
       <c r="A30" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="55" t="s">
-        <v>323</v>
-      </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
+      <c r="A32" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="24" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>11</v>
@@ -4522,7 +4413,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>11</v>
@@ -4530,7 +4421,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>11</v>
@@ -4542,14 +4433,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A37" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
+      <c r="A37" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
@@ -4649,28 +4540,28 @@
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="C1" s="21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="44" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>11</v>
@@ -4678,7 +4569,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>11</v>
@@ -4702,7 +4593,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>11</v>
@@ -4710,7 +4601,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>11</v>
@@ -4718,7 +4609,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>11</v>
@@ -4726,7 +4617,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>11</v>
@@ -4734,7 +4625,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>11</v>
@@ -4742,7 +4633,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>11</v>
@@ -4750,7 +4641,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>11</v>
@@ -4758,7 +4649,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>11</v>
@@ -4766,7 +4657,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>11</v>
@@ -4774,7 +4665,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>11</v>
@@ -4782,7 +4673,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>11</v>
@@ -4790,7 +4681,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>11</v>
@@ -4798,7 +4689,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>11</v>
@@ -4806,7 +4697,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>11</v>
@@ -4814,7 +4705,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B22" s="48" t="s">
         <v>11</v>
@@ -4822,7 +4713,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B23" s="49" t="s">
         <v>11</v>
@@ -4830,7 +4721,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B24" s="49" t="s">
         <v>11</v>
@@ -4883,7 +4774,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>11</v>
@@ -4891,7 +4782,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -4899,7 +4790,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
@@ -4907,7 +4798,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>11</v>
@@ -4915,7 +4806,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>11</v>
@@ -4949,26 +4840,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
@@ -4976,41 +4867,41 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5044,15 +4935,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="A1" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>11</v>
@@ -5061,7 +4952,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>11</v>
@@ -5069,7 +4960,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>11</v>
@@ -5077,7 +4968,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>11</v>
@@ -5085,7 +4976,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
@@ -5093,7 +4984,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>11</v>
@@ -5101,7 +4992,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>11</v>
@@ -5109,7 +5000,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="18" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +5040,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="26" customFormat="1">
       <c r="A1" s="46" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5162,7 +5053,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>11</v>
@@ -5170,7 +5061,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>11</v>
@@ -5178,7 +5069,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>11</v>
@@ -5186,7 +5077,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
@@ -5194,7 +5085,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>11</v>
@@ -5202,7 +5093,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>11</v>
@@ -5218,7 +5109,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>11</v>
@@ -5226,7 +5117,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>11</v>
@@ -5234,7 +5125,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>11</v>
@@ -5242,42 +5133,42 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="105">
       <c r="A17" s="45" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="120">
       <c r="A18" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="120">
       <c r="A19" s="6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="105">
       <c r="A20" s="6" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="501">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -860,9 +860,6 @@
     <t>Introduction to Google Compute Engine</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
     <t>Spring</t>
   </si>
   <si>
@@ -1170,6 +1167,381 @@
   </si>
   <si>
     <t>Youtube - Redis Beginneer Tutorial</t>
+  </si>
+  <si>
+    <t>Study Topic</t>
+  </si>
+  <si>
+    <t>Revision Topics</t>
+  </si>
+  <si>
+    <t>Study Topics Info</t>
+  </si>
+  <si>
+    <t>Revision Topics Info</t>
+  </si>
+  <si>
+    <t>Definitions Revision</t>
+  </si>
+  <si>
+    <t>Cerebro - String Practice</t>
+  </si>
+  <si>
+    <t>Cerebro - Date Practice</t>
+  </si>
+  <si>
+    <t>Definitions - Multithreading</t>
+  </si>
+  <si>
+    <t>Jenkov - Multithreading - link available in Cerebro</t>
+  </si>
+  <si>
+    <t>Definitions - Collections (List, Set, Map)</t>
+  </si>
+  <si>
+    <t>Cerebro - Collections - List, Set, Map Example</t>
+  </si>
+  <si>
+    <t>Java 8 features</t>
+  </si>
+  <si>
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>Generics</t>
+  </si>
+  <si>
+    <t>Reflection API</t>
+  </si>
+  <si>
+    <t>Dynamic Proxies</t>
+  </si>
+  <si>
+    <t>Enums</t>
+  </si>
+  <si>
+    <t>Core Java - JDK 8 Collection</t>
+  </si>
+  <si>
+    <t>Collection Streams</t>
+  </si>
+  <si>
+    <t>java.util.function.Function</t>
+  </si>
+  <si>
+    <t>java.util.function.ByFunction</t>
+  </si>
+  <si>
+    <t>java.util.function.Predicate</t>
+  </si>
+  <si>
+    <t>Cerebro - Collection stream examples</t>
+  </si>
+  <si>
+    <t>Creational</t>
+  </si>
+  <si>
+    <t>Structural</t>
+  </si>
+  <si>
+    <t>Behavioral</t>
+  </si>
+  <si>
+    <t>Date Time API</t>
+  </si>
+  <si>
+    <t>Core Java - JDK 8</t>
+  </si>
+  <si>
+    <t>Date Time API - LocalDate, LocalTime etc</t>
+  </si>
+  <si>
+    <t>File IO</t>
+  </si>
+  <si>
+    <t>Regular Expression</t>
+  </si>
+  <si>
+    <t>Core Java - Multithreading</t>
+  </si>
+  <si>
+    <t>fork-join</t>
+  </si>
+  <si>
+    <t>java.util.concurrent package</t>
+  </si>
+  <si>
+    <t>Log4J - Core Java</t>
+  </si>
+  <si>
+    <t>SLF4J - Core Java</t>
+  </si>
+  <si>
+    <t>Log4J - Spring REST</t>
+  </si>
+  <si>
+    <t>SLF4J - Spring REST</t>
+  </si>
+  <si>
+    <t>Log4J - Spring Boot</t>
+  </si>
+  <si>
+    <t>SLF4J - Spring Boot</t>
+  </si>
+  <si>
+    <t>Xml</t>
+  </si>
+  <si>
+    <t>JAXP</t>
+  </si>
+  <si>
+    <t>JAXB</t>
+  </si>
+  <si>
+    <t>Version Control tool</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>BitBucket</t>
+  </si>
+  <si>
+    <t>ORM</t>
+  </si>
+  <si>
+    <t>JPA</t>
+  </si>
+  <si>
+    <t>Eclipselink</t>
+  </si>
+  <si>
+    <t>MyBatis</t>
+  </si>
+  <si>
+    <t>Internals of JVM</t>
+  </si>
+  <si>
+    <t>APIGEE</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>HTML 5</t>
+  </si>
+  <si>
+    <t>CSS 3</t>
+  </si>
+  <si>
+    <t>UI - MVC Frameworks</t>
+  </si>
+  <si>
+    <t>Angular 1.x</t>
+  </si>
+  <si>
+    <t>Angular 2.x</t>
+  </si>
+  <si>
+    <t>Angular 4.x</t>
+  </si>
+  <si>
+    <t>Enterprise Integration Patterns</t>
+  </si>
+  <si>
+    <t>SOA</t>
+  </si>
+  <si>
+    <t>ESB</t>
+  </si>
+  <si>
+    <t>Websphere</t>
+  </si>
+  <si>
+    <t>Sonarlint</t>
+  </si>
+  <si>
+    <t>Sonarqube</t>
+  </si>
+  <si>
+    <t>Jacoco</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>NodeJS</t>
+  </si>
+  <si>
+    <t>Npm</t>
+  </si>
+  <si>
+    <t>gulp</t>
+  </si>
+  <si>
+    <t>bower</t>
+  </si>
+  <si>
+    <t>Apache server</t>
+  </si>
+  <si>
+    <t>Nginx</t>
+  </si>
+  <si>
+    <t>Jersey Implementation</t>
+  </si>
+  <si>
+    <t>Spring REST</t>
+  </si>
+  <si>
+    <t>Swagger with Jersey REST</t>
+  </si>
+  <si>
+    <t>Swagger with Spring REST</t>
+  </si>
+  <si>
+    <t>Apiary with Jersey REST</t>
+  </si>
+  <si>
+    <t>Apiary with Spring REST</t>
+  </si>
+  <si>
+    <t>Log4J - Jersey REST</t>
+  </si>
+  <si>
+    <t>SLF4J - Jersey REST</t>
+  </si>
+  <si>
+    <t>Spring JDBC</t>
+  </si>
+  <si>
+    <t>Spring MVC + Spring Data JPA</t>
+  </si>
+  <si>
+    <t>Spring MVC + Spring Data Mongo</t>
+  </si>
+  <si>
+    <t>Spring MVC + Logging using Log4J</t>
+  </si>
+  <si>
+    <t>Spring MVC + Logging using SLF4J</t>
+  </si>
+  <si>
+    <t>Spring Boot + Spring Data JPA</t>
+  </si>
+  <si>
+    <t>Spring Boot + Spring Data Mongo</t>
+  </si>
+  <si>
+    <t>Spring Boot + Hibernate</t>
+  </si>
+  <si>
+    <t>Spring Boot + JPA</t>
+  </si>
+  <si>
+    <t>Spring Boot + Mybatis</t>
+  </si>
+  <si>
+    <t>Data bases</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Google Fire base</t>
+  </si>
+  <si>
+    <t>Amazon Web Services</t>
+  </si>
+  <si>
+    <t>API Gateway</t>
+  </si>
+  <si>
+    <t>Authentication and Authorization</t>
+  </si>
+  <si>
+    <t>Authentication basic</t>
+  </si>
+  <si>
+    <t>Authorization basic</t>
+  </si>
+  <si>
+    <t>Jersey REST + Oauth</t>
+  </si>
+  <si>
+    <t>Spring REST + Oauth</t>
+  </si>
+  <si>
+    <t>Jersey REST + JWT</t>
+  </si>
+  <si>
+    <t>Spring REST + JWT</t>
+  </si>
+  <si>
+    <t>JWT</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Easy Mock</t>
+  </si>
+  <si>
+    <t>Power Mock</t>
+  </si>
+  <si>
+    <t>JMock</t>
+  </si>
+  <si>
+    <t>DBUnit</t>
+  </si>
+  <si>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>Groovy Revision</t>
+  </si>
+  <si>
+    <t>Spock Revision</t>
+  </si>
+  <si>
+    <t>Scala Revision</t>
+  </si>
+  <si>
+    <t>Cloud Computing</t>
+  </si>
+  <si>
+    <t>Revision Status</t>
+  </si>
+  <si>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <t>Hadoop</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>CI Tools</t>
+  </si>
+  <si>
+    <t>Circle CI</t>
+  </si>
+  <si>
+    <t>CoreJavaPractice repository</t>
+  </si>
+  <si>
+    <t>All examples</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1313,6 +1685,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1321,7 +1711,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1390,7 +1780,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1412,6 +1801,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1749,172 +2163,1059 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="31" style="56" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="C2" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="C3" s="61"/>
+      <c r="D3" s="51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="C4" s="61"/>
+      <c r="D4" s="51" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>274</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="51" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="C6" s="61"/>
+      <c r="D6" s="51" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>282</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>275</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="51" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="C9" s="61"/>
+      <c r="D9" s="51" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="51" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="C11" s="61"/>
+      <c r="D11" s="51" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="51" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="51" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="50"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="51" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="51"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="C15" s="61" t="s">
+        <v>393</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="51" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="51" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="C18" s="61"/>
+      <c r="D18" s="51" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="61"/>
+      <c r="D19" s="51" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="34" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="34" t="s">
+      <c r="B22" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="51" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="37" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>332</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>335</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="38" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>338</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="40" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="B27" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="51" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C29" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" s="62"/>
+      <c r="D30" s="51" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="60" customFormat="1">
+      <c r="B31" s="54"/>
+      <c r="C31" s="59" t="s">
+        <v>499</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="C33" s="62"/>
+      <c r="D33" s="51" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="C34" s="62"/>
+      <c r="D34" s="51" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="C35" s="62"/>
+      <c r="D35" s="51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="C36" s="62"/>
+      <c r="D36" s="51" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" s="51" customFormat="1">
+      <c r="B37" s="54"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="51" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" s="51" customFormat="1">
+      <c r="B38" s="54"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" s="51" customFormat="1">
+      <c r="B39" s="54"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="C40" s="62"/>
+      <c r="D40" s="51" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="C41" s="62"/>
+      <c r="D41" s="51" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="C42" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="C43" s="61"/>
+      <c r="D43" s="51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" s="51" customFormat="1">
+      <c r="B44" s="54"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="51" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" s="51" customFormat="1">
+      <c r="B45" s="54"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="51" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" s="51" customFormat="1">
+      <c r="B46" s="54"/>
+      <c r="C46" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" s="51" customFormat="1">
+      <c r="B47" s="54"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="51" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" s="51" customFormat="1">
+      <c r="B48" s="54"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" s="51" customFormat="1">
+      <c r="B49" s="54"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" s="51" customFormat="1">
+      <c r="B50" s="54"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" s="51" customFormat="1">
+      <c r="B51" s="54"/>
+      <c r="C51" s="61" t="s">
+        <v>470</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" s="51" customFormat="1">
+      <c r="B52" s="54"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" s="51" customFormat="1">
+      <c r="B53" s="54"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" s="51" customFormat="1">
+      <c r="B54" s="54"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" s="51" customFormat="1">
+      <c r="B55" s="54"/>
+      <c r="C55" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55" s="51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="C56" s="61"/>
+      <c r="D56" s="51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="C57" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="51" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="C58" s="61"/>
+      <c r="D58" s="51" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="C59" s="61"/>
+      <c r="D59" s="51" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="C60" s="61"/>
+      <c r="D60" s="51" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="C61" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" s="51" customFormat="1">
+      <c r="B62" s="54"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="51" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" s="51" customFormat="1">
+      <c r="B63" s="54"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="51" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" s="51" customFormat="1">
+      <c r="B64" s="54"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="51" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" s="51" customFormat="1">
+      <c r="B65" s="54"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="51" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" s="51" customFormat="1">
+      <c r="B66" s="54"/>
+      <c r="C66" s="61" t="s">
+        <v>423</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="C67" s="61"/>
+      <c r="D67" s="51" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" s="51" customFormat="1">
+      <c r="B68" s="54"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" s="51" customFormat="1">
+      <c r="B69" s="54"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="51" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" s="51" customFormat="1">
+      <c r="B70" s="54"/>
+      <c r="C70" s="61" t="s">
+        <v>483</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" s="51" customFormat="1">
+      <c r="B71" s="54"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" s="51" customFormat="1">
+      <c r="B72" s="54"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" s="51" customFormat="1">
+      <c r="B73" s="54"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" s="51" customFormat="1">
+      <c r="B74" s="54"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" s="51" customFormat="1">
+      <c r="B75" s="54"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" s="52" customFormat="1">
+      <c r="B76" s="54"/>
+      <c r="C76" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" s="52" customFormat="1">
+      <c r="B77" s="54"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" s="52" customFormat="1">
+      <c r="B78" s="54"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" s="51" customFormat="1">
+      <c r="B79" s="54"/>
+      <c r="C79" s="57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" s="51" customFormat="1">
+      <c r="B80" s="54"/>
+      <c r="C80" s="57" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="C81" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="D81" s="51" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="C82" s="63"/>
+      <c r="D82" s="51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="C83" s="61" t="s">
+        <v>419</v>
+      </c>
+      <c r="D83" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="C84" s="61"/>
+      <c r="D84" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="C85" s="61"/>
+      <c r="D85" s="51" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="C86" s="61" t="s">
+        <v>475</v>
+      </c>
+      <c r="D86" s="51" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="C87" s="61"/>
+      <c r="D87" s="51" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="C88" s="61"/>
+      <c r="D88" s="51" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="C89" s="61"/>
+      <c r="D89" s="51" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" s="51" customFormat="1">
+      <c r="B90" s="54"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="51" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" s="51" customFormat="1">
+      <c r="B91" s="54"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="51" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" s="51" customFormat="1">
+      <c r="B92" s="54"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="51" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="C93" s="56" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="C94" s="56" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="C95" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="D95" s="51" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="C96" s="61"/>
+      <c r="D96" s="51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="C97" s="61"/>
+      <c r="D97" s="51" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="C98" s="61"/>
+      <c r="D98" s="51" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" s="51" customFormat="1">
+      <c r="B99" s="54"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="51" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="C100" s="61" t="s">
+        <v>434</v>
+      </c>
+      <c r="D100" s="51" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="C101" s="61"/>
+      <c r="D101" s="51" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="C102" s="61"/>
+      <c r="D102" s="51" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="C103" s="61" t="s">
+        <v>438</v>
+      </c>
+      <c r="D103" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="C104" s="61"/>
+      <c r="D104" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="C105" s="56" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="C106" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="51" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="C107" s="61"/>
+      <c r="D107" s="51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="C108" s="61"/>
+      <c r="D108" s="51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="C109" s="61"/>
+      <c r="D109" s="51" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="C110" s="61"/>
+      <c r="D110" s="51" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="C111" s="61"/>
+      <c r="D111" s="51" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" s="51" customFormat="1">
+      <c r="B112" s="54"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" s="56" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="C114" s="56" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="C115" s="56" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4">
+      <c r="C116" s="56" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4">
+      <c r="C117" s="56" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4">
+      <c r="C118" s="56" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4">
+      <c r="C119" s="61" t="s">
+        <v>488</v>
+      </c>
+      <c r="D119" s="51" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4">
+      <c r="C120" s="61"/>
+      <c r="D120" s="51" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4">
+      <c r="C121" s="61"/>
+      <c r="D121" s="51" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4">
+      <c r="C122" s="61"/>
+      <c r="D122" s="51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4">
+      <c r="C123" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D123" s="51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4">
+      <c r="C124" s="61"/>
+      <c r="D124" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4">
+      <c r="C125" s="61"/>
+      <c r="D125" s="51" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4">
+      <c r="C126" s="62" t="s">
+        <v>492</v>
+      </c>
+      <c r="D126" s="51" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4">
+      <c r="C127" s="62"/>
+      <c r="D127" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4">
+      <c r="C128" s="62"/>
+      <c r="D128" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4">
+      <c r="C129" s="56" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4">
+      <c r="C130" s="56" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4">
+      <c r="C131" s="56" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4">
+      <c r="C132" s="61" t="s">
+        <v>496</v>
+      </c>
+      <c r="D132" s="51" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4">
+      <c r="C133" s="61"/>
+      <c r="D133" s="51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4">
+      <c r="C134" s="61"/>
+      <c r="D134" s="51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4">
+      <c r="C135" s="61" t="s">
+        <v>497</v>
+      </c>
+      <c r="D135" s="58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4">
+      <c r="C136" s="61"/>
+      <c r="D136" s="58" t="s">
+        <v>498</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C2:C14"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C95:C99"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C106:C112"/>
+    <mergeCell ref="C132:C134"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="Spring!A1" display="Spring"/>
     <hyperlink ref="A3" location="'Core Java'!A1" display="Core Java"/>
@@ -2095,46 +3396,46 @@
   <sheetData>
     <row r="1" spans="1:2" s="35" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B5" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B6" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2170,7 +3471,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="26" customFormat="1">
       <c r="A1" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2203,12 +3504,12 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2267,7 +3568,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>11</v>
@@ -2294,7 +3595,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2362,12 +3663,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +3698,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2434,12 +3735,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>11</v>
@@ -2471,17 +3772,17 @@
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="48" customFormat="1">
-      <c r="A1" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="52"/>
+    <row r="1" spans="1:2" s="47" customFormat="1">
+      <c r="A1" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="64"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2489,7 +3790,7 @@
       <c r="A3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2497,7 +3798,7 @@
       <c r="A4" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2505,7 +3806,7 @@
       <c r="A5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2513,7 +3814,7 @@
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2521,7 +3822,7 @@
       <c r="A7" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2529,7 +3830,7 @@
       <c r="A8" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2537,7 +3838,7 @@
       <c r="A9" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2545,7 +3846,7 @@
       <c r="A10" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2553,7 +3854,7 @@
       <c r="A11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2561,7 +3862,7 @@
       <c r="A12" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2569,7 +3870,7 @@
       <c r="A13" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2577,7 +3878,7 @@
       <c r="A14" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2585,7 +3886,7 @@
       <c r="A15" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2593,7 +3894,7 @@
       <c r="A16" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2601,7 +3902,7 @@
       <c r="A17" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2609,7 +3910,7 @@
       <c r="A18" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2622,7 +3923,7 @@
       <c r="A20" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2630,7 +3931,7 @@
       <c r="A21" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2638,7 +3939,7 @@
       <c r="A22" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2646,7 +3947,7 @@
       <c r="A23" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2654,7 +3955,7 @@
       <c r="A24" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2662,7 +3963,7 @@
       <c r="A25" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2670,7 +3971,7 @@
       <c r="A26" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2678,7 +3979,7 @@
       <c r="A27" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2686,7 +3987,7 @@
       <c r="A28" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2694,7 +3995,7 @@
       <c r="A29" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2702,7 +4003,7 @@
       <c r="A30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2710,7 +4011,7 @@
       <c r="A31" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2718,7 +4019,7 @@
       <c r="A32" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2726,7 +4027,7 @@
       <c r="A33" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2734,7 +4035,7 @@
       <c r="A34" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2742,7 +4043,7 @@
       <c r="A35" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2750,7 +4051,7 @@
       <c r="A36" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2773,7 +4074,7 @@
       <c r="A40" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2781,7 +4082,7 @@
       <c r="A41" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2789,7 +4090,7 @@
       <c r="A42" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2797,7 +4098,7 @@
       <c r="A43" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2960,7 +4261,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>11</v>
@@ -2968,7 +4269,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>11</v>
@@ -2976,7 +4277,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3067,18 +4368,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="B2" s="57"/>
+      <c r="A2" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3109,18 +4410,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="57"/>
+      <c r="A2" s="68" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3151,24 +4452,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="42" t="s">
-        <v>286</v>
+      <c r="A1" s="41" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="43" t="s">
-        <v>337</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -3198,37 +4499,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3261,136 +4562,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="52"/>
+      <c r="A1" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="64"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="B2" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="B3" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="B5" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="B6" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="B7" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="B8" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="B9" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="B10" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="B11" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="B12" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="B13" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="B14" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="B15" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="B16" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="B17" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="46" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3437,16 +4738,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="62" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="63"/>
+      <c r="A1" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="B2" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3478,17 +4779,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="62" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="63"/>
+      <c r="A1" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>375</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3586,7 +4887,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="66" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -3594,7 +4895,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="54"/>
+      <c r="A14" s="66"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -3615,7 +4916,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="66" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -3626,13 +4927,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="54"/>
+      <c r="A19" s="66"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="54"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -3641,7 +4942,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="54"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -3650,13 +4951,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="54"/>
+      <c r="A22" s="66"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="66" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -3667,37 +4968,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="54"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="54"/>
+      <c r="A25" s="66"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="54"/>
+      <c r="A26" s="66"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="66"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="54"/>
+      <c r="A28" s="66"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="54"/>
+      <c r="A29" s="66"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -3708,7 +5009,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="66" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -3719,43 +5020,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="54"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="54"/>
+      <c r="A33" s="66"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="54"/>
+      <c r="A34" s="66"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="54"/>
+      <c r="A35" s="66"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="54"/>
+      <c r="A36" s="66"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="54"/>
+      <c r="A37" s="66"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="66" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -3763,19 +5064,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="54"/>
+      <c r="A39" s="66"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="54"/>
+      <c r="A40" s="66"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="66" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -3783,25 +5084,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="54"/>
+      <c r="A42" s="66"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="54"/>
+      <c r="A43" s="66"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="54"/>
+      <c r="A44" s="66"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="66" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -3809,7 +5110,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="54"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -3818,7 +5119,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="54"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -3842,7 +5143,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="66" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -3853,13 +5154,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="54"/>
+      <c r="A52" s="66"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="54"/>
+      <c r="A53" s="66"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -3875,7 +5176,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="66" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -3883,13 +5184,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="54"/>
+      <c r="A57" s="66"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="66" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -3900,7 +5201,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="54"/>
+      <c r="A59" s="66"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -3909,7 +5210,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="54"/>
+      <c r="A60" s="66"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -3918,7 +5219,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="66" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -3926,31 +5227,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="54"/>
+      <c r="A62" s="66"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="54"/>
+      <c r="A63" s="66"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="54"/>
+      <c r="A64" s="66"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="54"/>
+      <c r="A65" s="66"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="54"/>
+      <c r="A66" s="66"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -3961,7 +5262,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="67" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -3969,55 +5270,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="55"/>
+      <c r="A69" s="67"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="55"/>
+      <c r="A70" s="67"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="55"/>
+      <c r="A71" s="67"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="55"/>
+      <c r="A72" s="67"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="55"/>
+      <c r="A73" s="67"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="55"/>
+      <c r="A74" s="67"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="55"/>
+      <c r="A75" s="67"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="55"/>
+      <c r="A76" s="67"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="55"/>
+      <c r="A77" s="67"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -4046,7 +5347,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="54" t="s">
+      <c r="A82" s="66" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -4054,49 +5355,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="54"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="54"/>
+      <c r="A84" s="66"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="54"/>
+      <c r="A85" s="66"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="54"/>
+      <c r="A86" s="66"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="54"/>
+      <c r="A87" s="66"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="54"/>
+      <c r="A88" s="66"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="54"/>
+      <c r="A89" s="66"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="54"/>
+      <c r="A90" s="66"/>
       <c r="B90" t="s">
         <v>131</v>
       </c>
@@ -4117,7 +5418,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="65" t="s">
         <v>151</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -4125,7 +5426,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="53"/>
+      <c r="A95" s="65"/>
       <c r="B95" t="s">
         <v>153</v>
       </c>
@@ -4166,21 +5467,21 @@
   <sheetData>
     <row r="1" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -4191,27 +5492,27 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58"/>
+      <c r="A4" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="1:6" s="36" customFormat="1">
       <c r="A5" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="B5" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="37"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>11</v>
@@ -4226,18 +5527,18 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="34" customFormat="1" ht="15.75" thickBot="1">
@@ -4246,14 +5547,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
@@ -4277,14 +5578,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
@@ -4300,18 +5601,18 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
+      <c r="A18" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>11</v>
@@ -4335,18 +5636,18 @@
       <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>11</v>
@@ -4354,14 +5655,14 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -4394,18 +5695,18 @@
     </row>
     <row r="31" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
+      <c r="A32" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>11</v>
@@ -4433,14 +5734,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A37" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58"/>
+      <c r="A37" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="70"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
@@ -4540,7 +5841,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="C1" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4560,16 +5861,16 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>11</v>
@@ -4579,7 +5880,7 @@
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4587,7 +5888,7 @@
       <c r="A7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4595,7 +5896,7 @@
       <c r="A8" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4603,7 +5904,7 @@
       <c r="A9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4611,7 +5912,7 @@
       <c r="A10" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4619,7 +5920,7 @@
       <c r="A11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4627,7 +5928,7 @@
       <c r="A12" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4635,7 +5936,7 @@
       <c r="A13" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4643,7 +5944,7 @@
       <c r="A14" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4651,7 +5952,7 @@
       <c r="A15" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4659,7 +5960,7 @@
       <c r="A16" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4689,7 +5990,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>11</v>
@@ -4699,31 +6000,31 @@
       <c r="A21" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B22" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B23" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B24" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4774,7 +6075,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>11</v>
@@ -4782,7 +6083,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -4790,7 +6091,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
@@ -4798,7 +6099,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>11</v>
@@ -4806,7 +6107,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>11</v>
@@ -4840,11 +6141,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -4935,11 +6236,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="A1" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
@@ -4952,7 +6253,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>11</v>
@@ -4968,7 +6269,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>11</v>
@@ -4992,7 +6293,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>11</v>
@@ -5000,7 +6301,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -5039,8 +6340,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="26" customFormat="1">
-      <c r="A1" s="46" t="s">
-        <v>286</v>
+      <c r="A1" s="45" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5133,42 +6434,42 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="105">
-      <c r="A17" s="45" t="s">
-        <v>349</v>
+      <c r="A17" s="44" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="120">
       <c r="A18" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="120">
       <c r="A19" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="105">
       <c r="A20" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="504">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -1542,6 +1542,15 @@
   </si>
   <si>
     <t>All examples</t>
+  </si>
+  <si>
+    <t>Core Java (2-Definitions.xlsx)</t>
+  </si>
+  <si>
+    <t>Weak Refernce, Soft Refernce, Strong Reference and Phantom reference</t>
+  </si>
+  <si>
+    <t>Java 8 Features - refer images/1_core_java/y_Java-8-Features.pdf</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1720,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1812,6 +1821,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2163,11 +2176,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32:C41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2200,10 +2213,10 @@
       <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="17" t="s">
         <v>380</v>
       </c>
     </row>
@@ -2211,8 +2224,8 @@
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="33" t="s">
         <v>381</v>
       </c>
     </row>
@@ -2220,7 +2233,7 @@
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="51" t="s">
         <v>382</v>
       </c>
@@ -2229,7 +2242,7 @@
       <c r="A5" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="51" t="s">
         <v>385</v>
       </c>
@@ -2238,7 +2251,7 @@
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="51" t="s">
         <v>383</v>
       </c>
@@ -2247,7 +2260,7 @@
       <c r="A7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="51" t="s">
         <v>384</v>
       </c>
@@ -2256,7 +2269,7 @@
       <c r="A8" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="51" t="s">
         <v>386</v>
       </c>
@@ -2265,7 +2278,7 @@
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="51" t="s">
         <v>387</v>
       </c>
@@ -2274,7 +2287,7 @@
       <c r="A10" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="51" t="s">
         <v>388</v>
       </c>
@@ -2283,7 +2296,7 @@
       <c r="A11" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="51" t="s">
         <v>389</v>
       </c>
@@ -2292,7 +2305,7 @@
       <c r="A12" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="51" t="s">
         <v>390</v>
       </c>
@@ -2301,14 +2314,14 @@
       <c r="A13" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="51" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="50"/>
-      <c r="C14" s="61"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="51" t="s">
         <v>392</v>
       </c>
@@ -2317,7 +2330,7 @@
       <c r="A15" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="63" t="s">
         <v>393</v>
       </c>
       <c r="D15" s="51" t="s">
@@ -2328,7 +2341,7 @@
       <c r="A16" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="51" t="s">
         <v>395</v>
       </c>
@@ -2337,7 +2350,7 @@
       <c r="A17" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="51" t="s">
         <v>396</v>
       </c>
@@ -2346,7 +2359,7 @@
       <c r="A18" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="51" t="s">
         <v>397</v>
       </c>
@@ -2355,7 +2368,7 @@
       <c r="A19" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C19" s="61"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="51" t="s">
         <v>398</v>
       </c>
@@ -2364,7 +2377,7 @@
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="63" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="51" t="s">
@@ -2375,7 +2388,7 @@
       <c r="A21" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="61"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="51" t="s">
         <v>400</v>
       </c>
@@ -2387,7 +2400,7 @@
       <c r="B22" s="54" t="s">
         <v>327</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="51" t="s">
         <v>401</v>
       </c>
@@ -2446,7 +2459,7 @@
       <c r="B27" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="63" t="s">
         <v>407</v>
       </c>
       <c r="D27" s="51" t="s">
@@ -2457,7 +2470,7 @@
       <c r="A28" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="51" t="s">
         <v>409</v>
       </c>
@@ -2466,7 +2479,7 @@
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="64" t="s">
         <v>107</v>
       </c>
       <c r="D29" s="51" t="s">
@@ -2474,747 +2487,765 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="C30" s="62"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="51" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="60" customFormat="1">
+    <row r="31" spans="1:4" s="62" customFormat="1">
       <c r="B31" s="54"/>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="61" t="s">
+        <v>501</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="62" customFormat="1">
+      <c r="B32" s="54"/>
+      <c r="C32" s="61" t="s">
+        <v>501</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" s="60" customFormat="1">
+      <c r="B33" s="54"/>
+      <c r="C33" s="59" t="s">
         <v>499</v>
       </c>
-      <c r="D31" s="60" t="s">
+      <c r="D33" s="60" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="C32" s="62" t="s">
+    <row r="34" spans="2:4">
+      <c r="C34" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D34" s="51" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="C33" s="62"/>
-      <c r="D33" s="51" t="s">
+    <row r="35" spans="2:4">
+      <c r="C35" s="64"/>
+      <c r="D35" s="51" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="C34" s="62"/>
-      <c r="D34" s="51" t="s">
+    <row r="36" spans="2:4">
+      <c r="C36" s="64"/>
+      <c r="D36" s="51" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="C35" s="62"/>
-      <c r="D35" s="51" t="s">
+    <row r="37" spans="2:4">
+      <c r="C37" s="64"/>
+      <c r="D37" s="51" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="C36" s="62"/>
-      <c r="D36" s="51" t="s">
+    <row r="38" spans="2:4">
+      <c r="C38" s="64"/>
+      <c r="D38" s="51" t="s">
         <v>456</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" s="51" customFormat="1">
-      <c r="B37" s="54"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="51" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" s="51" customFormat="1">
-      <c r="B38" s="54"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="51" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="51" customFormat="1">
       <c r="B39" s="54"/>
-      <c r="C39" s="62"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="51" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="51" customFormat="1">
+      <c r="B40" s="54"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" s="51" customFormat="1">
+      <c r="B41" s="54"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="51" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
-      <c r="C40" s="62"/>
-      <c r="D40" s="51" t="s">
+    <row r="42" spans="2:4">
+      <c r="C42" s="64"/>
+      <c r="D42" s="51" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
-      <c r="C41" s="62"/>
-      <c r="D41" s="51" t="s">
+    <row r="43" spans="2:4">
+      <c r="C43" s="64"/>
+      <c r="D43" s="51" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
-      <c r="C42" s="61" t="s">
+    <row r="44" spans="2:4">
+      <c r="C44" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D44" s="51" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
-      <c r="C43" s="61"/>
-      <c r="D43" s="51" t="s">
+    <row r="45" spans="2:4">
+      <c r="C45" s="63"/>
+      <c r="D45" s="51" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" s="51" customFormat="1">
-      <c r="B44" s="54"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="51" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" s="51" customFormat="1">
-      <c r="B45" s="54"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="51" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="51" customFormat="1">
       <c r="B46" s="54"/>
-      <c r="C46" s="61" t="s">
-        <v>273</v>
-      </c>
+      <c r="C46" s="63"/>
       <c r="D46" s="51" t="s">
-        <v>58</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="51" customFormat="1">
       <c r="B47" s="54"/>
-      <c r="C47" s="61"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="51" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="51" customFormat="1">
       <c r="B48" s="54"/>
-      <c r="C48" s="61"/>
+      <c r="C48" s="63" t="s">
+        <v>273</v>
+      </c>
       <c r="D48" s="51" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="51" customFormat="1">
       <c r="B49" s="54"/>
-      <c r="C49" s="61"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="51" t="s">
-        <v>63</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="2:4" s="51" customFormat="1">
       <c r="B50" s="54"/>
-      <c r="C50" s="61"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="51" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="51" customFormat="1">
       <c r="B51" s="54"/>
-      <c r="C51" s="61" t="s">
-        <v>470</v>
-      </c>
+      <c r="C51" s="63"/>
       <c r="D51" s="51" t="s">
-        <v>471</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="51" customFormat="1">
       <c r="B52" s="54"/>
-      <c r="C52" s="61"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="51" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="2:4" s="51" customFormat="1">
       <c r="B53" s="54"/>
-      <c r="C53" s="61"/>
+      <c r="C53" s="63" t="s">
+        <v>470</v>
+      </c>
       <c r="D53" s="51" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" spans="2:4" s="51" customFormat="1">
       <c r="B54" s="54"/>
-      <c r="C54" s="61"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="51" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="2:4" s="51" customFormat="1">
       <c r="B55" s="54"/>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="63"/>
+      <c r="D55" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" s="51" customFormat="1">
+      <c r="B56" s="54"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" s="51" customFormat="1">
+      <c r="B57" s="54"/>
+      <c r="C57" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="D55" s="51" t="s">
+      <c r="D57" s="51" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
-      <c r="C56" s="61"/>
-      <c r="D56" s="51" t="s">
+    <row r="58" spans="2:4">
+      <c r="C58" s="63"/>
+      <c r="D58" s="51" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
-      <c r="C57" s="61" t="s">
+    <row r="59" spans="2:4">
+      <c r="C59" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D59" s="51" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
-      <c r="C58" s="61"/>
-      <c r="D58" s="51" t="s">
+    <row r="60" spans="2:4">
+      <c r="C60" s="63"/>
+      <c r="D60" s="51" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
-      <c r="C59" s="61"/>
-      <c r="D59" s="51" t="s">
+    <row r="61" spans="2:4">
+      <c r="C61" s="63"/>
+      <c r="D61" s="51" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
-      <c r="C60" s="61"/>
-      <c r="D60" s="51" t="s">
+    <row r="62" spans="2:4">
+      <c r="C62" s="63"/>
+      <c r="D62" s="51" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
-      <c r="C61" s="61" t="s">
+    <row r="63" spans="2:4">
+      <c r="C63" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D63" s="51" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" s="51" customFormat="1">
-      <c r="B62" s="54"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="51" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" s="51" customFormat="1">
-      <c r="B63" s="54"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="51" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="64" spans="2:4" s="51" customFormat="1">
       <c r="B64" s="54"/>
-      <c r="C64" s="61"/>
+      <c r="C64" s="63"/>
       <c r="D64" s="51" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="2:4" s="51" customFormat="1">
       <c r="B65" s="54"/>
-      <c r="C65" s="61"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="51" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="2:4" s="51" customFormat="1">
       <c r="B66" s="54"/>
-      <c r="C66" s="61" t="s">
-        <v>423</v>
-      </c>
+      <c r="C66" s="63"/>
       <c r="D66" s="51" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="C67" s="61"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" s="51" customFormat="1">
+      <c r="B67" s="54"/>
+      <c r="C67" s="63"/>
       <c r="D67" s="51" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="2:4" s="51" customFormat="1">
       <c r="B68" s="54"/>
-      <c r="C68" s="61"/>
+      <c r="C68" s="63" t="s">
+        <v>423</v>
+      </c>
       <c r="D68" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" s="51" customFormat="1">
-      <c r="B69" s="54"/>
-      <c r="C69" s="61"/>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="C69" s="63"/>
       <c r="D69" s="51" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="2:4" s="51" customFormat="1">
       <c r="B70" s="54"/>
-      <c r="C70" s="61" t="s">
-        <v>483</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>36</v>
+      <c r="C70" s="63"/>
+      <c r="D70" s="51" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="2:4" s="51" customFormat="1">
       <c r="B71" s="54"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="3" t="s">
-        <v>38</v>
+      <c r="C71" s="63"/>
+      <c r="D71" s="51" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="2:4" s="51" customFormat="1">
       <c r="B72" s="54"/>
-      <c r="C72" s="61"/>
+      <c r="C72" s="63" t="s">
+        <v>483</v>
+      </c>
       <c r="D72" s="3" t="s">
-        <v>484</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="2:4" s="51" customFormat="1">
       <c r="B73" s="54"/>
-      <c r="C73" s="61"/>
+      <c r="C73" s="63"/>
       <c r="D73" s="3" t="s">
-        <v>485</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="2:4" s="51" customFormat="1">
       <c r="B74" s="54"/>
-      <c r="C74" s="61"/>
+      <c r="C74" s="63"/>
       <c r="D74" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="2:4" s="51" customFormat="1">
       <c r="B75" s="54"/>
-      <c r="C75" s="61"/>
+      <c r="C75" s="63"/>
       <c r="D75" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" s="51" customFormat="1">
+      <c r="B76" s="54"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" s="51" customFormat="1">
+      <c r="B77" s="54"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="3" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" s="52" customFormat="1">
-      <c r="B76" s="54"/>
-      <c r="C76" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" s="52" customFormat="1">
-      <c r="B77" s="54"/>
-      <c r="C77" s="61"/>
-      <c r="D77" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="78" spans="2:4" s="52" customFormat="1">
       <c r="B78" s="54"/>
-      <c r="C78" s="61"/>
+      <c r="C78" s="63" t="s">
+        <v>91</v>
+      </c>
       <c r="D78" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" s="52" customFormat="1">
+      <c r="B79" s="54"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" s="52" customFormat="1">
+      <c r="B80" s="54"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="2:4" s="51" customFormat="1">
-      <c r="B79" s="54"/>
-      <c r="C79" s="57" t="s">
+    <row r="81" spans="2:4" s="51" customFormat="1">
+      <c r="B81" s="54"/>
+      <c r="C81" s="57" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="80" spans="2:4" s="51" customFormat="1">
-      <c r="B80" s="54"/>
-      <c r="C80" s="57" t="s">
+    <row r="82" spans="2:4" s="51" customFormat="1">
+      <c r="B82" s="54"/>
+      <c r="C82" s="57" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="81" spans="2:4">
-      <c r="C81" s="63" t="s">
+    <row r="83" spans="2:4">
+      <c r="C83" s="65" t="s">
         <v>416</v>
       </c>
-      <c r="D81" s="51" t="s">
+      <c r="D83" s="51" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
-      <c r="C82" s="63"/>
-      <c r="D82" s="51" t="s">
+    <row r="84" spans="2:4">
+      <c r="C84" s="65"/>
+      <c r="D84" s="51" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="83" spans="2:4">
-      <c r="C83" s="61" t="s">
+    <row r="85" spans="2:4">
+      <c r="C85" s="63" t="s">
         <v>419</v>
       </c>
-      <c r="D83" s="51" t="s">
+      <c r="D85" s="51" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
-      <c r="C84" s="61"/>
-      <c r="D84" s="51" t="s">
+    <row r="86" spans="2:4">
+      <c r="C86" s="63"/>
+      <c r="D86" s="51" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
-      <c r="C85" s="61"/>
-      <c r="D85" s="51" t="s">
+    <row r="87" spans="2:4">
+      <c r="C87" s="63"/>
+      <c r="D87" s="51" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
-      <c r="C86" s="61" t="s">
+    <row r="88" spans="2:4">
+      <c r="C88" s="63" t="s">
         <v>475</v>
       </c>
-      <c r="D86" s="51" t="s">
+      <c r="D88" s="51" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
-      <c r="C87" s="61"/>
-      <c r="D87" s="51" t="s">
+    <row r="89" spans="2:4">
+      <c r="C89" s="63"/>
+      <c r="D89" s="51" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
-      <c r="C88" s="61"/>
-      <c r="D88" s="51" t="s">
+    <row r="90" spans="2:4">
+      <c r="C90" s="63"/>
+      <c r="D90" s="51" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
-      <c r="C89" s="61"/>
-      <c r="D89" s="51" t="s">
+    <row r="91" spans="2:4">
+      <c r="C91" s="63"/>
+      <c r="D91" s="51" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" s="51" customFormat="1">
-      <c r="B90" s="54"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="51" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" s="51" customFormat="1">
-      <c r="B91" s="54"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="51" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="92" spans="2:4" s="51" customFormat="1">
       <c r="B92" s="54"/>
-      <c r="C92" s="61"/>
+      <c r="C92" s="63"/>
       <c r="D92" s="51" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" s="51" customFormat="1">
+      <c r="B93" s="54"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="51" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" s="51" customFormat="1">
+      <c r="B94" s="54"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="51" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="93" spans="2:4">
-      <c r="C93" s="56" t="s">
+    <row r="95" spans="2:4">
+      <c r="C95" s="56" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="94" spans="2:4">
-      <c r="C94" s="56" t="s">
+    <row r="96" spans="2:4">
+      <c r="C96" s="56" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="95" spans="2:4">
-      <c r="C95" s="61" t="s">
+    <row r="97" spans="2:4">
+      <c r="C97" s="63" t="s">
         <v>429</v>
       </c>
-      <c r="D95" s="51" t="s">
+      <c r="D97" s="51" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="96" spans="2:4">
-      <c r="C96" s="61"/>
-      <c r="D96" s="51" t="s">
+    <row r="98" spans="2:4">
+      <c r="C98" s="63"/>
+      <c r="D98" s="51" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
-      <c r="C97" s="61"/>
-      <c r="D97" s="51" t="s">
+    <row r="99" spans="2:4">
+      <c r="C99" s="63"/>
+      <c r="D99" s="51" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
-      <c r="C98" s="61"/>
-      <c r="D98" s="51" t="s">
+    <row r="100" spans="2:4">
+      <c r="C100" s="63"/>
+      <c r="D100" s="51" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="99" spans="2:4" s="51" customFormat="1">
-      <c r="B99" s="54"/>
-      <c r="C99" s="61"/>
-      <c r="D99" s="51" t="s">
+    <row r="101" spans="2:4" s="51" customFormat="1">
+      <c r="B101" s="54"/>
+      <c r="C101" s="63"/>
+      <c r="D101" s="51" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
-      <c r="C100" s="61" t="s">
+    <row r="102" spans="2:4">
+      <c r="C102" s="63" t="s">
         <v>434</v>
       </c>
-      <c r="D100" s="51" t="s">
+      <c r="D102" s="51" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="101" spans="2:4">
-      <c r="C101" s="61"/>
-      <c r="D101" s="51" t="s">
+    <row r="103" spans="2:4">
+      <c r="C103" s="63"/>
+      <c r="D103" s="51" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
-      <c r="C102" s="61"/>
-      <c r="D102" s="51" t="s">
+    <row r="104" spans="2:4">
+      <c r="C104" s="63"/>
+      <c r="D104" s="51" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
-      <c r="C103" s="61" t="s">
+    <row r="105" spans="2:4">
+      <c r="C105" s="63" t="s">
         <v>438</v>
       </c>
-      <c r="D103" s="51" t="s">
+      <c r="D105" s="51" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="2:4">
-      <c r="C104" s="61"/>
-      <c r="D104" s="51" t="s">
+    <row r="106" spans="2:4">
+      <c r="C106" s="63"/>
+      <c r="D106" s="51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
-      <c r="C105" s="56" t="s">
+    <row r="107" spans="2:4">
+      <c r="C107" s="56" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="106" spans="2:4">
-      <c r="C106" s="61" t="s">
+    <row r="108" spans="2:4">
+      <c r="C108" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="D106" s="51" t="s">
+      <c r="D108" s="51" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
-      <c r="C107" s="61"/>
-      <c r="D107" s="51" t="s">
+    <row r="109" spans="2:4">
+      <c r="C109" s="63"/>
+      <c r="D109" s="51" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="2:4">
-      <c r="C108" s="61"/>
-      <c r="D108" s="51" t="s">
+    <row r="110" spans="2:4">
+      <c r="C110" s="63"/>
+      <c r="D110" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="2:4">
-      <c r="C109" s="61"/>
-      <c r="D109" s="51" t="s">
+    <row r="111" spans="2:4">
+      <c r="C111" s="63"/>
+      <c r="D111" s="51" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="110" spans="2:4">
-      <c r="C110" s="61"/>
-      <c r="D110" s="51" t="s">
+    <row r="112" spans="2:4">
+      <c r="C112" s="63"/>
+      <c r="D112" s="51" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="111" spans="2:4">
-      <c r="C111" s="61"/>
-      <c r="D111" s="51" t="s">
+    <row r="113" spans="2:4">
+      <c r="C113" s="63"/>
+      <c r="D113" s="51" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="112" spans="2:4" s="51" customFormat="1">
-      <c r="B112" s="54"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="51" t="s">
+    <row r="114" spans="2:4" s="51" customFormat="1">
+      <c r="B114" s="54"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="3:4">
-      <c r="C113" s="56" t="s">
+    <row r="115" spans="2:4">
+      <c r="C115" s="56" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="114" spans="3:4">
-      <c r="C114" s="56" t="s">
+    <row r="116" spans="2:4">
+      <c r="C116" s="56" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="115" spans="3:4">
-      <c r="C115" s="56" t="s">
+    <row r="117" spans="2:4">
+      <c r="C117" s="56" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="116" spans="3:4">
-      <c r="C116" s="56" t="s">
+    <row r="118" spans="2:4">
+      <c r="C118" s="56" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="117" spans="3:4">
-      <c r="C117" s="56" t="s">
+    <row r="119" spans="2:4">
+      <c r="C119" s="56" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="118" spans="3:4">
-      <c r="C118" s="56" t="s">
+    <row r="120" spans="2:4">
+      <c r="C120" s="56" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="119" spans="3:4">
-      <c r="C119" s="61" t="s">
+    <row r="121" spans="2:4">
+      <c r="C121" s="63" t="s">
         <v>488</v>
       </c>
-      <c r="D119" s="51" t="s">
+      <c r="D121" s="51" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="120" spans="3:4">
-      <c r="C120" s="61"/>
-      <c r="D120" s="51" t="s">
+    <row r="122" spans="2:4">
+      <c r="C122" s="63"/>
+      <c r="D122" s="51" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="121" spans="3:4">
-      <c r="C121" s="61"/>
-      <c r="D121" s="51" t="s">
+    <row r="123" spans="2:4">
+      <c r="C123" s="63"/>
+      <c r="D123" s="51" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="122" spans="3:4">
-      <c r="C122" s="61"/>
-      <c r="D122" s="51" t="s">
+    <row r="124" spans="2:4">
+      <c r="C124" s="63"/>
+      <c r="D124" s="51" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="123" spans="3:4">
-      <c r="C123" s="61" t="s">
+    <row r="125" spans="2:4">
+      <c r="C125" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D123" s="51" t="s">
+      <c r="D125" s="51" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="3:4">
-      <c r="C124" s="61"/>
-      <c r="D124" s="51" t="s">
+    <row r="126" spans="2:4">
+      <c r="C126" s="63"/>
+      <c r="D126" s="51" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="125" spans="3:4">
-      <c r="C125" s="61"/>
-      <c r="D125" s="51" t="s">
+    <row r="127" spans="2:4">
+      <c r="C127" s="63"/>
+      <c r="D127" s="51" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="126" spans="3:4">
-      <c r="C126" s="62" t="s">
+    <row r="128" spans="2:4">
+      <c r="C128" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="D126" s="51" t="s">
+      <c r="D128" s="51" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="127" spans="3:4">
-      <c r="C127" s="62"/>
-      <c r="D127" s="51" t="s">
+    <row r="129" spans="3:4">
+      <c r="C129" s="64"/>
+      <c r="D129" s="51" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="128" spans="3:4">
-      <c r="C128" s="62"/>
-      <c r="D128" s="51" t="s">
+    <row r="130" spans="3:4">
+      <c r="C130" s="64"/>
+      <c r="D130" s="51" t="s">
         <v>472</v>
-      </c>
-    </row>
-    <row r="129" spans="3:4">
-      <c r="C129" s="56" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="130" spans="3:4">
-      <c r="C130" s="56" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="131" spans="3:4">
       <c r="C131" s="56" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4">
+      <c r="C132" s="56" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4">
+      <c r="C133" s="56" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="132" spans="3:4">
-      <c r="C132" s="61" t="s">
+    <row r="134" spans="3:4">
+      <c r="C134" s="63" t="s">
         <v>496</v>
       </c>
-      <c r="D132" s="51" t="s">
+      <c r="D134" s="51" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="133" spans="3:4">
-      <c r="C133" s="61"/>
-      <c r="D133" s="51" t="s">
+    <row r="135" spans="3:4">
+      <c r="C135" s="63"/>
+      <c r="D135" s="51" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="3:4">
-      <c r="C134" s="61"/>
-      <c r="D134" s="51" t="s">
+    <row r="136" spans="3:4">
+      <c r="C136" s="63"/>
+      <c r="D136" s="51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="3:4">
-      <c r="C135" s="61" t="s">
+    <row r="137" spans="3:4">
+      <c r="C137" s="63" t="s">
         <v>497</v>
       </c>
-      <c r="D135" s="58" t="s">
+      <c r="D137" s="58" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="3:4">
-      <c r="C136" s="61"/>
-      <c r="D136" s="58" t="s">
+    <row r="138" spans="3:4">
+      <c r="C138" s="63"/>
+      <c r="D138" s="58" t="s">
         <v>498</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C108:C114"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C88:C94"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C87"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C2:C14"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C68:C71"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C95:C99"/>
-    <mergeCell ref="C86:C92"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C106:C112"/>
-    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C34:C43"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C57:C58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="Spring!A1" display="Spring"/>
@@ -3773,10 +3804,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="47" customFormat="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
@@ -4372,10 +4403,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="70" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="71"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -4414,10 +4445,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="71"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
@@ -4562,10 +4593,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
@@ -4738,10 +4769,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
@@ -4779,10 +4810,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
@@ -4887,7 +4918,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="68" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -4895,7 +4926,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="66"/>
+      <c r="A14" s="68"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -4916,7 +4947,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="68" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -4927,13 +4958,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="66"/>
+      <c r="A19" s="68"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="66"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -4942,7 +4973,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="66"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -4951,13 +4982,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="66"/>
+      <c r="A22" s="68"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="68" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -4968,37 +4999,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="66"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="66"/>
+      <c r="A25" s="68"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="66"/>
+      <c r="A26" s="68"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="66"/>
+      <c r="A27" s="68"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="66"/>
+      <c r="A28" s="68"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="66"/>
+      <c r="A29" s="68"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -5009,7 +5040,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="68" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -5020,43 +5051,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="66"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="66"/>
+      <c r="A33" s="68"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="66"/>
+      <c r="A34" s="68"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="66"/>
+      <c r="A35" s="68"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="66"/>
+      <c r="A36" s="68"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="66"/>
+      <c r="A37" s="68"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="68" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -5064,19 +5095,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="66"/>
+      <c r="A39" s="68"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="66"/>
+      <c r="A40" s="68"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="68" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -5084,25 +5115,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="66"/>
+      <c r="A42" s="68"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="66"/>
+      <c r="A43" s="68"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="66"/>
+      <c r="A44" s="68"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="68" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -5110,7 +5141,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="66"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -5119,7 +5150,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="66"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -5143,7 +5174,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="68" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -5154,13 +5185,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="66"/>
+      <c r="A52" s="68"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="66"/>
+      <c r="A53" s="68"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -5176,7 +5207,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="66" t="s">
+      <c r="A56" s="68" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -5184,13 +5215,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="66"/>
+      <c r="A57" s="68"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="66" t="s">
+      <c r="A58" s="68" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -5201,7 +5232,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="66"/>
+      <c r="A59" s="68"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -5210,7 +5241,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="66"/>
+      <c r="A60" s="68"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -5219,7 +5250,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="66" t="s">
+      <c r="A61" s="68" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -5227,31 +5258,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="66"/>
+      <c r="A62" s="68"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="66"/>
+      <c r="A63" s="68"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="66"/>
+      <c r="A64" s="68"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="66"/>
+      <c r="A65" s="68"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="66"/>
+      <c r="A66" s="68"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -5262,7 +5293,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="67" t="s">
+      <c r="A68" s="69" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -5270,55 +5301,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="67"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="67"/>
+      <c r="A70" s="69"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="67"/>
+      <c r="A71" s="69"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="67"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="67"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="67"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="67"/>
+      <c r="A75" s="69"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="67"/>
+      <c r="A76" s="69"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="67"/>
+      <c r="A77" s="69"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -5347,7 +5378,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="66" t="s">
+      <c r="A82" s="68" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -5355,49 +5386,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="66"/>
+      <c r="A83" s="68"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="66"/>
+      <c r="A84" s="68"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="66"/>
+      <c r="A85" s="68"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="66"/>
+      <c r="A86" s="68"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="66"/>
+      <c r="A87" s="68"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="66"/>
+      <c r="A88" s="68"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="66"/>
+      <c r="A89" s="68"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="66"/>
+      <c r="A90" s="68"/>
       <c r="B90" t="s">
         <v>131</v>
       </c>
@@ -5418,7 +5449,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="65" t="s">
+      <c r="A94" s="67" t="s">
         <v>151</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -5426,7 +5457,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="65"/>
+      <c r="A95" s="67"/>
       <c r="B95" t="s">
         <v>153</v>
       </c>
@@ -5474,14 +5505,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -5492,14 +5523,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>317</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72"/>
     </row>
     <row r="5" spans="1:6" s="36" customFormat="1">
       <c r="A5" s="18" t="s">
@@ -5527,14 +5558,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="72"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="34" t="s">
@@ -5547,14 +5578,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
@@ -5578,14 +5609,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
@@ -5601,14 +5632,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="70" t="s">
         <v>315</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22" t="s">
@@ -5636,14 +5667,14 @@
       <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
@@ -5655,14 +5686,14 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -5695,14 +5726,14 @@
     </row>
     <row r="31" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="24" t="s">
@@ -5734,14 +5765,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="70" t="s">
         <v>284</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="70"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="72"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
@@ -6141,11 +6172,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -6236,11 +6267,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -2180,7 +2180,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2225,7 +2225,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="63"/>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="17" t="s">
         <v>381</v>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="63"/>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="33" t="s">
         <v>382</v>
       </c>
     </row>
@@ -3219,19 +3219,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C108:C114"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C88:C94"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C87"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C2:C14"/>
     <mergeCell ref="C20:C22"/>
@@ -3246,6 +3233,19 @@
     <mergeCell ref="C34:C43"/>
     <mergeCell ref="C48:C52"/>
     <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C88:C94"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C108:C114"/>
+    <mergeCell ref="C134:C136"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="Spring!A1" display="Spring"/>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="506">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -1551,6 +1551,12 @@
   </si>
   <si>
     <t>Java 8 Features - refer images/1_core_java/y_Java-8-Features.pdf</t>
+  </si>
+  <si>
+    <t>AspectJ</t>
+  </si>
+  <si>
+    <t>Spring Integration</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1726,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1811,7 +1817,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1828,6 +1833,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2176,18 +2188,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="31" style="56" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="31" style="55" customWidth="1"/>
     <col min="4" max="4" width="50.5703125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
@@ -2196,10 +2208,10 @@
       <c r="A1" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>378</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>377</v>
       </c>
       <c r="D1" s="20" t="s">
@@ -2213,7 +2225,7 @@
       <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="65" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -2224,7 +2236,7 @@
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="17" t="s">
         <v>381</v>
       </c>
@@ -2233,8 +2245,8 @@
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="17" t="s">
         <v>382</v>
       </c>
     </row>
@@ -2242,8 +2254,8 @@
       <c r="A5" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="17" t="s">
         <v>385</v>
       </c>
     </row>
@@ -2251,8 +2263,8 @@
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="51" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="50" t="s">
         <v>383</v>
       </c>
     </row>
@@ -2260,8 +2272,8 @@
       <c r="A7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="51" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="50" t="s">
         <v>384</v>
       </c>
     </row>
@@ -2269,8 +2281,8 @@
       <c r="A8" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="51" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="50" t="s">
         <v>386</v>
       </c>
     </row>
@@ -2278,8 +2290,8 @@
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="50" t="s">
         <v>387</v>
       </c>
     </row>
@@ -2287,8 +2299,8 @@
       <c r="A10" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="51" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="50" t="s">
         <v>388</v>
       </c>
     </row>
@@ -2296,8 +2308,8 @@
       <c r="A11" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="51" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="50" t="s">
         <v>389</v>
       </c>
     </row>
@@ -2305,8 +2317,8 @@
       <c r="A12" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="51" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="50" t="s">
         <v>390</v>
       </c>
     </row>
@@ -2314,15 +2326,17 @@
       <c r="A13" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="51" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="50" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="50"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="51" t="s">
+      <c r="A14" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="50" t="s">
         <v>392</v>
       </c>
     </row>
@@ -2330,10 +2344,10 @@
       <c r="A15" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="65" t="s">
         <v>393</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="50" t="s">
         <v>394</v>
       </c>
     </row>
@@ -2341,8 +2355,8 @@
       <c r="A16" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="51" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="50" t="s">
         <v>395</v>
       </c>
     </row>
@@ -2350,8 +2364,8 @@
       <c r="A17" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="51" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="50" t="s">
         <v>396</v>
       </c>
     </row>
@@ -2359,8 +2373,8 @@
       <c r="A18" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="51" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="50" t="s">
         <v>397</v>
       </c>
     </row>
@@ -2368,8 +2382,8 @@
       <c r="A19" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="50" t="s">
         <v>398</v>
       </c>
     </row>
@@ -2377,10 +2391,10 @@
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="50" t="s">
         <v>399</v>
       </c>
     </row>
@@ -2388,8 +2402,8 @@
       <c r="A21" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="51" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="50" t="s">
         <v>400</v>
       </c>
     </row>
@@ -2397,11 +2411,11 @@
       <c r="A22" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="51" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="50" t="s">
         <v>401</v>
       </c>
     </row>
@@ -2409,13 +2423,13 @@
       <c r="A23" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="50" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2423,10 +2437,10 @@
       <c r="A24" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="55" t="s">
         <v>403</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="50" t="s">
         <v>404</v>
       </c>
     </row>
@@ -2434,10 +2448,10 @@
       <c r="A25" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="50" t="s">
         <v>405</v>
       </c>
     </row>
@@ -2445,10 +2459,10 @@
       <c r="A26" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="50" t="s">
         <v>406</v>
       </c>
     </row>
@@ -2456,13 +2470,13 @@
       <c r="A27" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="65" t="s">
         <v>407</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="50" t="s">
         <v>408</v>
       </c>
     </row>
@@ -2470,8 +2484,8 @@
       <c r="A28" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="50" t="s">
         <v>409</v>
       </c>
     </row>
@@ -2479,773 +2493,790 @@
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="50" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="C30" s="64"/>
-      <c r="D30" s="51" t="s">
+      <c r="A30" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="C30" s="66"/>
+      <c r="D30" s="50" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="62" customFormat="1">
-      <c r="B31" s="54"/>
-      <c r="C31" s="61" t="s">
+    <row r="31" spans="1:4" s="61" customFormat="1">
+      <c r="B31" s="53"/>
+      <c r="C31" s="60" t="s">
         <v>501</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="61" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="62" customFormat="1">
-      <c r="B32" s="54"/>
-      <c r="C32" s="61" t="s">
+    <row r="32" spans="1:4" s="61" customFormat="1">
+      <c r="B32" s="53"/>
+      <c r="C32" s="60" t="s">
         <v>501</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="61" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="60" customFormat="1">
-      <c r="B33" s="54"/>
-      <c r="C33" s="59" t="s">
+    <row r="33" spans="2:4" s="59" customFormat="1">
+      <c r="B33" s="53"/>
+      <c r="C33" s="58" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="59" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="C34" s="64" t="s">
+    <row r="34" spans="2:4" s="64" customFormat="1">
+      <c r="B34" s="53"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="C35" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D35" s="50" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="C35" s="64"/>
-      <c r="D35" s="51" t="s">
+    <row r="36" spans="2:4">
+      <c r="C36" s="66"/>
+      <c r="D36" s="50" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="C36" s="64"/>
-      <c r="D36" s="51" t="s">
+    <row r="37" spans="2:4">
+      <c r="C37" s="66"/>
+      <c r="D37" s="50" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="C37" s="64"/>
-      <c r="D37" s="51" t="s">
+    <row r="38" spans="2:4">
+      <c r="C38" s="66"/>
+      <c r="D38" s="50" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="C38" s="64"/>
-      <c r="D38" s="51" t="s">
+    <row r="39" spans="2:4">
+      <c r="C39" s="66"/>
+      <c r="D39" s="50" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="51" customFormat="1">
-      <c r="B39" s="54"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="51" t="s">
+    <row r="40" spans="2:4" s="50" customFormat="1">
+      <c r="B40" s="53"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="50" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="51" customFormat="1">
-      <c r="B40" s="54"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="51" t="s">
+    <row r="41" spans="2:4" s="50" customFormat="1">
+      <c r="B41" s="53"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="50" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="51" customFormat="1">
-      <c r="B41" s="54"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="51" t="s">
+    <row r="42" spans="2:4" s="50" customFormat="1">
+      <c r="B42" s="53"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="50" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
-      <c r="C42" s="64"/>
-      <c r="D42" s="51" t="s">
+    <row r="43" spans="2:4">
+      <c r="C43" s="66"/>
+      <c r="D43" s="50" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
-      <c r="C43" s="64"/>
-      <c r="D43" s="51" t="s">
+    <row r="44" spans="2:4">
+      <c r="C44" s="66"/>
+      <c r="D44" s="50" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
-      <c r="C44" s="63" t="s">
+    <row r="45" spans="2:4">
+      <c r="C45" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D45" s="50" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
-      <c r="C45" s="63"/>
-      <c r="D45" s="51" t="s">
+    <row r="46" spans="2:4">
+      <c r="C46" s="65"/>
+      <c r="D46" s="50" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="46" spans="2:4" s="51" customFormat="1">
-      <c r="B46" s="54"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="51" t="s">
+    <row r="47" spans="2:4" s="50" customFormat="1">
+      <c r="B47" s="53"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="50" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="47" spans="2:4" s="51" customFormat="1">
-      <c r="B47" s="54"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="51" t="s">
+    <row r="48" spans="2:4" s="50" customFormat="1">
+      <c r="B48" s="53"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="50" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="48" spans="2:4" s="51" customFormat="1">
-      <c r="B48" s="54"/>
-      <c r="C48" s="63" t="s">
+    <row r="49" spans="2:4" s="50" customFormat="1">
+      <c r="B49" s="53"/>
+      <c r="C49" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D49" s="50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:4" s="51" customFormat="1">
-      <c r="B49" s="54"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="51" t="s">
+    <row r="50" spans="2:4" s="50" customFormat="1">
+      <c r="B50" s="53"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="50" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="2:4" s="51" customFormat="1">
-      <c r="B50" s="54"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="51" t="s">
+    <row r="51" spans="2:4" s="50" customFormat="1">
+      <c r="B51" s="53"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="2:4" s="51" customFormat="1">
-      <c r="B51" s="54"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="51" t="s">
+    <row r="52" spans="2:4" s="50" customFormat="1">
+      <c r="B52" s="53"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="2:4" s="51" customFormat="1">
-      <c r="B52" s="54"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="51" t="s">
+    <row r="53" spans="2:4" s="50" customFormat="1">
+      <c r="B53" s="53"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="50" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="2:4" s="51" customFormat="1">
-      <c r="B53" s="54"/>
-      <c r="C53" s="63" t="s">
+    <row r="54" spans="2:4" s="50" customFormat="1">
+      <c r="B54" s="53"/>
+      <c r="C54" s="65" t="s">
         <v>470</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D54" s="50" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="54" spans="2:4" s="51" customFormat="1">
-      <c r="B54" s="54"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="51" t="s">
+    <row r="55" spans="2:4" s="50" customFormat="1">
+      <c r="B55" s="53"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="2:4" s="51" customFormat="1">
-      <c r="B55" s="54"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="51" t="s">
+    <row r="56" spans="2:4" s="50" customFormat="1">
+      <c r="B56" s="53"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="50" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="56" spans="2:4" s="51" customFormat="1">
-      <c r="B56" s="54"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="51" t="s">
+    <row r="57" spans="2:4" s="50" customFormat="1">
+      <c r="B57" s="53"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="2:4" s="51" customFormat="1">
-      <c r="B57" s="54"/>
-      <c r="C57" s="63" t="s">
+    <row r="58" spans="2:4" s="50" customFormat="1">
+      <c r="B58" s="53"/>
+      <c r="C58" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D58" s="50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
-      <c r="C58" s="63"/>
-      <c r="D58" s="51" t="s">
+    <row r="59" spans="2:4">
+      <c r="C59" s="65"/>
+      <c r="D59" s="50" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
-      <c r="C59" s="63" t="s">
+    <row r="60" spans="2:4">
+      <c r="C60" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D60" s="50" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
-      <c r="C60" s="63"/>
-      <c r="D60" s="51" t="s">
+    <row r="61" spans="2:4">
+      <c r="C61" s="65"/>
+      <c r="D61" s="50" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
-      <c r="C61" s="63"/>
-      <c r="D61" s="51" t="s">
+    <row r="62" spans="2:4">
+      <c r="C62" s="65"/>
+      <c r="D62" s="50" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
-      <c r="C62" s="63"/>
-      <c r="D62" s="51" t="s">
+    <row r="63" spans="2:4">
+      <c r="C63" s="65"/>
+      <c r="D63" s="50" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
-      <c r="C63" s="63" t="s">
+    <row r="64" spans="2:4">
+      <c r="C64" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D64" s="50" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="64" spans="2:4" s="51" customFormat="1">
-      <c r="B64" s="54"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="51" t="s">
+    <row r="65" spans="2:4" s="50" customFormat="1">
+      <c r="B65" s="53"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="50" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="65" spans="2:4" s="51" customFormat="1">
-      <c r="B65" s="54"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="51" t="s">
+    <row r="66" spans="2:4" s="50" customFormat="1">
+      <c r="B66" s="53"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="50" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="66" spans="2:4" s="51" customFormat="1">
-      <c r="B66" s="54"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="51" t="s">
+    <row r="67" spans="2:4" s="50" customFormat="1">
+      <c r="B67" s="53"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="50" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="67" spans="2:4" s="51" customFormat="1">
-      <c r="B67" s="54"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="51" t="s">
+    <row r="68" spans="2:4" s="50" customFormat="1">
+      <c r="B68" s="53"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="50" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="68" spans="2:4" s="51" customFormat="1">
-      <c r="B68" s="54"/>
-      <c r="C68" s="63" t="s">
+    <row r="69" spans="2:4" s="50" customFormat="1">
+      <c r="B69" s="53"/>
+      <c r="C69" s="65" t="s">
         <v>423</v>
       </c>
-      <c r="D68" s="51" t="s">
+      <c r="D69" s="50" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
-      <c r="C69" s="63"/>
-      <c r="D69" s="51" t="s">
+    <row r="70" spans="2:4">
+      <c r="C70" s="65"/>
+      <c r="D70" s="50" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="70" spans="2:4" s="51" customFormat="1">
-      <c r="B70" s="54"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="51" t="s">
+    <row r="71" spans="2:4" s="50" customFormat="1">
+      <c r="B71" s="53"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="50" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="2:4" s="51" customFormat="1">
-      <c r="B71" s="54"/>
-      <c r="C71" s="63"/>
-      <c r="D71" s="51" t="s">
+    <row r="72" spans="2:4" s="50" customFormat="1">
+      <c r="B72" s="53"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="50" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="72" spans="2:4" s="51" customFormat="1">
-      <c r="B72" s="54"/>
-      <c r="C72" s="63" t="s">
+    <row r="73" spans="2:4" s="50" customFormat="1">
+      <c r="B73" s="53"/>
+      <c r="C73" s="65" t="s">
         <v>483</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="2:4" s="51" customFormat="1">
-      <c r="B73" s="54"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="3" t="s">
+    <row r="74" spans="2:4" s="50" customFormat="1">
+      <c r="B74" s="53"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="2:4" s="51" customFormat="1">
-      <c r="B74" s="54"/>
-      <c r="C74" s="63"/>
-      <c r="D74" s="3" t="s">
+    <row r="75" spans="2:4" s="50" customFormat="1">
+      <c r="B75" s="53"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="75" spans="2:4" s="51" customFormat="1">
-      <c r="B75" s="54"/>
-      <c r="C75" s="63"/>
-      <c r="D75" s="3" t="s">
+    <row r="76" spans="2:4" s="50" customFormat="1">
+      <c r="B76" s="53"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="76" spans="2:4" s="51" customFormat="1">
-      <c r="B76" s="54"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="3" t="s">
+    <row r="77" spans="2:4" s="50" customFormat="1">
+      <c r="B77" s="53"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="77" spans="2:4" s="51" customFormat="1">
-      <c r="B77" s="54"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="3" t="s">
+    <row r="78" spans="2:4" s="50" customFormat="1">
+      <c r="B78" s="53"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="78" spans="2:4" s="52" customFormat="1">
-      <c r="B78" s="54"/>
-      <c r="C78" s="63" t="s">
+    <row r="79" spans="2:4" s="51" customFormat="1">
+      <c r="B79" s="53"/>
+      <c r="C79" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="2:4" s="52" customFormat="1">
-      <c r="B79" s="54"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="3" t="s">
+    <row r="80" spans="2:4" s="51" customFormat="1">
+      <c r="B80" s="53"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="2:4" s="52" customFormat="1">
-      <c r="B80" s="54"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="3" t="s">
+    <row r="81" spans="2:4" s="51" customFormat="1">
+      <c r="B81" s="53"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="2:4" s="51" customFormat="1">
-      <c r="B81" s="54"/>
-      <c r="C81" s="57" t="s">
+    <row r="82" spans="2:4" s="50" customFormat="1">
+      <c r="B82" s="53"/>
+      <c r="C82" s="56" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="82" spans="2:4" s="51" customFormat="1">
-      <c r="B82" s="54"/>
-      <c r="C82" s="57" t="s">
+    <row r="83" spans="2:4" s="50" customFormat="1">
+      <c r="B83" s="53"/>
+      <c r="C83" s="56" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="83" spans="2:4">
-      <c r="C83" s="65" t="s">
+    <row r="84" spans="2:4">
+      <c r="C84" s="67" t="s">
         <v>416</v>
       </c>
-      <c r="D83" s="51" t="s">
+      <c r="D84" s="50" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
-      <c r="C84" s="65"/>
-      <c r="D84" s="51" t="s">
+    <row r="85" spans="2:4">
+      <c r="C85" s="67"/>
+      <c r="D85" s="50" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
-      <c r="C85" s="63" t="s">
+    <row r="86" spans="2:4">
+      <c r="C86" s="65" t="s">
         <v>419</v>
       </c>
-      <c r="D85" s="51" t="s">
+      <c r="D86" s="50" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
-      <c r="C86" s="63"/>
-      <c r="D86" s="51" t="s">
+    <row r="87" spans="2:4">
+      <c r="C87" s="65"/>
+      <c r="D87" s="50" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
-      <c r="C87" s="63"/>
-      <c r="D87" s="51" t="s">
+    <row r="88" spans="2:4">
+      <c r="C88" s="65"/>
+      <c r="D88" s="50" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
-      <c r="C88" s="63" t="s">
+    <row r="89" spans="2:4">
+      <c r="C89" s="65" t="s">
         <v>475</v>
       </c>
-      <c r="D88" s="51" t="s">
+      <c r="D89" s="50" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
-      <c r="C89" s="63"/>
-      <c r="D89" s="51" t="s">
+    <row r="90" spans="2:4">
+      <c r="C90" s="65"/>
+      <c r="D90" s="50" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
-      <c r="C90" s="63"/>
-      <c r="D90" s="51" t="s">
+    <row r="91" spans="2:4">
+      <c r="C91" s="65"/>
+      <c r="D91" s="50" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="91" spans="2:4">
-      <c r="C91" s="63"/>
-      <c r="D91" s="51" t="s">
+    <row r="92" spans="2:4">
+      <c r="C92" s="65"/>
+      <c r="D92" s="50" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="92" spans="2:4" s="51" customFormat="1">
-      <c r="B92" s="54"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="51" t="s">
+    <row r="93" spans="2:4" s="50" customFormat="1">
+      <c r="B93" s="53"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="50" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="93" spans="2:4" s="51" customFormat="1">
-      <c r="B93" s="54"/>
-      <c r="C93" s="63"/>
-      <c r="D93" s="51" t="s">
+    <row r="94" spans="2:4" s="50" customFormat="1">
+      <c r="B94" s="53"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="50" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="94" spans="2:4" s="51" customFormat="1">
-      <c r="B94" s="54"/>
-      <c r="C94" s="63"/>
-      <c r="D94" s="51" t="s">
+    <row r="95" spans="2:4" s="50" customFormat="1">
+      <c r="B95" s="53"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="50" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="95" spans="2:4">
-      <c r="C95" s="56" t="s">
+    <row r="96" spans="2:4">
+      <c r="C96" s="55" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="96" spans="2:4">
-      <c r="C96" s="56" t="s">
+    <row r="97" spans="2:4">
+      <c r="C97" s="55" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
-      <c r="C97" s="63" t="s">
+    <row r="98" spans="2:4">
+      <c r="C98" s="65" t="s">
         <v>429</v>
       </c>
-      <c r="D97" s="51" t="s">
+      <c r="D98" s="50" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
-      <c r="C98" s="63"/>
-      <c r="D98" s="51" t="s">
+    <row r="99" spans="2:4">
+      <c r="C99" s="65"/>
+      <c r="D99" s="50" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
-      <c r="C99" s="63"/>
-      <c r="D99" s="51" t="s">
+    <row r="100" spans="2:4">
+      <c r="C100" s="65"/>
+      <c r="D100" s="50" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
-      <c r="C100" s="63"/>
-      <c r="D100" s="51" t="s">
+    <row r="101" spans="2:4">
+      <c r="C101" s="65"/>
+      <c r="D101" s="50" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="101" spans="2:4" s="51" customFormat="1">
-      <c r="B101" s="54"/>
-      <c r="C101" s="63"/>
-      <c r="D101" s="51" t="s">
+    <row r="102" spans="2:4" s="50" customFormat="1">
+      <c r="B102" s="53"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="50" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
-      <c r="C102" s="63" t="s">
+    <row r="103" spans="2:4">
+      <c r="C103" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="D102" s="51" t="s">
+      <c r="D103" s="50" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
-      <c r="C103" s="63"/>
-      <c r="D103" s="51" t="s">
+    <row r="104" spans="2:4">
+      <c r="C104" s="65"/>
+      <c r="D104" s="50" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="104" spans="2:4">
-      <c r="C104" s="63"/>
-      <c r="D104" s="51" t="s">
+    <row r="105" spans="2:4">
+      <c r="C105" s="65"/>
+      <c r="D105" s="50" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
-      <c r="C105" s="63" t="s">
+    <row r="106" spans="2:4">
+      <c r="C106" s="65" t="s">
         <v>438</v>
       </c>
-      <c r="D105" s="51" t="s">
+      <c r="D106" s="50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="2:4">
-      <c r="C106" s="63"/>
-      <c r="D106" s="51" t="s">
+    <row r="107" spans="2:4">
+      <c r="C107" s="65"/>
+      <c r="D107" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
-      <c r="C107" s="56" t="s">
+    <row r="108" spans="2:4" s="64" customFormat="1">
+      <c r="B108" s="53"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="64" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="C109" s="55" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="108" spans="2:4">
-      <c r="C108" s="63" t="s">
+    <row r="110" spans="2:4">
+      <c r="C110" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="D108" s="51" t="s">
+      <c r="D110" s="50" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="109" spans="2:4">
-      <c r="C109" s="63"/>
-      <c r="D109" s="51" t="s">
+    <row r="111" spans="2:4">
+      <c r="C111" s="65"/>
+      <c r="D111" s="50" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="2:4">
-      <c r="C110" s="63"/>
-      <c r="D110" s="51" t="s">
+    <row r="112" spans="2:4">
+      <c r="C112" s="65"/>
+      <c r="D112" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="2:4">
-      <c r="C111" s="63"/>
-      <c r="D111" s="51" t="s">
+    <row r="113" spans="2:4">
+      <c r="C113" s="65"/>
+      <c r="D113" s="50" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
-      <c r="C112" s="63"/>
-      <c r="D112" s="51" t="s">
+    <row r="114" spans="2:4">
+      <c r="C114" s="65"/>
+      <c r="D114" s="50" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="113" spans="2:4">
-      <c r="C113" s="63"/>
-      <c r="D113" s="51" t="s">
+    <row r="115" spans="2:4">
+      <c r="C115" s="65"/>
+      <c r="D115" s="50" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="114" spans="2:4" s="51" customFormat="1">
-      <c r="B114" s="54"/>
-      <c r="C114" s="63"/>
-      <c r="D114" s="51" t="s">
+    <row r="116" spans="2:4" s="50" customFormat="1">
+      <c r="B116" s="53"/>
+      <c r="C116" s="65"/>
+      <c r="D116" s="50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="2:4">
-      <c r="C115" s="56" t="s">
+    <row r="117" spans="2:4">
+      <c r="C117" s="55" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="116" spans="2:4">
-      <c r="C116" s="56" t="s">
+    <row r="118" spans="2:4">
+      <c r="C118" s="55" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="117" spans="2:4">
-      <c r="C117" s="56" t="s">
+    <row r="119" spans="2:4">
+      <c r="C119" s="55" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="118" spans="2:4">
-      <c r="C118" s="56" t="s">
+    <row r="120" spans="2:4">
+      <c r="C120" s="55" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="119" spans="2:4">
-      <c r="C119" s="56" t="s">
+    <row r="121" spans="2:4">
+      <c r="C121" s="55" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="120" spans="2:4">
-      <c r="C120" s="56" t="s">
+    <row r="122" spans="2:4">
+      <c r="C122" s="55" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="121" spans="2:4">
-      <c r="C121" s="63" t="s">
+    <row r="123" spans="2:4">
+      <c r="C123" s="65" t="s">
         <v>488</v>
       </c>
-      <c r="D121" s="51" t="s">
+      <c r="D123" s="50" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="122" spans="2:4">
-      <c r="C122" s="63"/>
-      <c r="D122" s="51" t="s">
+    <row r="124" spans="2:4">
+      <c r="C124" s="65"/>
+      <c r="D124" s="50" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="123" spans="2:4">
-      <c r="C123" s="63"/>
-      <c r="D123" s="51" t="s">
+    <row r="125" spans="2:4">
+      <c r="C125" s="65"/>
+      <c r="D125" s="50" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="124" spans="2:4">
-      <c r="C124" s="63"/>
-      <c r="D124" s="51" t="s">
+    <row r="126" spans="2:4">
+      <c r="C126" s="65"/>
+      <c r="D126" s="50" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="2:4">
-      <c r="C125" s="63" t="s">
+    <row r="127" spans="2:4">
+      <c r="C127" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="D125" s="51" t="s">
+      <c r="D127" s="50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="126" spans="2:4">
-      <c r="C126" s="63"/>
-      <c r="D126" s="51" t="s">
+    <row r="128" spans="2:4">
+      <c r="C128" s="65"/>
+      <c r="D128" s="50" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="2:4">
-      <c r="C127" s="63"/>
-      <c r="D127" s="51" t="s">
+    <row r="129" spans="3:4">
+      <c r="C129" s="65"/>
+      <c r="D129" s="50" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="128" spans="2:4">
-      <c r="C128" s="64" t="s">
+    <row r="130" spans="3:4">
+      <c r="C130" s="66" t="s">
         <v>492</v>
       </c>
-      <c r="D128" s="51" t="s">
+      <c r="D130" s="50" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="3:4">
-      <c r="C129" s="64"/>
-      <c r="D129" s="51" t="s">
+    <row r="131" spans="3:4">
+      <c r="C131" s="66"/>
+      <c r="D131" s="50" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="3:4">
-      <c r="C130" s="64"/>
-      <c r="D130" s="51" t="s">
+    <row r="132" spans="3:4">
+      <c r="C132" s="66"/>
+      <c r="D132" s="50" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="131" spans="3:4">
-      <c r="C131" s="56" t="s">
+    <row r="133" spans="3:4">
+      <c r="C133" s="55" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="132" spans="3:4">
-      <c r="C132" s="56" t="s">
+    <row r="134" spans="3:4">
+      <c r="C134" s="55" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="133" spans="3:4">
-      <c r="C133" s="56" t="s">
+    <row r="135" spans="3:4">
+      <c r="C135" s="55" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="134" spans="3:4">
-      <c r="C134" s="63" t="s">
+    <row r="136" spans="3:4">
+      <c r="C136" s="65" t="s">
         <v>496</v>
       </c>
-      <c r="D134" s="51" t="s">
+      <c r="D136" s="50" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="135" spans="3:4">
-      <c r="C135" s="63"/>
-      <c r="D135" s="51" t="s">
+    <row r="137" spans="3:4">
+      <c r="C137" s="65"/>
+      <c r="D137" s="50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="3:4">
-      <c r="C136" s="63"/>
-      <c r="D136" s="51" t="s">
+    <row r="138" spans="3:4">
+      <c r="C138" s="65"/>
+      <c r="D138" s="50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="3:4">
-      <c r="C137" s="63" t="s">
+    <row r="139" spans="3:4">
+      <c r="C139" s="65" t="s">
         <v>497</v>
       </c>
-      <c r="D137" s="58" t="s">
+      <c r="D139" s="57" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="138" spans="3:4">
-      <c r="C138" s="63"/>
-      <c r="D138" s="58" t="s">
+    <row r="140" spans="3:4">
+      <c r="C140" s="65"/>
+      <c r="D140" s="57" t="s">
         <v>498</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C110:C116"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C89:C95"/>
+    <mergeCell ref="C73:C78"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C88"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C2:C14"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C69:C72"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C34:C43"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C88:C94"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C108:C114"/>
-    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C35:C44"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C58:C59"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="Spring!A1" display="Spring"/>
@@ -3804,10 +3835,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="47" customFormat="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="68"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
@@ -4403,10 +4434,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="72" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -4445,10 +4476,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="72" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
@@ -4593,10 +4624,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="68"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
@@ -4769,10 +4800,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="79"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
@@ -4810,10 +4841,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="79"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
@@ -4918,7 +4949,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="70" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -4926,7 +4957,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="68"/>
+      <c r="A14" s="70"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -4947,7 +4978,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="70" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -4958,13 +4989,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="68"/>
+      <c r="A19" s="70"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="68"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -4973,7 +5004,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="68"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -4982,13 +5013,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="68"/>
+      <c r="A22" s="70"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="70" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -4999,37 +5030,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="68"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="68"/>
+      <c r="A25" s="70"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="68"/>
+      <c r="A26" s="70"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="68"/>
+      <c r="A27" s="70"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="68"/>
+      <c r="A28" s="70"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="68"/>
+      <c r="A29" s="70"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -5040,7 +5071,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="70" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -5051,43 +5082,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="68"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="68"/>
+      <c r="A33" s="70"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="68"/>
+      <c r="A34" s="70"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="68"/>
+      <c r="A35" s="70"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="68"/>
+      <c r="A36" s="70"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="68"/>
+      <c r="A37" s="70"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="70" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -5095,19 +5126,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="68"/>
+      <c r="A39" s="70"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="68"/>
+      <c r="A40" s="70"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="70" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -5115,25 +5146,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="68"/>
+      <c r="A42" s="70"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="68"/>
+      <c r="A43" s="70"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="68"/>
+      <c r="A44" s="70"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="70" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -5141,7 +5172,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="68"/>
+      <c r="A46" s="70"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -5150,7 +5181,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="68"/>
+      <c r="A47" s="70"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -5174,7 +5205,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="70" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -5185,13 +5216,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="68"/>
+      <c r="A52" s="70"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="68"/>
+      <c r="A53" s="70"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -5207,7 +5238,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="68" t="s">
+      <c r="A56" s="70" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -5215,13 +5246,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="68"/>
+      <c r="A57" s="70"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="68" t="s">
+      <c r="A58" s="70" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -5232,7 +5263,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="68"/>
+      <c r="A59" s="70"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -5241,7 +5272,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="68"/>
+      <c r="A60" s="70"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -5250,7 +5281,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="68" t="s">
+      <c r="A61" s="70" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -5258,31 +5289,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="68"/>
+      <c r="A62" s="70"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="68"/>
+      <c r="A63" s="70"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="68"/>
+      <c r="A64" s="70"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="68"/>
+      <c r="A65" s="70"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="68"/>
+      <c r="A66" s="70"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -5293,7 +5324,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="71" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -5301,55 +5332,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="69"/>
+      <c r="A69" s="71"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="69"/>
+      <c r="A70" s="71"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="69"/>
+      <c r="A71" s="71"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="69"/>
+      <c r="A72" s="71"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="69"/>
+      <c r="A73" s="71"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="69"/>
+      <c r="A74" s="71"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="69"/>
+      <c r="A75" s="71"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="69"/>
+      <c r="A76" s="71"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="69"/>
+      <c r="A77" s="71"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -5378,7 +5409,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="68" t="s">
+      <c r="A82" s="70" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -5386,49 +5417,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="68"/>
+      <c r="A83" s="70"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="68"/>
+      <c r="A84" s="70"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="68"/>
+      <c r="A85" s="70"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="68"/>
+      <c r="A86" s="70"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="68"/>
+      <c r="A87" s="70"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="68"/>
+      <c r="A88" s="70"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="68"/>
+      <c r="A89" s="70"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="68"/>
+      <c r="A90" s="70"/>
       <c r="B90" t="s">
         <v>131</v>
       </c>
@@ -5449,7 +5480,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="67" t="s">
+      <c r="A94" s="69" t="s">
         <v>151</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -5457,7 +5488,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="67"/>
+      <c r="A95" s="69"/>
       <c r="B95" t="s">
         <v>153</v>
       </c>
@@ -5505,14 +5536,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -5523,14 +5554,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
     </row>
     <row r="5" spans="1:6" s="36" customFormat="1">
       <c r="A5" s="18" t="s">
@@ -5558,14 +5589,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="34" t="s">
@@ -5578,14 +5609,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
@@ -5609,14 +5640,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
@@ -5632,14 +5663,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="74"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22" t="s">
@@ -5667,14 +5698,14 @@
       <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
@@ -5686,14 +5717,14 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -5726,14 +5757,14 @@
     </row>
     <row r="31" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="74"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="24" t="s">
@@ -5765,14 +5796,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="72"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="74"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
@@ -6172,11 +6203,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -6267,11 +6298,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -2191,8 +2191,8 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3250,19 +3250,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C110:C116"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="C89:C95"/>
-    <mergeCell ref="C73:C78"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C88"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C2:C14"/>
     <mergeCell ref="C20:C22"/>
@@ -3277,6 +3264,19 @@
     <mergeCell ref="C35:C44"/>
     <mergeCell ref="C49:C53"/>
     <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C89:C95"/>
+    <mergeCell ref="C73:C78"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C110:C116"/>
+    <mergeCell ref="C136:C138"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="Spring!A1" display="Spring"/>

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="507">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -1557,6 +1557,9 @@
   </si>
   <si>
     <t>Spring Integration</t>
+  </si>
+  <si>
+    <t>http://www.tutorialspoint.com/easymock/</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1729,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1843,6 +1846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2190,9 +2194,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2225,7 +2229,7 @@
       <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -2236,7 +2240,7 @@
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="65"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="17" t="s">
         <v>381</v>
       </c>
@@ -2245,7 +2249,7 @@
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="17" t="s">
         <v>382</v>
       </c>
@@ -2254,7 +2258,7 @@
       <c r="A5" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="17" t="s">
         <v>385</v>
       </c>
@@ -2263,8 +2267,8 @@
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="50" t="s">
+      <c r="C6" s="66"/>
+      <c r="D6" s="17" t="s">
         <v>383</v>
       </c>
     </row>
@@ -2272,7 +2276,7 @@
       <c r="A7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="50" t="s">
         <v>384</v>
       </c>
@@ -2281,8 +2285,8 @@
       <c r="A8" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="50" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="17" t="s">
         <v>386</v>
       </c>
     </row>
@@ -2290,7 +2294,7 @@
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="50" t="s">
         <v>387</v>
       </c>
@@ -2299,7 +2303,7 @@
       <c r="A10" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="50" t="s">
         <v>388</v>
       </c>
@@ -2308,7 +2312,7 @@
       <c r="A11" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="50" t="s">
         <v>389</v>
       </c>
@@ -2317,7 +2321,7 @@
       <c r="A12" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="50" t="s">
         <v>390</v>
       </c>
@@ -2326,7 +2330,7 @@
       <c r="A13" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="50" t="s">
         <v>391</v>
       </c>
@@ -2335,7 +2339,7 @@
       <c r="A14" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="50" t="s">
         <v>392</v>
       </c>
@@ -2344,7 +2348,7 @@
       <c r="A15" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="66" t="s">
         <v>393</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -2355,7 +2359,7 @@
       <c r="A16" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="50" t="s">
         <v>395</v>
       </c>
@@ -2364,7 +2368,7 @@
       <c r="A17" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="50" t="s">
         <v>396</v>
       </c>
@@ -2373,7 +2377,7 @@
       <c r="A18" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="50" t="s">
         <v>397</v>
       </c>
@@ -2382,7 +2386,7 @@
       <c r="A19" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="50" t="s">
         <v>398</v>
       </c>
@@ -2391,7 +2395,7 @@
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="66" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="50" t="s">
@@ -2402,7 +2406,7 @@
       <c r="A21" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="65"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="50" t="s">
         <v>400</v>
       </c>
@@ -2414,7 +2418,7 @@
       <c r="B22" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="50" t="s">
         <v>401</v>
       </c>
@@ -2473,7 +2477,7 @@
       <c r="B27" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="66" t="s">
         <v>407</v>
       </c>
       <c r="D27" s="50" t="s">
@@ -2484,7 +2488,7 @@
       <c r="A28" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C28" s="65"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="50" t="s">
         <v>409</v>
       </c>
@@ -2493,7 +2497,7 @@
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="67" t="s">
         <v>107</v>
       </c>
       <c r="D29" s="50" t="s">
@@ -2504,7 +2508,7 @@
       <c r="A30" s="64" t="s">
         <v>505</v>
       </c>
-      <c r="C30" s="66"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="50" t="s">
         <v>411</v>
       </c>
@@ -2544,7 +2548,7 @@
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="67" t="s">
         <v>92</v>
       </c>
       <c r="D35" s="50" t="s">
@@ -2552,64 +2556,64 @@
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="C36" s="66"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="50" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="C37" s="66"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="50" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="C38" s="66"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="50" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="C39" s="66"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="50" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="50" customFormat="1">
       <c r="B40" s="53"/>
-      <c r="C40" s="66"/>
+      <c r="C40" s="67"/>
       <c r="D40" s="50" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="50" customFormat="1">
       <c r="B41" s="53"/>
-      <c r="C41" s="66"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="50" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="50" customFormat="1">
       <c r="B42" s="53"/>
-      <c r="C42" s="66"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="50" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="C43" s="66"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="50" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="C44" s="66"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="50" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="66" t="s">
         <v>107</v>
       </c>
       <c r="D45" s="50" t="s">
@@ -2617,28 +2621,28 @@
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="C46" s="65"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="50" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="50" customFormat="1">
       <c r="B47" s="53"/>
-      <c r="C47" s="65"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="50" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="50" customFormat="1">
       <c r="B48" s="53"/>
-      <c r="C48" s="65"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="50" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="50" customFormat="1">
       <c r="B49" s="53"/>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="66" t="s">
         <v>273</v>
       </c>
       <c r="D49" s="50" t="s">
@@ -2647,35 +2651,35 @@
     </row>
     <row r="50" spans="2:4" s="50" customFormat="1">
       <c r="B50" s="53"/>
-      <c r="C50" s="65"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="50" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="50" customFormat="1">
       <c r="B51" s="53"/>
-      <c r="C51" s="65"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="50" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="50" customFormat="1">
       <c r="B52" s="53"/>
-      <c r="C52" s="65"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="53" spans="2:4" s="50" customFormat="1">
       <c r="B53" s="53"/>
-      <c r="C53" s="65"/>
+      <c r="C53" s="66"/>
       <c r="D53" s="50" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="54" spans="2:4" s="50" customFormat="1">
       <c r="B54" s="53"/>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="66" t="s">
         <v>470</v>
       </c>
       <c r="D54" s="50" t="s">
@@ -2684,28 +2688,28 @@
     </row>
     <row r="55" spans="2:4" s="50" customFormat="1">
       <c r="B55" s="53"/>
-      <c r="C55" s="65"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="50" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="56" spans="2:4" s="50" customFormat="1">
       <c r="B56" s="53"/>
-      <c r="C56" s="65"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="50" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="57" spans="2:4" s="50" customFormat="1">
       <c r="B57" s="53"/>
-      <c r="C57" s="65"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="50" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="2:4" s="50" customFormat="1">
       <c r="B58" s="53"/>
-      <c r="C58" s="65" t="s">
+      <c r="C58" s="66" t="s">
         <v>316</v>
       </c>
       <c r="D58" s="50" t="s">
@@ -2713,13 +2717,13 @@
       </c>
     </row>
     <row r="59" spans="2:4">
-      <c r="C59" s="65"/>
+      <c r="C59" s="66"/>
       <c r="D59" s="50" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="C60" s="65" t="s">
+      <c r="C60" s="66" t="s">
         <v>63</v>
       </c>
       <c r="D60" s="50" t="s">
@@ -2727,25 +2731,25 @@
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="C61" s="65"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="50" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="62" spans="2:4">
-      <c r="C62" s="65"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="50" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="63" spans="2:4">
-      <c r="C63" s="65"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="50" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="64" spans="2:4">
-      <c r="C64" s="65" t="s">
+      <c r="C64" s="66" t="s">
         <v>61</v>
       </c>
       <c r="D64" s="50" t="s">
@@ -2754,35 +2758,35 @@
     </row>
     <row r="65" spans="2:4" s="50" customFormat="1">
       <c r="B65" s="53"/>
-      <c r="C65" s="65"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="50" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="66" spans="2:4" s="50" customFormat="1">
       <c r="B66" s="53"/>
-      <c r="C66" s="65"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="50" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="50" customFormat="1">
       <c r="B67" s="53"/>
-      <c r="C67" s="65"/>
+      <c r="C67" s="66"/>
       <c r="D67" s="50" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="68" spans="2:4" s="50" customFormat="1">
       <c r="B68" s="53"/>
-      <c r="C68" s="65"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="50" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="50" customFormat="1">
       <c r="B69" s="53"/>
-      <c r="C69" s="65" t="s">
+      <c r="C69" s="66" t="s">
         <v>423</v>
       </c>
       <c r="D69" s="50" t="s">
@@ -2790,28 +2794,28 @@
       </c>
     </row>
     <row r="70" spans="2:4">
-      <c r="C70" s="65"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="50" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="71" spans="2:4" s="50" customFormat="1">
       <c r="B71" s="53"/>
-      <c r="C71" s="65"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="50" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="72" spans="2:4" s="50" customFormat="1">
       <c r="B72" s="53"/>
-      <c r="C72" s="65"/>
+      <c r="C72" s="66"/>
       <c r="D72" s="50" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="73" spans="2:4" s="50" customFormat="1">
       <c r="B73" s="53"/>
-      <c r="C73" s="65" t="s">
+      <c r="C73" s="66" t="s">
         <v>483</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -2820,42 +2824,42 @@
     </row>
     <row r="74" spans="2:4" s="50" customFormat="1">
       <c r="B74" s="53"/>
-      <c r="C74" s="65"/>
+      <c r="C74" s="66"/>
       <c r="D74" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="75" spans="2:4" s="50" customFormat="1">
       <c r="B75" s="53"/>
-      <c r="C75" s="65"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="3" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="76" spans="2:4" s="50" customFormat="1">
       <c r="B76" s="53"/>
-      <c r="C76" s="65"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="3" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="77" spans="2:4" s="50" customFormat="1">
       <c r="B77" s="53"/>
-      <c r="C77" s="65"/>
+      <c r="C77" s="66"/>
       <c r="D77" s="3" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="78" spans="2:4" s="50" customFormat="1">
       <c r="B78" s="53"/>
-      <c r="C78" s="65"/>
+      <c r="C78" s="66"/>
       <c r="D78" s="3" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="79" spans="2:4" s="51" customFormat="1">
       <c r="B79" s="53"/>
-      <c r="C79" s="65" t="s">
+      <c r="C79" s="66" t="s">
         <v>91</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -2864,14 +2868,14 @@
     </row>
     <row r="80" spans="2:4" s="51" customFormat="1">
       <c r="B80" s="53"/>
-      <c r="C80" s="65"/>
+      <c r="C80" s="66"/>
       <c r="D80" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="81" spans="2:4" s="51" customFormat="1">
       <c r="B81" s="53"/>
-      <c r="C81" s="65"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="3" t="s">
         <v>68</v>
       </c>
@@ -2889,7 +2893,7 @@
       </c>
     </row>
     <row r="84" spans="2:4">
-      <c r="C84" s="67" t="s">
+      <c r="C84" s="68" t="s">
         <v>416</v>
       </c>
       <c r="D84" s="50" t="s">
@@ -2897,13 +2901,13 @@
       </c>
     </row>
     <row r="85" spans="2:4">
-      <c r="C85" s="67"/>
+      <c r="C85" s="68"/>
       <c r="D85" s="50" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="86" spans="2:4">
-      <c r="C86" s="65" t="s">
+      <c r="C86" s="66" t="s">
         <v>419</v>
       </c>
       <c r="D86" s="50" t="s">
@@ -2911,19 +2915,19 @@
       </c>
     </row>
     <row r="87" spans="2:4">
-      <c r="C87" s="65"/>
+      <c r="C87" s="66"/>
       <c r="D87" s="50" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="C88" s="65"/>
+      <c r="C88" s="66"/>
       <c r="D88" s="50" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="89" spans="2:4">
-      <c r="C89" s="65" t="s">
+      <c r="C89" s="66" t="s">
         <v>475</v>
       </c>
       <c r="D89" s="50" t="s">
@@ -2931,40 +2935,40 @@
       </c>
     </row>
     <row r="90" spans="2:4">
-      <c r="C90" s="65"/>
+      <c r="C90" s="66"/>
       <c r="D90" s="50" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="91" spans="2:4">
-      <c r="C91" s="65"/>
+      <c r="C91" s="66"/>
       <c r="D91" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="92" spans="2:4">
-      <c r="C92" s="65"/>
+      <c r="C92" s="66"/>
       <c r="D92" s="50" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="93" spans="2:4" s="50" customFormat="1">
       <c r="B93" s="53"/>
-      <c r="C93" s="65"/>
+      <c r="C93" s="66"/>
       <c r="D93" s="50" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="94" spans="2:4" s="50" customFormat="1">
       <c r="B94" s="53"/>
-      <c r="C94" s="65"/>
+      <c r="C94" s="66"/>
       <c r="D94" s="50" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="95" spans="2:4" s="50" customFormat="1">
       <c r="B95" s="53"/>
-      <c r="C95" s="65"/>
+      <c r="C95" s="66"/>
       <c r="D95" s="50" t="s">
         <v>481</v>
       </c>
@@ -2980,7 +2984,7 @@
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="C98" s="65" t="s">
+      <c r="C98" s="66" t="s">
         <v>429</v>
       </c>
       <c r="D98" s="50" t="s">
@@ -2988,32 +2992,32 @@
       </c>
     </row>
     <row r="99" spans="2:4">
-      <c r="C99" s="65"/>
+      <c r="C99" s="66"/>
       <c r="D99" s="50" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="C100" s="65"/>
+      <c r="C100" s="66"/>
       <c r="D100" s="50" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="C101" s="65"/>
+      <c r="C101" s="66"/>
       <c r="D101" s="50" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="102" spans="2:4" s="50" customFormat="1">
       <c r="B102" s="53"/>
-      <c r="C102" s="65"/>
+      <c r="C102" s="66"/>
       <c r="D102" s="50" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="65" t="s">
+      <c r="C103" s="66" t="s">
         <v>434</v>
       </c>
       <c r="D103" s="50" t="s">
@@ -3021,19 +3025,19 @@
       </c>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="65"/>
+      <c r="C104" s="66"/>
       <c r="D104" s="50" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="105" spans="2:4">
-      <c r="C105" s="65"/>
+      <c r="C105" s="66"/>
       <c r="D105" s="50" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="65" t="s">
+      <c r="C106" s="66" t="s">
         <v>438</v>
       </c>
       <c r="D106" s="50" t="s">
@@ -3041,7 +3045,7 @@
       </c>
     </row>
     <row r="107" spans="2:4">
-      <c r="C107" s="65"/>
+      <c r="C107" s="66"/>
       <c r="D107" s="50" t="s">
         <v>30</v>
       </c>
@@ -3059,7 +3063,7 @@
       </c>
     </row>
     <row r="110" spans="2:4">
-      <c r="C110" s="65" t="s">
+      <c r="C110" s="66" t="s">
         <v>109</v>
       </c>
       <c r="D110" s="50" t="s">
@@ -3067,38 +3071,38 @@
       </c>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="65"/>
+      <c r="C111" s="66"/>
       <c r="D111" s="50" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="112" spans="2:4">
-      <c r="C112" s="65"/>
+      <c r="C112" s="66"/>
       <c r="D112" s="50" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="113" spans="2:4">
-      <c r="C113" s="65"/>
+      <c r="C113" s="66"/>
       <c r="D113" s="50" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="114" spans="2:4">
-      <c r="C114" s="65"/>
+      <c r="C114" s="66"/>
       <c r="D114" s="50" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="115" spans="2:4">
-      <c r="C115" s="65"/>
+      <c r="C115" s="66"/>
       <c r="D115" s="50" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="116" spans="2:4" s="50" customFormat="1">
       <c r="B116" s="53"/>
-      <c r="C116" s="65"/>
+      <c r="C116" s="66"/>
       <c r="D116" s="50" t="s">
         <v>69</v>
       </c>
@@ -3134,7 +3138,7 @@
       </c>
     </row>
     <row r="123" spans="2:4">
-      <c r="C123" s="65" t="s">
+      <c r="C123" s="66" t="s">
         <v>488</v>
       </c>
       <c r="D123" s="50" t="s">
@@ -3142,25 +3146,25 @@
       </c>
     </row>
     <row r="124" spans="2:4">
-      <c r="C124" s="65"/>
+      <c r="C124" s="66"/>
       <c r="D124" s="50" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="125" spans="2:4">
-      <c r="C125" s="65"/>
+      <c r="C125" s="66"/>
       <c r="D125" s="50" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="126" spans="2:4">
-      <c r="C126" s="65"/>
+      <c r="C126" s="66"/>
       <c r="D126" s="50" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="127" spans="2:4">
-      <c r="C127" s="65" t="s">
+      <c r="C127" s="66" t="s">
         <v>83</v>
       </c>
       <c r="D127" s="50" t="s">
@@ -3168,19 +3172,19 @@
       </c>
     </row>
     <row r="128" spans="2:4">
-      <c r="C128" s="65"/>
+      <c r="C128" s="66"/>
       <c r="D128" s="50" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="129" spans="3:4">
-      <c r="C129" s="65"/>
+      <c r="C129" s="66"/>
       <c r="D129" s="50" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="130" spans="3:4">
-      <c r="C130" s="66" t="s">
+      <c r="C130" s="67" t="s">
         <v>492</v>
       </c>
       <c r="D130" s="50" t="s">
@@ -3188,13 +3192,13 @@
       </c>
     </row>
     <row r="131" spans="3:4">
-      <c r="C131" s="66"/>
+      <c r="C131" s="67"/>
       <c r="D131" s="50" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="132" spans="3:4">
-      <c r="C132" s="66"/>
+      <c r="C132" s="67"/>
       <c r="D132" s="50" t="s">
         <v>472</v>
       </c>
@@ -3215,7 +3219,7 @@
       </c>
     </row>
     <row r="136" spans="3:4">
-      <c r="C136" s="65" t="s">
+      <c r="C136" s="66" t="s">
         <v>496</v>
       </c>
       <c r="D136" s="50" t="s">
@@ -3223,19 +3227,19 @@
       </c>
     </row>
     <row r="137" spans="3:4">
-      <c r="C137" s="65"/>
+      <c r="C137" s="66"/>
       <c r="D137" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="138" spans="3:4">
-      <c r="C138" s="65"/>
+      <c r="C138" s="66"/>
       <c r="D138" s="50" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="139" spans="3:4">
-      <c r="C139" s="65" t="s">
+      <c r="C139" s="66" t="s">
         <v>497</v>
       </c>
       <c r="D139" s="57" t="s">
@@ -3243,13 +3247,26 @@
       </c>
     </row>
     <row r="140" spans="3:4">
-      <c r="C140" s="65"/>
+      <c r="C140" s="66"/>
       <c r="D140" s="57" t="s">
         <v>498</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C110:C116"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C89:C95"/>
+    <mergeCell ref="C73:C78"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C88"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C2:C14"/>
     <mergeCell ref="C20:C22"/>
@@ -3264,19 +3281,6 @@
     <mergeCell ref="C35:C44"/>
     <mergeCell ref="C49:C53"/>
     <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="C89:C95"/>
-    <mergeCell ref="C73:C78"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C110:C116"/>
-    <mergeCell ref="C136:C138"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="Spring!A1" display="Spring"/>
@@ -3712,9 +3716,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3723,20 +3729,32 @@
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
         <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://app.pluralsight.com/library/courses/java-unit-testing-junit"/>
     <hyperlink ref="A2" r:id="rId2" tooltip="Test-Driven Development Practices in Java" display="https://app.pluralsight.com/library/courses/test-driven-development-java"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3823,7 +3841,7 @@
   <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
@@ -3835,10 +3853,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="47" customFormat="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="68"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
@@ -4434,10 +4452,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -4476,10 +4494,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
@@ -4624,10 +4642,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="68"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
@@ -4800,10 +4818,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="80"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
@@ -4841,10 +4859,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="80"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
@@ -4949,7 +4967,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="71" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -4957,7 +4975,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="70"/>
+      <c r="A14" s="71"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -4978,7 +4996,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="71" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -4989,13 +5007,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="70"/>
+      <c r="A19" s="71"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="70"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -5004,7 +5022,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="70"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -5013,13 +5031,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="70"/>
+      <c r="A22" s="71"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="71" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -5030,37 +5048,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="70"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="70"/>
+      <c r="A25" s="71"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="70"/>
+      <c r="A26" s="71"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="70"/>
+      <c r="A27" s="71"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="70"/>
+      <c r="A28" s="71"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="70"/>
+      <c r="A29" s="71"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -5071,7 +5089,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="71" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -5082,43 +5100,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="70"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="70"/>
+      <c r="A33" s="71"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="70"/>
+      <c r="A34" s="71"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="70"/>
+      <c r="A35" s="71"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="70"/>
+      <c r="A36" s="71"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="70"/>
+      <c r="A37" s="71"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="71" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -5126,19 +5144,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="70"/>
+      <c r="A39" s="71"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="70"/>
+      <c r="A40" s="71"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="71" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -5146,25 +5164,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="70"/>
+      <c r="A42" s="71"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="70"/>
+      <c r="A43" s="71"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="70"/>
+      <c r="A44" s="71"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="71" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -5172,7 +5190,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="70"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -5181,7 +5199,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="70"/>
+      <c r="A47" s="71"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -5205,7 +5223,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="71" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -5216,13 +5234,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="70"/>
+      <c r="A52" s="71"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="70"/>
+      <c r="A53" s="71"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -5238,7 +5256,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="70" t="s">
+      <c r="A56" s="71" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -5246,13 +5264,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="70"/>
+      <c r="A57" s="71"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="71" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -5263,7 +5281,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="70"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -5272,7 +5290,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="70"/>
+      <c r="A60" s="71"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -5281,7 +5299,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="70" t="s">
+      <c r="A61" s="71" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -5289,31 +5307,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="70"/>
+      <c r="A62" s="71"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="70"/>
+      <c r="A63" s="71"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="70"/>
+      <c r="A64" s="71"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="70"/>
+      <c r="A65" s="71"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="70"/>
+      <c r="A66" s="71"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -5324,7 +5342,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="71" t="s">
+      <c r="A68" s="72" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -5332,55 +5350,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="71"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="71"/>
+      <c r="A70" s="72"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="71"/>
+      <c r="A71" s="72"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="71"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="71"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="71"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="71"/>
+      <c r="A75" s="72"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="71"/>
+      <c r="A76" s="72"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="71"/>
+      <c r="A77" s="72"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -5409,7 +5427,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="70" t="s">
+      <c r="A82" s="71" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -5417,49 +5435,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="70"/>
+      <c r="A83" s="71"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="70"/>
+      <c r="A84" s="71"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="70"/>
+      <c r="A85" s="71"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="70"/>
+      <c r="A86" s="71"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="70"/>
+      <c r="A87" s="71"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="70"/>
+      <c r="A88" s="71"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="70"/>
+      <c r="A89" s="71"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="70"/>
+      <c r="A90" s="71"/>
       <c r="B90" t="s">
         <v>131</v>
       </c>
@@ -5480,7 +5498,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="69" t="s">
+      <c r="A94" s="70" t="s">
         <v>151</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -5488,7 +5506,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="69"/>
+      <c r="A95" s="70"/>
       <c r="B95" t="s">
         <v>153</v>
       </c>
@@ -5536,14 +5554,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -5554,14 +5572,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>317</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="1:6" s="36" customFormat="1">
       <c r="A5" s="18" t="s">
@@ -5589,14 +5607,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="34" t="s">
@@ -5609,14 +5627,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
@@ -5640,14 +5658,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
@@ -5663,14 +5681,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22" t="s">
@@ -5698,14 +5716,14 @@
       <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
@@ -5717,14 +5735,14 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -5757,14 +5775,14 @@
     </row>
     <row r="31" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>316</v>
       </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="75"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="24" t="s">
@@ -5796,14 +5814,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="74"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="75"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
@@ -5889,9 +5907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="A22:B22"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6203,11 +6221,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="78"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -6298,11 +6316,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="78"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="541">
   <si>
     <t>Junit + Spring + Mockito + Powermock</t>
   </si>
@@ -1560,6 +1560,108 @@
   </si>
   <si>
     <t>http://www.tutorialspoint.com/easymock/</t>
+  </si>
+  <si>
+    <t>Java EE the big picture</t>
+  </si>
+  <si>
+    <t>Topics - finish by 30 June 2018</t>
+  </si>
+  <si>
+    <t>Java EE 7 Fundamentals</t>
+  </si>
+  <si>
+    <t>Java EE getting started</t>
+  </si>
+  <si>
+    <t>Bean validation</t>
+  </si>
+  <si>
+    <t>Java Persistence API JPA 2.1</t>
+  </si>
+  <si>
+    <t>SLF4J</t>
+  </si>
+  <si>
+    <t>Powermock</t>
+  </si>
+  <si>
+    <t>Easy mock</t>
+  </si>
+  <si>
+    <t>Ngunit</t>
+  </si>
+  <si>
+    <t>Jmockit</t>
+  </si>
+  <si>
+    <t>Oauth</t>
+  </si>
+  <si>
+    <t>Spring Scheduler</t>
+  </si>
+  <si>
+    <t>Apache Server</t>
+  </si>
+  <si>
+    <t>Core Java Regex</t>
+  </si>
+  <si>
+    <t>Angular 2</t>
+  </si>
+  <si>
+    <t>Angular 4</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>CSS3</t>
+  </si>
+  <si>
+    <t>Gulp</t>
+  </si>
+  <si>
+    <t>NPM</t>
+  </si>
+  <si>
+    <t>Oracle tangosol coherence</t>
+  </si>
+  <si>
+    <t>swagger</t>
+  </si>
+  <si>
+    <t>Git/Bit Bucket</t>
+  </si>
+  <si>
+    <t>www.rackspace.com/devops</t>
+  </si>
+  <si>
+    <t>Salt stack</t>
+  </si>
+  <si>
+    <t>Mybatis</t>
+  </si>
+  <si>
+    <t>Data structures and algorithms</t>
+  </si>
+  <si>
+    <t>Apache spark</t>
+  </si>
+  <si>
+    <t>Active MQ</t>
+  </si>
+  <si>
+    <t>Spring cloud</t>
+  </si>
+  <si>
+    <t>Pivotal cloud foundry</t>
+  </si>
+  <si>
+    <t>Spring Security Fundamentals</t>
+  </si>
+  <si>
+    <t>Pivotal cloud Foundry Developer</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1831,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1848,6 +1950,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2195,13 +2306,13 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="52.42578125" style="53" customWidth="1"/>
     <col min="3" max="3" width="31" style="55" customWidth="1"/>
     <col min="4" max="4" width="50.5703125" customWidth="1"/>
@@ -2229,7 +2340,7 @@
       <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="71" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -2240,7 +2351,7 @@
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="17" t="s">
         <v>381</v>
       </c>
@@ -2249,7 +2360,7 @@
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="17" t="s">
         <v>382</v>
       </c>
@@ -2258,7 +2369,7 @@
       <c r="A5" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="17" t="s">
         <v>385</v>
       </c>
@@ -2267,7 +2378,7 @@
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="17" t="s">
         <v>383</v>
       </c>
@@ -2276,7 +2387,7 @@
       <c r="A7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="50" t="s">
         <v>384</v>
       </c>
@@ -2285,7 +2396,7 @@
       <c r="A8" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="17" t="s">
         <v>386</v>
       </c>
@@ -2294,7 +2405,7 @@
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="66"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="50" t="s">
         <v>387</v>
       </c>
@@ -2303,7 +2414,7 @@
       <c r="A10" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="50" t="s">
         <v>388</v>
       </c>
@@ -2312,7 +2423,7 @@
       <c r="A11" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="50" t="s">
         <v>389</v>
       </c>
@@ -2321,7 +2432,7 @@
       <c r="A12" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="50" t="s">
         <v>390</v>
       </c>
@@ -2330,7 +2441,7 @@
       <c r="A13" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="66"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="50" t="s">
         <v>391</v>
       </c>
@@ -2339,7 +2450,7 @@
       <c r="A14" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="66"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="50" t="s">
         <v>392</v>
       </c>
@@ -2348,7 +2459,7 @@
       <c r="A15" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="71" t="s">
         <v>393</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -2359,7 +2470,7 @@
       <c r="A16" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="50" t="s">
         <v>395</v>
       </c>
@@ -2368,7 +2479,7 @@
       <c r="A17" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="66"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="50" t="s">
         <v>396</v>
       </c>
@@ -2377,7 +2488,7 @@
       <c r="A18" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C18" s="66"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="50" t="s">
         <v>397</v>
       </c>
@@ -2386,7 +2497,7 @@
       <c r="A19" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C19" s="66"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="50" t="s">
         <v>398</v>
       </c>
@@ -2395,7 +2506,7 @@
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="71" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="50" t="s">
@@ -2406,7 +2517,7 @@
       <c r="A21" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="66"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="50" t="s">
         <v>400</v>
       </c>
@@ -2418,7 +2529,7 @@
       <c r="B22" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="C22" s="66"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="50" t="s">
         <v>401</v>
       </c>
@@ -2477,7 +2588,7 @@
       <c r="B27" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="71" t="s">
         <v>407</v>
       </c>
       <c r="D27" s="50" t="s">
@@ -2488,7 +2599,7 @@
       <c r="A28" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C28" s="66"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="50" t="s">
         <v>409</v>
       </c>
@@ -2497,7 +2608,7 @@
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="72" t="s">
         <v>107</v>
       </c>
       <c r="D29" s="50" t="s">
@@ -2508,7 +2619,7 @@
       <c r="A30" s="64" t="s">
         <v>505</v>
       </c>
-      <c r="C30" s="67"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="50" t="s">
         <v>411</v>
       </c>
@@ -2523,7 +2634,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" s="61" customFormat="1">
-      <c r="B32" s="53"/>
+      <c r="A32" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="B32" s="70"/>
       <c r="C32" s="60" t="s">
         <v>501</v>
       </c>
@@ -2531,7 +2645,10 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="59" customFormat="1">
+    <row r="33" spans="1:4" s="59" customFormat="1">
+      <c r="A33" s="66" t="s">
+        <v>507</v>
+      </c>
       <c r="B33" s="53"/>
       <c r="C33" s="58" t="s">
         <v>499</v>
@@ -2540,440 +2657,599 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="64" customFormat="1">
+    <row r="34" spans="1:4" s="64" customFormat="1">
+      <c r="A34" s="66" t="s">
+        <v>509</v>
+      </c>
       <c r="B34" s="53"/>
       <c r="C34" s="63"/>
       <c r="D34" s="64" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="C35" s="67" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="66" t="s">
+        <v>510</v>
+      </c>
+      <c r="C35" s="72" t="s">
         <v>92</v>
       </c>
       <c r="D35" s="50" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="C36" s="67"/>
+    <row r="36" spans="1:4">
+      <c r="A36" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="C36" s="72"/>
       <c r="D36" s="50" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="C37" s="67"/>
+    <row r="37" spans="1:4">
+      <c r="A37" s="66" t="s">
+        <v>512</v>
+      </c>
+      <c r="C37" s="72"/>
       <c r="D37" s="50" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="C38" s="67"/>
+    <row r="38" spans="1:4">
+      <c r="A38" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="72"/>
       <c r="D38" s="50" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
-      <c r="C39" s="67"/>
+    <row r="39" spans="1:4">
+      <c r="A39" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="72"/>
       <c r="D39" s="50" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="50" customFormat="1">
+    <row r="40" spans="1:4" s="50" customFormat="1">
+      <c r="A40" s="66" t="s">
+        <v>513</v>
+      </c>
       <c r="B40" s="53"/>
-      <c r="C40" s="67"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="50" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="50" customFormat="1">
+    <row r="41" spans="1:4" s="50" customFormat="1">
+      <c r="A41" s="66" t="s">
+        <v>36</v>
+      </c>
       <c r="B41" s="53"/>
-      <c r="C41" s="67"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="50" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="42" spans="2:4" s="50" customFormat="1">
+    <row r="42" spans="1:4" s="50" customFormat="1">
+      <c r="A42" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="B42" s="53"/>
-      <c r="C42" s="67"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="50" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
-      <c r="C43" s="67"/>
+    <row r="43" spans="1:4">
+      <c r="A43" s="66" t="s">
+        <v>514</v>
+      </c>
+      <c r="C43" s="72"/>
       <c r="D43" s="50" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
-      <c r="C44" s="67"/>
+    <row r="44" spans="1:4">
+      <c r="A44" s="66" t="s">
+        <v>515</v>
+      </c>
+      <c r="C44" s="72"/>
       <c r="D44" s="50" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
-      <c r="C45" s="66" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="66" t="s">
+        <v>516</v>
+      </c>
+      <c r="C45" s="71" t="s">
         <v>107</v>
       </c>
       <c r="D45" s="50" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
-      <c r="C46" s="66"/>
+    <row r="46" spans="1:4">
+      <c r="A46" s="66" t="s">
+        <v>517</v>
+      </c>
+      <c r="C46" s="71"/>
       <c r="D46" s="50" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="47" spans="2:4" s="50" customFormat="1">
+    <row r="47" spans="1:4" s="50" customFormat="1">
+      <c r="A47" s="66" t="s">
+        <v>518</v>
+      </c>
       <c r="B47" s="53"/>
-      <c r="C47" s="66"/>
+      <c r="C47" s="71"/>
       <c r="D47" s="50" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="48" spans="2:4" s="50" customFormat="1">
+    <row r="48" spans="1:4" s="50" customFormat="1">
+      <c r="A48" s="66" t="s">
+        <v>482</v>
+      </c>
       <c r="B48" s="53"/>
-      <c r="C48" s="66"/>
+      <c r="C48" s="71"/>
       <c r="D48" s="50" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="49" spans="2:4" s="50" customFormat="1">
+    <row r="49" spans="1:4" s="50" customFormat="1">
+      <c r="A49" s="66" t="s">
+        <v>65</v>
+      </c>
       <c r="B49" s="53"/>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="71" t="s">
         <v>273</v>
       </c>
       <c r="D49" s="50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:4" s="50" customFormat="1">
+    <row r="50" spans="1:4" s="50" customFormat="1">
+      <c r="A50" s="66" t="s">
+        <v>64</v>
+      </c>
       <c r="B50" s="53"/>
-      <c r="C50" s="66"/>
+      <c r="C50" s="71"/>
       <c r="D50" s="50" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="2:4" s="50" customFormat="1">
+    <row r="51" spans="1:4" s="50" customFormat="1">
+      <c r="A51" s="66" t="s">
+        <v>519</v>
+      </c>
       <c r="B51" s="53"/>
-      <c r="C51" s="66"/>
+      <c r="C51" s="71"/>
       <c r="D51" s="50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="2:4" s="50" customFormat="1">
+    <row r="52" spans="1:4" s="50" customFormat="1">
+      <c r="A52" s="66" t="s">
+        <v>520</v>
+      </c>
       <c r="B52" s="53"/>
-      <c r="C52" s="66"/>
+      <c r="C52" s="71"/>
       <c r="D52" s="50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="2:4" s="50" customFormat="1">
+    <row r="53" spans="1:4" s="50" customFormat="1">
+      <c r="A53" s="66" t="s">
+        <v>451</v>
+      </c>
       <c r="B53" s="53"/>
-      <c r="C53" s="66"/>
+      <c r="C53" s="71"/>
       <c r="D53" s="50" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="2:4" s="50" customFormat="1">
+    <row r="54" spans="1:4" s="50" customFormat="1">
+      <c r="A54" s="66" t="s">
+        <v>521</v>
+      </c>
       <c r="B54" s="53"/>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="71" t="s">
         <v>470</v>
       </c>
       <c r="D54" s="50" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="55" spans="2:4" s="50" customFormat="1">
+    <row r="55" spans="1:4" s="50" customFormat="1">
+      <c r="A55" s="66" t="s">
+        <v>522</v>
+      </c>
       <c r="B55" s="53"/>
-      <c r="C55" s="66"/>
+      <c r="C55" s="71"/>
       <c r="D55" s="50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="2:4" s="50" customFormat="1">
+    <row r="56" spans="1:4" s="50" customFormat="1">
+      <c r="A56" s="66" t="s">
+        <v>523</v>
+      </c>
       <c r="B56" s="53"/>
-      <c r="C56" s="66"/>
+      <c r="C56" s="71"/>
       <c r="D56" s="50" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="2:4" s="50" customFormat="1">
+    <row r="57" spans="1:4" s="50" customFormat="1">
+      <c r="A57" s="66" t="s">
+        <v>524</v>
+      </c>
       <c r="B57" s="53"/>
-      <c r="C57" s="66"/>
+      <c r="C57" s="71"/>
       <c r="D57" s="50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="2:4" s="50" customFormat="1">
+    <row r="58" spans="1:4" s="50" customFormat="1">
+      <c r="A58" s="66" t="s">
+        <v>525</v>
+      </c>
       <c r="B58" s="53"/>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="71" t="s">
         <v>316</v>
       </c>
       <c r="D58" s="50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
-      <c r="C59" s="66"/>
+    <row r="59" spans="1:4">
+      <c r="A59" s="66" t="s">
+        <v>445</v>
+      </c>
+      <c r="C59" s="71"/>
       <c r="D59" s="50" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
-      <c r="C60" s="66" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="71" t="s">
         <v>63</v>
       </c>
       <c r="D60" s="50" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
-      <c r="C61" s="66"/>
+    <row r="61" spans="1:4">
+      <c r="A61" s="66" t="s">
+        <v>526</v>
+      </c>
+      <c r="C61" s="71"/>
       <c r="D61" s="50" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
-      <c r="C62" s="66"/>
+    <row r="62" spans="1:4">
+      <c r="A62" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" s="71"/>
       <c r="D62" s="50" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
-      <c r="C63" s="66"/>
+    <row r="63" spans="1:4">
+      <c r="A63" s="66" t="s">
+        <v>527</v>
+      </c>
+      <c r="C63" s="71"/>
       <c r="D63" s="50" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
-      <c r="C64" s="66" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="71" t="s">
         <v>61</v>
       </c>
       <c r="D64" s="50" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="65" spans="2:4" s="50" customFormat="1">
+    <row r="65" spans="1:4" s="50" customFormat="1">
+      <c r="A65" s="66" t="s">
+        <v>495</v>
+      </c>
       <c r="B65" s="53"/>
-      <c r="C65" s="66"/>
+      <c r="C65" s="71"/>
       <c r="D65" s="50" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="66" spans="2:4" s="50" customFormat="1">
+    <row r="66" spans="1:4" s="50" customFormat="1">
+      <c r="A66" s="66" t="s">
+        <v>29</v>
+      </c>
       <c r="B66" s="53"/>
-      <c r="C66" s="66"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="50" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="67" spans="2:4" s="50" customFormat="1">
+    <row r="67" spans="1:4" s="50" customFormat="1">
+      <c r="A67" s="66" t="s">
+        <v>30</v>
+      </c>
       <c r="B67" s="53"/>
-      <c r="C67" s="66"/>
+      <c r="C67" s="71"/>
       <c r="D67" s="50" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="68" spans="2:4" s="50" customFormat="1">
+    <row r="68" spans="1:4" s="50" customFormat="1">
+      <c r="A68" s="66" t="s">
+        <v>528</v>
+      </c>
       <c r="B68" s="53"/>
-      <c r="C68" s="66"/>
+      <c r="C68" s="71"/>
       <c r="D68" s="50" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="69" spans="2:4" s="50" customFormat="1">
+    <row r="69" spans="1:4" s="50" customFormat="1">
+      <c r="A69" s="66" t="s">
+        <v>68</v>
+      </c>
       <c r="B69" s="53"/>
-      <c r="C69" s="66" t="s">
+      <c r="C69" s="71" t="s">
         <v>423</v>
       </c>
       <c r="D69" s="50" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
-      <c r="C70" s="66"/>
+    <row r="70" spans="1:4">
+      <c r="A70" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="71"/>
       <c r="D70" s="50" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="71" spans="2:4" s="50" customFormat="1">
+    <row r="71" spans="1:4" s="50" customFormat="1">
+      <c r="A71" s="66" t="s">
+        <v>69</v>
+      </c>
       <c r="B71" s="53"/>
-      <c r="C71" s="66"/>
+      <c r="C71" s="71"/>
       <c r="D71" s="50" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="2:4" s="50" customFormat="1">
+    <row r="72" spans="1:4" s="50" customFormat="1">
+      <c r="A72" s="66" t="s">
+        <v>529</v>
+      </c>
       <c r="B72" s="53"/>
-      <c r="C72" s="66"/>
+      <c r="C72" s="71"/>
       <c r="D72" s="50" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="73" spans="2:4" s="50" customFormat="1">
+    <row r="73" spans="1:4" s="50" customFormat="1">
+      <c r="A73" s="66" t="s">
+        <v>35</v>
+      </c>
       <c r="B73" s="53"/>
-      <c r="C73" s="66" t="s">
+      <c r="C73" s="71" t="s">
         <v>483</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="2:4" s="50" customFormat="1">
+    <row r="74" spans="1:4" s="50" customFormat="1">
+      <c r="A74" s="66" t="s">
+        <v>275</v>
+      </c>
       <c r="B74" s="53"/>
-      <c r="C74" s="66"/>
+      <c r="C74" s="71"/>
       <c r="D74" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="2:4" s="50" customFormat="1">
+    <row r="75" spans="1:4" s="50" customFormat="1">
+      <c r="A75" s="66" t="s">
+        <v>530</v>
+      </c>
       <c r="B75" s="53"/>
-      <c r="C75" s="66"/>
+      <c r="C75" s="71"/>
       <c r="D75" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="76" spans="2:4" s="50" customFormat="1">
+    <row r="76" spans="1:4" s="50" customFormat="1">
+      <c r="A76" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="B76" s="53"/>
-      <c r="C76" s="66"/>
+      <c r="C76" s="71"/>
       <c r="D76" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="77" spans="2:4" s="50" customFormat="1">
+    <row r="77" spans="1:4" s="50" customFormat="1">
+      <c r="A77" s="68" t="s">
+        <v>441</v>
+      </c>
       <c r="B77" s="53"/>
-      <c r="C77" s="66"/>
+      <c r="C77" s="71"/>
       <c r="D77" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="78" spans="2:4" s="50" customFormat="1">
+    <row r="78" spans="1:4" s="50" customFormat="1">
+      <c r="A78" s="68" t="s">
+        <v>532</v>
+      </c>
       <c r="B78" s="53"/>
-      <c r="C78" s="66"/>
+      <c r="C78" s="71"/>
       <c r="D78" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="79" spans="2:4" s="51" customFormat="1">
+    <row r="79" spans="1:4" s="51" customFormat="1">
+      <c r="A79" s="68" t="s">
+        <v>533</v>
+      </c>
       <c r="B79" s="53"/>
-      <c r="C79" s="66" t="s">
+      <c r="C79" s="71" t="s">
         <v>91</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="2:4" s="51" customFormat="1">
+    <row r="80" spans="1:4" s="51" customFormat="1">
+      <c r="A80" s="68" t="s">
+        <v>12</v>
+      </c>
       <c r="B80" s="53"/>
-      <c r="C80" s="66"/>
+      <c r="C80" s="71"/>
       <c r="D80" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="2:4" s="51" customFormat="1">
+    <row r="81" spans="1:4" s="51" customFormat="1">
+      <c r="A81" s="68" t="s">
+        <v>534</v>
+      </c>
       <c r="B81" s="53"/>
-      <c r="C81" s="66"/>
+      <c r="C81" s="71"/>
       <c r="D81" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="2:4" s="50" customFormat="1">
+    <row r="82" spans="1:4" s="50" customFormat="1">
+      <c r="A82" s="68" t="s">
+        <v>535</v>
+      </c>
       <c r="B82" s="53"/>
       <c r="C82" s="56" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="83" spans="2:4" s="50" customFormat="1">
+    <row r="83" spans="1:4" s="50" customFormat="1">
+      <c r="A83" s="68" t="s">
+        <v>494</v>
+      </c>
       <c r="B83" s="53"/>
       <c r="C83" s="56" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
-      <c r="C84" s="68" t="s">
+    <row r="84" spans="1:4">
+      <c r="A84" s="68" t="s">
+        <v>536</v>
+      </c>
+      <c r="C84" s="73" t="s">
         <v>416</v>
       </c>
       <c r="D84" s="50" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
-      <c r="C85" s="68"/>
+    <row r="85" spans="1:4">
+      <c r="A85" s="68" t="s">
+        <v>537</v>
+      </c>
+      <c r="C85" s="73"/>
       <c r="D85" s="50" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
-      <c r="C86" s="66" t="s">
+    <row r="86" spans="1:4">
+      <c r="A86" s="68" t="s">
+        <v>538</v>
+      </c>
+      <c r="C86" s="71" t="s">
         <v>419</v>
       </c>
       <c r="D86" s="50" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
-      <c r="C87" s="66"/>
+    <row r="87" spans="1:4">
+      <c r="C87" s="71"/>
       <c r="D87" s="50" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
-      <c r="C88" s="66"/>
+    <row r="88" spans="1:4">
+      <c r="C88" s="71"/>
       <c r="D88" s="50" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
-      <c r="C89" s="66" t="s">
+    <row r="89" spans="1:4">
+      <c r="C89" s="71" t="s">
         <v>475</v>
       </c>
       <c r="D89" s="50" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
-      <c r="C90" s="66"/>
+    <row r="90" spans="1:4">
+      <c r="C90" s="71"/>
       <c r="D90" s="50" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="91" spans="2:4">
-      <c r="C91" s="66"/>
+    <row r="91" spans="1:4">
+      <c r="C91" s="71"/>
       <c r="D91" s="50" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
-      <c r="C92" s="66"/>
+    <row r="92" spans="1:4">
+      <c r="C92" s="71"/>
       <c r="D92" s="50" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="93" spans="2:4" s="50" customFormat="1">
+    <row r="93" spans="1:4" s="50" customFormat="1">
       <c r="B93" s="53"/>
-      <c r="C93" s="66"/>
+      <c r="C93" s="71"/>
       <c r="D93" s="50" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="94" spans="2:4" s="50" customFormat="1">
+    <row r="94" spans="1:4" s="50" customFormat="1">
       <c r="B94" s="53"/>
-      <c r="C94" s="66"/>
+      <c r="C94" s="71"/>
       <c r="D94" s="50" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="95" spans="2:4" s="50" customFormat="1">
+    <row r="95" spans="1:4" s="50" customFormat="1">
       <c r="B95" s="53"/>
-      <c r="C95" s="66"/>
+      <c r="C95" s="71"/>
       <c r="D95" s="50" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="1:4">
       <c r="C96" s="55" t="s">
         <v>427</v>
       </c>
@@ -2984,7 +3260,7 @@
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="C98" s="66" t="s">
+      <c r="C98" s="71" t="s">
         <v>429</v>
       </c>
       <c r="D98" s="50" t="s">
@@ -2992,32 +3268,32 @@
       </c>
     </row>
     <row r="99" spans="2:4">
-      <c r="C99" s="66"/>
+      <c r="C99" s="71"/>
       <c r="D99" s="50" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="C100" s="66"/>
+      <c r="C100" s="71"/>
       <c r="D100" s="50" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="C101" s="66"/>
+      <c r="C101" s="71"/>
       <c r="D101" s="50" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="102" spans="2:4" s="50" customFormat="1">
       <c r="B102" s="53"/>
-      <c r="C102" s="66"/>
+      <c r="C102" s="71"/>
       <c r="D102" s="50" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="66" t="s">
+      <c r="C103" s="71" t="s">
         <v>434</v>
       </c>
       <c r="D103" s="50" t="s">
@@ -3025,19 +3301,19 @@
       </c>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="66"/>
+      <c r="C104" s="71"/>
       <c r="D104" s="50" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="105" spans="2:4">
-      <c r="C105" s="66"/>
+      <c r="C105" s="71"/>
       <c r="D105" s="50" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="66" t="s">
+      <c r="C106" s="71" t="s">
         <v>438</v>
       </c>
       <c r="D106" s="50" t="s">
@@ -3045,7 +3321,7 @@
       </c>
     </row>
     <row r="107" spans="2:4">
-      <c r="C107" s="66"/>
+      <c r="C107" s="71"/>
       <c r="D107" s="50" t="s">
         <v>30</v>
       </c>
@@ -3063,7 +3339,7 @@
       </c>
     </row>
     <row r="110" spans="2:4">
-      <c r="C110" s="66" t="s">
+      <c r="C110" s="71" t="s">
         <v>109</v>
       </c>
       <c r="D110" s="50" t="s">
@@ -3071,38 +3347,38 @@
       </c>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="66"/>
+      <c r="C111" s="71"/>
       <c r="D111" s="50" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="112" spans="2:4">
-      <c r="C112" s="66"/>
+      <c r="C112" s="71"/>
       <c r="D112" s="50" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="113" spans="2:4">
-      <c r="C113" s="66"/>
+      <c r="C113" s="71"/>
       <c r="D113" s="50" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="114" spans="2:4">
-      <c r="C114" s="66"/>
+      <c r="C114" s="71"/>
       <c r="D114" s="50" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="115" spans="2:4">
-      <c r="C115" s="66"/>
+      <c r="C115" s="71"/>
       <c r="D115" s="50" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="116" spans="2:4" s="50" customFormat="1">
       <c r="B116" s="53"/>
-      <c r="C116" s="66"/>
+      <c r="C116" s="71"/>
       <c r="D116" s="50" t="s">
         <v>69</v>
       </c>
@@ -3138,7 +3414,7 @@
       </c>
     </row>
     <row r="123" spans="2:4">
-      <c r="C123" s="66" t="s">
+      <c r="C123" s="71" t="s">
         <v>488</v>
       </c>
       <c r="D123" s="50" t="s">
@@ -3146,25 +3422,25 @@
       </c>
     </row>
     <row r="124" spans="2:4">
-      <c r="C124" s="66"/>
+      <c r="C124" s="71"/>
       <c r="D124" s="50" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="125" spans="2:4">
-      <c r="C125" s="66"/>
+      <c r="C125" s="71"/>
       <c r="D125" s="50" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="126" spans="2:4">
-      <c r="C126" s="66"/>
+      <c r="C126" s="71"/>
       <c r="D126" s="50" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="127" spans="2:4">
-      <c r="C127" s="66" t="s">
+      <c r="C127" s="71" t="s">
         <v>83</v>
       </c>
       <c r="D127" s="50" t="s">
@@ -3172,19 +3448,19 @@
       </c>
     </row>
     <row r="128" spans="2:4">
-      <c r="C128" s="66"/>
+      <c r="C128" s="71"/>
       <c r="D128" s="50" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="129" spans="3:4">
-      <c r="C129" s="66"/>
+      <c r="C129" s="71"/>
       <c r="D129" s="50" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="130" spans="3:4">
-      <c r="C130" s="67" t="s">
+      <c r="C130" s="72" t="s">
         <v>492</v>
       </c>
       <c r="D130" s="50" t="s">
@@ -3192,13 +3468,13 @@
       </c>
     </row>
     <row r="131" spans="3:4">
-      <c r="C131" s="67"/>
+      <c r="C131" s="72"/>
       <c r="D131" s="50" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="132" spans="3:4">
-      <c r="C132" s="67"/>
+      <c r="C132" s="72"/>
       <c r="D132" s="50" t="s">
         <v>472</v>
       </c>
@@ -3219,7 +3495,7 @@
       </c>
     </row>
     <row r="136" spans="3:4">
-      <c r="C136" s="66" t="s">
+      <c r="C136" s="71" t="s">
         <v>496</v>
       </c>
       <c r="D136" s="50" t="s">
@@ -3227,19 +3503,19 @@
       </c>
     </row>
     <row r="137" spans="3:4">
-      <c r="C137" s="66"/>
+      <c r="C137" s="71"/>
       <c r="D137" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="138" spans="3:4">
-      <c r="C138" s="66"/>
+      <c r="C138" s="71"/>
       <c r="D138" s="50" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="139" spans="3:4">
-      <c r="C139" s="66" t="s">
+      <c r="C139" s="71" t="s">
         <v>497</v>
       </c>
       <c r="D139" s="57" t="s">
@@ -3247,26 +3523,13 @@
       </c>
     </row>
     <row r="140" spans="3:4">
-      <c r="C140" s="66"/>
+      <c r="C140" s="71"/>
       <c r="D140" s="57" t="s">
         <v>498</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C110:C116"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="C89:C95"/>
-    <mergeCell ref="C73:C78"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C88"/>
+  <mergeCells count="28">
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C2:C14"/>
     <mergeCell ref="C20:C22"/>
@@ -3281,6 +3544,20 @@
     <mergeCell ref="C35:C44"/>
     <mergeCell ref="C49:C53"/>
     <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C110:C116"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C89:C95"/>
+    <mergeCell ref="C73:C78"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C88"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="Spring!A1" display="Spring"/>
@@ -3307,9 +3584,10 @@
     <hyperlink ref="A27" location="JS!A1" display="Javascript"/>
     <hyperlink ref="A28" location="BC!A1" display="Block Chain(BC)"/>
     <hyperlink ref="A29" location="Redis!A1" display="Redis"/>
+    <hyperlink ref="A76" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3366,7 +3644,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="81.42578125" customWidth="1"/>
+    <col min="1" max="1" width="99.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
   </cols>
@@ -3838,11 +4116,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3853,10 +4131,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="47" customFormat="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
@@ -4358,6 +4636,30 @@
     <row r="73" spans="1:2">
       <c r="A73" s="18" t="s">
         <v>345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="67" t="s">
+        <v>539</v>
+      </c>
+      <c r="B74" s="67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="B75" s="67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="67" t="s">
+        <v>540</v>
+      </c>
+      <c r="B76" s="67" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4452,10 +4754,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -4494,10 +4796,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
@@ -4642,10 +4944,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
@@ -4818,10 +5120,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="85"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
@@ -4859,10 +5161,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="85"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
@@ -4889,8 +5191,8 @@
   <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82:A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4967,7 +5269,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="76" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
@@ -4975,7 +5277,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="71"/>
+      <c r="A14" s="76"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -4996,7 +5298,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="76" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -5007,13 +5309,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="71"/>
+      <c r="A19" s="76"/>
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="71"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
@@ -5022,7 +5324,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="71"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -5031,13 +5333,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="71"/>
+      <c r="A22" s="76"/>
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="76" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -5048,37 +5350,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="71"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="71"/>
+      <c r="A25" s="76"/>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="71"/>
+      <c r="A26" s="76"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="71"/>
+      <c r="A27" s="76"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="71"/>
+      <c r="A28" s="76"/>
       <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="71"/>
+      <c r="A29" s="76"/>
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -5089,7 +5391,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="76" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -5100,43 +5402,43 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="71"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="71"/>
+      <c r="A33" s="76"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="71"/>
+      <c r="A34" s="76"/>
       <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="71"/>
+      <c r="A35" s="76"/>
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="71"/>
+      <c r="A36" s="76"/>
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="71"/>
+      <c r="A37" s="76"/>
       <c r="B37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="76" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -5144,19 +5446,19 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="71"/>
+      <c r="A39" s="76"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="71"/>
+      <c r="A40" s="76"/>
       <c r="B40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="76" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -5164,25 +5466,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="71"/>
+      <c r="A42" s="76"/>
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="71"/>
+      <c r="A43" s="76"/>
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="71"/>
+      <c r="A44" s="76"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="76" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
@@ -5190,7 +5492,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="71"/>
+      <c r="A46" s="76"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
@@ -5199,7 +5501,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="71"/>
+      <c r="A47" s="76"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -5223,7 +5525,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="76" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -5234,13 +5536,13 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="71"/>
+      <c r="A52" s="76"/>
       <c r="B52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="71"/>
+      <c r="A53" s="76"/>
       <c r="B53" t="s">
         <v>78</v>
       </c>
@@ -5256,7 +5558,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="71" t="s">
+      <c r="A56" s="76" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
@@ -5264,13 +5566,13 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="71"/>
+      <c r="A57" s="76"/>
       <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="76" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -5281,7 +5583,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="71"/>
+      <c r="A59" s="76"/>
       <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
@@ -5290,7 +5592,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="71"/>
+      <c r="A60" s="76"/>
       <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
@@ -5299,7 +5601,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="76" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
@@ -5307,31 +5609,31 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="71"/>
+      <c r="A62" s="76"/>
       <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="71"/>
+      <c r="A63" s="76"/>
       <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="71"/>
+      <c r="A64" s="76"/>
       <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="71"/>
+      <c r="A65" s="76"/>
       <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="71"/>
+      <c r="A66" s="76"/>
       <c r="B66" t="s">
         <v>101</v>
       </c>
@@ -5342,7 +5644,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="77" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -5350,55 +5652,55 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="72"/>
+      <c r="A69" s="77"/>
       <c r="B69" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="72"/>
+      <c r="A70" s="77"/>
       <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="72"/>
+      <c r="A71" s="77"/>
       <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="72"/>
+      <c r="A72" s="77"/>
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="72"/>
+      <c r="A73" s="77"/>
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="72"/>
+      <c r="A74" s="77"/>
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="72"/>
+      <c r="A75" s="77"/>
       <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="72"/>
+      <c r="A76" s="77"/>
       <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="72"/>
+      <c r="A77" s="77"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -5427,7 +5729,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="71" t="s">
+      <c r="A82" s="76" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -5435,49 +5737,49 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="71"/>
+      <c r="A83" s="76"/>
       <c r="B83" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="71"/>
+      <c r="A84" s="76"/>
       <c r="B84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="71"/>
+      <c r="A85" s="76"/>
       <c r="B85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="71"/>
+      <c r="A86" s="76"/>
       <c r="B86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="71"/>
+      <c r="A87" s="76"/>
       <c r="B87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="71"/>
+      <c r="A88" s="76"/>
       <c r="B88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="71"/>
+      <c r="A89" s="76"/>
       <c r="B89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="71"/>
+      <c r="A90" s="76"/>
       <c r="B90" t="s">
         <v>131</v>
       </c>
@@ -5498,7 +5800,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="70" t="s">
+      <c r="A94" s="75" t="s">
         <v>151</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -5506,7 +5808,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="70"/>
+      <c r="A95" s="75"/>
       <c r="B95" t="s">
         <v>153</v>
       </c>
@@ -5536,7 +5838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5554,14 +5858,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -5572,14 +5876,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
     </row>
     <row r="5" spans="1:6" s="36" customFormat="1">
       <c r="A5" s="18" t="s">
@@ -5607,14 +5911,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="75"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="34" t="s">
@@ -5627,14 +5931,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
@@ -5658,14 +5962,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="80"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
@@ -5681,14 +5985,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="78" t="s">
         <v>315</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="75"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22" t="s">
@@ -5716,14 +6020,14 @@
       <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
@@ -5735,14 +6039,14 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -5775,14 +6079,14 @@
     </row>
     <row r="31" spans="1:6" s="28" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="75"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="80"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="24" t="s">
@@ -5814,14 +6118,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="80"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
@@ -5907,7 +6211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
@@ -6221,11 +6525,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -6316,11 +6620,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">

--- a/To-do.xlsx
+++ b/To-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="987" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="5" r:id="rId1"/>
@@ -1953,17 +1953,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2340,7 +2340,7 @@
       <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -2351,7 +2351,7 @@
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="71"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="17" t="s">
         <v>381</v>
       </c>
@@ -2360,7 +2360,7 @@
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="17" t="s">
         <v>382</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="A5" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="71"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="17" t="s">
         <v>385</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="71"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="17" t="s">
         <v>383</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="A7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="50" t="s">
         <v>384</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="A8" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="17" t="s">
         <v>386</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="50" t="s">
         <v>387</v>
       </c>
@@ -2414,7 +2414,7 @@
       <c r="A10" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="71"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="50" t="s">
         <v>388</v>
       </c>
@@ -2423,7 +2423,7 @@
       <c r="A11" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="71"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="50" t="s">
         <v>389</v>
       </c>
@@ -2432,7 +2432,7 @@
       <c r="A12" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="71"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="50" t="s">
         <v>390</v>
       </c>
@@ -2441,7 +2441,7 @@
       <c r="A13" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="71"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="50" t="s">
         <v>391</v>
       </c>
@@ -2450,7 +2450,7 @@
       <c r="A14" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="71"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="50" t="s">
         <v>392</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="A15" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="69" t="s">
         <v>393</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -2470,7 +2470,7 @@
       <c r="A16" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="71"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="50" t="s">
         <v>395</v>
       </c>
@@ -2479,7 +2479,7 @@
       <c r="A17" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="71"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="50" t="s">
         <v>396</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="A18" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C18" s="71"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="50" t="s">
         <v>397</v>
       </c>
@@ -2497,7 +2497,7 @@
       <c r="A19" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C19" s="71"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="50" t="s">
         <v>398</v>
       </c>
@@ -2506,7 +2506,7 @@
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="69" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="50" t="s">
@@ -2517,7 +2517,7 @@
       <c r="A21" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="71"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="50" t="s">
         <v>400</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="B22" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="C22" s="71"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="50" t="s">
         <v>401</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="B27" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="69" t="s">
         <v>407</v>
       </c>
       <c r="D27" s="50" t="s">
@@ -2599,7 +2599,7 @@
       <c r="A28" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C28" s="71"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="50" t="s">
         <v>409</v>
       </c>
@@ -2608,7 +2608,7 @@
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="70" t="s">
         <v>107</v>
       </c>
       <c r="D29" s="50" t="s">
@@ -2619,7 +2619,7 @@
       <c r="A30" s="64" t="s">
         <v>505</v>
       </c>
-      <c r="C30" s="72"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="50" t="s">
         <v>411</v>
       </c>
@@ -2634,10 +2634,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" s="61" customFormat="1">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="71" t="s">
         <v>508</v>
       </c>
-      <c r="B32" s="70"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="60" t="s">
         <v>501</v>
       </c>
@@ -2671,7 +2671,7 @@
       <c r="A35" s="66" t="s">
         <v>510</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="70" t="s">
         <v>92</v>
       </c>
       <c r="D35" s="50" t="s">
@@ -2682,7 +2682,7 @@
       <c r="A36" s="66" t="s">
         <v>511</v>
       </c>
-      <c r="C36" s="72"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="50" t="s">
         <v>453</v>
       </c>
@@ -2691,7 +2691,7 @@
       <c r="A37" s="66" t="s">
         <v>512</v>
       </c>
-      <c r="C37" s="72"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="50" t="s">
         <v>454</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="A38" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="72"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="50" t="s">
         <v>455</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="A39" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="72"/>
+      <c r="C39" s="70"/>
       <c r="D39" s="50" t="s">
         <v>456</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>513</v>
       </c>
       <c r="B40" s="53"/>
-      <c r="C40" s="72"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="50" t="s">
         <v>457</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="53"/>
-      <c r="C41" s="72"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="50" t="s">
         <v>412</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="53"/>
-      <c r="C42" s="72"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="50" t="s">
         <v>413</v>
       </c>
@@ -2748,7 +2748,7 @@
       <c r="A43" s="66" t="s">
         <v>514</v>
       </c>
-      <c r="C43" s="72"/>
+      <c r="C43" s="70"/>
       <c r="D43" s="50" t="s">
         <v>458</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="A44" s="66" t="s">
         <v>515</v>
       </c>
-      <c r="C44" s="72"/>
+      <c r="C44" s="70"/>
       <c r="D44" s="50" t="s">
         <v>459</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="A45" s="66" t="s">
         <v>516</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="69" t="s">
         <v>107</v>
       </c>
       <c r="D45" s="50" t="s">
@@ -2777,7 +2777,7 @@
       <c r="A46" s="66" t="s">
         <v>517</v>
       </c>
-      <c r="C46" s="71"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="50" t="s">
         <v>413</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>518</v>
       </c>
       <c r="B47" s="53"/>
-      <c r="C47" s="71"/>
+      <c r="C47" s="69"/>
       <c r="D47" s="50" t="s">
         <v>414</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>482</v>
       </c>
       <c r="B48" s="53"/>
-      <c r="C48" s="71"/>
+      <c r="C48" s="69"/>
       <c r="D48" s="50" t="s">
         <v>415</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>65</v>
       </c>
       <c r="B49" s="53"/>
-      <c r="C49" s="71" t="s">
+      <c r="C49" s="69" t="s">
         <v>273</v>
       </c>
       <c r="D49" s="50" t="s">
@@ -2819,7 +2819,7 @@
         <v>64</v>
       </c>
       <c r="B50" s="53"/>
-      <c r="C50" s="71"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="50" t="s">
         <v>460</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>519</v>
       </c>
       <c r="B51" s="53"/>
-      <c r="C51" s="71"/>
+      <c r="C51" s="69"/>
       <c r="D51" s="50" t="s">
         <v>85</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>520</v>
       </c>
       <c r="B52" s="53"/>
-      <c r="C52" s="71"/>
+      <c r="C52" s="69"/>
       <c r="D52" s="50" t="s">
         <v>63</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>451</v>
       </c>
       <c r="B53" s="53"/>
-      <c r="C53" s="71"/>
+      <c r="C53" s="69"/>
       <c r="D53" s="50" t="s">
         <v>61</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>521</v>
       </c>
       <c r="B54" s="53"/>
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="69" t="s">
         <v>470</v>
       </c>
       <c r="D54" s="50" t="s">
@@ -2871,7 +2871,7 @@
         <v>522</v>
       </c>
       <c r="B55" s="53"/>
-      <c r="C55" s="71"/>
+      <c r="C55" s="69"/>
       <c r="D55" s="50" t="s">
         <v>41</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>523</v>
       </c>
       <c r="B56" s="53"/>
-      <c r="C56" s="71"/>
+      <c r="C56" s="69"/>
       <c r="D56" s="50" t="s">
         <v>472</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>524</v>
       </c>
       <c r="B57" s="53"/>
-      <c r="C57" s="71"/>
+      <c r="C57" s="69"/>
       <c r="D57" s="50" t="s">
         <v>47</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>525</v>
       </c>
       <c r="B58" s="53"/>
-      <c r="C58" s="71" t="s">
+      <c r="C58" s="69" t="s">
         <v>316</v>
       </c>
       <c r="D58" s="50" t="s">
@@ -2912,7 +2912,7 @@
       <c r="A59" s="66" t="s">
         <v>445</v>
       </c>
-      <c r="C59" s="71"/>
+      <c r="C59" s="69"/>
       <c r="D59" s="50" t="s">
         <v>200</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="A60" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="71" t="s">
+      <c r="C60" s="69" t="s">
         <v>63</v>
       </c>
       <c r="D60" s="50" t="s">
@@ -2932,7 +2932,7 @@
       <c r="A61" s="66" t="s">
         <v>526</v>
       </c>
-      <c r="C61" s="71"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="50" t="s">
         <v>462</v>
       </c>
@@ -2941,7 +2941,7 @@
       <c r="A62" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="C62" s="71"/>
+      <c r="C62" s="69"/>
       <c r="D62" s="50" t="s">
         <v>463</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="A63" s="66" t="s">
         <v>527</v>
       </c>
-      <c r="C63" s="71"/>
+      <c r="C63" s="69"/>
       <c r="D63" s="50" t="s">
         <v>464</v>
       </c>
@@ -2959,7 +2959,7 @@
       <c r="A64" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="C64" s="71" t="s">
+      <c r="C64" s="69" t="s">
         <v>61</v>
       </c>
       <c r="D64" s="50" t="s">
@@ -2971,7 +2971,7 @@
         <v>495</v>
       </c>
       <c r="B65" s="53"/>
-      <c r="C65" s="71"/>
+      <c r="C65" s="69"/>
       <c r="D65" s="50" t="s">
         <v>466</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="53"/>
-      <c r="C66" s="71"/>
+      <c r="C66" s="69"/>
       <c r="D66" s="50" t="s">
         <v>467</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>30</v>
       </c>
       <c r="B67" s="53"/>
-      <c r="C67" s="71"/>
+      <c r="C67" s="69"/>
       <c r="D67" s="50" t="s">
         <v>468</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>528</v>
       </c>
       <c r="B68" s="53"/>
-      <c r="C68" s="71"/>
+      <c r="C68" s="69"/>
       <c r="D68" s="50" t="s">
         <v>469</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="53"/>
-      <c r="C69" s="71" t="s">
+      <c r="C69" s="69" t="s">
         <v>423</v>
       </c>
       <c r="D69" s="50" t="s">
@@ -3022,7 +3022,7 @@
       <c r="A70" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="71"/>
+      <c r="C70" s="69"/>
       <c r="D70" s="50" t="s">
         <v>425</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="53"/>
-      <c r="C71" s="71"/>
+      <c r="C71" s="69"/>
       <c r="D71" s="50" t="s">
         <v>56</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>529</v>
       </c>
       <c r="B72" s="53"/>
-      <c r="C72" s="71"/>
+      <c r="C72" s="69"/>
       <c r="D72" s="50" t="s">
         <v>426</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>35</v>
       </c>
       <c r="B73" s="53"/>
-      <c r="C73" s="71" t="s">
+      <c r="C73" s="69" t="s">
         <v>483</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -3064,7 +3064,7 @@
         <v>275</v>
       </c>
       <c r="B74" s="53"/>
-      <c r="C74" s="71"/>
+      <c r="C74" s="69"/>
       <c r="D74" s="3" t="s">
         <v>38</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>530</v>
       </c>
       <c r="B75" s="53"/>
-      <c r="C75" s="71"/>
+      <c r="C75" s="69"/>
       <c r="D75" s="3" t="s">
         <v>484</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>531</v>
       </c>
       <c r="B76" s="53"/>
-      <c r="C76" s="71"/>
+      <c r="C76" s="69"/>
       <c r="D76" s="3" t="s">
         <v>485</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>441</v>
       </c>
       <c r="B77" s="53"/>
-      <c r="C77" s="71"/>
+      <c r="C77" s="69"/>
       <c r="D77" s="3" t="s">
         <v>486</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>532</v>
       </c>
       <c r="B78" s="53"/>
-      <c r="C78" s="71"/>
+      <c r="C78" s="69"/>
       <c r="D78" s="3" t="s">
         <v>487</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>533</v>
       </c>
       <c r="B79" s="53"/>
-      <c r="C79" s="71" t="s">
+      <c r="C79" s="69" t="s">
         <v>91</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -3126,7 +3126,7 @@
         <v>12</v>
       </c>
       <c r="B80" s="53"/>
-      <c r="C80" s="71"/>
+      <c r="C80" s="69"/>
       <c r="D80" s="3" t="s">
         <v>67</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>534</v>
       </c>
       <c r="B81" s="53"/>
-      <c r="C81" s="71"/>
+      <c r="C81" s="69"/>
       <c r="D81" s="3" t="s">
         <v>68</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="A86" s="68" t="s">
         <v>538</v>
       </c>
-      <c r="C86" s="71" t="s">
+      <c r="C86" s="69" t="s">
         <v>419</v>
       </c>
       <c r="D86" s="50" t="s">
@@ -3191,19 +3191,19 @@
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="C87" s="71"/>
+      <c r="C87" s="69"/>
       <c r="D87" s="50" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="C88" s="71"/>
+      <c r="C88" s="69"/>
       <c r="D88" s="50" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="C89" s="71" t="s">
+      <c r="C89" s="69" t="s">
         <v>475</v>
       </c>
       <c r="D89" s="50" t="s">
@@ -3211,40 +3211,40 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="C90" s="71"/>
+      <c r="C90" s="69"/>
       <c r="D90" s="50" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="C91" s="71"/>
+      <c r="C91" s="69"/>
       <c r="D91" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="C92" s="71"/>
+      <c r="C92" s="69"/>
       <c r="D92" s="50" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="50" customFormat="1">
       <c r="B93" s="53"/>
-      <c r="C93" s="71"/>
+      <c r="C93" s="69"/>
       <c r="D93" s="50" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="50" customFormat="1">
       <c r="B94" s="53"/>
-      <c r="C94" s="71"/>
+      <c r="C94" s="69"/>
       <c r="D94" s="50" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="50" customFormat="1">
       <c r="B95" s="53"/>
-      <c r="C95" s="71"/>
+      <c r="C95" s="69"/>
       <c r="D95" s="50" t="s">
         <v>481</v>
       </c>
@@ -3260,7 +3260,7 @@
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="C98" s="71" t="s">
+      <c r="C98" s="69" t="s">
         <v>429</v>
       </c>
       <c r="D98" s="50" t="s">
@@ -3268,32 +3268,32 @@
       </c>
     </row>
     <row r="99" spans="2:4">
-      <c r="C99" s="71"/>
+      <c r="C99" s="69"/>
       <c r="D99" s="50" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="C100" s="71"/>
+      <c r="C100" s="69"/>
       <c r="D100" s="50" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="C101" s="71"/>
+      <c r="C101" s="69"/>
       <c r="D101" s="50" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="102" spans="2:4" s="50" customFormat="1">
       <c r="B102" s="53"/>
-      <c r="C102" s="71"/>
+      <c r="C102" s="69"/>
       <c r="D102" s="50" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="71" t="s">
+      <c r="C103" s="69" t="s">
         <v>434</v>
       </c>
       <c r="D103" s="50" t="s">
@@ -3301,19 +3301,19 @@
       </c>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="71"/>
+      <c r="C104" s="69"/>
       <c r="D104" s="50" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="105" spans="2:4">
-      <c r="C105" s="71"/>
+      <c r="C105" s="69"/>
       <c r="D105" s="50" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="71" t="s">
+      <c r="C106" s="69" t="s">
         <v>438</v>
       </c>
       <c r="D106" s="50" t="s">
@@ -3321,7 +3321,7 @@
       </c>
     </row>
     <row r="107" spans="2:4">
-      <c r="C107" s="71"/>
+      <c r="C107" s="69"/>
       <c r="D107" s="50" t="s">
         <v>30</v>
       </c>
@@ -3339,7 +3339,7 @@
       </c>
     </row>
     <row r="110" spans="2:4">
-      <c r="C110" s="71" t="s">
+      <c r="C110" s="69" t="s">
         <v>109</v>
       </c>
       <c r="D110" s="50" t="s">
@@ -3347,38 +3347,38 @@
       </c>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="71"/>
+      <c r="C111" s="69"/>
       <c r="D111" s="50" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="112" spans="2:4">
-      <c r="C112" s="71"/>
+      <c r="C112" s="69"/>
       <c r="D112" s="50" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="113" spans="2:4">
-      <c r="C113" s="71"/>
+      <c r="C113" s="69"/>
       <c r="D113" s="50" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="114" spans="2:4">
-      <c r="C114" s="71"/>
+      <c r="C114" s="69"/>
       <c r="D114" s="50" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="115" spans="2:4">
-      <c r="C115" s="71"/>
+      <c r="C115" s="69"/>
       <c r="D115" s="50" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="116" spans="2:4" s="50" customFormat="1">
       <c r="B116" s="53"/>
-      <c r="C116" s="71"/>
+      <c r="C116" s="69"/>
       <c r="D116" s="50" t="s">
         <v>69</v>
       </c>
@@ -3414,7 +3414,7 @@
       </c>
     </row>
     <row r="123" spans="2:4">
-      <c r="C123" s="71" t="s">
+      <c r="C123" s="69" t="s">
         <v>488</v>
       </c>
       <c r="D123" s="50" t="s">
@@ -3422,25 +3422,25 @@
       </c>
     </row>
     <row r="124" spans="2:4">
-      <c r="C124" s="71"/>
+      <c r="C124" s="69"/>
       <c r="D124" s="50" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="125" spans="2:4">
-      <c r="C125" s="71"/>
+      <c r="C125" s="69"/>
       <c r="D125" s="50" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="126" spans="2:4">
-      <c r="C126" s="71"/>
+      <c r="C126" s="69"/>
       <c r="D126" s="50" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="127" spans="2:4">
-      <c r="C127" s="71" t="s">
+      <c r="C127" s="69" t="s">
         <v>83</v>
       </c>
       <c r="D127" s="50" t="s">
@@ -3448,19 +3448,19 @@
       </c>
     </row>
     <row r="128" spans="2:4">
-      <c r="C128" s="71"/>
+      <c r="C128" s="69"/>
       <c r="D128" s="50" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="129" spans="3:4">
-      <c r="C129" s="71"/>
+      <c r="C129" s="69"/>
       <c r="D129" s="50" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="130" spans="3:4">
-      <c r="C130" s="72" t="s">
+      <c r="C130" s="70" t="s">
         <v>492</v>
       </c>
       <c r="D130" s="50" t="s">
@@ -3468,13 +3468,13 @@
       </c>
     </row>
     <row r="131" spans="3:4">
-      <c r="C131" s="72"/>
+      <c r="C131" s="70"/>
       <c r="D131" s="50" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="132" spans="3:4">
-      <c r="C132" s="72"/>
+      <c r="C132" s="70"/>
       <c r="D132" s="50" t="s">
         <v>472</v>
       </c>
@@ -3495,7 +3495,7 @@
       </c>
     </row>
     <row r="136" spans="3:4">
-      <c r="C136" s="71" t="s">
+      <c r="C136" s="69" t="s">
         <v>496</v>
       </c>
       <c r="D136" s="50" t="s">
@@ -3503,19 +3503,19 @@
       </c>
     </row>
     <row r="137" spans="3:4">
-      <c r="C137" s="71"/>
+      <c r="C137" s="69"/>
       <c r="D137" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="138" spans="3:4">
-      <c r="C138" s="71"/>
+      <c r="C138" s="69"/>
       <c r="D138" s="50" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="139" spans="3:4">
-      <c r="C139" s="71" t="s">
+      <c r="C139" s="69" t="s">
         <v>497</v>
       </c>
       <c r="D139" s="57" t="s">
@@ -3523,13 +3523,27 @@
       </c>
     </row>
     <row r="140" spans="3:4">
-      <c r="C140" s="71"/>
+      <c r="C140" s="69"/>
       <c r="D140" s="57" t="s">
         <v>498</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C110:C116"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C89:C95"/>
+    <mergeCell ref="C73:C78"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C88"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C2:C14"/>
     <mergeCell ref="C20:C22"/>
@@ -3544,20 +3558,6 @@
     <mergeCell ref="C35:C44"/>
     <mergeCell ref="C49:C53"/>
     <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C110:C116"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="C89:C95"/>
-    <mergeCell ref="C73:C78"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C88"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="Spring!A1" display="Spring"/>
@@ -5838,7 +5838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -6211,9 +6211,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
